--- a/users.xlsx
+++ b/users.xlsx
@@ -483,111 +483,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>613707</t>
+          <t>469893</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Drake</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], [nan, nan, nan], [nan, nan, nan], ['DREGGSSRNWGKHFFG', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itmc6b361e2ef2e6'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198']]</t>
+          <t>[['BZRGGG26TPY39J4T', 'BASICS\xa0Men Solid Tuxedo Style Casual Blazer', 'https://www.flipkart.com/basics-solid-tuxedo-style-casual-men-blazer/p/itm227bd292d11db'], ['ERGG3X8AESQZBGYN', 'shivay\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Hoop Earring, Stud Earring, Magnetic Earring, Tunnel Earring, Tassel Earring, Huggie Earring, Clip-on Earring, Magnetic Earring, Cuff Earring, Plug Earring', 'https://www.flipkart.com/shivay-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-cubic-zirconia-metal-earring-magnetic-tunnel-tassel-huggie-clip-on-cuff/p/itmaea1efd1dec75'], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['KETGMATFU4QPSNMM', 'sahil collection\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/sahil-collection-boys-festive-party-wedding-sherwani-churidar-set/p/itmce87213cfa454'], ['ERGFMZ5DZPAUKJS8', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M259 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m259-metal-earring-earring/p/itmfdc570dc463f1']]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['KPBGGZ3ZTZMWDS2Y', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itm13d3f1376ed20'], ['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['SHTGHQ6HGSGGWCWQ', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-grey-shirt/p/itm919c0f36bb89a'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['DREGKSWSBZWNZSH9', 'fashionwrld\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-a-line-multicolor-dress/p/itm571db53ad2432'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42']]</t>
+          <t>[['SGLFZCRCYYPS6HJX', 'Fair-x\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/fair-x-aviator-sunglasses/p/itm214678c66746e']]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005']]</t>
+          <t>[['SHOG8U2ZNSMGPZ7R', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itmc85efde1a1c3c'], [nan, nan, nan], ['ERGFGEQBZ3HSKYTG', 'V L INTERNATIONAL\xa0Bahubali Jhumki Maroon &amp; Green Color Gold Plating Oxidised Jhumka Earring Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-bahubali-jhumki-maroon-green-color-gold-plating-oxidised-jhumka-earring-alloy/p/itm2a26067155f71'], [nan, nan, nan], ['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446']]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>762381</t>
+          <t>576657</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[[None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['ETHGAT6DDANANQ7K', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6157867ed65b9'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201']]</t>
+          <t>[['SHOGMMHVCJSXBKMH', 'SHOEFLY\xa0Exclusive Attractive Collection of Stylish &amp; Comfortable Shoes &amp; Sneakers Boots For Men', 'https://www.flipkart.com/shoefly-exclusive-attractive-collection-stylish-comfortable-shoes-sneakers-boots-men/p/itm68366de37a72a'], ['KTAGM4H5KSVFHM96', 'Mattlook\xa0Women Printed Viscose Rayon Straight Kurta With Attached Dupatta', 'https://www.flipkart.com/mattlook-women-printed-straight-kurta/p/itmee809550a4065'], ['SHOFZ9R3DEXZB5TR', 'LIONS RIDER\xa0Slip On For Men', 'https://www.flipkart.com/lions-rider-slip-men/p/itma3d92e79df080'], ['SGLGHBYCVQHGYAQT', 'Ted Smith\xa0UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmdb3142fd891f7'], ['BZRGKFYZWM8YW92E', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma9a7bed92fa8b'], ['SGLGG6XYJRWCF6VU', 'Eymen I\xa0Riding Glasses, UV Protection, Polarized, Mirrored, Night Vision, Others Spectacle , Retro Square, Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/eymen-spectacle-retro-square-aviator-sunglasses/p/itm8b79a3d45f7e4']]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d']]</t>
+          <t>[['KTAG79B5XZT6HJJX', 'JD FINISHING\xa0Women Embellished Viscose Rayon A-line Kurta', 'https://www.flipkart.com/jd-finishing-women-embellished-a-line-kurta/p/itm2f77c858c507d'], ['SGLFZCRCYYPS6HJX', 'Fair-x\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/fair-x-aviator-sunglasses/p/itm214678c66746e']]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], [nan, nan, nan], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04'], ['DREGK5N74KNXDYYY', 'maruti fab\xa0Women Fit and Flare Yellow Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-yellow-dress/p/itm968df60d0fb1d'], ['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198']]</t>
+          <t>[['JEAGC5WUG4EFZHGA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm939f990d6db73'], ['BZRGCRSV2CGGMH9F', 'DKGF FASHION\xa0Men Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/dkgf-fashion-solid-single-breasted-casual-men-blazer/p/itm67ffe78118c1a'], [nan, nan, nan]]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>507939</t>
+          <t>784065</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Randy</t>
+          <t>Madeline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lawson</t>
+          <t>Wheeler</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -596,133 +596,133 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['DREGK5N7JNTFEGNH', 'maruti fab\xa0Women Fit and Flare Light Blue Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-light-blue-dress/p/itm2904de16bdfa7']]</t>
+          <t>[['KETG93ZYV6GJR9W6', 'PK Collection\xa0Baby Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/pk-collection-baby-boys-wedding-sherwani-churidar-set/p/itm4dbd995ae52c0'], ['SHOFZZTEAKJJCFSQ', 'World Wear Footwear\xa0Sneakers For Men', 'https://dl.flipkart.com/dl/world-wear-footwear-sneakers-men/p/itmae9b5d9c69575'], ['KTAFWNUYBFZPBDQ9', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmf62f03e6220a5'], ['KTAGPZCCK7URHYWK', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itm54c15e0c712e7']]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], [nan, nan, nan]]</t>
+          <t>[['ERGFMWQ8Q2MK97H3', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M204 Cubic Zirconia Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m204-cubic-zirconia-metal-earring-earring/p/itm65f1b1a4078a8'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b'], ['SGLGMHPGQZKHRGTG', 'Sunglance\xa0Riding Glasses, UV Protection, Night Vision Round, Cat-eye Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-round-cat-eye-sunglasses/p/itm047911875c1c7'], ['KTAGJMT6AXTGZ2GZ', 'DCPGARMENT\xa0Women Printed Cotton Rayon Straight Kurta', 'https://www.flipkart.com/dcpgarment-women-printed-straight-kurta/p/itm256563560ee8c'], [nan, nan, nan], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['BKPGMU5XWHZZ2E37', 'AMERICAN TOURISTER\xa027.5 L Laptop Backpack Valex', 'https://www.flipkart.com/american-tourister-valex-27-5-l-laptop-backpack/p/itm2672f35baa855'], ['SRWG4TW9HF2CQKSF', 'SEMINO Kids Indian Ethnic Handwork Embroidery Sherwani and Breeches Set With Dupatta Self Design SherwaniSEMINO Kids Indian Ethnic Handwork Embroidery Sherwani and Breeches Set With Dupatta Self Design Sherwani', 'https://www.flipkart.com/semino-self-design-sherwani/p/itmb3e606437108a'], ['SGLGG6XYJRWCF6VU', 'Eymen I\xa0Riding Glasses, UV Protection, Polarized, Mirrored, Night Vision, Others Spectacle , Retro Square, Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/eymen-spectacle-retro-square-aviator-sunglasses/p/itm8b79a3d45f7e4'], ['STBFWE59MCS8PNGW', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm70da6d7a59187']]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d']]</t>
+          <t>[['SRWGFNEWHZMQGYN5', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itme394de3bd5bd8'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], [nan, nan, nan], ['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], ['KTAGKK8AQDDYCD5V', 'LANYA FAB\xa0Women Printed Cotton Blend A-line Kurta', 'https://www.flipkart.com/lanya-fab-women-printed-a-line-kurta/p/itm6a2b96d7e4406'], ['STBFW59VEVBPXZGG', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel/p/itmfd0161d5b15b0'], [nan, nan, nan], ['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], ['KTAFWNUYUNPBVTAH', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmb54a7b68b42b3'], ['RKSGZ9HQQHFBA5KF', 'SAKSHI FASHION\xa0NEW Water Proof Mountain Rucksack/Trekking Bag Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-fashion-new-water-proof-mountain-rucksack-trekking-bag-rucksack-70-l/p/itmba47ce64b90ba']]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>177633</t>
+          <t>281469</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['KDEGN6P4WQGSPYX9', 'Manaitri\xa0Girls Midi/Knee Length Party Dress', 'https://dl.flipkart.com/dl/manaitri-girls-midi-knee-length-party-dress/p/itmf12bcf3590f06'], ['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a']]</t>
+          <t>[['LCHGKQHBGXJ9RMGZ', 'BVESH\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/bvesh-self-design-semi-stitched-lehenga-choli/p/itmbb425ab8990eb'], ['STBFWE59RW9YTGZP', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8f45129ca2ffc'], ['SGLF7RG56XMSYP8T', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf7spewgfzgexw'], ['SNDGHFRSSDMZTCHC', 'Svaar\xa0Men Off White Clogs Sandal', 'https://www.flipkart.com/svaar-men-off-white-clogs/p/itm349ca822122e1'], ['ERGFYREZGRYQ5YHC', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Ghungroo Hoop Jhumka Jhumkas Jhumki Bali Ear rings/ Earings / Earrings for girls women Golden Micro Antique -GOLD JHUMKI-ME136 Brass, Copper, Metal, Alloy Earring Set, Jhumki Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-ghungroo-hoop-jhumka-jhumkas-jhumki-bali-ear-rings-earings-earrings-girls-women-golden-micro-antique-gold-jhumki-me136-brass-copper-metal-alloy-earring-set-earring/p/itmad442c65d0a6a'], ['TOPGKRQ3VAZJZQCX', 'RJ FASHION\xa0Casual Regular Sleeves Striped Women White Top', 'https://dl.flipkart.com/dl/rj-fashion-casual-striped-women-white-top/p/itmf699748ea81bb'], ['STBFWE59PZPSKYSN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6cea415e3ffd5'], ['LCHG6Z4J5Y5FKBBB', 'Crissy\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-semi-stitched-lehenga-choli/p/itm8b6db1e54cf0e'], ['ERGFYZ86XARHRFQN', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden Peacock earrings jhumki Combo set jumkas small Stud Tops Meenakari Peacock Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design New 6 earrings-JHUMKI COMBO-ME09 Beads, Pearl Alloy, Metal, Enamel, Crystal, Zinc Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-peacock-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-new-6-earrings-jhumki-combo-me09-beads-pearl-alloy-metal-enamel-crystal-zinc-earring/p/itm8fbee90003bc8'], ['JEAFYQGSDHFVZNNV', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm0698668514d10']]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], [nan, nan, nan], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8']]</t>
+          <t>[['LCHGKQGDZJMBGCDG', 'BVESH\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/bvesh-self-design-semi-stitched-lehenga-choli/p/itma3a73f7ebf3db']]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c']]</t>
+          <t>[['ERGFYP4VDHZFFHSH', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME101 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-antique-gold-jhumki-me101-brass-copper-metal-alloy-jhumki-earring/p/itmcf0b98200c784'], ['ERGFYZ6X6NBNJFMD', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden earrings jhumki Combo set jumkas small Stud Tops Meenakari Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design daily use 6 earrings-JHUMKI COMBO-ME04 Pearl Metal Jhumki Earring, Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me04-pearl-metal-earring-earring/p/itma126cb1953d32'], ['JEAFYQJ6KBAYYBZ8', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm604d87fa43dc9'], ['TOPGD8VFB9DGDRDG', 'Sheetal Associates\xa0Casual Regular Sleeves Solid Women Black Top', 'https://www.flipkart.com/sheetal-associates-casual-solid-women-black-top/p/itmd23805866cb0f'], [nan, nan, nan], ['LCHGHMZSUAMBPGCY', 'SHRUSHTI\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/shrushti-embroidered-semi-stitched-lehenga-choli/p/itm2b92f2a9ccd6c'], ['ERGFG4JGPD6GHUF8', 'AMAAL\xa0Black Jhumka Earrings Bridal Wedding Traditional Gold Plated Kundan Moti jhumkas Pearl Copper, Brass Earring Set, Jhumki Earring', 'https://www.flipkart.com/amaal-black-jhumka-earrings-bridal-wedding-traditional-gold-plated-kundan-moti-jhumkas-pearl-copper-brass-earring-set-jhumki/p/itm0aa50c1bc8ff8']]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>932181</t>
+          <t>439629</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leslie</t>
+          <t>William</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tate</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], [nan, nan, nan], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['SHTFKGPQPEBNHMFP', '5TH ANFOLD\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/5th-anfold-men-solid-formal-grey-shirt/p/itm527b60fe36863'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d']]</t>
+          <t>[[nan, nan, nan], ['SRWG4TW9HF2CQKSF', 'SEMINO Kids Indian Ethnic Handwork Embroidery Sherwani and Breeches Set With Dupatta Self Design SherwaniSEMINO Kids Indian Ethnic Handwork Embroidery Sherwani and Breeches Set With Dupatta Self Design Sherwani', 'https://www.flipkart.com/semino-self-design-sherwani/p/itmb3e606437108a'], ['SGLFW24UKQHWGT9G', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmca1124c55358b'], [nan, nan, nan], [nan, nan, nan], ['KTAGPRMTFCJPW856', '7800 GROUP\xa0Pack of 2 Women Floral Print Crepe Frontslit Kurta', 'https://www.flipkart.com/7800-group-women-floral-print-frontslit-kurta/p/itm89f2af15bb8ab'], ['TDHFWDFUEMMVRGNJ', 'ABYS Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack\xa0\xa0(Pink)ABYS Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking/p/itm7ad97f2a81157'], ['SHOFJP8JHQ53BKWY', 'World Wear Footwear\xa0Running Shoes For Men Trekking Shoes,Comfortable For MenS Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-running-shoes-men-trekking-shoes-comfortable-men-s-sneakers/p/itm346aa535d0060'], ['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['SGLGG6XYJRWCF6VU', 'Eymen I\xa0Riding Glasses, UV Protection, Polarized, Mirrored, Night Vision, Others Spectacle , Retro Square, Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/eymen-spectacle-retro-square-aviator-sunglasses/p/itm8b79a3d45f7e4'], ['SRWGENU4PMKQGCAA', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itm3c13f483e1fac'], ['ERGG3TUFYGKGHHJA', 'NIMZ\xa0Mens &amp; Women Fashion Jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Combo Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced shape Bali Ear rings Stud Tops Mens Earing Combo for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Stainless Steel, Metal, Brass, Alloy Stud Earring, Hoop Earring, Plug Earring, Tunnel Earring, Earring Set, Clip-on Earring, Drops &amp; Danglers, Huggie Earring', 'https://www.flipkart.com/nimz-mens-women-fashion-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-combo-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-set-pack-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-multi-hoops-salman-khan-style-cubic-zirconia-steel-metal-brass-alloy-earring-tunnel-earring-set-clip-on-drops-danglers-huggie/p/itm5c820d3ea13b4'], ['ERGGYHZRTQUJ4SXZ', 'MEENAZ\xa0Fashion Multi jewellery Valentine Single Golden Silver Black Surgical Plug Hoops Ear piercing Studs Steel Jewelry Style Stylish Fancy Party wear Daily use simple Magnetic Round MultIcolor Bali Hoops Earrings Combo Set pierced Ear rings Stud Tops Round Dumbell Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry -MENS EARRINGS COMBO-ME36 Alloy, Metal, Stainless Steel, Brass, Steel Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multi-jewellery-valentine-single-golden-silver-black-surgical-plug-hoops-ear-piercing-studs-steel-jewelry-style-stylish-fancy-party-wear-daily-use-simple-magnetic-round-multicolor-bali-earrings-combo-set-pierced-rings-stud-tops-dumbell-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-pack-mens-combo-me36-alloy-metal-stainless-steel-brass-earring/p/itm1eb03158bdf33']]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['TSHGC74BK7FGJUHD', 'NB NICKY BOY\xa0Men Typography Round Neck Cotton Blend Black T-Shirt', 'https://www.flipkart.com/nb-nicky-boy-typography-men-round-neck-black-t-shirt/p/itme37ae4c45ba59'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['ETHGYA5FZKCRCKZ3', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6d37aebb829e3'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20']]</t>
+          <t>[['JEAFYQGSHZYTZP5K', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm5cbcb8da0787a'], ['ERGFFWPBMU4ZSRG4', 'AMAAL\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop - BALI-A101 Metal Hoop Earring', 'https://www.flipkart.com/amaal-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-a101-metal-earring/p/itm0c0746afddfe7'], ['JEAGFTUKN3CWHMXA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma1569172cad1a'], ['KETGEM3WGKAJ8DFC', 'LAVISH CLUB\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/lavish-club-boys-festive-party-sherwani-churidar-set/p/itm2938a0bb94e00'], ['KTAFTA63UCB95RVD', 'ANTARMANA\xa0Women Block Print Viscose Rayon Flared Kurta', 'https://www.flipkart.com/antarmana-women-block-print-flared-kurta/p/itm2c2525e21fe7c']]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c']]</t>
+          <t>[['JEAGJZYBGAHHSGBF', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8bdcd3b9b07c5'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], ['TVPGE9GW6WC9GMHQ', 'UNICRAFT Waist Bag\xa0\xa0(Red)UNICRAFT Waist Bag', 'https://www.flipkart.com/unicraft-waist-bag/p/itm8e4dd15a292c2'], ['KTAGPZCCFGEWBSHF', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itm3521f0a6cbe6e'], ['JEAFYQGSVQQZBTCF', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm02611950d653e'], ['SOCGGZB9Z6HHFDZS', 'GOLDINKS\xa0Men Striped Ankle Length', 'https://www.flipkart.com/goldinks-men-striped-ankle-length/p/itm24462574540ba'], ['JEAGGZFTMQZKRKAJ', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm3ddb994bb8b2f']]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>951495</t>
+          <t>462351</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Jonathon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sutton</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -731,79 +731,79 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13']]</t>
+          <t>[['JEAFYQGSDHFVZNNV', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm0698668514d10'], ['ERGGFZBGHPGVZZPY', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -MENS EARRINGS COMBO-ME62 Metal Stud Earring, Hoop Earring, Earring Set, Clip-on Earring, Magnetic Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-mens-combo-me62-metal-earring-earring-set-clip-on/p/itmedca84a53fbc2'], ['JEAFYQGSDHFVZNNV', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm0698668514d10'], [nan, nan, nan], ['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn'], ['SHOGG7HV7GJMDESK', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itm0b2b80780b934'], ['ERGFGEQBZ3HSKYTG', 'V L INTERNATIONAL\xa0Bahubali Jhumki Maroon &amp; Green Color Gold Plating Oxidised Jhumka Earring Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-bahubali-jhumki-maroon-green-color-gold-plating-oxidised-jhumka-earring-alloy/p/itm2a26067155f71'], ['BZRGKFYZWM8YW92E', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma9a7bed92fa8b'], ['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], ['SGLGGKSVGBGE3YF9', 'Ted Smith\xa0Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm88e36b022bba3'], ['SRWGHXHQXSSCYGA4', 'DEYANN Woven SherwaniDEYANN Woven Sherwani', 'https://www.flipkart.com/deyann-woven-sherwani/p/itm665c82df09bf3'], ['KTAFX877KMFPFHHA', 'JD FINISHING\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/jd-finishing-women-printed-straight-kurta/p/itm332d91c69fda6'], ['JEAGCNQUCFMSTHKV', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm90eb58a441b97'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['DREGKSWSBZWNZSH9', 'fashionwrld\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-a-line-multicolor-dress/p/itm571db53ad2432'], ['DREG6UP2BEEXXRZA', '7800 GROUP\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/7800-group-women-a-line-multicolor-dress/p/itm413f14c9bb0a8'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0']]</t>
+          <t>[['KETG93ZYV6GJR9W6', 'PK Collection\xa0Baby Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/pk-collection-baby-boys-wedding-sherwani-churidar-set/p/itm4dbd995ae52c0'], ['SHOFH5SHAFQMTHZB', 'CAMRO\xa0Hulk-02 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-02-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm672804cec90c1'], ['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['BZRGMCPS6QFBFYCB', 'Naksh style\xa0Women Solid Double Breasted Formal Blazer', 'https://dl.flipkart.com/dl/naksh-style-solid-double-breasted-formal-women-blazer/p/itmb053fd8d30e45'], ['SUIGKGVNQZPFCK4H', 'TAHVO\xa0Men Black Tuxedo men suit Solid Suit', 'https://www.flipkart.com/tahvo-black-tuxedo-men-suit-solid/p/itm869b69c0eac13'], ['SUIGJNWUPFTYPTB8', 'ikichic\xa0Women Blazer and Trousers Solid Suit', 'https://www.flipkart.com/ikichic-blazer-trousers-solid-women-suit/p/itm1d8098709ef8a'], ['SGLFWFRE6FUDZMCC', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmc1ff38cb1bdca'], ['TVPGE9GW6WC9GMHQ', 'UNICRAFT Waist Bag\xa0\xa0(Red)UNICRAFT Waist Bag', 'https://www.flipkart.com/unicraft-waist-bag/p/itm8e4dd15a292c2'], ['KTAGJQF9G5NHSFCM', 'RAGMINE\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/ragmine-women-printed-straight-kurta/p/itm730ab91e97103'], ['SHOFZ9R3DEXZB5TR', 'LIONS RIDER\xa0Slip On For Men', 'https://www.flipkart.com/lions-rider-slip-men/p/itma3d92e79df080'], ['KETGMATFU4QPSNMM', 'sahil collection\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/sahil-collection-boys-festive-party-wedding-sherwani-churidar-set/p/itmce87213cfa454'], ['SUIGHJKZUZHRWEES', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itmf571baf78d2a2'], ['KETG5K39QM3JP87W', 'SEMINO\xa0Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/semino-boys-wedding-sherwani-churidar-set/p/itmfffb9d305cbff'], ['JEAGJ4YGATHBBKRV', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm04eca49c50ec0'], ['ERGFGFTETUXZADXG', 'V L INTERNATIONAL\xa0Peacock oxidised Silver Plated Jhumka Earring Jewellery For Girls Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-peacock-oxidised-silver-plated-jhumka-earring-jewellery-girls-alloy-jhumki/p/itm364c7616e5280']]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], [nan, nan, nan], ['KDEGN6P4WQGSPYX9', 'Manaitri\xa0Girls Midi/Knee Length Party Dress', 'https://dl.flipkart.com/dl/manaitri-girls-midi-knee-length-party-dress/p/itmf12bcf3590f06'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['DREGGSSRNWGKHFFG', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itmc6b361e2ef2e6'], [nan, nan, nan], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8']]</t>
+          <t>[[nan, nan, nan], ['BZRGNH22GGMAYMMF', 'Click One\xa0Men &amp; Women Solid Double Breasted Formal Blazer', 'https://www.flipkart.com/click-one-solid-double-breasted-formal-men-women-blazer/p/itmcc19802f2f97b'], ['ERGG82YRAUX54QNP', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour Triangle square shape Boy earrings -MENS EARRING COMBO-ME128 Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-triangle-square-shape-boy-mens-combo-me128-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itm139d492d5186b'], [nan, nan, nan], ['ERGGMHHGFTBCK3GT', 'Shoshaa\xa0Gold-Plated handcrafted Sea Green Kundan-Studded Beaded Classic Drop Earrings Brass Drops &amp; Danglers', 'https://www.flipkart.com/shoshaa-gold-plated-handcrafted-sea-green-kundan-studded-beaded-classic-drop-earrings-brass-drops-danglers/p/itmb83f1c2fb1503'], ['ERGG4GE5FQPARSC4', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops Mens Earing Earrings for Men may Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop bali -MENS EARRING COMBO-ME76 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-mens-combo-me76-crystal-cubic-zirconia-diamond-alloy-metal-stainless-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itm38d95c95d8c9a']]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>274377</t>
+          <t>112269</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ayers</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[['ETHGAT6DDANANQ7K', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6157867ed65b9'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['ETHGYA5FZKCRCKZ3', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6d37aebb829e3'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930']]</t>
+          <t>[['TOPGM57MHGFQKD8K', 'Q-Rious\xa0Casual Sleeveless Solid Women Brown Top', 'https://www.flipkart.com/q-rious-casual-solid-women-brown-top/p/itmc197100049533'], ['LCHGB7J9G95F8AZB', 'Crissy\xa0Solid, Self Design, Striped Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-solid-self-design-striped-semi-stitched-lehenga-choli/p/itmc5a279e03746e'], ['SARG9YPYYVSPZCEM', 'Bansari Textiles\xa0Embellished, Applique Bollywood Jacquard, Art Silk Saree', 'https://www.flipkart.com/bansari-textiles-embellished-applique-bollywood-jacquard-art-silk-saree/p/itmb8b675999899f'], [nan, nan, nan], ['STBGPYH3YXYXJHC2', 'ABYS\xa0Genuine Leather New Trendy Sling Bag Small Travel Bag', 'https://www.flipkart.com/abys-genuine-leather-new-trendy-sling-bag-small-travel/p/itm7138eacabe24d'], ['ERGFG3ZTRMNRFYPH', 'AMAAL\xa0Jhumka Bridal Wedding Traditional Gold Plated Kundan Moti jhumkas Ear rings Pearl Copper, Brass Earring Set, Jhumki Earring', 'https://www.flipkart.com/amaal-jhumka-bridal-wedding-traditional-gold-plated-kundan-moti-jhumkas-ear-rings-pearl-copper-brass-earring-set-jhumki/p/itme02a809624072'], ['SNDFZM8ZAACHCPM8', 'BLINDER\xa0Women Off White Flats Sandal', 'https://www.flipkart.com/blinder-women-off-white-flats/p/itm16cdd1520bfee'], ['SNDGAV8WADMQA3ZT', 'SFR\xa0Men Grey, Orange Clogs Sandal', 'https://www.flipkart.com/sfr-men-grey-orange-clogs/p/itm23ed71a06cffa'], ['STBFVU6DZQTHBSCK', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm401426d637ade'], ['SHOFNFG6HUKEBKME', 'Shoe Island\xa0Solid-X Dark Green Olive Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-dark-green-olive-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm3944310efb633'], ['JEAGCNQUCFMSTHKV', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm90eb58a441b97'], ['SARG7H6CWNZN6MZX', 'Flip The Style\xa0Solid/Plain, Checkered Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-solid-plain-checkered-bollywood-georgette-chiffon-saree/p/itm13212210444aa'], ['ERGFPDR3RGTHCXDA', 'MEENAZ\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Ear rings for girls women Golden Ruby Copper, Brass Drops &amp; Danglers, Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-ear-rings-girls-women-golden-ruby-copper-brass-drops-danglers-earring-set-jhumki/p/itm3259580a66aef'], ['STBFW59VEVBPXZGG', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel/p/itmfd0161d5b15b0']]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['ETHGAT6DDANANQ7K', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6157867ed65b9'], ['KDEGN6P4WQGSPYX9', 'Manaitri\xa0Girls Midi/Knee Length Party Dress', 'https://dl.flipkart.com/dl/manaitri-girls-midi-knee-length-party-dress/p/itmf12bcf3590f06'], ['KPBGGZ3ZTZMWDS2Y', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itm13d3f1376ed20'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['SHTFKGPQPEBNHMFP', '5TH ANFOLD\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/5th-anfold-men-solid-formal-grey-shirt/p/itm527b60fe36863'], [nan, nan, nan], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070']]</t>
+          <t>[['JEAFYQGSFQ2DMMCZ', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm5c752589f953b'], ['HMBGZFFVYDKQQBY7', 'ENSAC\xa0Women Pink, Black Shoulder Bag', 'https://www.flipkart.com/ensac-women-pink-black-shoulder-bag/p/itma936217eaf34e'], ['SHOEKTVTC3SW8XN8', 'Shoe Island\xa0Popular Designer Leatherette Tan Brown High Ankle Length Casual Boots For Men Boots For Men', 'https://www.flipkart.com/shoe-island-popular-designer-leatherette-tan-brown-high-ankle-length-casual-boots-men/p/itmf3xw5ezdhgsjn'], ['ERGFYQZXGRKUGMPE', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Antique Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME120 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-antique-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-gold-jhumki-me120-brass-copper-metal-alloy-jhumki-earring/p/itm11d8b61ff6862'], ['SNDGH7536RAY7XED', 'World Wear Footwear\xa0Men White Flats Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-flats/p/itmad71856cd889b'], ['LCHGHMZSUAMBPGCY', 'SHRUSHTI\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/shrushti-embroidered-semi-stitched-lehenga-choli/p/itm2b92f2a9ccd6c'], [nan, nan, nan], ['JEAGCNQZQ7MKRKWJ', 'MUFTI\xa0Men Skinny Low Rise Black Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itmadbb475452218'], ['SHOGJ9K9JCZFFWRY', 'Shoe Island\xa0Robust-X ™ Leather Dark Brown Tough Lace Ups High Ankle Length Mens Casual Boots Boots For Men', 'https://www.flipkart.com/shoe-island-robust-x-leather-dark-brown-tough-lace-ups-high-ankle-length-mens-casual-boots-men/p/itm2a497534f8478'], ['ERGFYZ6X6NBNJFMD', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden earrings jhumki Combo set jumkas small Stud Tops Meenakari Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design daily use 6 earrings-JHUMKI COMBO-ME04 Pearl Metal Jhumki Earring, Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me04-pearl-metal-earring-earring/p/itma126cb1953d32']]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45']]</t>
+          <t>[[nan, nan, nan], [nan, nan, nan], ['SNDGMYFM8WQYZVG5', 'World Wear Footwear\xa0Men White Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-clogs/p/itm05bdbe9989203'], [nan, nan, nan], ['LCHGYHNXJGZZJP9Q', 'aadhiya impex\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/aadhiya-impex-embroidered-semi-stitched-lehenga-choli/p/itmad2b1d0ce3007'], ['TOPGQ8USK4GZEFBP', 'ALEAF\xa0Casual Regular Sleeves Striped Women Black Top', 'https://www.flipkart.com/aleaf-casual-striped-women-black-top/p/itm96edb491303a9'], ['SARGGZDN8HP68U9V', 'Heerali\xa0Embellished Bollywood Lycra Blend Saree', 'https://www.flipkart.com/heerali-embellished-bollywood-lycra-blend-saree/p/itm47eca91f7551c']]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>493545</t>
+          <t>936165</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Travis</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -812,97 +812,97 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Swaziland</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[[nan, nan, nan], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['SHOGKZTUYG8V4G6H', 'bacca bucci\xa0ALDER 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-alder-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itmf9788a1b24ed2'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e']]</t>
+          <t>[['ERGFMVYMHJM5BHWT', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-ME186 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-me186-metal-earring-earring/p/itmca91378d859b1'], ['ERGG7MHUDVDNW8HV', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME95 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me95-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmc82b9b0c0ffbc'], ['SRWG834BZMUDQKM6', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itmfaf076414021d'], ['KETGHZYJBUZRTVNZ', 'AJ Dezines\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-wedding-sherwani-churidar-set/p/itm3f8b7464214ed'], ['JEAG74HFHHZZV6PG', 'KETCH\xa0Men Tapered Fit Mid Rise Blue Jeans', 'https://www.flipkart.com/ketch-tapered-fit-men-blue-jeans/p/itme476bd07f8aef']]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192']]</t>
+          <t>[['KTAFWNUYBFZPBDQ9', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmf62f03e6220a5']]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['DREGK5N74KNXDYYY', 'maruti fab\xa0Women Fit and Flare Yellow Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-yellow-dress/p/itm968df60d0fb1d'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], [nan, nan, nan]]</t>
+          <t>[['SGLGHBYAZFC4RGV5', 'Ted Smith\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm8da06b3c243bc'], ['SGLFW24UKQHWGT9G', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmca1124c55358b'], ['JEAGF5JU7PKYFBYN', 'KETCH\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/ketch-skinny-men-grey-jeans/p/itmb07971c2f06d5'], [nan, nan, nan], ['JEAGJ4YHVKPYEDKR', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8636bb66e8926'], ['ERGFGFTETUXZADXG', 'V L INTERNATIONAL\xa0Peacock oxidised Silver Plated Jhumka Earring Jewellery For Girls Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-peacock-oxidised-silver-plated-jhumka-earring-jewellery-girls-alloy-jhumki/p/itm364c7616e5280'], ['SGLFYHEVCZYJYF4T', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm61a1dd6e234c0'], ['RKSGND7KGXDHUDH8', 'mukay\xa0Rucksacks Bag Rucksack  - 55 L', 'https://www.flipkart.com/mukay-rucksacks-bag-rucksack-55-l/p/itm880f9bec41e22'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b'], ['SGLF7RG56XMSYP8T', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf7spewgfzgexw'], ['ERGGFSHZXPPPA6QQ', 'Karishma Kreations\xa0Mens Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Metal Stud Earring, Hoop Earring, Earring Set, Huggie Earring, Plug Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-metal-earring-earring-set-huggie-cuff/p/itmd8afe8590df5c'], ['SUIGHJKZATEMH7VC', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itm005265b2a9a7b'], ['SGLFXJXZRWKCV6AF', 'Eyewearlabs\xa0Polarized, UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/eyewearlabs-aviator-sunglasses/p/itm3f85427e33d37'], ['JEAGC5WZGSSSEVP3', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm6222d4620ce65']]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>821733</t>
+          <t>214251</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Teresa</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>British Virgin Islands</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[['DREGK5N7FGKW56HH', 'maruti fab\xa0Women Fit and Flare Green, Black Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-green-black-dress/p/itmc94e7722920e1'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21'], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda']]</t>
+          <t>[['SHOFJP8JHQ53BKWY', 'World Wear Footwear\xa0Running Shoes For Men Trekking Shoes,Comfortable For MenS Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-running-shoes-men-trekking-shoes-comfortable-men-s-sneakers/p/itm346aa535d0060'], ['SHOFVD5FHD9QZDDX', 'CAMRO\xa0Hulk-01 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-01-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm1f5d5fc421b8b']]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], [nan, nan, nan], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a']]</t>
+          <t>[['HMBG4PXPTFF5ZCVV', 'ABYS\xa0Men &amp; Women Pink, Blue Messenger Bag - Regular Size', 'https://www.flipkart.com/abys-men-women-pink-blue-messenger-bag/p/itm0e014c86b1526'], ['SHOGPJWYJHUFGRG6', 'Aragats\xa0Boots For Men', 'https://www.flipkart.com/aragats-boots-men/p/itm3fffac64674b1'], ['SGLGHBYAZFC4RGV5', 'Ted Smith\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm8da06b3c243bc'], ['SGLEXSP7WYMZQKKQ', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmf3ykeg4ehggfs'], ['SGLF7RG56XMSYP8T', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf7spewgfzgexw'], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['KETFNFUVQGBQQWPE', 'AJ Dezines\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-wedding-sherwani-churidar-set/p/itmba461eb54fb09'], ['SGLGQ8VYM22C2FQ7', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itmf4d5ff1d96d81'], ['SRWGZ4QDRYHUAVPM', 'ZARAK FASHION Mens Indo Western Sherwani Wedding Dress for Men Ethnic Wear - Green Embroidered SherwaniZARAK FASHION Mens Indo Western Sherwani Wedding Dress for Men Ethnic Wear - Green Embroidered Sherwani', 'https://www.flipkart.com/zarak-fashion-mens-indo-western-sherwani-wedding-dress-men-ethnic-wear-green-embroidered/p/itmfdb05b2ef879d'], ['JEAFYQGSZDBNCRDT', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm405fce9d65e57'], ['ERGG82DH5QRGZRUU', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME114 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me114-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmcb84f374161ba']]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], [nan, nan, nan], ['SHTGAHWSTTQRKDKS', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-blue-shirt/p/itm9b2791f9585ea']]</t>
+          <t>[[nan, nan, nan], ['KTAGJQF9GCNAFVRW', 'RAGMINE\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/ragmine-women-printed-straight-kurta/p/itmcd891c4aacedb'], [nan, nan, nan], ['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by'], ['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['SHOGYB8GAUKB2TNG', 'World Wear Footwear\xa0Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-walking-shoes-men/p/itmb9a4fda4567d0'], ['WSBFW2VBDZKYYYAN', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown/p/itm69c2f7bcc62cd'], ['KTAFWNUYBFZPBDQ9', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmf62f03e6220a5'], ['BZRFY6BZJRWPG9YG', 'Honey Fashion\xa0Men Solid Tuxedo Style Casual, Party, Festive &amp; Wedding Blazer', 'https://www.flipkart.com/honey-fashion-solid-tuxedo-style-casual-party-festive-wedding-men-blazer/p/itm40ac201244f7d'], ['ERGGPYJSPDFGTKQS', 'TLGS\xa0Golden Chand Bali Chilai Texture Simple Design for Boys Men Brass, Copper Hoop Earring', 'https://www.flipkart.com/tlgs-golden-chand-bali-chilai-texture-simple-design-boys-men-brass-copper-hoop-earring/p/itmb4c0dcdfc56f1'], [nan, nan, nan]]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>130965</t>
+          <t>591243</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lindsey</t>
+          <t>George</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -911,129 +911,129 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[['KDEGN27KFNSCUQYE', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm9b97310e84545'], ['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d'], [nan, nan, nan], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb']]</t>
+          <t>[[nan, nan, nan], ['SGLEC9FKPFYMHZJT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (55)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmec9fkzzxwky2g'], ['LCHGHKJQKCHRECBA', 'SHRUSHTI\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/shrushti-embroidered-semi-stitched-lehenga-choli/p/itmf47b8120fdf16'], ['SARFYTNPB5N7HDJ9', 'Flip The Style\xa0Printed Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-chiffon-saree/p/itm8e8079a36d874']]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f'], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['KDEGN27KFNSCUQYE', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm9b97310e84545'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3']]</t>
+          <t>[[nan, nan, nan], ['SGLFYHEVCZYJYF4T', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm61a1dd6e234c0'], ['ERGFX3MEP4TCK94C', 'Divastri\xa0Bridal Wedding Traditional Gold Pearl Peacock Kundan Jhumkas/ Jhumka/ Jhumki Earrings For Women Girls Pearl Copper, Metal Jhumki Earring', 'https://www.flipkart.com/divastri-bridal-wedding-traditional-gold-pearl-peacock-kundan-jhumkas-jhumka-jhumki-earrings-women-girls-copper-metal-earring/p/itmb8e2529f6a687'], ['TOPGEWMF5ZQTRGPF', 'KASSUALLY\xa0Casual Sleeveless Printed Women Black Top', 'https://www.flipkart.com/kassually-casual-printed-women-black-top/p/itm04997ecff514a'], ['ERGFPDR94Y2Z6YKY', 'MEENAZ\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Ear rings for girls women Golden Ruby Copper, Brass Drops &amp; Danglers, Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-ear-rings-girls-women-golden-ruby-copper-brass-drops-danglers-earring-set-jhumki/p/itm1fda93b96ec89'], ['SNDGHF8XUBVGDF2M', 'BERSACHE\xa0Men Grey Clogs Sandal', 'https://www.flipkart.com/bersache-men-grey-clogs/p/itmb65e73bc4b051']]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070']]</t>
+          <t>[[nan, nan, nan], ['ERGGHXFW2CJRNSVQ', 'MEENAZ\xa0peacock jhumki Jhumka jhumkas south indian temple moti Wedding Traditional party Pearl, Beads, Crystal, Cubic Zirconia, Diamond Brass, Stone, Metal, Alloy, Copper Clip-on Earring, Drops &amp; Danglers, Earring Set, Jhumki Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-peacock-jhumki-jhumka-jhumkas-south-indian-temple-moti-wedding-traditional-party-pearl-beads-crystal-cubic-zirconia-diamond-brass-stone-metal-alloy-copper-clip-on-earring-drops-danglers-earring-set-hoop/p/itm0763d58cc6e06'], ['ERGFW8ZVGCYU9ZAM', 'Divastri\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Antique Micro Ear rings for girls women Golden Brass, Copper Jhumki Earring, Earring Set, Drops &amp; Danglers', 'https://www.flipkart.com/divastri-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-antique-micro-ear-rings-girls-women-golden-brass-copper-jhumki-earring-earring-set-drops-danglers/p/itmde5584d3b5298'], ['SARGPH5DSCTEVZ78', 'KRISHNA NX\xa0Printed Bandhani Pure Cotton Saree', 'https://www.flipkart.com/krishna-nx-printed-bandhani-pure-cotton-saree/p/itm0fea34bad0c21'], ['SNDGGJYWZSUCYAHH', 'Squash\xa0Men Tan, White Flats Sandal', 'https://www.flipkart.com/squash-men-tan-white-flats/p/itm67e1af295b360'], ['JEAFYQGSPDPXUW4Z', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm3b1002f19dbed'], ['SNDGMDQ7WUVRTSV6', 'World Wear Footwear\xa0Men White, Green Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-green-clogs/p/itm056e043888b8a'], ['DREGEFGH6JZAUAG6', 'KASSUALLY\xa0Women Maxi Black Dress', 'https://www.flipkart.com/kassually-women-maxi-black-dress/p/itmcd04e97dbe69f'], ['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn']]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>503265</t>
+          <t>478323</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[['SHOG7DM3AXNK9DKV', 'bacca bucci\xa0MOUNTAIN Splash proof full Grain Leather biker Boots Trekking Hiking with Fur Boots For Men', 'https://www.flipkart.com/bacca-bucci-mountain-splash-proof-full-grain-leather-biker-boots-trekking-hiking-fur-men/p/itm6b40c995e679e'], [nan, nan, nan], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], [nan, nan, nan], ['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['SHTGMK2YHQWFZY3U', 'VTEXX\xa0Men Regular Fit Solid Cut Away Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-white-shirt/p/itmc5dc05890b7d7']]</t>
+          <t>[['WSBFQ3GG28HCQFC8', 'SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag\xa0\xa0(Pink)SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag', 'https://www.flipkart.com/spice-art-women-s-solid-pu-latest-designer-sling-bag-fanny-pack-crossbody-waist-pink-color/p/itm1d791275f1d0e'], ['KTAGM4H5KSVFHM96', 'Mattlook\xa0Women Printed Viscose Rayon Straight Kurta With Attached Dupatta', 'https://www.flipkart.com/mattlook-women-printed-straight-kurta/p/itmee809550a4065'], ['SHOGYXEMFYEYH5QV', 'HX London\xa0Brogues Ankle Boots For Men', 'https://www.flipkart.com/hx-london-brogues-ankle-boots-men/p/itm70d0374f45da0'], ['KTAGK4KKMUSV3TTE', 'Ladli Fashion\xa0Women Striped Cotton Blend A-line Kurta', 'https://www.flipkart.com/ladli-fashion-women-striped-a-line-kurta/p/itm9c2675e2603a2'], ['ERGG5RVVA4PEZW38', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME82 Metal Huggie Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me82-metal-huggie/p/itmca2bcdf7c6ffa'], [nan, nan, nan], ['CLTG96EFCQV79MSQ', 'WROOTED\xa0Party Gold  Clutch  - Regular Size', 'https://www.flipkart.com/wrooted-party-gold-clutch/p/itm82e9bbdbfd672'], ['TDHFWDFUEMMVRGNJ', 'ABYS Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack\xa0\xa0(Pink)ABYS Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking/p/itm7ad97f2a81157'], ['ERGGMHHGFTBCK3GT', 'Shoshaa\xa0Gold-Plated handcrafted Sea Green Kundan-Studded Beaded Classic Drop Earrings Brass Drops &amp; Danglers', 'https://www.flipkart.com/shoshaa-gold-plated-handcrafted-sea-green-kundan-studded-beaded-classic-drop-earrings-brass-drops-danglers/p/itmb83f1c2fb1503'], ['JEAGJ4YHVKPYEDKR', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8636bb66e8926'], ['SGLGQ8VYM22C2FQ7', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itmf4d5ff1d96d81'], ['JEAGGP6VKH4PYBRD', 'Styzon\xa0Men Boyfriend Mid Rise Blue Jeans', 'https://www.flipkart.com/styzon-boyfriend-men-blue-jeans/p/itmf7c8fe480bc9f'], [nan, nan, nan], ['KETGCYUFZZEPKHFV', 'KAVSHIL\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/kavshil-boys-festive-party-sherwani-churidar-set/p/itm0d764d376701f']]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['KPBGGZ3ZTZMWDS2Y', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itm13d3f1376ed20'], ['TSHGC74BK7FGJUHD', 'NB NICKY BOY\xa0Men Typography Round Neck Cotton Blend Black T-Shirt', 'https://www.flipkart.com/nb-nicky-boy-typography-men-round-neck-black-t-shirt/p/itme37ae4c45ba59'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d']]</t>
+          <t>[['ERGFFWPBMU4ZSRG4', 'AMAAL\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop - BALI-A101 Metal Hoop Earring', 'https://www.flipkart.com/amaal-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-a101-metal-earring/p/itm0c0746afddfe7'], ['SGLGE589JEKDUTPZ', 'FASHINITY\xa0UV Protection Aviator, Spectacle  Sunglasses (54)', 'https://www.flipkart.com/fashinity-aviator-spectacle-sunglasses/p/itm9e49a945cd0b1'], ['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], ['BKPGMU5XYZADGAKP', 'AMERICAN TOURISTER\xa027.5 L Laptop Backpack Valex', 'https://www.flipkart.com/american-tourister-valex-27-5-l-laptop-backpack/p/itm17b521a7d880e'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b'], ['ERGG4GE5FQPARSC4', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops Mens Earing Earrings for Men may Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop bali -MENS EARRING COMBO-ME76 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-mens-combo-me76-crystal-cubic-zirconia-diamond-alloy-metal-stainless-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itm38d95c95d8c9a'], ['JEAG74HFHHZZV6PG', 'KETCH\xa0Men Tapered Fit Mid Rise Blue Jeans', 'https://www.flipkart.com/ketch-tapered-fit-men-blue-jeans/p/itme476bd07f8aef'], ['KTAFWNUYUNPBVTAH', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmb54a7b68b42b3']]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['DREG6UP2BEEXXRZA', '7800 GROUP\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/7800-group-women-a-line-multicolor-dress/p/itm413f14c9bb0a8'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['DREGK5N7JNTFEGNH', 'maruti fab\xa0Women Fit and Flare Light Blue Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-light-blue-dress/p/itm2904de16bdfa7'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c']]</t>
+          <t>[['SGLF7G35GZPDJRHE', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf7g4pezzem77y'], ['SRWG4TW9HF2CQKSF', 'SEMINO Kids Indian Ethnic Handwork Embroidery Sherwani and Breeches Set With Dupatta Self Design SherwaniSEMINO Kids Indian Ethnic Handwork Embroidery Sherwani and Breeches Set With Dupatta Self Design Sherwani', 'https://www.flipkart.com/semino-self-design-sherwani/p/itmb3e606437108a'], ['BZRGKFYZWM8YW92E', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma9a7bed92fa8b'], ['SHOGHQ35UK4SHADX', 'Floarkart\xa03 Inch Hidden Height Increasing All Purpose Elevator Sports Casual Shoes for Men Sneakers For Men', 'https://www.flipkart.com/floarkart-3-inch-hidden-height-increasing-all-purpose-elevator-sports-casual-shoes-men-sneakers/p/itma6f71f6af180c'], ['JEAGGNWFNGRWHTMC', 'MUFTI\xa0Men Tapered Fit Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-tapered-fit-men-grey-jeans/p/itmf1d31dcc97c6f']]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>805755</t>
+          <t>944001</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Renee</t>
+          <t>Yvette</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Holder</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], [nan, nan, nan], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['SHTGMK2Y7JKGZKCE', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-grey-shirt/p/itmc34659b21c380'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['SHTFKGPQPEBNHMFP', '5TH ANFOLD\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/5th-anfold-men-solid-formal-grey-shirt/p/itm527b60fe36863'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad']]</t>
+          <t>[['LCHGZ7DVUQM5GBWF', 'DHAVDI ENTERPRISE\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-embroidered-semi-stitched-lehenga-choli/p/itme9c9d6c640af8'], ['TOPGZS3XV3GH5NUT', 'Sheetal Associates\xa0Casual Flared Sleeves Printed Women Multicolor Top', 'https://www.flipkart.com/sheetal-associates-casual-printed-women-multicolor-top/p/itm027cc1fdb7462'], ['LCHGCYJRTVHGY2GY', 'patlani\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/patlani-embroidered-semi-stitched-lehenga-choli/p/itm4b81c0c03846a'], ['JEAGJ4YHVKPYEDKR', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8636bb66e8926'], ['SHOF29PYE5EVUG99', 'WELDONE\xa02_PAIR_COMBO Loafers For Men', 'https://www.flipkart.com/weldone-2-pair-combo-loafers-men/p/itmf3xz9znbdgsbs'], ['ERGGFFNFRRFHPGJZ', 'Fashion Fusion\xa0Small Colorful Jhumka Alloy Jhumki Earring', 'https://www.flipkart.com/fashion-fusion-small-colorful-jhumka-alloy-jhumki-earring/p/itm72db616607fa3'], ['ERGFYP4VDHZFFHSH', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME101 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-antique-gold-jhumki-me101-brass-copper-metal-alloy-jhumki-earring/p/itmcf0b98200c784'], ['TOPGGFBMHNSQN7AQ', 'KASSUALLY\xa0Party Shoulder Straps Printed Women Multicolor Top', 'https://www.flipkart.com/kassually-party-printed-women-multicolor-top/p/itmf22cb55f6c684']]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['SHTGAHWSTTQRKDKS', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-blue-shirt/p/itm9b2791f9585ea'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['KPBG5F6YZG6HFSJE', 'BEBYHOOD\xa0Baby Boys Party(Festive) Blazer Bow Tie', 'https://www.flipkart.com/bebyhood-baby-boys-party-festive-blazer-bow-tie/p/itm3b88bc2d6f6b1'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57']]</t>
+          <t>[['SHOGEBKZD49WDHGQ', 'Shoe Icon\xa0Shoes Icon Casual Fabric Ankle Length Boots For Men Boots For Men', 'https://www.flipkart.com/shoe-icon-shoes-casual-fabric-ankle-length-boots-men/p/itm13317aebdb0ee'], ['DREG9XTNGE2AQZFH', 'MUDRIKA\xa0Women Maxi Black, Blue Dress', 'https://www.flipkart.com/mudrika-women-maxi-black-blue-dress/p/itme7fbc6955149b'], ['STBFVU6DKMPB8ZQN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm4fc56d093ec74'], ['SARFYTNPB5N7HDJ9', 'Flip The Style\xa0Printed Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-chiffon-saree/p/itm8e8079a36d874'], ['SNDGHFRSSDMZTCHC', 'Svaar\xa0Men Off White Clogs Sandal', 'https://www.flipkart.com/svaar-men-off-white-clogs/p/itm349ca822122e1'], ['SGLFYHEVCZYJYF4T', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm61a1dd6e234c0'], ['DREGJ9HF2Q4AGGNB', 'Jenny Enterprises\xa0Women Maxi Black Dress', 'https://www.flipkart.com/jenny-enterprises-women-maxi-black-dress/p/itm0a4935c29badf'], ['DREGJ9HF2Q4AGGNB', 'Jenny Enterprises\xa0Women Maxi Black Dress', 'https://www.flipkart.com/jenny-enterprises-women-maxi-black-dress/p/itm0a4935c29badf'], ['STBFYJZMJBYEQF7H', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Medium', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel-medium/p/itm4d58a239d4f39']]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['SHTGMK2Y7JKGZKCE', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-grey-shirt/p/itmc34659b21c380'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['KDEGN27KFNSCUQYE', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm9b97310e84545'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['SHOG9MZFBP9BGCDX', 'RapidBox\xa0Sneakers For Men', 'https://www.flipkart.com/rapidbox-sneakers-men/p/itm3e9655a4a9be5'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], [nan, nan, nan], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c']]</t>
+          <t>[['SGLGHBYAZFC4RGV5', 'Ted Smith\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm8da06b3c243bc'], ['LCHGAQGFSPZZE53Z', 'Matrubhumi\xa0Embroidered Semi Stitched Lehenga &amp; Crop Top', 'https://www.flipkart.com/matrubhumi-embroidered-semi-stitched-lehenga-crop-top/p/itm2e561b2a80c5a'], ['SNDFYUYBFHYG5XDM', 'Paragon\xa0Men K1403G Stylish Lightweight Daily Durable Comfortable Formal Casuals Black Sports Sandal', 'https://www.flipkart.com/paragon-k1403g-stylish-lightweight-daily-durable-comfortable-formal-casuals-men-black-sports-sandals/p/itm8cea38f5c48f1'], ['ERGFM7EZ9HMCD63T', 'Divastri\xa0Traditional Peacock Bohemian Oxidised Jewellery Bridal Party Wear Stylish Antique Kashmiri Afghani Tribal Silver Oxidized earrings Wedding Fancy Moti Kundan Big Jhumka earing Jhumkas Ear rings for girls women latest designer Pearl, Crystal Stone, Copper, Brass Jhumki Earring', 'https://www.flipkart.com/divastri-traditional-peacock-bohemian-oxidised-jewellery-bridal-party-wear-stylish-antique-kashmiri-afghani-tribal-silver-oxidized-earrings-wedding-fancy-moti-kundan-big-jhumka-earing-jhumkas-ear-rings-girls-women-latest-designer-pearl-crystal-stone-copper-brass-jhumki-earring/p/itm9330647cc3593'], ['SGLFKG6F8GJVKKGJ', 'Ted Smith\xa0Gradient Aviator Sunglasses (59)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmb31f478e20f4a']]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>659289</t>
+          <t>506007</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kyle</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Koch</t>
+          <t>Wagner</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1041,48 +1041,48 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Norfolk Island</t>
+          <t>Tokelau</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d'], ['DREGGSSRNWGKHFFG', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itmc6b361e2ef2e6'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d']]</t>
+          <t>[['JEAGCNQZQ7MKRKWJ', 'MUFTI\xa0Men Skinny Low Rise Black Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itmadbb475452218'], ['RKSGN8FMFMZQFZEQ', 'IMPULSE\xa0Rucksack bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 65 L', 'https://www.flipkart.com/impulse-rucksack-bag-travel-men-tourist-backpack-hiking-trekking-camping-65-l/p/itm4987f2d1dfd47'], ['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['TVPF6YZGZWZ7PXUH', 'Nightstar Waist Bag\xa0\xa0(Red)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f3ptmua8ahy'], ['TVPF6YZHCGBPT4N8', 'Nightstar Waist Bag\xa0\xa0(Pink)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kzzrgqc6y'], [nan, nan, nan], ['SRWGHXFNXYHPGJ6V', 'DEYANN Printed SherwaniDEYANN Printed Sherwani', 'https://www.flipkart.com/deyann-printed-sherwani/p/itm8e802b96d44cd']]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c']]</t>
+          <t>[['ERGFMZ5DZPAUKJS8', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M259 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m259-metal-earring-earring/p/itmfdc570dc463f1']]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], [nan, nan, nan], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], [nan, nan, nan], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe']]</t>
+          <t>[['SGLFKG6F8GJVKKGJ', 'Ted Smith\xa0Gradient Aviator Sunglasses (59)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmb31f478e20f4a'], ['BZRGKW96ZYVPPVPG', 'STYLZINDIA\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/stylzindia-solid-single-breasted-casual-women-blazer/p/itm16cc4780736eb'], [nan, nan, nan], ['SGLGFYDUXM8KCHPD', 'VINCENT CHASE\xa0by Lenskart Polarized, UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/vincent-chase-lenskart-aviator-sunglasses/p/itm6d19976cb47a0'], ['SGLGZUGZ7KHSEJKF', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itmd6ced64972044'], ['ERGG82YRAUX54QNP', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour Triangle square shape Boy earrings -MENS EARRING COMBO-ME128 Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-triangle-square-shape-boy-mens-combo-me128-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itm139d492d5186b'], ['SGLFU52HTRJY2H6D', 'VINCENT CHASE\xa0by Lenskart Polarized, UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/vincent-chase-lenskart-aviator-sunglasses/p/itmddec928acc082'], ['JEAGPGNUSURYXFVN', 'BEING HUMAN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-regular-men-grey-jeans/p/itmab42d2596d878'], ['KTAFWNUYJ9ZFXPWE', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itm50a66d5bf59d3'], ['ERGG4DKTHPYD5R8G', 'Karishma Kreations\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM God jejus Cross Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Metal Hoop Earring, Stud Earring, Huggie Earring, Plug Earring, Cuff Earring, Tunnel Earring, Earring Set, Magnetic Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-god-jejus-cross-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-metal-earring-huggie-cuff-tunnel-set-magnetic/p/itme0b0dc32b184f']]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>260421</t>
+          <t>546207</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Stephens</t>
+          <t>Bradford</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1091,133 +1091,133 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198']]</t>
+          <t>[[nan, nan, nan], ['TVPF6YZGZWZ7PXUH', 'Nightstar Waist Bag\xa0\xa0(Red)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f3ptmua8ahy'], ['SHOGHQ35UK4SHADX', 'Floarkart\xa03 Inch Hidden Height Increasing All Purpose Elevator Sports Casual Shoes for Men Sneakers For Men', 'https://www.flipkart.com/floarkart-3-inch-hidden-height-increasing-all-purpose-elevator-sports-casual-shoes-men-sneakers/p/itma6f71f6af180c'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877']]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['DREGK5N74KNXDYYY', 'maruti fab\xa0Women Fit and Flare Yellow Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-yellow-dress/p/itm968df60d0fb1d'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66']]</t>
+          <t>[['SGLGZUGZBAAJF2HQ', 'Resist\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-aviator-sunglasses/p/itm60621f9eba7de'], ['BZRFY6BZJRWPG9YG', 'Honey Fashion\xa0Men Solid Tuxedo Style Casual, Party, Festive &amp; Wedding Blazer', 'https://www.flipkart.com/honey-fashion-solid-tuxedo-style-casual-party-festive-wedding-men-blazer/p/itm40ac201244f7d'], ['SHOGFQ6QDUQRPR7A', 'CAMRO\xa0Hulk-01 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-01-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itmb6250ccc05700'], ['ERGG3X8AESQZBGYN', 'shivay\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Hoop Earring, Stud Earring, Magnetic Earring, Tunnel Earring, Tassel Earring, Huggie Earring, Clip-on Earring, Magnetic Earring, Cuff Earring, Plug Earring', 'https://www.flipkart.com/shivay-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-cubic-zirconia-metal-earring-magnetic-tunnel-tassel-huggie-clip-on-cuff/p/itmaea1efd1dec75'], [nan, nan, nan], ['JEAGG6DDDRRHF5QG', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm1a5faf2ca4cc6'], ['STBFCMRWAVHKJKAK', 'ABYS\xa0100% Genuine Leather Brown Travel Bag||Sports Bags ||Messenger Bag for Men &amp; Women Small Travel Bag  - Small', 'https://www.flipkart.com/abys-100-genuine-leather-brown-travel-bag-sports-bags-messenger-bag-men-women-small/p/itmfcmtqcpdq34zh'], ['ERGFMZ59ZKWH9FCQ', 'MEENAZ\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop-BALI-M254 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-m254-metal-earring-hoop-earring/p/itme0f71a07144ba'], ['KTAFWNUYUNPBVTAH', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmb54a7b68b42b3'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['SHOG9MZFBP9BGCDX', 'RapidBox\xa0Sneakers For Men', 'https://www.flipkart.com/rapidbox-sneakers-men/p/itm3e9655a4a9be5']]</t>
+          <t>[['SHOFZZTEAKJJCFSQ', 'World Wear Footwear\xa0Sneakers For Men', 'https://dl.flipkart.com/dl/world-wear-footwear-sneakers-men/p/itmae9b5d9c69575'], ['KTAFWNUY7UM5SGFF', 'DCART\xa0Women Embellished, Solid Crepe Straight Kurta', 'https://www.flipkart.com/d-cart-women-solid-straight-kurta/p/itm1c9e3ea905212'], ['HMBG4PXPTFF5ZCVV', 'ABYS\xa0Men &amp; Women Pink, Blue Messenger Bag - Regular Size', 'https://www.flipkart.com/abys-men-women-pink-blue-messenger-bag/p/itm0e014c86b1526'], ['ERGGBMQ2TH4PF7UQ', 'Shoshaa\xa0Multicoloured Circular Studs Brass Stud Earring', 'https://www.flipkart.com/shoshaa-multicoloured-circular-studs-brass-stud-earring/p/itm5856f091fa7f9'], [nan, nan, nan], ['ERGFFWPBMU4ZSRG4', 'AMAAL\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop - BALI-A101 Metal Hoop Earring', 'https://www.flipkart.com/amaal-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-a101-metal-earring/p/itm0c0746afddfe7'], [nan, nan, nan], [nan, nan, nan], ['JEAGJZY9XQTTXC2G', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm802edd5bd7855'], ['JEAGFTUKN3CWHMXA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma1569172cad1a'], ['SGLGHBYAZFC4RGV5', 'Ted Smith\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm8da06b3c243bc'], ['SGLFU52HTRJY2H6D', 'VINCENT CHASE\xa0by Lenskart Polarized, UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/vincent-chase-lenskart-aviator-sunglasses/p/itmddec928acc082'], ['KRTFDVDJKYD7VKFE', 'sonia collection\xa0Women Embroidered Cotton Blend Asymmetric Kurta', 'https://www.flipkart.com/sonia-collection-women-embroidered-asymmetric-kurta/p/itm045ce171788f8'], ['SGLGKZHXGEEF5ESQ', 'Eymen I\xa0Riding Glasses, UV Protection, Polarized, Mirrored, Night Vision, Others Spectacle , Retro Square, Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/eymen-spectacle-retro-square-aviator-sunglasses/p/itmbd81e4dc64d64'], ['JEAGEYGV5D2FDFAK', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm4577eb2e96a75']]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>738633</t>
+          <t>478869</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dunlap</t>
+          <t>Hayes</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8']]</t>
+          <t>[['TOPG9HBVHGG85NNR', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Green, White Top', 'https://www.flipkart.com/kassually-casual-striped-women-green-white-top/p/itmea363e00220c5'], ['DREG5DJDQGEANAGA', 'N&amp;PG\xa0Women Maxi Black Dress', 'https://www.flipkart.com/n-pg-women-maxi-black-dress/p/itm6bac2bdb3428c'], [nan, nan, nan], ['SGLG8W5CTCQJAZWP', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmea2a902dbc0dd'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[['KDEGN6P4WQGSPYX9', 'Manaitri\xa0Girls Midi/Knee Length Party Dress', 'https://dl.flipkart.com/dl/manaitri-girls-midi-knee-length-party-dress/p/itmf12bcf3590f06'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070']]</t>
+          <t>[['SNDGKX99Z9VGYSYK', 'ONLY EMPIRE\xa0Women White Heels Sandal', 'https://www.flipkart.com/only-empire-women-white-heels/p/itmf2cfbbdcb3d72'], ['ERGGHXFW2CJRNSVQ', 'MEENAZ\xa0peacock jhumki Jhumka jhumkas south indian temple moti Wedding Traditional party Pearl, Beads, Crystal, Cubic Zirconia, Diamond Brass, Stone, Metal, Alloy, Copper Clip-on Earring, Drops &amp; Danglers, Earring Set, Jhumki Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-peacock-jhumki-jhumka-jhumkas-south-indian-temple-moti-wedding-traditional-party-pearl-beads-crystal-cubic-zirconia-diamond-brass-stone-metal-alloy-copper-clip-on-earring-drops-danglers-earring-set-hoop/p/itm0763d58cc6e06'], ['SNDG8TRXSYYXCYM7', 'BOLTAGO\xa0Men Tan Sandal', 'https://www.flipkart.com/boltago-men-tan-sandals/p/itm8cd3dc2727f21'], ['TOPFAY4BGMKT4T68', 'KASSUALLY\xa0Casual Flared Sleeves Floral Print Women White Top', 'https://www.flipkart.com/kassually-casual-flared-sleeve-floral-print-women-white-top/p/itmfayamxh9kygt7'], [nan, nan, nan], ['WSBGPB7UBWNQUCZJ', 'RC REXCUIR Shoulder Bag for Men Women | Sling Crossbody Bags Shoulder Bag\xa0\xa0(Pink)RC REXCUIR Shoulder Bag for Men Women | Sling Crossbody Bags Shoulder Bag', 'https://www.flipkart.com/rc-rexcuir-shoulder-bag-men-women-sling-crossbody-bags/p/itm0538e42b20b37'], ['SNDGQ7AWJC9PCKKQ', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itme35ac2159acd5'], ['LCHFVKYZ5HAFX2DJ', 'Crissy\xa0Embellished Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embellished-semi-stitched-lehenga-choli/p/itm6de32af7ecebd']]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45'], ['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['KDEGN6P4WQGSPYX9', 'Manaitri\xa0Girls Midi/Knee Length Party Dress', 'https://dl.flipkart.com/dl/manaitri-girls-midi-knee-length-party-dress/p/itmf12bcf3590f06']]</t>
+          <t>[['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['ERGFM6KAZTNJCGPH', 'Divastri\xa0Traditional Oxidised Jewellery Bridal Party Wear Stylish Antique Kashmiri Afghani Silver Oxidized earrings Wedding Fancy Moti Kundan Big Jhumka earing Jhumkas Ear rings for girls women latest designer Pearl, Crystal Stone, Copper, Brass Jhumki Earring', 'https://www.flipkart.com/divastri-traditional-oxidised-jewellery-bridal-party-wear-stylish-antique-kashmiri-afghani-silver-oxidized-earrings-wedding-fancy-moti-kundan-big-jhumka-earing-jhumkas-ear-rings-girls-women-latest-designer-pearl-crystal-stone-copper-brass-jhumki-earring/p/itm473d1fdee9ea0'], ['TOPEEZYGFFREPYFM', 'RUSE\xa0Casual Regular Sleeves Striped Women White, Grey Top', 'https://www.flipkart.com/ruse-casual-3-4-sleeve-striped-women-white-grey-top/p/itmf3z3davrprktz']]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>949437</t>
+          <t>641919</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Darin</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Powers</t>
+          <t>Bush</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8']]</t>
+          <t>[[nan, nan, nan], ['JEAGC5WZGSSSEVP3', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm6222d4620ce65'], [nan, nan, nan], ['SUIGE5ZEUH8DSKVE', 'DKGF FASHION\xa0Men Single Breasted Solid Suit', 'https://www.flipkart.com/dkgf-fashion-single-breasted-solid-men-suit/p/itm76a821c733188'], ['KETFF2G7XF8MERUQ', 'AJ Dezines\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-sherwani-churidar-set/p/itmff2hcehbfdmvg'], ['JEAG74HFHHZZV6PG', 'KETCH\xa0Men Tapered Fit Mid Rise Blue Jeans', 'https://www.flipkart.com/ketch-tapered-fit-men-blue-jeans/p/itme476bd07f8aef']]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f'], ['DREG6UP2BEEXXRZA', '7800 GROUP\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/7800-group-women-a-line-multicolor-dress/p/itm413f14c9bb0a8'], ['DREGGSSRS6PYGNA3', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itm845406cd3aef2'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['KDEGN27KFNSCUQYE', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm9b97310e84545'], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c']]</t>
+          <t>[['KETFZGKF87ZRXHJJ', 'BURBN\xa0Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/burbn-boys-wedding-sherwani-churidar-set/p/itm3bd62f3553bef'], ['KTAG9S5X3HGQNXHB', 'VIMOO\xa0Women Woven Design Cotton Blend Anarkali Kurta', 'https://www.flipkart.com/vimoo-women-woven-design-flared-kurta/p/itm3d5eb36a1a2a3'], ['SHOGC5PERYBWE82Z', 'Denill\xa0Boots For Women', 'https://www.flipkart.com/denill-boots-women/p/itm63378d457a2f7'], ['ERGG4YFGDCURJDPE', 'shivay\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Hoop Earring, Stud Earring, Magnetic Earring, Tunnel Earring, Tassel Earring, Huggie Earring, Clip-on Earring, Magnetic Earring, Cuff Earring, Plug Earring', 'https://www.flipkart.com/shivay-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-cubic-zirconia-metal-earring-magnetic-tunnel-tassel-huggie-clip-on-cuff/p/itm12732404c660b'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], ['SHOG8U2ZNSMGPZ7R', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itmc85efde1a1c3c'], [nan, nan, nan], ['ERGGFZBGHPGVZZPY', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -MENS EARRINGS COMBO-ME62 Metal Stud Earring, Hoop Earring, Earring Set, Clip-on Earring, Magnetic Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-mens-combo-me62-metal-earring-earring-set-clip-on/p/itmedca84a53fbc2'], ['KTAGFTZXDFC8CGQG', 'AO Fabrico\xa0Women Floral Print Cotton Rayon A-line Kurta', 'https://www.flipkart.com/ao-fabrico-women-floral-print-a-line-kurta/p/itmad0facf9bf967']]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[[nan, nan, nan], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['SHTGHQ6HGSGGWCWQ', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-grey-shirt/p/itm919c0f36bb89a'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['DREGK5N74KNXDYYY', 'maruti fab\xa0Women Fit and Flare Yellow Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-yellow-dress/p/itm968df60d0fb1d'], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23']]</t>
+          <t>[['SGLGMHPGQZKHRGTG', 'Sunglance\xa0Riding Glasses, UV Protection, Night Vision Round, Cat-eye Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-round-cat-eye-sunglasses/p/itm047911875c1c7'], ['SHOGG7HV7GJMDESK', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itm0b2b80780b934'], [nan, nan, nan], ['ERGGBMQ2TH4PF7UQ', 'Shoshaa\xa0Multicoloured Circular Studs Brass Stud Earring', 'https://www.flipkart.com/shoshaa-multicoloured-circular-studs-brass-stud-earring/p/itm5856f091fa7f9'], ['ERGG7MHUDVDNW8HV', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME95 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me95-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmc82b9b0c0ffbc'], ['SGLGQ8VYM22C2FQ7', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itmf4d5ff1d96d81'], [nan, nan, nan], ['SGLGMHPGQZKHRGTG', 'Sunglance\xa0Riding Glasses, UV Protection, Night Vision Round, Cat-eye Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-round-cat-eye-sunglasses/p/itm047911875c1c7'], ['ERGG4DKTHPYD5R8G', 'Karishma Kreations\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM God jejus Cross Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Metal Hoop Earring, Stud Earring, Huggie Earring, Plug Earring, Cuff Earring, Tunnel Earring, Earring Set, Magnetic Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-god-jejus-cross-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-metal-earring-huggie-cuff-tunnel-set-magnetic/p/itme0b0dc32b184f']]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>196017</t>
+          <t>570663</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rachel</t>
+          <t>Roberto</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1226,88 +1226,88 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['DREGK5N7JNTFEGNH', 'maruti fab\xa0Women Fit and Flare Light Blue Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-light-blue-dress/p/itm2904de16bdfa7'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde']]</t>
+          <t>[['ERGFYRD3ZZZTMZAU', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Antique 3 Three Layered Jhumki Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME129 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-antique-3-three-layered-jhumki-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-gold-jhumki-me129-brass-copper-metal-alloy-earring/p/itm3986cce7c4c64'], ['ERGFYRHVGPXZSEUG', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Ghungroo Triple 3 Three Layer Jhumka Jhumkas Golden Jhumki Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME144 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-ghungroo-triple-3-three-layer-jhumka-jhumkas-golden-jhumki-earrings-earings-ear-rings-girls-women-micro-antique-gold-jhumki-me144-brass-copper-metal-alloy-earring/p/itm03211de8b17f5']]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374']]</t>
+          <t>[['ERGFYZ86XARHRFQN', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden Peacock earrings jhumki Combo set jumkas small Stud Tops Meenakari Peacock Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design New 6 earrings-JHUMKI COMBO-ME09 Beads, Pearl Alloy, Metal, Enamel, Crystal, Zinc Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-peacock-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-new-6-earrings-jhumki-combo-me09-beads-pearl-alloy-metal-enamel-crystal-zinc-earring/p/itm8fbee90003bc8'], ['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by']]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[['SHTGMK2YHQWFZY3U', 'VTEXX\xa0Men Regular Fit Solid Cut Away Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-white-shirt/p/itmc5dc05890b7d7'], ['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde']]</t>
+          <t>[['LCHGHKJQKCHRECBA', 'SHRUSHTI\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/shrushti-embroidered-semi-stitched-lehenga-choli/p/itmf47b8120fdf16'], [nan, nan, nan], ['STBFWE59ZB8RGWPX', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6e136ad859c82'], ['SHOGEABAZZXHPGGH', 'MOCHI\xa0Loafers For Men', 'https://www.flipkart.com/mochi-loafers-men/p/itm84a75faa5de50'], ['TOPGGWRR7GMDY4DC', 'Sheetal Associates\xa0Casual Puff Sleeves Self Design Women Black Top', 'https://www.flipkart.com/sheetal-associates-casual-self-design-women-black-top/p/itmacd0a69900eea'], ['SHOGH8KBYFZAKFQ5', 'Bruno Manetti\xa0MK-014-Brown Boots For Men', 'https://www.flipkart.com/bruno-manetti-mk-014-brown-boots-men/p/itm5abc4b53ef673']]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>938787</t>
+          <t>716949</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Benson</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Tokelau</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], ['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57']]</t>
+          <t>[['JEAGHEYATGZRPZMY', 'WROGN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/wrogn-regular-men-grey-jeans/p/itm483a02e7b5e61'], ['JEAGG6DDDRRHF5QG', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm1a5faf2ca4cc6'], ['SGLGHESCZPECGM9G', 'Ted Smith\xa0UV Protection Aviator Sunglasses (47)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm237836d10f0b0'], ['TVPGE9GW6WC9GMHQ', 'UNICRAFT Waist Bag\xa0\xa0(Red)UNICRAFT Waist Bag', 'https://www.flipkart.com/unicraft-waist-bag/p/itm8e4dd15a292c2'], ['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by'], ['TOPGZS3XPZDQMJEP', 'Sheetal Associates\xa0Casual Flared Sleeves Printed Women Multicolor Top', 'https://www.flipkart.com/sheetal-associates-casual-printed-women-multicolor-top/p/itm4bb039830e110'], ['SNDGAEGAYANA2DEC', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm50a6afdc80d7c'], [nan, nan, nan], ['TOPGEWMF5ZQTRGPF', 'KASSUALLY\xa0Casual Sleeveless Printed Women Black Top', 'https://www.flipkart.com/kassually-casual-printed-women-black-top/p/itm04997ecff514a'], ['SHOGM9ABF23ZAPCJ', 'STRASSE PARIS\xa0Womens Boots Stylish, Trendy, Comfortable, Casual Boots for Womens &amp; Girls Boots For Men', 'https://www.flipkart.com/strasse-paris-women-s-boots-stylish-trendy-comfortable-casual-girls-men/p/itm9f141a9c73fd6'], ['SGLFXJXZRWKCV6AF', 'Eyewearlabs\xa0Polarized, UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/eyewearlabs-aviator-sunglasses/p/itm3f85427e33d37'], ['ERGGJ4S9WMGCKJEH', 'Divastri\xa0Jhumka combo earrings jhumki Traditional South indian Temple jhumkas women girl Beads, Pearl Metal Jhumki Earring', 'https://www.flipkart.com/divastri-jhumka-combo-earrings-jhumki-traditional-south-indian-temple-jhumkas-women-girl-beads-pearl-metal-earring/p/itm64a8563dd855a'], ['DREFNYT6BHZXAGQ2', 'U&amp;F\xa0Women Maxi Red, White, Black Dress', 'https://www.flipkart.com/u-f-women-maxi-black-dress/p/itm33123196705dc']]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6']]</t>
+          <t>[['TVPF6YZMMHFS6PWC', 'Nightstar Waist Bag\xa0\xa0(Blue)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kgfnrpete'], ['JEAGEYGV5D2FDFAK', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm4577eb2e96a75']]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['TSHGGTH3ZZZJFJFR', 'London Hills\xa0Men Striped Hooded Neck Cotton Blend Pink T-Shirt', 'https://www.flipkart.com/london-hills-striped-men-hooded-neck-pink-t-shirt/p/itmf148db8f2ffeb'], ['KPBG5F6YZG6HFSJE', 'BEBYHOOD\xa0Baby Boys Party(Festive) Blazer Bow Tie', 'https://www.flipkart.com/bebyhood-baby-boys-party-festive-blazer-bow-tie/p/itm3b88bc2d6f6b1'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['KDEGN27KFNSCUQYE', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm9b97310e84545'], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43']]</t>
+          <t>[['SNDFU9CJYGDCTHZ6', 'BLINDER\xa0Women Off White Flats Sandal', 'https://www.flipkart.com/blinder-women-off-white-flats/p/itmb5fda55a69e53'], ['TOPGZDYZGSFQTA5F', 'Prahant Lifestyle\xa0Casual Regular Sleeves Striped Women Green Top', 'https://www.flipkart.com/prahant-lifestyle-casual-striped-women-green-top/p/itmcedde2eacf19c'], ['DREFKH3BRGTRPNDR', 'KASSUALLY\xa0Women Maxi Black Dress', 'https://www.flipkart.com/kassually-women-maxi-black-dress/p/itm27ddf0dbee399'], ['SHOEXTMBZFFCF898', 'RED CHIEF\xa0RC3508 022 High Tops For Men', 'https://www.flipkart.com/red-chief-rc3508-022-high-tops-men/p/itmfanshazarqrxs'], ['JEAGHEYATGZRPZMY', 'WROGN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/wrogn-regular-men-grey-jeans/p/itm483a02e7b5e61'], ['SGLFWFRE6FUDZMCC', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmc1ff38cb1bdca'], ['JEAGPGKHTJZFDTYQ', 'BEING HUMAN\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-slim-men-grey-jeans/p/itm45ae8ba883649'], ['SHOF9EYGF8GFT4GW', 'Shoe Island\xa0Leatherette Heavy Duty Lace-Up Military High Ankle Length Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-leatherette-heavy-duty-lace-up-military-high-ankle-length-casual-long-boots-men/p/itmf9es5fyk5f9tn']]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>231657</t>
+          <t>586161</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Keith</t>
+          <t>Yolanda</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Barnett</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1316,88 +1316,88 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Pitcairn Islands</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], ['DREGGSSRNWGKHFFG', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itmc6b361e2ef2e6'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d']]</t>
+          <t>[['LCHGKQGDZJMBGCDG', 'BVESH\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/bvesh-self-design-semi-stitched-lehenga-choli/p/itma3a73f7ebf3db'], ['LCHGAQGFSPZZE53Z', 'Matrubhumi\xa0Embroidered Semi Stitched Lehenga &amp; Crop Top', 'https://www.flipkart.com/matrubhumi-embroidered-semi-stitched-lehenga-crop-top/p/itm2e561b2a80c5a']]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[['DREG6WSM9DAYAFZZ', 'Rudraaksha\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/rudraaksha-women-a-line-multicolor-dress/p/itmc2d4bba8d0d19'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04'], ['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['SHTGMK2YHQWFZY3U', 'VTEXX\xa0Men Regular Fit Solid Cut Away Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-white-shirt/p/itmc5dc05890b7d7'], ['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d']]</t>
+          <t>[['SHOEKTVTC3SW8XN8', 'Shoe Island\xa0Popular Designer Leatherette Tan Brown High Ankle Length Casual Boots For Men Boots For Men', 'https://www.flipkart.com/shoe-island-popular-designer-leatherette-tan-brown-high-ankle-length-casual-boots-men/p/itmf3xw5ezdhgsjn'], ['LCHFVKYZ5HAFX2DJ', 'Crissy\xa0Embellished Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embellished-semi-stitched-lehenga-choli/p/itm6de32af7ecebd'], ['SHOGKGW7ZZMXVSA8', 'BUCKAROO\xa0BUCKAROO: HUNTLEY Genuine Leather Brown Casual Boots For Mens Boots For Men', 'https://www.flipkart.com/buckaroo-buckaroo-huntley-genuine-leather-brown-casual-boots-mens-men/p/itm7954a01b5dfc4'], ['SARGZTFP2VAFBJMU', 'Faduseller\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/faduseller-printed-bollywood-georgette-saree/p/itmed37bdffa91b3']]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[['DREGGSSRNWGKHFFG', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itmc6b361e2ef2e6'], ['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5'], ['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['DREGKRUB6ZECJAHE', 'fashionwrld\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-fit-flare-multicolor-dress/p/itmdbdd6b18c9e27'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0']]</t>
+          <t>[['SNDGHRY6V7YFHWYD', 'SHOEFLY\xa0Women Brown, White Casual Sandal', 'https://www.flipkart.com/shoefly-women-brown-white-casual/p/itm7096be6fea302']]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>366573</t>
+          <t>211971</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Swaziland</t>
+          <t>Isle of Man</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d'], ['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['DREGK5N74KNXDYYY', 'maruti fab\xa0Women Fit and Flare Yellow Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-yellow-dress/p/itm968df60d0fb1d'], ['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719']]</t>
+          <t>[['BZRFY6BZJRWPG9YG', 'Honey Fashion\xa0Men Solid Tuxedo Style Casual, Party, Festive &amp; Wedding Blazer', 'https://www.flipkart.com/honey-fashion-solid-tuxedo-style-casual-party-festive-wedding-men-blazer/p/itm40ac201244f7d'], [nan, nan, nan], [nan, nan, nan], ['JEAGEKQZCSRVZWKJ', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm3af3b93115f4a'], ['SHOG9MPGYM6AFUMG', 'HX London\xa0Stylish Laceup Boots For Men', 'https://www.flipkart.com/hx-london-stylish-laceup-boots-men/p/itmf0d60e27dca1a'], [nan, nan, nan], ['SRWG5K5HNQDBHRMV', 'Feellasto Embroidered SherwaniFeellasto Embroidered Sherwani', 'https://www.flipkart.com/feellasto-embroidered-sherwani/p/itm07a34dfd9f616'], ['SGLFU52HTRJY2H6D', 'VINCENT CHASE\xa0by Lenskart Polarized, UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/vincent-chase-lenskart-aviator-sunglasses/p/itmddec928acc082'], ['SUIGJNWUPFTYPTB8', 'ikichic\xa0Women Blazer and Trousers Solid Suit', 'https://www.flipkart.com/ikichic-blazer-trousers-solid-women-suit/p/itm1d8098709ef8a'], ['SHOGBVZFPF97GNMU', 'World Wear Footwear\xa0Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-running-shoes-men/p/itm1f6033c2a559a'], ['SGLGZUGMBTBYB8SD', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itm1e8800456efe0'], ['ERGFMWQ8Q2MK97H3', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M204 Cubic Zirconia Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m204-cubic-zirconia-metal-earring-earring/p/itm65f1b1a4078a8'], ['SHOFGPP4ZCXYSXUH', 'LIONS RIDER\xa0Party Wear For Men', 'https://www.flipkart.com/lions-rider-party-wear-men/p/itmfgq86mgyzkygk'], ['SGLGGKSVGBGE3YF9', 'Ted Smith\xa0Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm88e36b022bba3'], ['JEAGGNWEZHS22WEQ', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm64b0fa149becc']]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], ['BDRGNC7DS5GFGHXD', 'Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush\xa0\xa0(15 ml, Black)Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush', 'https://www.flipkart.com/kingeshal-wooden-premium-shoe-brush-cleaning-polishing-shining-leather-shoes-sneakers/p/itmd7afbc5b69f83'], ['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876']]</t>
+          <t>[[nan, nan, nan]]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['KPBG5F6YZG6HFSJE', 'BEBYHOOD\xa0Baby Boys Party(Festive) Blazer Bow Tie', 'https://www.flipkart.com/bebyhood-baby-boys-party-festive-blazer-bow-tie/p/itm3b88bc2d6f6b1'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['DREGKRUB6ZECJAHE', 'fashionwrld\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-fit-flare-multicolor-dress/p/itmdbdd6b18c9e27'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['TSHGC74BK7FGJUHD', 'NB NICKY BOY\xa0Men Typography Round Neck Cotton Blend Black T-Shirt', 'https://www.flipkart.com/nb-nicky-boy-typography-men-round-neck-black-t-shirt/p/itme37ae4c45ba59'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda']]</t>
+          <t>[['BZRGGG26TPY39J4T', 'BASICS\xa0Men Solid Tuxedo Style Casual Blazer', 'https://www.flipkart.com/basics-solid-tuxedo-style-casual-men-blazer/p/itm227bd292d11db'], [nan, nan, nan], ['ERGGFSDASHGBPBKS', 'Karishma Kreations\xa0Mens Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Steel, Stainless Steel, Copper, Brass Stud Earring, Hoop Earring, Earring Set, Huggie Earring, Plug Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-steel-copper-brass-earring-earring-set-huggie-cuff/p/itmeaeb2c61f6da3']]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>403425</t>
+          <t>436461</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Little</t>
+          <t>Gonzales</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1406,43 +1406,43 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tokelau</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d']]</t>
+          <t>[['RKSG6W3DYRJK3UHX', 'ozino\xa0Travel Backpack for Outdoor Sport Camping Hiking Trekking Bag Rucksack Bag Trekking bag . 60L Rucksack  - 60 L', 'https://www.flipkart.com/ozino-travel-backpack-outdoor-sport-camping-hiking-trekking-bag-rucksack-60l-60-l/p/itm7a1176bc4a877'], ['JEAGPGNUSURYXFVN', 'BEING HUMAN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-regular-men-grey-jeans/p/itmab42d2596d878'], ['ERGFMZ5DZPAUKJS8', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M259 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m259-metal-earring-earring/p/itmfdc570dc463f1'], ['JEAGEKQZDKZANDRP', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Blue Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-blue-jeans/p/itm094f7e29c58f6'], ['SRWGENU4PMKQGCAA', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itm3c13f483e1fac'], ['JEAFYQGSDHFVZNNV', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm0698668514d10'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21']]</t>
+          <t>[[nan, nan, nan]]</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['KDEGN6P4WQGSPYX9', 'Manaitri\xa0Girls Midi/Knee Length Party Dress', 'https://dl.flipkart.com/dl/manaitri-girls-midi-knee-length-party-dress/p/itmf12bcf3590f06'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['DREGKRUB6ZECJAHE', 'fashionwrld\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-fit-flare-multicolor-dress/p/itmdbdd6b18c9e27'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4']]</t>
+          <t>[['KTAGFTZXDFC8CGQG', 'AO Fabrico\xa0Women Floral Print Cotton Rayon A-line Kurta', 'https://www.flipkart.com/ao-fabrico-women-floral-print-a-line-kurta/p/itmad0facf9bf967'], ['BKPGHETFAGEKFH4K', 'Flyscape\xa0Medium 25 L Laptop Backpack Terror Black bag', 'https://www.flipkart.com/flyscape-terror-black-bag-25-l-backpack/p/itme1d476f73455f'], ['KTAGKK8AQDDYCD5V', 'LANYA FAB\xa0Women Printed Cotton Blend A-line Kurta', 'https://www.flipkart.com/lanya-fab-women-printed-a-line-kurta/p/itm6a2b96d7e4406'], ['JEAFYQJ6KBAYYBZ8', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm604d87fa43dc9'], ['KTAFWNUYYQ9FEYTM', 'DCART\xa0Women Embellished, Solid Crepe Straight Kurta', 'https://www.flipkart.com/d-cart-women-embellished-solid-straight-kurta/p/itm4181162be7167']]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>336237</t>
+          <t>175293</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cooper</t>
+          <t>Johns</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1451,43 +1451,43 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df']]</t>
+          <t>[['KTAGPZCCZW7RTPP6', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itma85dd7abff764'], [nan, nan, nan], ['JEAFYQGT6MUEGD4G', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm6661721c5b993'], ['ERGFFWPBMU4ZSRG4', 'AMAAL\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop - BALI-A101 Metal Hoop Earring', 'https://www.flipkart.com/amaal-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-a101-metal-earring/p/itm0c0746afddfe7'], ['TVPGE9GW6WC9GMHQ', 'UNICRAFT Waist Bag\xa0\xa0(Red)UNICRAFT Waist Bag', 'https://www.flipkart.com/unicraft-waist-bag/p/itm8e4dd15a292c2'], ['ERGG4YFGDCURJDPE', 'shivay\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Hoop Earring, Stud Earring, Magnetic Earring, Tunnel Earring, Tassel Earring, Huggie Earring, Clip-on Earring, Magnetic Earring, Cuff Earring, Plug Earring', 'https://www.flipkart.com/shivay-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-cubic-zirconia-metal-earring-magnetic-tunnel-tassel-huggie-clip-on-cuff/p/itm12732404c660b'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc']]</t>
+          <t>[['ERGG7MHUDVDNW8HV', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME95 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me95-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmc82b9b0c0ffbc'], ['JEAGFTUKN3CWHMXA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma1569172cad1a'], ['KETFVSNZFYGPBHHG', 'AJ Dezines\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-sherwani-churidar-set/p/itmc5aa12f052914'], [nan, nan, nan], ['BKPGMU5XYZADGAKP', 'AMERICAN TOURISTER\xa027.5 L Laptop Backpack Valex', 'https://www.flipkart.com/american-tourister-valex-27-5-l-laptop-backpack/p/itm17b521a7d880e'], ['KTAGJQF9G5NHSFCM', 'RAGMINE\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/ragmine-women-printed-straight-kurta/p/itm730ab91e97103'], ['KRTFDVDJQCYGWXW5', 'sonia collection\xa0Women Embroidered Cotton Blend Straight Kurta', 'https://www.flipkart.com/sonia-collection-women-embroidered-straight-kurta/p/itmb1b7dbae35edd']]</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[['KPBGGZ3ZTZMWDS2Y', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itm13d3f1376ed20'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef']]</t>
+          <t>[['SHOFJP8JHQ53BKWY', 'World Wear Footwear\xa0Running Shoes For Men Trekking Shoes,Comfortable For MenS Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-running-shoes-men-trekking-shoes-comfortable-men-s-sneakers/p/itm346aa535d0060'], [nan, nan, nan], ['ERGG7MHUDVDNW8HV', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME95 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me95-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmc82b9b0c0ffbc'], ['STBFMSTDCWBZHXDS', 'ABYS\xa0Leather Cross Body Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-leather-cross-body-bag-small-travel/p/itm4f559545c46b6'], ['RKSGZ9HQQHFBA5KF', 'SAKSHI FASHION\xa0NEW Water Proof Mountain Rucksack/Trekking Bag Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-fashion-new-water-proof-mountain-rucksack-trekking-bag-rucksack-70-l/p/itmba47ce64b90ba'], ['BZRGN8GES8AGYH9E', 'THE MD FASHION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/md-fashion-solid-single-breasted-casual-women-blazer/p/itm462126d0ebbe8'], ['SLBGDUZZ2B3BZBA8', 'CarryTrip\xa0Black Men &amp; Women Shoulder Bag', 'https://www.flipkart.com/carrytrip-black-shoulder-bag-crossbody-unisex-chest-travelling-adjustable-strap/p/itm153b83ca4d421'], ['SGLFW24UKQHWGT9G', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmca1124c55358b'], ['STBFVU6DKMPB8ZQN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm4fc56d093ec74'], ['ERGFMWQ8Q2MK97H3', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M204 Cubic Zirconia Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m204-cubic-zirconia-metal-earring-earring/p/itm65f1b1a4078a8'], ['KTAGPRMTFCJPW856', '7800 GROUP\xa0Pack of 2 Women Floral Print Crepe Frontslit Kurta', 'https://www.flipkart.com/7800-group-women-floral-print-frontslit-kurta/p/itm89f2af15bb8ab']]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>567495</t>
+          <t>964167</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nathaniel</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jackson</t>
+          <t>Rush</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1496,178 +1496,178 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Jersey</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], [nan, nan, nan], ['ETHGZ84ZYKH3JTKX', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6fed17e59bdfc'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['DREG6UP2BEEXXRZA', '7800 GROUP\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/7800-group-women-a-line-multicolor-dress/p/itm413f14c9bb0a8'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d']]</t>
+          <t>[['SRWFJHJFEYZ22N9W', 'Honey Fashion Printed SherwaniHoney Fashion Printed Sherwani', 'https://www.flipkart.com/honey-fashion-printed-sherwani/p/itm96090abcef258'], ['JEAFYQJ6KBAYYBZ8', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm604d87fa43dc9'], ['JEAGGP2HWQEVQZHQ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm5eac215010627'], ['SGLFW24UKQHWGT9G', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmca1124c55358b'], ['ERGFMWQ8Q2MK97H3', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M204 Cubic Zirconia Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m204-cubic-zirconia-metal-earring-earring/p/itm65f1b1a4078a8'], ['KETGEM3WGKAJ8DFC', 'LAVISH CLUB\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/lavish-club-boys-festive-party-sherwani-churidar-set/p/itm2938a0bb94e00'], ['BZREWMASHG3DPYPT', 'KARMIC VISION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/karmic-vision-solid-single-breasted-casual-women-blazer/p/itmewmd9xvhzggzz'], ['KETGCYUFZZEPKHFV', 'KAVSHIL\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/kavshil-boys-festive-party-sherwani-churidar-set/p/itm0d764d376701f'], [nan, nan, nan], ['RKSGZR6WHNT6VGSG', 'IMPULSE\xa0Safar bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 60 L', 'https://www.flipkart.com/impulse-safar-bag-travel-men-tourist-backpack-hiking-trekking-camping-rucksack-60-l/p/itme8cb03dffbb59'], ['BZRGN8GES8AGYH9E', 'THE MD FASHION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/md-fashion-solid-single-breasted-casual-women-blazer/p/itm462126d0ebbe8'], ['KETGCYUFEAYVQCNQ', 'KAVSHIL\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/kavshil-boys-festive-party-sherwani-churidar-set/p/itm209c97ba8db1a'], ['SHOFH5SHAFQMTHZB', 'CAMRO\xa0Hulk-02 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-02-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm672804cec90c1']]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23']]</t>
+          <t>[['SRWFJKBYJFNUWCWH', 'Honey Fashion Solid SherwaniHoney Fashion Solid Sherwani', 'https://www.flipkart.com/honey-fashion-solid-sherwani/p/itmf0c4a1750a0c8'], ['BKPF3YHHXAN6RSYT', 'SAFARI\xa045.792 L Laptop Backpack SEEK 45L 21 OB BLK', 'https://www.flipkart.com/safari-seek-45l-21-ob-blk-45-792-l-large-laptop-backpack/p/itmf3yjc6dazjprt'], ['KTAGKK8AQDDYCD5V', 'LANYA FAB\xa0Women Printed Cotton Blend A-line Kurta', 'https://www.flipkart.com/lanya-fab-women-printed-a-line-kurta/p/itm6a2b96d7e4406']]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['SHOG7DM3AXNK9DKV', 'bacca bucci\xa0MOUNTAIN Splash proof full Grain Leather biker Boots Trekking Hiking with Fur Boots For Men', 'https://www.flipkart.com/bacca-bucci-mountain-splash-proof-full-grain-leather-biker-boots-trekking-hiking-fur-men/p/itm6b40c995e679e'], ['DREGKSWSBZWNZSH9', 'fashionwrld\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-a-line-multicolor-dress/p/itm571db53ad2432'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87']]</t>
+          <t>[[nan, nan, nan]]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>985347</t>
+          <t>711693</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Yvonne</t>
+          <t>Tony</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hunt</t>
+          <t>Delgado</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7']]</t>
+          <t>[['SNDGH7536RAY7XED', 'World Wear Footwear\xa0Men White Flats Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-flats/p/itmad71856cd889b'], ['STBFW59VEVBPXZGG', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel/p/itmfd0161d5b15b0'], ['TOPGEAJFPQXMVMNZ', 'VeshCode\xa0Casual Balloon Sleeve Solid Women Orange Top', 'https://www.flipkart.com/veshcode-casual-solid-women-orange-top/p/itm28b12cdacfbc0'], ['SGLGKN8HHNPBGUGT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (50)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itm9dfc11c9354e0'], ['DREGZJGWRUNWNEPZ', 'Rue Collection\xa0Women Maxi Black, White Dress', 'https://www.flipkart.com/rue-collection-women-maxi-black-white-dress/p/itm7fd4bd31aaa98'], [nan, nan, nan], ['DREFHGC3ZQ54KCG6', 'JWF\xa0Women Maxi Black Dress', 'https://www.flipkart.com/jwf-women-maxi-black-dress/p/itmfhgnwzcrqwefq'], ['DREFHGC3ZQ54KCG6', 'JWF\xa0Women Maxi Black Dress', 'https://www.flipkart.com/jwf-women-maxi-black-dress/p/itmfhgnwzcrqwefq'], ['LCHGZ7DWZEV76B7T', 'DHAVDI ENTERPRISE\xa0Checkered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-checkered-semi-stitched-lehenga-choli/p/itm9d2307dd3248b'], ['SARGC93V6RPAGEEJ', 'PD CLOTH VILLA\xa0Embroidered Bollywood Velvet Saree', 'https://www.flipkart.com/pd-cloth-villa-embroidered-bollywood-velvet-saree/p/itm000f4c41f2c7e'], [nan, nan, nan], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['DREGKSWSBZWNZSH9', 'fashionwrld\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-a-line-multicolor-dress/p/itm571db53ad2432'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8']]</t>
+          <t>[['SNDFU9CJYGDCTHZ6', 'BLINDER\xa0Women Off White Flats Sandal', 'https://www.flipkart.com/blinder-women-off-white-flats/p/itmb5fda55a69e53'], ['DREFSQSTFYSXN96D', 'MUDRIKA\xa0Women Maxi Black, Orange Dress', 'https://www.flipkart.com/mudrika-women-maxi-black-orange-dress/p/itm35e4122378371'], ['TOPGD8VFB9DGDRDG', 'Sheetal Associates\xa0Casual Regular Sleeves Solid Women Black Top', 'https://www.flipkart.com/sheetal-associates-casual-solid-women-black-top/p/itmd23805866cb0f'], ['LCHG4PTEZTNZGZQ9', 'Crissy\xa0Embellished Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embellished-semi-stitched-lehenga-choli/p/itm1dbf157e2d314'], ['LCHGEG67R2WCHKWC', 'Zopviz Villa\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/zopviz-villa-self-design-semi-stitched-lehenga-choli/p/itmd61aca9ea6421']]</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['SHTGAHWSTTQRKDKS', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-blue-shirt/p/itm9b2791f9585ea'], ['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15']]</t>
+          <t>[[nan, nan, nan], ['SNDG6B8ZGPA5X8GH', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm2dc42eca1dbb7'], ['SARFYTNPB5N7HDJ9', 'Flip The Style\xa0Printed Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-chiffon-saree/p/itm8e8079a36d874'], ['ERGFYRVSKKWTCEX4', 'MEENAZ\xa0Traditional South Screw Back Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Peacock Jhumka Jhumkas Bahubali Hair Chain Jhumki Ear rings/ Earings / Earrings for girls women Golden Micro Antique - JHUMKI-ME137 Brass, Copper, Metal, Alloy Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-peacock-jhumka-jhumkas-bahubali-hair-chain-jhumki-ear-rings-earings-earrings-girls-women-golden-micro-antique-jhumki-me137-brass-copper-metal-alloy-earring-set/p/itmc8a1365e26e6f'], ['TOPGD8VFB9DGDRDG', 'Sheetal Associates\xa0Casual Regular Sleeves Solid Women Black Top', 'https://www.flipkart.com/sheetal-associates-casual-solid-women-black-top/p/itmd23805866cb0f'], ['ERGFZ7ZD3NNNKH5J', 'MEENAZ\xa0Traditional South indian Temple Jewellery Wedding Bridal Daily use Multicolor oxidised golden earrings jhumka Combo jumkas small Stud Tops Meenakari Jhumkas earing Combo set pack / Antique multi ear rings for women girls Latest design 6 earrings-JHUMKI COMBO-ME01 Beads, Pearl Metal Stud Earring, Drops &amp; Danglers, Jhumki Earring, Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-wedding-bridal-daily-use-multicolor-oxidised-golden-earrings-jhumka-combo-jumkas-small-stud-tops-meenakari-jhumkas-earing-set-pack-antique-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me01-beads-pearl-metal-earring-drops-danglers-jhumki-earring/p/itma0b717ef10316'], ['LCHGZ7DWZEV76B7T', 'DHAVDI ENTERPRISE\xa0Checkered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-checkered-semi-stitched-lehenga-choli/p/itm9d2307dd3248b'], ['LCHG4CKKQESFYUGN', 'Crissy\xa0Embroidered, Floral Print Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-floral-print-semi-stitched-lehenga-choli/p/itmc07b422fc53f7']]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>335169</t>
+          <t>727605</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Payne</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346']]</t>
+          <t>[['ERGGYU7XRDZTBRJQ', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear non piercing Studs stainless Steel Jewelry Style Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Hoops Earrings Combo Set pack non pierced Ear rings Stud Tops Bali Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry design ( 4 pcs ) -mens earrings combo-me52 Metal Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-non-piercing-studs-stainless-steel-jewelry-style-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-earrings-combo-set-pack-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-4-pcs-mens-combo-me52-metal-earring/p/itma80607f274f4f'], ['JEAFYQGSWHY5CFMG', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itmf8478eedf6bf6'], ['KTAGJQF9GCNAFVRW', 'RAGMINE\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/ragmine-women-printed-straight-kurta/p/itmcd891c4aacedb'], ['KTAGH3YFZDGHKBBJ', 'SONAVA CLUB\xa0Women Printed Viscose Rayon Anarkali Kurta', 'https://www.flipkart.com/sonava-club-women-printed-anarkali-kurta/p/itmf7c06d44a8e6d']]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['DREGKSWSBZWNZSH9', 'fashionwrld\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-a-line-multicolor-dress/p/itm571db53ad2432'], [nan, nan, nan], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['ETHGYA5FZKCRCKZ3', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6d37aebb829e3'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977'], [nan, nan, nan], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd']]</t>
+          <t>[['STBFZSFFFWUFQ7DC', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Small Travel Bag  - Medium', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown-small-travel-medium/p/itm62e4ebc10ebee'], ['ERGGFSHZXPPPA6QQ', 'Karishma Kreations\xa0Mens Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Metal Stud Earring, Hoop Earring, Earring Set, Huggie Earring, Plug Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-metal-earring-earring-set-huggie-cuff/p/itmd8afe8590df5c'], ['SHOGG5FT9WTYYYFZ', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itmc03adefc7970a'], ['SHOFENAFHYFBV33N', 'World Wear Footwear\xa0Latest Collection-1138 Stylish Casual Sports Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-latest-collection-1138-stylish-casual-sports-sneakers-men/p/itm592754103ce33'], ['SHOG9MPGYM6AFUMG', 'HX London\xa0Stylish Laceup Boots For Men', 'https://www.flipkart.com/hx-london-stylish-laceup-boots-men/p/itmf0d60e27dca1a'], ['RKSG6W3DYRJK3UHX', 'ozino\xa0Travel Backpack for Outdoor Sport Camping Hiking Trekking Bag Rucksack Bag Trekking bag . 60L Rucksack  - 60 L', 'https://www.flipkart.com/ozino-travel-backpack-outdoor-sport-camping-hiking-trekking-bag-rucksack-60l-60-l/p/itm7a1176bc4a877'], ['STBFMSTDCWBZHXDS', 'ABYS\xa0Leather Cross Body Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-leather-cross-body-bag-small-travel/p/itm4f559545c46b6'], ['SGLGGKSVGBGE3YF9', 'Ted Smith\xa0Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm88e36b022bba3'], ['SHOGFQ6QDUQRPR7A', 'CAMRO\xa0Hulk-01 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-01-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itmb6250ccc05700']]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], [nan, nan, nan], ['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d'], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9']]</t>
+          <t>[['JEAGCNQUCFMSTHKV', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm90eb58a441b97'], ['JEAGJ4YGATHBBKRV', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm04eca49c50ec0'], ['SGLGZUGZBAAJF2HQ', 'Resist\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-aviator-sunglasses/p/itm60621f9eba7de'], ['ERGGBMQ2TH4PF7UQ', 'Shoshaa\xa0Multicoloured Circular Studs Brass Stud Earring', 'https://www.flipkart.com/shoshaa-multicoloured-circular-studs-brass-stud-earring/p/itm5856f091fa7f9'], ['SGLFZCRCYYPS6HJX', 'Fair-x\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/fair-x-aviator-sunglasses/p/itm214678c66746e'], ['BZRGCRSV2CGGMH9F', 'DKGF FASHION\xa0Men Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/dkgf-fashion-solid-single-breasted-casual-men-blazer/p/itm67ffe78118c1a'], ['SGLFYHEVCZYJYF4T', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm61a1dd6e234c0'], [nan, nan, nan], ['SUIGE5ZEUH8DSKVE', 'DKGF FASHION\xa0Men Single Breasted Solid Suit', 'https://www.flipkart.com/dkgf-fashion-single-breasted-solid-men-suit/p/itm76a821c733188']]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>710589</t>
+          <t>116769</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Marcus</t>
+          <t>Jody</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Rowe</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['DREGK5N7FGKW56HH', 'maruti fab\xa0Women Fit and Flare Green, Black Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-green-black-dress/p/itmc94e7722920e1'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02']]</t>
+          <t>[[nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df']]</t>
+          <t>[['KETFNFUVQGBQQWPE', 'AJ Dezines\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-wedding-sherwani-churidar-set/p/itmba461eb54fb09'], ['SHOGYXEMFYEYH5QV', 'HX London\xa0Brogues Ankle Boots For Men', 'https://www.flipkart.com/hx-london-brogues-ankle-boots-men/p/itm70d0374f45da0'], ['SGLF84PQ95MAP857', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9qzhyj9w3'], ['SHOFH5SHAFQMTHZB', 'CAMRO\xa0Hulk-02 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-02-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm672804cec90c1']]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[['DREGGSSRNWGKHFFG', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itmc6b361e2ef2e6'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['DREGK5N7JNTFEGNH', 'maruti fab\xa0Women Fit and Flare Light Blue Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-light-blue-dress/p/itm2904de16bdfa7'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['SHTGHQU4E3EHCEKT', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-dark-blue-shirt/p/itmf1fd163332f06']]</t>
+          <t>[['SGLGB7G8DT7PXHS6', 'Ted Smith\xa0UV Protection Aviator Sunglasses (56)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmaa86102a0bfee'], ['SGLGFYDUXM8KCHPD', 'VINCENT CHASE\xa0by Lenskart Polarized, UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/vincent-chase-lenskart-aviator-sunglasses/p/itm6d19976cb47a0'], ['STBFZSFFFWUFQ7DC', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Small Travel Bag  - Medium', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown-small-travel-medium/p/itm62e4ebc10ebee'], ['KTAGZNV35AE7HHGV', 'EKASYA\xa0Women Embellished Silk Blend Straight Kurta', 'https://www.flipkart.com/ekasya-women-embellished-straight-kurta/p/itm309b9e32b6182'], ['JEAGG6DDDRRHF5QG', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm1a5faf2ca4cc6'], ['BZRGKFYYTWFFFGMY', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma5d53e51ad843'], ['JEAGEYGV5D2FDFAK', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm4577eb2e96a75'], ['SHOGC5PERYBWE82Z', 'Denill\xa0Boots For Women', 'https://www.flipkart.com/denill-boots-women/p/itm63378d457a2f7']]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>504753</t>
+          <t>347325</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Edwards</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1676,43 +1676,43 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], [nan, nan, nan], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], [nan, nan, nan], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b']]</t>
+          <t>[['LCHGGC2X8PMC6HYY', 'Tishta\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/tishta-self-design-semi-stitched-lehenga-choli/p/itmd3c2c5a2f2e8d'], ['SHOGKYNZG4FACJEZ', 'Hitpro\xa0BwBoots9 Boots For Men', 'https://www.flipkart.com/hitpro-bwboots9-boots-men/p/itm94a6e344728a3']]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977'], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], [nan, nan, nan], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977']]</t>
+          <t>[['TOPFAY4BGMKT4T68', 'KASSUALLY\xa0Casual Flared Sleeves Floral Print Women White Top', 'https://www.flipkart.com/kassually-casual-flared-sleeve-floral-print-women-white-top/p/itmfayamxh9kygt7']]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['DREG6WSM9DAYAFZZ', 'Rudraaksha\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/rudraaksha-women-a-line-multicolor-dress/p/itmc2d4bba8d0d19'], ['TSHGGTH3ZZZJFJFR', 'London Hills\xa0Men Striped Hooded Neck Cotton Blend Pink T-Shirt', 'https://www.flipkart.com/london-hills-striped-men-hooded-neck-pink-t-shirt/p/itmf148db8f2ffeb'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8']]</t>
+          <t>[[nan, nan, nan], ['ERGFYREZGRYQ5YHC', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Ghungroo Hoop Jhumka Jhumkas Jhumki Bali Ear rings/ Earings / Earrings for girls women Golden Micro Antique -GOLD JHUMKI-ME136 Brass, Copper, Metal, Alloy Earring Set, Jhumki Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-ghungroo-hoop-jhumka-jhumkas-jhumki-bali-ear-rings-earings-earrings-girls-women-golden-micro-antique-gold-jhumki-me136-brass-copper-metal-alloy-earring-set-earring/p/itmad442c65d0a6a']]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>235107</t>
+          <t>951003</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1721,88 +1721,88 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], [nan, nan, nan], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5']]</t>
+          <t>[['KTAGPZCCK7URHYWK', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itm54c15e0c712e7'], ['HMBG4PXPTFF5ZCVV', 'ABYS\xa0Men &amp; Women Pink, Blue Messenger Bag - Regular Size', 'https://www.flipkart.com/abys-men-women-pink-blue-messenger-bag/p/itm0e014c86b1526'], ['JEAGGZFTMQZKRKAJ', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm3ddb994bb8b2f'], ['ERGGYU7XRDZTBRJQ', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear non piercing Studs stainless Steel Jewelry Style Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Hoops Earrings Combo Set pack non pierced Ear rings Stud Tops Bali Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry design ( 4 pcs ) -mens earrings combo-me52 Metal Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-non-piercing-studs-stainless-steel-jewelry-style-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-earrings-combo-set-pack-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-4-pcs-mens-combo-me52-metal-earring/p/itma80607f274f4f'], ['JEAGJZYBGAHHSGBF', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8bdcd3b9b07c5'], ['SUIGHJKZUZHRWEES', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itmf571baf78d2a2'], ['TVPF6YZGZWZ7PXUH', 'Nightstar Waist Bag\xa0\xa0(Red)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f3ptmua8ahy'], ['STBFCMRWAVHKJKAK', 'ABYS\xa0100% Genuine Leather Brown Travel Bag||Sports Bags ||Messenger Bag for Men &amp; Women Small Travel Bag  - Small', 'https://www.flipkart.com/abys-100-genuine-leather-brown-travel-bag-sports-bags-messenger-bag-men-women-small/p/itmfcmtqcpdq34zh']]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85']]</t>
+          <t>[['JEAGEYGV5D2FDFAK', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm4577eb2e96a75'], ['KETFNFUVQGBQQWPE', 'AJ Dezines\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-wedding-sherwani-churidar-set/p/itmba461eb54fb09'], ['SGLGZUGZ7KHSEJKF', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itmd6ced64972044'], ['JEAFYQGSWHY5CFMG', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itmf8478eedf6bf6']]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930']]</t>
+          <t>[['RKSGMPYNFQ3UMATR', 'AYEZA\xa0Waterproof Backpack Used for Travel/Collage/Trekking Bag for Unisex Rucksack  - 60 L', 'https://www.flipkart.com/ayeza-waterproof-backpack-used-travel-collage-trekking-bag-unisex-rucksack-60-l/p/itm3324e01fe3749'], ['KTAFZ9AFUWKZS4EB', 'NEW ETHNIC FASHION\xa0Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/new-ethnic-fashion-women-printed-straight-kurta/p/itmd3ff25bd80950'], ['SHOGBVWDS82DZDXH', 'World Wear Footwear\xa0Exclusive Affordable Collection of Trendy &amp; Stylish Sport Sneakers Shoes Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-exclusive-affordable-collection-trendy-stylish-sport-sneakers-shoes-running-men/p/itmc52859fa3a657'], ['JEAGJZY9XQTTXC2G', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm802edd5bd7855'], ['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], ['ERGGFSDASHGBPBKS', 'Karishma Kreations\xa0Mens Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Steel, Stainless Steel, Copper, Brass Stud Earring, Hoop Earring, Earring Set, Huggie Earring, Plug Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-steel-copper-brass-earring-earring-set-huggie-cuff/p/itmeaeb2c61f6da3'], ['RKSGQF3NPSVZF2VV', 'EZRA\xa0Backpack UNISEX Water Proof Mountain RucksackHiking/Trekking/Camping Bag Rucksack  - 75 L', 'https://www.flipkart.com/ezra-backpack-unisex-water-proof-mountain-rucksackhiking-trekking-camping-bag-rucksack-75-l/p/itm2a023ee0cc9a8']]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>832899</t>
+          <t>310641</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Adkins</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d'], ['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d']]</t>
+          <t>[['KETFNEH55N9PPHVH', 'BURBN\xa0Boys Casual Sherwani and Churidar Set', 'https://dl.flipkart.com/dl/burbn-boys-casual-sherwani-churidar-set/p/itm64e5fe1d3e3fb'], ['SGLFYHEVCZYJYF4T', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm61a1dd6e234c0'], ['JEAFYQGSVQQZBTCF', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm02611950d653e'], ['SHOGG5FT9WTYYYFZ', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itmc03adefc7970a'], ['SRWG4TW9HF2CQKSF', 'SEMINO Kids Indian Ethnic Handwork Embroidery Sherwani and Breeches Set With Dupatta Self Design SherwaniSEMINO Kids Indian Ethnic Handwork Embroidery Sherwani and Breeches Set With Dupatta Self Design Sherwani', 'https://www.flipkart.com/semino-self-design-sherwani/p/itmb3e606437108a'], ['SRWG5K5HNQDBHRMV', 'Feellasto Embroidered SherwaniFeellasto Embroidered Sherwani', 'https://www.flipkart.com/feellasto-embroidered-sherwani/p/itm07a34dfd9f616'], ['ERGG4GE5FQPARSC4', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops Mens Earing Earrings for Men may Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop bali -MENS EARRING COMBO-ME76 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-mens-combo-me76-crystal-cubic-zirconia-diamond-alloy-metal-stainless-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itm38d95c95d8c9a'], ['SUIGKGVNQZPFCK4H', 'TAHVO\xa0Men Black Tuxedo men suit Solid Suit', 'https://www.flipkart.com/tahvo-black-tuxedo-men-suit-solid/p/itm869b69c0eac13'], ['SGLGHBYAZFC4RGV5', 'Ted Smith\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm8da06b3c243bc'], ['JEAGJ4YG3RHGRUSH', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma71c6a67263a9'], ['SRWG49FZY8CHSRJM', 'Chote Raja Collection chote raja collection Solid Sherwani Solid SherwaniChote Raja Collection chote raja collection Solid Sherwani Solid Sherwani', 'https://www.flipkart.com/chote-raja-collection-solid-sherwani/p/itm16aa1c11a9ab2']]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[['KPBGGZ3ZTZMWDS2Y', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itm13d3f1376ed20']]</t>
+          <t>[['SUIGN9P6JFBPNTH7', 'WoowZerZ\xa0Women Coat Co-ords Solid Suit', 'https://www.flipkart.com/woowzerz-coat-co-ords-solid-women-suit/p/itm8fc9899514ba5'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['DREGGSSRS6PYGNA3', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itm845406cd3aef2'], ['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f']]</t>
+          <t>[['JEAFYQGSWHY5CFMG', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itmf8478eedf6bf6'], ['ERGGFSHZXPPPA6QQ', 'Karishma Kreations\xa0Mens Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Metal Stud Earring, Hoop Earring, Earring Set, Huggie Earring, Plug Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-metal-earring-earring-set-huggie-cuff/p/itmd8afe8590df5c'], ['JEAGEYGV5D2FDFAK', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm4577eb2e96a75'], ['JEAGPGKHWRTQTU7M', 'BEING HUMAN\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-skinny-men-grey-jeans/p/itmfcd41fd60eb59'], [nan, nan, nan], [nan, nan, nan], ['ERGFGB8QGFWUNBAG', 'V L INTERNATIONAL\xa0Ethnic Earrings Jhumka Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-ethnic-earrings-jhumka-alloy-jhumki-earring/p/itm8774a8f5761a1'], ['SGLFW24UKQHWGT9G', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmca1124c55358b'], ['SHOGG5FT9WTYYYFZ', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itmc03adefc7970a'], ['SHOGMGQ4CSMEDZPG', 'HX London\xa0Casuals For Men', 'https://dl.flipkart.com/dl/hx-london-casuals-men/p/itma41d273b347b6'], ['JEAGGP2HWQEVQZHQ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm5eac215010627'], ['JEAGPGNUSURYXFVN', 'BEING HUMAN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-regular-men-grey-jeans/p/itmab42d2596d878'], ['STBFMSTDCWBZHXDS', 'ABYS\xa0Leather Cross Body Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-leather-cross-body-bag-small-travel/p/itm4f559545c46b6']]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>902607</t>
+          <t>515325</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hebert</t>
+          <t>Daugherty</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1811,133 +1811,133 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Palestinian Territory</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], [nan, nan, nan], ['DREGGSSRS6PYGNA3', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itm845406cd3aef2'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['ETHGAT6DDANANQ7K', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6157867ed65b9'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], [nan, nan, nan]]</t>
+          <t>[['BZRGN8GES8AGYH9E', 'THE MD FASHION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/md-fashion-solid-single-breasted-casual-women-blazer/p/itm462126d0ebbe8'], ['JEAFYQGSWHY5CFMG', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itmf8478eedf6bf6'], ['KTAGPZCCFGEWBSHF', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itm3521f0a6cbe6e'], ['ERGGYHZRTQUJ4SXZ', 'MEENAZ\xa0Fashion Multi jewellery Valentine Single Golden Silver Black Surgical Plug Hoops Ear piercing Studs Steel Jewelry Style Stylish Fancy Party wear Daily use simple Magnetic Round MultIcolor Bali Hoops Earrings Combo Set pierced Ear rings Stud Tops Round Dumbell Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry -MENS EARRINGS COMBO-ME36 Alloy, Metal, Stainless Steel, Brass, Steel Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multi-jewellery-valentine-single-golden-silver-black-surgical-plug-hoops-ear-piercing-studs-steel-jewelry-style-stylish-fancy-party-wear-daily-use-simple-magnetic-round-multicolor-bali-earrings-combo-set-pierced-rings-stud-tops-dumbell-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-pack-mens-combo-me36-alloy-metal-stainless-steel-brass-earring/p/itm1eb03158bdf33'], ['KETFF2G7XF8MERUQ', 'AJ Dezines\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-sherwani-churidar-set/p/itmff2hcehbfdmvg'], ['KTAGZNV35AE7HHGV', 'EKASYA\xa0Women Embellished Silk Blend Straight Kurta', 'https://www.flipkart.com/ekasya-women-embellished-straight-kurta/p/itm309b9e32b6182'], ['JEAFYQGSDHFVZNNV', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm0698668514d10']]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5']]</t>
+          <t>[['KETFF2G7XF8MERUQ', 'AJ Dezines\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-sherwani-churidar-set/p/itmff2hcehbfdmvg']]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c']]</t>
+          <t>[['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['SOCGGZB9Z6HHFDZS', 'GOLDINKS\xa0Men Striped Ankle Length', 'https://www.flipkart.com/goldinks-men-striped-ankle-length/p/itm24462574540ba'], ['JEAGJZY9XQTTXC2G', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm802edd5bd7855'], ['WSBFQ3GG28HCQFC8', 'SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag\xa0\xa0(Pink)SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag', 'https://www.flipkart.com/spice-art-women-s-solid-pu-latest-designer-sling-bag-fanny-pack-crossbody-waist-pink-color/p/itm1d791275f1d0e'], ['SGLF7HGZKHHSTQ8H', 'GANSTA\xa0Gradient, UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/gansta-aviator-sunglasses/p/itmf7hmfp5r8hcdb'], ['ERGGPYJSPDFGTKQS', 'TLGS\xa0Golden Chand Bali Chilai Texture Simple Design for Boys Men Brass, Copper Hoop Earring', 'https://www.flipkart.com/tlgs-golden-chand-bali-chilai-texture-simple-design-boys-men-brass-copper-hoop-earring/p/itmb4c0dcdfc56f1'], ['SHOGZFNFCXHY7SZG', 'Zsyto\xa0Canvas Shoes For Men', 'https://www.flipkart.com/zsyto-canvas-shoes-men/p/itmbf278fa79b88f'], ['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], ['KETFNEH55N9PPHVH', 'BURBN\xa0Boys Casual Sherwani and Churidar Set', 'https://dl.flipkart.com/dl/burbn-boys-casual-sherwani-churidar-set/p/itm64e5fe1d3e3fb'], [nan, nan, nan], ['SHOGPJWYDHCQPHKT', 'Aragats\xa0Boots For Men', 'https://www.flipkart.com/aragats-boots-men/p/itmf325ae71391e8'], ['JEAGGZFTMQZKRKAJ', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm3ddb994bb8b2f'], ['JEAGPGKHWRTQTU7M', 'BEING HUMAN\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-skinny-men-grey-jeans/p/itmfcd41fd60eb59']]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>610647</t>
+          <t>747471</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Mann</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cocos (Keeling) Islands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['SHOG9MZFBP9BGCDX', 'RapidBox\xa0Sneakers For Men', 'https://www.flipkart.com/rapidbox-sneakers-men/p/itm3e9655a4a9be5'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['SHTGAHWSTTQRKDKS', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-blue-shirt/p/itm9b2791f9585ea'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d']]</t>
+          <t>[[nan, nan, nan], ['WSBGASYART8G9DG5', 'sanjis Girls/Women Cute Fanny Pack Fur Waist Bag Belt Bag Chest Bag Shoulder Bag Waist Bag\xa0\xa0(Multicolor)sanjis Girls/Women Cute Fanny Pack Fur Waist Bag Belt Bag Chest Bag Shoulder Bag Waist Bag', 'https://www.flipkart.com/sanjis-girls-women-cute-fanny-pack-fur-waist-bag-belt-chest-shoulder/p/itm572655e0a4a5a'], [nan, nan, nan], [nan, nan, nan], ['STBFWE59ZB8RGWPX', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6e136ad859c82'], ['SNDG5FR5YGFH44W4', 'Wildcraft\xa0Men Multicolor Sports Sandal', 'https://www.flipkart.com/wildcraft-men-multicolor-sports-sandals/p/itmed21edffc58c3'], ['SARGNYV5AGUGQB9Z', 'Nena Fashion\xa0Embroidered Daily Wear Georgette Saree', 'https://www.flipkart.com/nena-fashion-embroidered-daily-wear-georgette-saree/p/itmb98cc4819a9cc'], [nan, nan, nan], ['JEAFYQGSDHFVZNNV', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm0698668514d10'], ['JEAGJZYBGAHHSGBF', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8bdcd3b9b07c5'], ['ERGFYRDUBA3HZWS4', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Antique 3 Three Layered Jhumki Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME134 Brass, Copper, Metal, Alloy Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-antique-3-three-layered-jhumki-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-gold-jhumki-me134-brass-copper-metal-alloy-earring-set/p/itm9449dad943534'], ['TOPG9HBWUWZY26ST', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Black, Grey Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-grey-top/p/itm2108dd3cdcf81']]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], [nan, nan, nan], ['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], [nan, nan, nan], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198']]</t>
+          <t>[['SHOGJ9KBJNGXHWZY', 'Shoe Island\xa0Robust-X ™ Leather Tan Brown Tough Lace Ups High Ankle Length Mens Casual Boots Boots For Men', 'https://www.flipkart.com/shoe-island-robust-x-leather-tan-brown-tough-lace-ups-high-ankle-length-mens-casual-boots-men/p/itm72065b42715ba'], ['TOPGPT6QARAGHWP7', 'Christone\xa0Casual Regular Sleeves Solid Women Black Top', 'https://www.flipkart.com/christone-casual-solid-women-black-top/p/itmfa395a78be321'], ['STBFW59VEVBPXZGG', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel/p/itmfd0161d5b15b0'], ['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by'], ['SNDGN276A7WEG4Z3', 'Denill\xa0Women Beige Flats Sandal', 'https://www.flipkart.com/denill-women-white-flats/p/itm84d6cf3e07d8b'], ['LCHGMHPX6PCWYGZM', 'aadhiya impex\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/aadhiya-impex-embroidered-semi-stitched-lehenga-choli/p/itm033b71cfaeedd'], ['SGLFT9FDTVGH8N7B', 'Eyewearlabs\xa0Polarized, UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/eyewearlabs-aviator-sunglasses/p/itm1f62b6cbc2219'], ['JEAGPGKHWRTQTU7M', 'BEING HUMAN\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-skinny-men-grey-jeans/p/itmfcd41fd60eb59'], ['ERGFYQZXGRKUGMPE', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Antique Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME120 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-antique-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-gold-jhumki-me120-brass-copper-metal-alloy-jhumki-earring/p/itm11d8b61ff6862'], ['LCHGZ7DXCHYFRY3B', 'DHAVDI ENTERPRISE\xa0Solid Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-solid-semi-stitched-lehenga-choli/p/itmd100f6bea0577'], ['SHOF9EYGCBREYQS7', 'Shoe Island\xa0Leatherette Heavy Duty Lace-Up Military High Ankle Length Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-leatherette-heavy-duty-lace-up-military-high-ankle-length-casual-long-boots-men/p/itmf9es5sffg45c7']]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5'], ['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d']]</t>
+          <t>[['SARG56S39XE8MNGG', 'FASHION RELOADER\xa0Embellished Bollywood Georgette Saree', 'https://www.flipkart.com/fashion-reloader-embellished-bollywood-georgette-saree/p/itm134c349eadd98'], [nan, nan, nan], ['LCHGZ7DXCHYFRY3B', 'DHAVDI ENTERPRISE\xa0Solid Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-solid-semi-stitched-lehenga-choli/p/itmd100f6bea0577'], ['SHOFNFG6HUKEBKME', 'Shoe Island\xa0Solid-X Dark Green Olive Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-dark-green-olive-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm3944310efb633'], ['JEAGEYGVZZQQXDQE', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm232760a093285'], ['JEAGEKQZCSRVZWKJ', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm3af3b93115f4a'], ['LCHGZ7DVM7JXWKF3', 'DHAVDI ENTERPRISE\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-embroidered-semi-stitched-lehenga-choli/p/itma8423709d38ae'], ['SARGPRWBKEHMPXBG', 'nick enterprise\xa0Embroidered Bollywood Cotton Blend Saree', 'https://www.flipkart.com/nick-enterprise-embroidered-bollywood-cotton-blend-saree/p/itm83a2f7aba6a8d'], [nan, nan, nan], ['JEAGGP2HWQEVQZHQ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm5eac215010627'], ['TOPGGFBMHNSQN7AQ', 'KASSUALLY\xa0Party Shoulder Straps Printed Women Multicolor Top', 'https://www.flipkart.com/kassually-party-printed-women-multicolor-top/p/itmf22cb55f6c684'], ['SNDGHRY6RQMG5PAN', 'SHOEFLY\xa0Women Blue, White Casual Sandal', 'https://www.flipkart.com/shoefly-women-blue-white-casual/p/itm1751f023c8ee9']]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>772791</t>
+          <t>171903</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Antonio</t>
+          <t>Miranda</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mullins</t>
+          <t>Bond</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], [nan, nan, nan], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a']]</t>
+          <t>[['SRWFJHJFEYZ22N9W', 'Honey Fashion Printed SherwaniHoney Fashion Printed Sherwani', 'https://www.flipkart.com/honey-fashion-printed-sherwani/p/itm96090abcef258']]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[['SHOGFYMCMEQTFQQ5', 'World Wear Footwear\xa0Trendy Stylish Comfortable &amp; Lightweight, Casual High Tops Sneakers Shoes Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-trendy-stylish-comfortable-lightweight-casual-high-tops-sneakers-shoes-men/p/itm98336ff1bad6e'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], ['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['SHTGMK2Y7JKGZKCE', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-grey-shirt/p/itmc34659b21c380']]</t>
+          <t>[['KRTFDVDJQCYGWXW5', 'sonia collection\xa0Women Embroidered Cotton Blend Straight Kurta', 'https://www.flipkart.com/sonia-collection-women-embroidered-straight-kurta/p/itmb1b7dbae35edd'], ['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by'], ['SRWGZ4QDRYHUAVPM', 'ZARAK FASHION Mens Indo Western Sherwani Wedding Dress for Men Ethnic Wear - Green Embroidered SherwaniZARAK FASHION Mens Indo Western Sherwani Wedding Dress for Men Ethnic Wear - Green Embroidered Sherwani', 'https://www.flipkart.com/zarak-fashion-mens-indo-western-sherwani-wedding-dress-men-ethnic-wear-green-embroidered/p/itmfdb05b2ef879d'], ['BZRGMCPS6QFBFYCB', 'Naksh style\xa0Women Solid Double Breasted Formal Blazer', 'https://dl.flipkart.com/dl/naksh-style-solid-double-breasted-formal-women-blazer/p/itmb053fd8d30e45'], ['SLBGDUZZ2B3BZBA8', 'CarryTrip\xa0Black Men &amp; Women Shoulder Bag', 'https://www.flipkart.com/carrytrip-black-shoulder-bag-crossbody-unisex-chest-travelling-adjustable-strap/p/itm153b83ca4d421'], ['SHOGG5FT9WTYYYFZ', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itmc03adefc7970a'], ['SGLFW24UKQHWGT9G', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmca1124c55358b'], [nan, nan, nan], ['KETFF2G7XF8MERUQ', 'AJ Dezines\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-sherwani-churidar-set/p/itmff2hcehbfdmvg'], ['BZRGN8GES8AGYH9E', 'THE MD FASHION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/md-fashion-solid-single-breasted-casual-women-blazer/p/itm462126d0ebbe8'], ['ERGG4YGVD3ZKHAJP', 'NIMZ\xa0Mens &amp; Women Fashion Jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Combo Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced shape Bali Ear rings Stud Tops Mens Earing Combo for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Stud Earring, Hoop Earring, Plug Earring, Tunnel Earring, Earring Set, Clip-on Earring, Drops &amp; Danglers, Huggie Earring', 'https://www.flipkart.com/nimz-mens-women-fashion-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-combo-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-set-pack-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-multi-hoops-salman-khan-style-cubic-zirconia-metal-earring-tunnel-earring-set-clip-on-drops-danglers-huggie/p/itmd917caa438e11'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['DREGGSSRNWGKHFFG', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itmc6b361e2ef2e6'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['SHTGMK2Y7JKGZKCE', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-grey-shirt/p/itmc34659b21c380'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e']]</t>
+          <t>[['SGLG8X54BVYQ92MG', 'Ted Smith\xa0Gradient Aviator Sunglasses (50)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm4b5b64ff0baba'], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['ERGG3TUFYGKGHHJA', 'NIMZ\xa0Mens &amp; Women Fashion Jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Combo Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced shape Bali Ear rings Stud Tops Mens Earing Combo for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Stainless Steel, Metal, Brass, Alloy Stud Earring, Hoop Earring, Plug Earring, Tunnel Earring, Earring Set, Clip-on Earring, Drops &amp; Danglers, Huggie Earring', 'https://www.flipkart.com/nimz-mens-women-fashion-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-combo-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-set-pack-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-multi-hoops-salman-khan-style-cubic-zirconia-steel-metal-brass-alloy-earring-tunnel-earring-set-clip-on-drops-danglers-huggie/p/itm5c820d3ea13b4']]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>875499</t>
+          <t>638889</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Drew</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cook</t>
+          <t>Webb</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1946,268 +1946,268 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Northern Mariana Islands</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], [nan, nan, nan], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], [nan, nan, nan], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a']]</t>
+          <t>[['KTAGJMT6AXTGZ2GZ', 'DCPGARMENT\xa0Women Printed Cotton Rayon Straight Kurta', 'https://www.flipkart.com/dcpgarment-women-printed-straight-kurta/p/itm256563560ee8c'], [nan, nan, nan], ['KETGHCVZXEHYET5M', 'SEMINO\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/semino-boys-festive-party-wedding-sherwani-churidar-set/p/itmc621cb28d13c9'], ['SHOGAXE5PMXGHE4F', 'Viv\xa0Casual Chukka Biker Boots For Men', 'https://www.flipkart.com/viv-casual-chukka-biker-boots-men/p/itm23d5fee028835'], ['SUIGN9P6JFBPNTH7', 'WoowZerZ\xa0Women Coat Co-ords Solid Suit', 'https://www.flipkart.com/woowzerz-coat-co-ords-solid-women-suit/p/itm8fc9899514ba5'], ['BZRGGG26QMRXKGSD', 'BASICS\xa0Men Solid Tuxedo Style Casual Blazer', 'https://www.flipkart.com/basics-solid-tuxedo-style-casual-men-blazer/p/itm35cdfec8d8a0e'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a']]</t>
+          <t>[['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], ['SGLGE589JEKDUTPZ', 'FASHINITY\xa0UV Protection Aviator, Spectacle  Sunglasses (54)', 'https://www.flipkart.com/fashinity-aviator-spectacle-sunglasses/p/itm9e49a945cd0b1'], ['JEAGGP2HWQEVQZHQ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm5eac215010627'], ['ERGGPYJSPDFGTKQS', 'TLGS\xa0Golden Chand Bali Chilai Texture Simple Design for Boys Men Brass, Copper Hoop Earring', 'https://www.flipkart.com/tlgs-golden-chand-bali-chilai-texture-simple-design-boys-men-brass-copper-hoop-earring/p/itmb4c0dcdfc56f1'], ['KETFNFUVQGBQQWPE', 'AJ Dezines\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-wedding-sherwani-churidar-set/p/itmba461eb54fb09'], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], [nan, nan, nan], ['SGLF84PQZDBYE7CH', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9ubfzzgnb'], ['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by']]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], [nan, nan, nan], ['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23']]</t>
+          <t>[['ERGGBSCR8KF5HVTK', 'Lilly &amp; Sparkle\xa0Lilly &amp; Sparkle Gold Toned Hoop Earrings With Black Stone Set Of 6 Alloy Drops &amp; Danglers', 'https://www.flipkart.com/lilly-sparkle-gold-toned-hoop-earrings-black-stone-set-6-alloy-drops-danglers/p/itm58a79921beb8a']]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>764877</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Rachel</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Lawson</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['ETHGZ84ZYKH3JTKX', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6fed17e59bdfc'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6']]</t>
+          <t>[['DREFTSXTWD3XPJZR', 'KASSUALLY\xa0Women Maxi White, Black Dress', 'https://www.flipkart.com/kassually-women-maxi-white-black-dress/p/itmffef26d08d32c'], ['BAGFZSPARZKVCSFR', 'komto Cross Body bag Single Shoulder Causal Large Capacity Polyester men chest bag (Black) Multipurpose Bag\xa0\xa0(Black, 2 L)komto Cross Body bag Single Shoulder Causal Large Capacity Polyester men chest bag (Black) Multipurpose Bag', 'https://www.flipkart.com/komto-cross-body-bag-single-shoulder-causal-large-capacity-polyester-men-chest-black-multipurpose/p/itm9dd362c497082']]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[['DREGGSSRS6PYGNA3', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itm845406cd3aef2'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977'], ['KPBG5F6YZG6HFSJE', 'BEBYHOOD\xa0Baby Boys Party(Festive) Blazer Bow Tie', 'https://www.flipkart.com/bebyhood-baby-boys-party-festive-blazer-bow-tie/p/itm3b88bc2d6f6b1'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], [nan, nan, nan], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20']]</t>
+          <t>[['SHOGZUE9R2ZE73NU', 'BUCKAROO\xa0ZEKI Outdoors For Men', 'https://www.flipkart.com/buckaroo-zeki-outdoors-men/p/itm9d09ac989df74']]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d']]</t>
+          <t>[[nan, nan, nan], ['STBGPYH3WUNH6EN9', 'ABYS\xa0Genuine Leather New Trendy Sling Bag Small Travel Bag', 'https://www.flipkart.com/abys-genuine-leather-new-trendy-sling-bag-small-travel/p/itme7006bac57c1f'], ['SNDESJRKMWZVVUAC', 'Denill\xa0Women Multicolor Wedges Sandal', 'https://www.flipkart.com/denill-women-white-wedges/p/itmfdj2ub9gmyhp4']]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>712923</t>
+          <t>578445</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sabrina</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Duke</t>
+          <t>Matthews</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Guernsey</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201']]</t>
+          <t>[['SRWGHXFPXKZZDP8X', 'DEYANN Printed SherwaniDEYANN Printed Sherwani', 'https://www.flipkart.com/deyann-printed-sherwani/p/itmf6964353adc41'], ['SGLGHBYAZFC4RGV5', 'Ted Smith\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm8da06b3c243bc'], ['JEAGG6JFGHTZV8UM', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itmeb4632b593b8c'], [nan, nan, nan], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439']]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], [nan, nan, nan], ['ETHGAT6DDANANQ7K', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6157867ed65b9'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['DREGKRUB6ZECJAHE', 'fashionwrld\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-fit-flare-multicolor-dress/p/itmdbdd6b18c9e27'], ['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['ETHGAT6DDANANQ7K', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6157867ed65b9'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['SHTGHQU4E3EHCEKT', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-dark-blue-shirt/p/itmf1fd163332f06']]</t>
+          <t>[[nan, nan, nan], ['STBFMSTDCWBZHXDS', 'ABYS\xa0Leather Cross Body Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-leather-cross-body-bag-small-travel/p/itm4f559545c46b6'], ['SHOGPJWYDHCQPHKT', 'Aragats\xa0Boots For Men', 'https://www.flipkart.com/aragats-boots-men/p/itmf325ae71391e8'], ['SHOFH5SKWJ2KZZQZ', 'CAMRO\xa0Hulk-03 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-03-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itme805bb2d4688d'], ['SHOFGPP4ZCXYSXUH', 'LIONS RIDER\xa0Party Wear For Men', 'https://www.flipkart.com/lions-rider-party-wear-men/p/itmfgq86mgyzkygk'], ['SGLED3YHZDMUUYJY', 'ROYAL SON\xa0Mirrored Aviator Sunglasses (58)', 'https://www.flipkart.com/royal-son-aviator-sunglasses/p/itmf3ykjxj6yncgy'], ['ERGG7MHUDVDNW8HV', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME95 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me95-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmc82b9b0c0ffbc'], ['ERGGGE7HKPNRUR5H', 'Vembley\xa0Korean Beautiful Pearl Wing Stud Earrings 2 Pcs/Set Metal Drops &amp; Danglers', 'https://www.flipkart.com/vembley-korean-beautiful-pearl-wing-stud-earrings-2-pcs-set-metal-drops-danglers/p/itmf357cde23d028'], [nan, nan, nan], ['SUIGE5ZEUH8DSKVE', 'DKGF FASHION\xa0Men Single Breasted Solid Suit', 'https://www.flipkart.com/dkgf-fashion-single-breasted-solid-men-suit/p/itm76a821c733188'], [nan, nan, nan], ['RKSGN8FMFMZQFZEQ', 'IMPULSE\xa0Rucksack bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 65 L', 'https://www.flipkart.com/impulse-rucksack-bag-travel-men-tourist-backpack-hiking-trekking-camping-65-l/p/itm4987f2d1dfd47'], ['SGLFKG6F8GJVKKGJ', 'Ted Smith\xa0Gradient Aviator Sunglasses (59)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmb31f478e20f4a']]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce']]</t>
+          <t>[['ERGG3X8AESQZBGYN', 'shivay\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Hoop Earring, Stud Earring, Magnetic Earring, Tunnel Earring, Tassel Earring, Huggie Earring, Clip-on Earring, Magnetic Earring, Cuff Earring, Plug Earring', 'https://www.flipkart.com/shivay-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-cubic-zirconia-metal-earring-magnetic-tunnel-tassel-huggie-clip-on-cuff/p/itmaea1efd1dec75'], ['KTAGJMT6AXTGZ2GZ', 'DCPGARMENT\xa0Women Printed Cotton Rayon Straight Kurta', 'https://www.flipkart.com/dcpgarment-women-printed-straight-kurta/p/itm256563560ee8c'], ['WSBFQ3GG28HCQFC8', 'SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag\xa0\xa0(Pink)SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag', 'https://www.flipkart.com/spice-art-women-s-solid-pu-latest-designer-sling-bag-fanny-pack-crossbody-waist-pink-color/p/itm1d791275f1d0e'], ['KETG5K39QM3JP87W', 'SEMINO\xa0Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/semino-boys-wedding-sherwani-churidar-set/p/itmfffb9d305cbff'], ['JEAGJPYUVPZGVXBJ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itmf244a2c0ad6e9'], ['SGLG74MTJDYGMWYA', 'Eyewearlabs\xa0Polarized, UV Protection Aviator Sunglasses (56)', 'https://www.flipkart.com/eyewearlabs-aviator-sunglasses/p/itmfe8ec16ab44b4'], ['SGLG8W5CTCQJAZWP', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmea2a902dbc0dd']]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>876663</t>
+          <t>516711</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444']]</t>
+          <t>[['JEAFYQGT6MUEGD4G', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm6661721c5b993'], ['JEAGC5WZGSSSEVP3', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm6222d4620ce65'], [nan, nan, nan], [nan, nan, nan], [nan, nan, nan], ['SGLED3YHZDMUUYJY', 'ROYAL SON\xa0Mirrored Aviator Sunglasses (58)', 'https://www.flipkart.com/royal-son-aviator-sunglasses/p/itmf3ykjxj6yncgy'], ['KETG93ZYV6GJR9W6', 'PK Collection\xa0Baby Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/pk-collection-baby-boys-wedding-sherwani-churidar-set/p/itm4dbd995ae52c0'], ['SHOGF5WXBMHP5KDF', 'Zsyto\xa0Boots For Men', 'https://www.flipkart.com/zsyto-boots-men/p/itm7202b1d426331']]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e']]</t>
+          <t>[['ETHG6N38SRXSXWH2', 'Zastraa\xa0Women Blazer and Pant Set Solid Suit', 'https://www.flipkart.com/zastraa-blazer-pant-set-solid-women-suit/p/itm5f0e51eec9542'], ['SGLGHBYCVQHGYAQT', 'Ted Smith\xa0UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmdb3142fd891f7'], [nan, nan, nan], ['SRWGFRRSMGPHPFZX', 'AVAETA Floral Print SherwaniAVAETA Floral Print Sherwani', 'https://www.flipkart.com/avaeta-floral-print-sherwani/p/itm26bbd7f4cf63e'], ['STBFWE59RW9YTGZP', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8f45129ca2ffc'], ['JEAGFTUKN3CWHMXA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma1569172cad1a'], ['JEAG74HFHHZZV6PG', 'KETCH\xa0Men Tapered Fit Mid Rise Blue Jeans', 'https://www.flipkart.com/ketch-tapered-fit-men-blue-jeans/p/itme476bd07f8aef'], [nan, nan, nan], ['KTAGBUHFSNVG4NZQ', 'Urban Creation\xa0Pack of 6 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/urban-creation-women-printed-straight-kurta/p/itmbe417c1f1b717']]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], [nan, nan, nan], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd']]</t>
+          <t>[['JEAFYQJ6KBAYYBZ8', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm604d87fa43dc9'], ['SGLGHBYCVQHGYAQT', 'Ted Smith\xa0UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmdb3142fd891f7'], ['SUIGHJKZATEMH7VC', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itm005265b2a9a7b']]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>717519</t>
+          <t>166809</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Jacqueline</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Solomon</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], [nan, nan, nan], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0']]</t>
+          <t>[[nan, nan, nan], ['JEAFYQGSWHY5CFMG', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itmf8478eedf6bf6'], ['STBFVU6DSZ8FFQEM', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm5ed53982bb1f3'], [nan, nan, nan], ['SNDGHRY6RQMG5PAN', 'SHOEFLY\xa0Women Blue, White Casual Sandal', 'https://www.flipkart.com/shoefly-women-blue-white-casual/p/itm1751f023c8ee9'], ['SHOGKYNZE9963JGK', 'Hitpro\xa0BwBoots6 Boots For Men', 'https://www.flipkart.com/hitpro-bwboots6-boots-men/p/itma159997372a4f'], ['JEAGC5WZGSSSEVP3', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm6222d4620ce65'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['SHOGKZTUYG8V4G6H', 'bacca bucci\xa0ALDER 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-alder-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itmf9788a1b24ed2'], ['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], [nan, nan, nan]]</t>
+          <t>[['JEAFYQGSPDPXUW4Z', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm3b1002f19dbed']]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[['SHOG7DM3AXNK9DKV', 'bacca bucci\xa0MOUNTAIN Splash proof full Grain Leather biker Boots Trekking Hiking with Fur Boots For Men', 'https://www.flipkart.com/bacca-bucci-mountain-splash-proof-full-grain-leather-biker-boots-trekking-hiking-fur-men/p/itm6b40c995e679e'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851']]</t>
+          <t>[['SNDGQ7AWJC9PCKKQ', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itme35ac2159acd5'], [nan, nan, nan]]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>805065</t>
+          <t>276717</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gerald</t>
+          <t>Catherine</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lyons</t>
+          <t>Joyce</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d'], ['TSHGGTH3ZZZJFJFR', 'London Hills\xa0Men Striped Hooded Neck Cotton Blend Pink T-Shirt', 'https://www.flipkart.com/london-hills-striped-men-hooded-neck-pink-t-shirt/p/itmf148db8f2ffeb'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04']]</t>
+          <t>[[nan, nan, nan], ['WSBFW2VBDZKYYYAN', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown/p/itm69c2f7bcc62cd'], ['LCHGKQHBGXJ9RMGZ', 'BVESH\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/bvesh-self-design-semi-stitched-lehenga-choli/p/itmbb425ab8990eb'], ['LCHGEG67R2WCHKWC', 'Zopviz Villa\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/zopviz-villa-self-design-semi-stitched-lehenga-choli/p/itmd61aca9ea6421'], ['SHOF9EYGCBREYQS7', 'Shoe Island\xa0Leatherette Heavy Duty Lace-Up Military High Ankle Length Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-leatherette-heavy-duty-lace-up-military-high-ankle-length-casual-long-boots-men/p/itmf9es5sffg45c7'], ['SGLEC9FKPFYMHZJT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (55)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmec9fkzzxwky2g']]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c']]</t>
+          <t>[['ERGGJ4S9WMGCKJEH', 'Divastri\xa0Jhumka combo earrings jhumki Traditional South indian Temple jhumkas women girl Beads, Pearl Metal Jhumki Earring', 'https://www.flipkart.com/divastri-jhumka-combo-earrings-jhumki-traditional-south-indian-temple-jhumkas-women-girl-beads-pearl-metal-earring/p/itm64a8563dd855a'], ['SHOGJ9KBJNGXHWZY', 'Shoe Island\xa0Robust-X ™ Leather Tan Brown Tough Lace Ups High Ankle Length Mens Casual Boots Boots For Men', 'https://www.flipkart.com/shoe-island-robust-x-leather-tan-brown-tough-lace-ups-high-ankle-length-mens-casual-boots-men/p/itm72065b42715ba'], ['SNDFNVS9YHTVXSTY', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm121a186c79319']]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d']]</t>
+          <t>[['SNDGHF8XUBVGDF2M', 'BERSACHE\xa0Men Grey Clogs Sandal', 'https://www.flipkart.com/bersache-men-grey-clogs/p/itmb65e73bc4b051'], ['TOPGDE4ZRGQKATSA', 'ILMAX\xa0Casual Regular Sleeves Printed Women Black Top', 'https://www.flipkart.com/ilmax-casual-printed-women-black-top/p/itm24b7981a57ca1'], ['DREGJFG8Q6NTHFUW', 'KASSUALLY\xa0Women Maxi Pink, Black, White Dress', 'https://www.flipkart.com/kassually-women-maxi-pink-black-white-dress/p/itm965450dba8138'], ['JEAGC5WUG4EFZHGA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm939f990d6db73'], ['SNDGJQV5XVG86H6Y', 'Svaar\xa0Men Off White Clogs Sandal', 'https://www.flipkart.com/svaar-men-off-white-clogs/p/itm0495b9de56657'], ['SGLF7RG56XMSYP8T', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf7spewgfzgexw']]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>362007</t>
+          <t>802017</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Sean</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Jackson</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2216,43 +2216,43 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['KPBG5F6YZG6HFSJE', 'BEBYHOOD\xa0Baby Boys Party(Festive) Blazer Bow Tie', 'https://www.flipkart.com/bebyhood-baby-boys-party-festive-blazer-bow-tie/p/itm3b88bc2d6f6b1'], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6']]</t>
+          <t>[['STBFCMRWAVHKJKAK', 'ABYS\xa0100% Genuine Leather Brown Travel Bag||Sports Bags ||Messenger Bag for Men &amp; Women Small Travel Bag  - Small', 'https://www.flipkart.com/abys-100-genuine-leather-brown-travel-bag-sports-bags-messenger-bag-men-women-small/p/itmfcmtqcpdq34zh'], ['KETFNEH55N9PPHVH', 'BURBN\xa0Boys Casual Sherwani and Churidar Set', 'https://dl.flipkart.com/dl/burbn-boys-casual-sherwani-churidar-set/p/itm64e5fe1d3e3fb'], ['HMBG4PXPTFF5ZCVV', 'ABYS\xa0Men &amp; Women Pink, Blue Messenger Bag - Regular Size', 'https://www.flipkart.com/abys-men-women-pink-blue-messenger-bag/p/itm0e014c86b1526'], ['RKSGQF3NPSVZF2VV', 'EZRA\xa0Backpack UNISEX Water Proof Mountain RucksackHiking/Trekking/Camping Bag Rucksack  - 75 L', 'https://www.flipkart.com/ezra-backpack-unisex-water-proof-mountain-rucksackhiking-trekking-camping-bag-rucksack-75-l/p/itm2a023ee0cc9a8'], ['SHOFH5SHAFQMTHZB', 'CAMRO\xa0Hulk-02 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-02-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm672804cec90c1'], ['SHOGG7HV7GJMDESK', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itm0b2b80780b934'], ['SGLGP945TPGRQWMP', 'Black Jones\xa0Polarized, UV Protection Aviator Sunglasses (55)', 'https://www.flipkart.com/black-jones-aviator-sunglasses/p/itmf43c4ba4de5c2'], ['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], ['SHOFVD5FHD9QZDDX', 'CAMRO\xa0Hulk-01 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-01-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm1f5d5fc421b8b'], ['JEAGGZFTMQZKRKAJ', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm3ddb994bb8b2f'], ['BZRGKFYYTWFFFGMY', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma5d53e51ad843']]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d']]</t>
+          <t>[['SRWGFTCDJ2WPMMU2', 'Chote Raja Collection Chote Raja Collection Floral Print Sherwani Printed SherwaniChote Raja Collection Chote Raja Collection Floral Print Sherwani Printed Sherwani', 'https://www.flipkart.com/chote-raja-collection-printed-sherwani/p/itmba4df16e93909'], ['SUIGHJKZUZHRWEES', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itmf571baf78d2a2'], ['JEAGG6JFGHTZV8UM', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itmeb4632b593b8c'], ['SGLGQ8VYM22C2FQ7', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itmf4d5ff1d96d81'], ['KTAGZCPXHMZFZRG5', 'Madhuram\xa0Women Embroidered Georgette Gown Kurta', 'https://www.flipkart.com/madhuram-women-embroidered-gown-kurta/p/itmdf4ab86f4a326'], ['ERGGYU8KWJFFXMGM', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Blue Golden Surgical Plug Hoops Ear non piercing Studs stainless Steel Jewelry Style Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Hoops Earrings Combo Set pack non pierced Ear rings Stud Tops Bali Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry design-mens earrings combo-me46 Metal Earring Set', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-blue-golden-surgical-plug-hoops-ear-non-piercing-studs-stainless-steel-jewelry-style-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-earrings-combo-set-pack-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-mens-combo-me46-metal-earring/p/itm743060b8a30d7']]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21']]</t>
+          <t>[['SGLF54XGVQYGEYZN', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (62)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmf557vd9wzgjhd'], ['SHOGZFNFCXHY7SZG', 'Zsyto\xa0Canvas Shoes For Men', 'https://www.flipkart.com/zsyto-canvas-shoes-men/p/itmbf278fa79b88f'], ['SGLG8W5CTCQJAZWP', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmea2a902dbc0dd'], ['ERGGPYJSPDFGTKQS', 'TLGS\xa0Golden Chand Bali Chilai Texture Simple Design for Boys Men Brass, Copper Hoop Earring', 'https://www.flipkart.com/tlgs-golden-chand-bali-chilai-texture-simple-design-boys-men-brass-copper-hoop-earring/p/itmb4c0dcdfc56f1'], ['SGLF7G35GZPDJRHE', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf7g4pezzem77y'], ['JEAFYQGSVQQZBTCF', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm02611950d653e'], ['SGLGKN8HHNPBGUGT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (50)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itm9dfc11c9354e0'], ['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1'], ['JEAFYQGSZDBNCRDT', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm405fce9d65e57'], [nan, nan, nan]]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>154845</t>
+          <t>999213</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tara</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ward</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2261,88 +2261,88 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], [nan, nan, nan]]</t>
+          <t>[['SRWGPFEBCNRSCJBJ', 'VM VM by Vastramay Mens Maroon Silk Blend Sherwani Only Top Embroidered SherwaniVM VM by Vastramay Mens Maroon Silk Blend Sherwani Only Top Embroidered Sherwani', 'https://www.flipkart.com/vm-embroidered-sherwani/p/itmee5874189de66'], ['BZRGCRSV2CGGMH9F', 'DKGF FASHION\xa0Men Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/dkgf-fashion-solid-single-breasted-casual-men-blazer/p/itm67ffe78118c1a'], ['SGLEDQE9ZGDARGZV', 'agera\xa0UV Protection, Gradient Aviator Sunglasses (55)', 'https://www.flipkart.com/agera-aviator-sunglasses/p/itmf3yhamhyvbjff'], ['TVPF6YZGZWZ7PXUH', 'Nightstar Waist Bag\xa0\xa0(Red)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f3ptmua8ahy'], ['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['SGLGKN8HHNPBGUGT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (50)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itm9dfc11c9354e0'], ['SRWG24ZNEKTGMCZW', 'DEYANN Men Green &amp; Navy Blue Sherwani With Achkan Printed SherwaniDEYANN Men Green &amp; Navy Blue Sherwani With Achkan Printed Sherwani', 'https://www.flipkart.com/deyann-men-green-navy-blue-sherwani-achkan-printed/p/itme2b811f19f8d9'], ['JEAFYQGSHZYTZP5K', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm5cbcb8da0787a'], ['SGLGHBYAZFC4RGV5', 'Ted Smith\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm8da06b3c243bc'], ['KTAGFTZXDFC8CGQG', 'AO Fabrico\xa0Women Floral Print Cotton Rayon A-line Kurta', 'https://www.flipkart.com/ao-fabrico-women-floral-print-a-line-kurta/p/itmad0facf9bf967']]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc']]</t>
+          <t>[[nan, nan, nan], ['JEAGJZY9VXDAHY7H', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm4f2e5aede0303'], [nan, nan, nan], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], [nan, nan, nan], ['ERGFMVYMHJM5BHWT', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-ME186 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-me186-metal-earring-earring/p/itmca91378d859b1'], ['SHOG9MPGYM6AFUMG', 'HX London\xa0Stylish Laceup Boots For Men', 'https://www.flipkart.com/hx-london-stylish-laceup-boots-men/p/itmf0d60e27dca1a'], ['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn'], ['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['BZRGKFYZWM8YW92E', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma9a7bed92fa8b']]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['ETHGYA5FZKCRCKZ3', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6d37aebb829e3'], ['ETHGYA5FZKCRCKZ3', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6d37aebb829e3'], [nan, nan, nan], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], [nan, nan, nan]]</t>
+          <t>[['SHOGMMHVCJSXBKMH', 'SHOEFLY\xa0Exclusive Attractive Collection of Stylish &amp; Comfortable Shoes &amp; Sneakers Boots For Men', 'https://www.flipkart.com/shoefly-exclusive-attractive-collection-stylish-comfortable-shoes-sneakers-boots-men/p/itm68366de37a72a'], [nan, nan, nan], ['SRWGGGGAUSUGWTB4', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itm0f7c20bdf4910'], ['JEAGPGKHTJZFDTYQ', 'BEING HUMAN\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-slim-men-grey-jeans/p/itm45ae8ba883649'], ['SRWFJHJFEYZ22N9W', 'Honey Fashion Printed SherwaniHoney Fashion Printed Sherwani', 'https://www.flipkart.com/honey-fashion-printed-sherwani/p/itm96090abcef258'], ['ERGGYU7XRDZTBRJQ', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear non piercing Studs stainless Steel Jewelry Style Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Hoops Earrings Combo Set pack non pierced Ear rings Stud Tops Bali Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry design ( 4 pcs ) -mens earrings combo-me52 Metal Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-non-piercing-studs-stainless-steel-jewelry-style-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-earrings-combo-set-pack-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-4-pcs-mens-combo-me52-metal-earring/p/itma80607f274f4f'], ['BZRGMCPS6QFBFYCB', 'Naksh style\xa0Women Solid Double Breasted Formal Blazer', 'https://dl.flipkart.com/dl/naksh-style-solid-double-breasted-formal-women-blazer/p/itmb053fd8d30e45']]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>121347</t>
+          <t>465261</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Newman</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[['BDRGNC7DS5GFGHXD', 'Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush\xa0\xa0(15 ml, Black)Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush', 'https://www.flipkart.com/kingeshal-wooden-premium-shoe-brush-cleaning-polishing-shining-leather-shoes-sneakers/p/itmd7afbc5b69f83'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['KDEGN6P4WQGSPYX9', 'Manaitri\xa0Girls Midi/Knee Length Party Dress', 'https://dl.flipkart.com/dl/manaitri-girls-midi-knee-length-party-dress/p/itmf12bcf3590f06'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], [nan, nan, nan], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093']]</t>
+          <t>[['BZRGKFYXG3Y3JGFB', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itm7c5c86033098e'], ['RKSGND7KGXDHUDH8', 'mukay\xa0Rucksacks Bag Rucksack  - 55 L', 'https://www.flipkart.com/mukay-rucksacks-bag-rucksack-55-l/p/itm880f9bec41e22'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b'], [nan, nan, nan], ['WSBGPB7UBWNQUCZJ', 'RC REXCUIR Shoulder Bag for Men Women | Sling Crossbody Bags Shoulder Bag\xa0\xa0(Pink)RC REXCUIR Shoulder Bag for Men Women | Sling Crossbody Bags Shoulder Bag', 'https://www.flipkart.com/rc-rexcuir-shoulder-bag-men-women-sling-crossbody-bags/p/itm0538e42b20b37'], ['SGLFYHEWMCHMTSEZ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm8787cf8e15e68'], ['ERGFGB8QGFWUNBAG', 'V L INTERNATIONAL\xa0Ethnic Earrings Jhumka Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-ethnic-earrings-jhumka-alloy-jhumki-earring/p/itm8774a8f5761a1'], ['SHOGMMHVCJSXBKMH', 'SHOEFLY\xa0Exclusive Attractive Collection of Stylish &amp; Comfortable Shoes &amp; Sneakers Boots For Men', 'https://www.flipkart.com/shoefly-exclusive-attractive-collection-stylish-comfortable-shoes-sneakers-boots-men/p/itm68366de37a72a']]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef'], [nan, nan, nan]]</t>
+          <t>[['WSBFW2VBDZKYYYAN', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown/p/itm69c2f7bcc62cd'], ['SGLGMHPGQZKHRGTG', 'Sunglance\xa0Riding Glasses, UV Protection, Night Vision Round, Cat-eye Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-round-cat-eye-sunglasses/p/itm047911875c1c7']]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68'], ['KPBG5F6YZG6HFSJE', 'BEBYHOOD\xa0Baby Boys Party(Festive) Blazer Bow Tie', 'https://www.flipkart.com/bebyhood-baby-boys-party-festive-blazer-bow-tie/p/itm3b88bc2d6f6b1'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d']]</t>
+          <t>[['SHOFH5SKWJ2KZZQZ', 'CAMRO\xa0Hulk-03 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-03-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itme805bb2d4688d'], ['ERGGGE7GYFG7MXUW', 'Vembley\xa0Korean Studded Butterfly Tassel Earrings 2 Pcs/Set Metal Drops &amp; Danglers', 'https://www.flipkart.com/vembley-korean-studded-butterfly-tassel-earrings-2-pcs-set-metal-drops-danglers/p/itmea9d93b2c3a9b'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b'], ['SHOGBVWDS82DZDXH', 'World Wear Footwear\xa0Exclusive Affordable Collection of Trendy &amp; Stylish Sport Sneakers Shoes Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-exclusive-affordable-collection-trendy-stylish-sport-sneakers-shoes-running-men/p/itmc52859fa3a657'], ['SGLGB7G8DT7PXHS6', 'Ted Smith\xa0UV Protection Aviator Sunglasses (56)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmaa86102a0bfee'], ['KTAFWNUYBFZPBDQ9', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmf62f03e6220a5'], ['SGLFXJXZRWKCV6AF', 'Eyewearlabs\xa0Polarized, UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/eyewearlabs-aviator-sunglasses/p/itm3f85427e33d37'], ['SGLFW24UKQHWGT9G', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmca1124c55358b']]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>896847</t>
+          <t>187461</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Karina</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Mitchell</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2351,88 +2351,88 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Swaziland</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b']]</t>
+          <t>[['TOPGG9ZCXMZ4BFFQ', 'KASSUALLY\xa0Casual Sleeveless Striped Women Black Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-top/p/itm875c2f10d5569'], ['DREFTSXTWD3XPJZR', 'KASSUALLY\xa0Women Maxi White, Black Dress', 'https://www.flipkart.com/kassually-women-maxi-white-black-dress/p/itmffef26d08d32c'], ['STBFWE59MCS8PNGW', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm70da6d7a59187'], ['JEAGHEYATGZRPZMY', 'WROGN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/wrogn-regular-men-grey-jeans/p/itm483a02e7b5e61'], [nan, nan, nan], ['TOPGKRQ3VAZJZQCX', 'RJ FASHION\xa0Casual Regular Sleeves Striped Women White Top', 'https://dl.flipkart.com/dl/rj-fashion-casual-striped-women-white-top/p/itmf699748ea81bb'], ['LCHGZCUEMT3UKTHJ', 'DHAVDI ENTERPRISE\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-embroidered-semi-stitched-lehenga-choli/p/itm161407f9cc707'], ['SNDGCDNHPWFECSC2', 'KIRAVI\xa0Women White Casual Sandal', 'https://www.flipkart.com/kiravi-women-white-casual/p/itm93403d21dd2df'], [nan, nan, nan], ['SARGZTFP2VAFBJMU', 'Faduseller\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/faduseller-printed-bollywood-georgette-saree/p/itmed37bdffa91b3'], ['LCHG2DZGF6JZXHZY', 'DB ANGHAN\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/db-anghan-self-design-semi-stitched-lehenga-choli/p/itm50e55437fde19'], [nan, nan, nan], ['SNDGGJYWZSUCYAHH', 'Squash\xa0Men Tan, White Flats Sandal', 'https://www.flipkart.com/squash-men-tan-white-flats/p/itm67e1af295b360'], ['SGLGMHPGQZKHRGTG', 'Sunglance\xa0Riding Glasses, UV Protection, Night Vision Round, Cat-eye Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-round-cat-eye-sunglasses/p/itm047911875c1c7'], ['SNDFNVS9YHTVXSTY', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm121a186c79319']]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], [nan, nan, nan], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23']]</t>
+          <t>[['SNDG5FR793G4VY3Q', 'Wildcraft\xa0Men Multicolor Sandal', 'https://www.flipkart.com/wildcraft-men-multicolor-sandals/p/itmfa9392f974c0f'], ['SNDFU9CJYGDCTHZ6', 'BLINDER\xa0Women Off White Flats Sandal', 'https://www.flipkart.com/blinder-women-off-white-flats/p/itmb5fda55a69e53'], ['SNDGHRY6RQMG5PAN', 'SHOEFLY\xa0Women Blue, White Casual Sandal', 'https://www.flipkart.com/shoefly-women-blue-white-casual/p/itm1751f023c8ee9']]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], [nan, nan, nan], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5'], ['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['KDEGN27KFNSCUQYE', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm9b97310e84545'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb']]</t>
+          <t>[['SNDGNZNFZDSHJZET', 'Royal Khwaab\xa0Men Beige Flats Sandal', 'https://dl.flipkart.com/dl/royal-khwaab-men-beige-flats/p/itm07f87c43eb740'], ['SNDGNZJNZ6SFYFRK', 'World Wear Footwear\xa0Men White, Blue Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-blue-clogs/p/itm3259840b48685'], ['TOPGEAJFPQXMVMNZ', 'VeshCode\xa0Casual Balloon Sleeve Solid Women Orange Top', 'https://www.flipkart.com/veshcode-casual-solid-women-orange-top/p/itm28b12cdacfbc0'], ['LCHGKQGDZJMBGCDG', 'BVESH\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/bvesh-self-design-semi-stitched-lehenga-choli/p/itma3a73f7ebf3db'], ['TOPG2BFYT7H8AANP', 'KASSUALLY\xa0Casual Regular Sleeves Printed, Striped Women Black Top', 'https://www.flipkart.com/kassually-casual-3-4-sleeve-printed-striped-women-black-top/p/itmd2b72ab9c160a'], ['JEAFYQGSZ3CGXWFS', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm5cbcb8da0787a'], [nan, nan, nan], [nan, nan, nan], ['DREFECH2HZX4YFKN', 'MUDRIKA\xa0Women Maxi Light Blue, Black Dress', 'https://www.flipkart.com/mudrika-women-maxi-light-blue-black-dress/p/itmfecuwgccj42kc'], ['JEAGGNWEZHS22WEQ', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm64b0fa149becc'], ['SNDG5FR793G4VY3Q', 'Wildcraft\xa0Men Multicolor Sandal', 'https://www.flipkart.com/wildcraft-men-multicolor-sandals/p/itmfa9392f974c0f'], ['STBFWE59ZEZGSPAQ', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8034879e20cbc'], ['JEAFYQGSZ3CGXWFS', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm5cbcb8da0787a'], ['TOPGPT6QARAGHWP7', 'Christone\xa0Casual Regular Sleeves Solid Women Black Top', 'https://www.flipkart.com/christone-casual-solid-women-black-top/p/itmfa395a78be321']]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>433293</t>
+          <t>764361</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Kent</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Pham</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>French Guiana</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['DREGK5N74KNXDYYY', 'maruti fab\xa0Women Fit and Flare Yellow Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-yellow-dress/p/itm968df60d0fb1d'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], [nan, nan, nan], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23']]</t>
+          <t>[['ERGFWQ8SCJZG8UTK', 'Divastri\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Antique Micro Ear rings for girls women Golden Ruby, Diamond Brass, Copper Jhumki Earring, Earring Set, Drops &amp; Danglers', 'https://www.flipkart.com/divastri-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-antique-micro-ear-rings-girls-women-golden-ruby-diamond-brass-copper-jhumki-earring-earring-set-drops-danglers/p/itmc785036cbc3e3'], ['JEAGEYGVZZQQXDQE', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm232760a093285'], ['JEAG74HFHHZZV6PG', 'KETCH\xa0Men Tapered Fit Mid Rise Blue Jeans', 'https://www.flipkart.com/ketch-tapered-fit-men-blue-jeans/p/itme476bd07f8aef'], ['SARG6JFCKWYSWWEZ', 'Flip The Style\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-saree/p/itm16410f5ef0315'], [nan, nan, nan], ['JEAGJ4YG3RHGRUSH', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma71c6a67263a9'], [nan, nan, nan], ['JEAGFTUKN3CWHMXA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma1569172cad1a'], ['LCHGZ7DXCHYFRY3B', 'DHAVDI ENTERPRISE\xa0Solid Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-solid-semi-stitched-lehenga-choli/p/itmd100f6bea0577'], ['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn'], ['TOPGD5KZTFBN6FNP', 'Sheetal Associates\xa0Party Puff Sleeves Self Design Women Black Top', 'https://www.flipkart.com/sheetal-associates-party-self-design-women-black-top/p/itm81715bf1e7e5d'], ['SGLG8X54BVYQ92MG', 'Ted Smith\xa0Gradient Aviator Sunglasses (50)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm4b5b64ff0baba'], ['LCHG4HH8NU7SZXP7', 'aadhiya impex\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/aadhiya-impex-embroidered-semi-stitched-lehenga-choli/p/itma8a4bb798eefd']]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['SHOGFYMCMEQTFQQ5', 'World Wear Footwear\xa0Trendy Stylish Comfortable &amp; Lightweight, Casual High Tops Sneakers Shoes Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-trendy-stylish-comfortable-lightweight-casual-high-tops-sneakers-shoes-men/p/itm98336ff1bad6e'], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['ETHGAT6DDANANQ7K', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6157867ed65b9'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141']]</t>
+          <t>[[nan, nan, nan], ['TOPEEZYGFFREPYFM', 'RUSE\xa0Casual Regular Sleeves Striped Women White, Grey Top', 'https://www.flipkart.com/ruse-casual-3-4-sleeve-striped-women-white-grey-top/p/itmf3z3davrprktz'], ['TOPGG9ZCXMZ4BFFQ', 'KASSUALLY\xa0Casual Sleeveless Striped Women Black Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-top/p/itm875c2f10d5569'], ['LCHGGC2X8PMC6HYY', 'Tishta\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/tishta-self-design-semi-stitched-lehenga-choli/p/itmd3c2c5a2f2e8d'], ['STBFWE59MCS8PNGW', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm70da6d7a59187'], [nan, nan, nan], ['SNDG6E6V2HWQMZJH', 'DINO-SHU\xa0Women Off White Bellies Sandal', 'https://www.flipkart.com/dino-shu-women-off-white-bellies/p/itm421ace4c217a5'], [nan, nan, nan], ['LCHGKQGDZJMBGCDG', 'BVESH\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/bvesh-self-design-semi-stitched-lehenga-choli/p/itma3a73f7ebf3db'], ['TOPGZS3XPZDQMJEP', 'Sheetal Associates\xa0Casual Flared Sleeves Printed Women Multicolor Top', 'https://www.flipkart.com/sheetal-associates-casual-printed-women-multicolor-top/p/itm4bb039830e110'], ['TOPGPT6QARAGHWP7', 'Christone\xa0Casual Regular Sleeves Solid Women Black Top', 'https://www.flipkart.com/christone-casual-solid-women-black-top/p/itmfa395a78be321'], ['SNDFYUYBFHYG5XDM', 'Paragon\xa0Men K1403G Stylish Lightweight Daily Durable Comfortable Formal Casuals Black Sports Sandal', 'https://www.flipkart.com/paragon-k1403g-stylish-lightweight-daily-durable-comfortable-formal-casuals-men-black-sports-sandals/p/itm8cea38f5c48f1']]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7'], [nan, nan, nan], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['KPBGGZ3ZTZMWDS2Y', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itm13d3f1376ed20']]</t>
+          <t>[['LCHG6Z4J5Y5FKBBB', 'Crissy\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-semi-stitched-lehenga-choli/p/itm8b6db1e54cf0e'], ['TOPGGWRR7GMDY4DC', 'Sheetal Associates\xa0Casual Puff Sleeves Self Design Women Black Top', 'https://www.flipkart.com/sheetal-associates-casual-self-design-women-black-top/p/itmacd0a69900eea'], ['SNDFU9CJYGDCTHZ6', 'BLINDER\xa0Women Off White Flats Sandal', 'https://www.flipkart.com/blinder-women-off-white-flats/p/itmb5fda55a69e53'], ['SHOFJE6ERTZ5GZXZ', 'BIG FOX\xa0Ankle Length Stylish Boots For Men', 'https://www.flipkart.com/big-fox-ankle-length-stylish-boots-men/p/itm4f9596f68029c'], ['TOPGGWRR7GMDY4DC', 'Sheetal Associates\xa0Casual Puff Sleeves Self Design Women Black Top', 'https://www.flipkart.com/sheetal-associates-casual-self-design-women-black-top/p/itmacd0a69900eea'], ['JEAGEYGVZZQQXDQE', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm232760a093285'], ['DREGAHQXGXVZ8NAF', 'AREEBA FASHION\xa0Women Maxi Black Dress', 'https://www.flipkart.com/areeba-fashion-women-maxi-black-dress/p/itm2fdbb21a681cc'], ['DREFNYT6YY4D8HHT', 'U&amp;F\xa0Women Maxi Yellow Dress', 'https://www.flipkart.com/u-f-women-maxi-yellow-dress/p/itmd9d1af4bfd724']]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>530763</t>
+          <t>219585</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Coffey</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2441,43 +2441,43 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>British Virgin Islands</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['SHOG7DM3AXNK9DKV', 'bacca bucci\xa0MOUNTAIN Splash proof full Grain Leather biker Boots Trekking Hiking with Fur Boots For Men', 'https://www.flipkart.com/bacca-bucci-mountain-splash-proof-full-grain-leather-biker-boots-trekking-hiking-fur-men/p/itm6b40c995e679e'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f']]</t>
+          <t>[[nan, nan, nan], ['STBFZSFFFWUFQ7DC', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Small Travel Bag  - Medium', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown-small-travel-medium/p/itm62e4ebc10ebee'], ['SGLF84PQZDBYE7CH', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9ubfzzgnb'], ['ERGFMWSZNGTPNBEU', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M207 Cubic Zirconia Metal Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m207-cubic-zirconia-metal-earring/p/itm8bd0e45454114'], [nan, nan, nan], ['SGLGGKSVGBGE3YF9', 'Ted Smith\xa0Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm88e36b022bba3'], ['SHOFH5SHAFQMTHZB', 'CAMRO\xa0Hulk-02 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-02-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm672804cec90c1'], ['ERGFGB8QGFWUNBAG', 'V L INTERNATIONAL\xa0Ethnic Earrings Jhumka Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-ethnic-earrings-jhumka-alloy-jhumki-earring/p/itm8774a8f5761a1'], ['ERGGGE7GYFG7MXUW', 'Vembley\xa0Korean Studded Butterfly Tassel Earrings 2 Pcs/Set Metal Drops &amp; Danglers', 'https://www.flipkart.com/vembley-korean-studded-butterfly-tassel-earrings-2-pcs-set-metal-drops-danglers/p/itmea9d93b2c3a9b'], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['KETG9BFAFRVASPWF', 'juli bastralaya\xa0Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/juli-bastralaya-boys-wedding-sherwani-churidar-set/p/itm8d3ce9ee1afb9']]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], [nan, nan, nan], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7']]</t>
+          <t>[['SRWFJKBYJFNUWCWH', 'Honey Fashion Solid SherwaniHoney Fashion Solid Sherwani', 'https://www.flipkart.com/honey-fashion-solid-sherwani/p/itmf0c4a1750a0c8'], ['BZRGKW96ZYVPPVPG', 'STYLZINDIA\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/stylzindia-solid-single-breasted-casual-women-blazer/p/itm16cc4780736eb']]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['SHOGKZTUYG8V4G6H', 'bacca bucci\xa0ALDER 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-alder-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itmf9788a1b24ed2'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['DREG6UP2BEEXXRZA', '7800 GROUP\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/7800-group-women-a-line-multicolor-dress/p/itm413f14c9bb0a8'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['DREGKRUB6ZECJAHE', 'fashionwrld\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-fit-flare-multicolor-dress/p/itmdbdd6b18c9e27'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['SHOG7DM3AXNK9DKV', 'bacca bucci\xa0MOUNTAIN Splash proof full Grain Leather biker Boots Trekking Hiking with Fur Boots For Men', 'https://www.flipkart.com/bacca-bucci-mountain-splash-proof-full-grain-leather-biker-boots-trekking-hiking-fur-men/p/itm6b40c995e679e']]</t>
+          <t>[[nan, nan, nan], [nan, nan, nan], ['BKPF3YHHXAN6RSYT', 'SAFARI\xa045.792 L Laptop Backpack SEEK 45L 21 OB BLK', 'https://www.flipkart.com/safari-seek-45l-21-ob-blk-45-792-l-large-laptop-backpack/p/itmf3yjc6dazjprt'], ['SRWG49FZY8CHSRJM', 'Chote Raja Collection chote raja collection Solid Sherwani Solid SherwaniChote Raja Collection chote raja collection Solid Sherwani Solid Sherwani', 'https://www.flipkart.com/chote-raja-collection-solid-sherwani/p/itm16aa1c11a9ab2'], ['RKSGQF3NPSVZF2VV', 'EZRA\xa0Backpack UNISEX Water Proof Mountain RucksackHiking/Trekking/Camping Bag Rucksack  - 75 L', 'https://www.flipkart.com/ezra-backpack-unisex-water-proof-mountain-rucksackhiking-trekking-camping-bag-rucksack-75-l/p/itm2a023ee0cc9a8'], ['ERGFGB8QGFWUNBAG', 'V L INTERNATIONAL\xa0Ethnic Earrings Jhumka Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-ethnic-earrings-jhumka-alloy-jhumki-earring/p/itm8774a8f5761a1'], ['STBFVU6DPJ3FPYEC', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6d75b934f6416'], ['ERGG82YRAUX54QNP', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour Triangle square shape Boy earrings -MENS EARRING COMBO-ME128 Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-triangle-square-shape-boy-mens-combo-me128-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itm139d492d5186b'], ['SGLFYHEVCZYJYF4T', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm61a1dd6e234c0'], ['RKSGQF3NPSVZF2VV', 'EZRA\xa0Backpack UNISEX Water Proof Mountain RucksackHiking/Trekking/Camping Bag Rucksack  - 75 L', 'https://www.flipkart.com/ezra-backpack-unisex-water-proof-mountain-rucksackhiking-trekking-camping-bag-rucksack-75-l/p/itm2a023ee0cc9a8'], ['JEAGC5WUG4EFZHGA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm939f990d6db73'], ['KETGMATFU4QPSNMM', 'sahil collection\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/sahil-collection-boys-festive-party-wedding-sherwani-churidar-set/p/itmce87213cfa454'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad']]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>225369</t>
+          <t>531291</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Schultz</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2486,268 +2486,268 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['DREGGSSRS6PYGNA3', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itm845406cd3aef2'], [nan, nan, nan], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc']]</t>
+          <t>[['SGLGZUGZBAAJF2HQ', 'Resist\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-aviator-sunglasses/p/itm60621f9eba7de'], [nan, nan, nan], ['KTAG79B5XZT6HJJX', 'JD FINISHING\xa0Women Embellished Viscose Rayon A-line Kurta', 'https://www.flipkart.com/jd-finishing-women-embellished-a-line-kurta/p/itm2f77c858c507d'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], [nan, nan, nan], ['JEAGJ4YHVKPYEDKR', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8636bb66e8926'], ['JEAGPGKHWRTQTU7M', 'BEING HUMAN\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-skinny-men-grey-jeans/p/itmfcd41fd60eb59'], ['SRWFJKBYJFNUWCWH', 'Honey Fashion Solid SherwaniHoney Fashion Solid Sherwani', 'https://www.flipkart.com/honey-fashion-solid-sherwani/p/itmf0c4a1750a0c8'], ['JEAGEKQZDKZANDRP', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Blue Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-blue-jeans/p/itm094f7e29c58f6']]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['KPBG5F6YZG6HFSJE', 'BEBYHOOD\xa0Baby Boys Party(Festive) Blazer Bow Tie', 'https://www.flipkart.com/bebyhood-baby-boys-party-festive-blazer-bow-tie/p/itm3b88bc2d6f6b1']]</t>
+          <t>[['STBFZSFFFWUFQ7DC', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Small Travel Bag  - Medium', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown-small-travel-medium/p/itm62e4ebc10ebee'], ['KETFNFUVQGBQQWPE', 'AJ Dezines\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-wedding-sherwani-churidar-set/p/itmba461eb54fb09'], ['ERGGPYJSPDFGTKQS', 'TLGS\xa0Golden Chand Bali Chilai Texture Simple Design for Boys Men Brass, Copper Hoop Earring', 'https://www.flipkart.com/tlgs-golden-chand-bali-chilai-texture-simple-design-boys-men-brass-copper-hoop-earring/p/itmb4c0dcdfc56f1'], ['ERGGFSHZXPPPA6QQ', 'Karishma Kreations\xa0Mens Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Metal Stud Earring, Hoop Earring, Earring Set, Huggie Earring, Plug Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-metal-earring-earring-set-huggie-cuff/p/itmd8afe8590df5c'], ['SHOFH5SHAFQMTHZB', 'CAMRO\xa0Hulk-02 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-02-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm672804cec90c1'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b'], ['KETGEM3WGKAJ8DFC', 'LAVISH CLUB\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/lavish-club-boys-festive-party-sherwani-churidar-set/p/itm2938a0bb94e00']]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['ETHGYA5FZKCRCKZ3', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6d37aebb829e3']]</t>
+          <t>[['KETGMATFU4QPSNMM', 'sahil collection\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/sahil-collection-boys-festive-party-wedding-sherwani-churidar-set/p/itmce87213cfa454'], ['SHOGMGQ4CSMEDZPG', 'HX London\xa0Casuals For Men', 'https://dl.flipkart.com/dl/hx-london-casuals-men/p/itma41d273b347b6'], ['SRWG5K5HNQDBHRMV', 'Feellasto Embroidered SherwaniFeellasto Embroidered Sherwani', 'https://www.flipkart.com/feellasto-embroidered-sherwani/p/itm07a34dfd9f616'], ['JEAGJ4YHVKPYEDKR', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8636bb66e8926'], ['SRWFJHJFEYZ22N9W', 'Honey Fashion Printed SherwaniHoney Fashion Printed Sherwani', 'https://www.flipkart.com/honey-fashion-printed-sherwani/p/itm96090abcef258'], ['JEAGJ4YHVKPYEDKR', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8636bb66e8926'], ['KETGMATFU4QPSNMM', 'sahil collection\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/sahil-collection-boys-festive-party-wedding-sherwani-churidar-set/p/itmce87213cfa454'], ['SHOGC5PERYBWE82Z', 'Denill\xa0Boots For Women', 'https://www.flipkart.com/denill-boots-women/p/itm63378d457a2f7'], [nan, nan, nan], ['JEAFYQGSVQQZBTCF', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm02611950d653e'], [nan, nan, nan], ['SHOGF5WXBMHP5KDF', 'Zsyto\xa0Boots For Men', 'https://www.flipkart.com/zsyto-boots-men/p/itm7202b1d426331'], ['KTAGFDJ8DPXAYGPR', 'anushansa\xa0Women Floral Print Viscose Rayon Anarkali Kurta', 'https://www.flipkart.com/anushansa-women-floral-print-anarkali-kurta/p/itm9de94057127e7']]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>650007</t>
+          <t>337341</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Diaz</t>
+          <t>Berger</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[['BDRGNC7DS5GFGHXD', 'Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush\xa0\xa0(15 ml, Black)Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush', 'https://www.flipkart.com/kingeshal-wooden-premium-shoe-brush-cleaning-polishing-shining-leather-shoes-sneakers/p/itmd7afbc5b69f83'], ['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0']]</t>
+          <t>[['SRWGBZ5F4FHGKG9S', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itm13f7371616101'], ['ERGFGEQBZ3HSKYTG', 'V L INTERNATIONAL\xa0Bahubali Jhumki Maroon &amp; Green Color Gold Plating Oxidised Jhumka Earring Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-bahubali-jhumki-maroon-green-color-gold-plating-oxidised-jhumka-earring-alloy/p/itm2a26067155f71'], ['BZREWMASHG3DPYPT', 'KARMIC VISION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/karmic-vision-solid-single-breasted-casual-women-blazer/p/itmewmd9xvhzggzz'], ['SRWGE4QSHWQHZVUG', 'PSKS ETHNIC WEAR Embroidered SherwaniPSKS ETHNIC WEAR Embroidered Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embroidered-sherwani/p/itm84a9b50d056f4'], ['KRTFZA3G5ZWKYDAS', 'ANTARMANA\xa0Women Floral Print Cotton Blend Frontslit Kurta', 'https://www.flipkart.com/antarmana-women-floral-print-frontslit-kurta/p/itm5d51d94b2f13b'], ['STBFW59VEVBPXZGG', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel/p/itmfd0161d5b15b0'], ['ERGGBSCR8KF5HVTK', 'Lilly &amp; Sparkle\xa0Lilly &amp; Sparkle Gold Toned Hoop Earrings With Black Stone Set Of 6 Alloy Drops &amp; Danglers', 'https://www.flipkart.com/lilly-sparkle-gold-toned-hoop-earrings-black-stone-set-6-alloy-drops-danglers/p/itm58a79921beb8a'], ['SHOGMMHVCJSXBKMH', 'SHOEFLY\xa0Exclusive Attractive Collection of Stylish &amp; Comfortable Shoes &amp; Sneakers Boots For Men', 'https://www.flipkart.com/shoefly-exclusive-attractive-collection-stylish-comfortable-shoes-sneakers-boots-men/p/itm68366de37a72a'], ['JEAFYQGSVQQZBTCF', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm02611950d653e'], ['SGLED3YHZDMUUYJY', 'ROYAL SON\xa0Mirrored Aviator Sunglasses (58)', 'https://www.flipkart.com/royal-son-aviator-sunglasses/p/itmf3ykjxj6yncgy'], ['SHOFGZ9UGAKBVGPS', 'World Wear Footwear\xa0Combo-(2)-1200-1138 Walking Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-combo-2-1200-1138-walking-shoes-men/p/itmfgzjcerjgu3gz'], ['RKSGZ9HQQHFBA5KF', 'SAKSHI FASHION\xa0NEW Water Proof Mountain Rucksack/Trekking Bag Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-fashion-new-water-proof-mountain-rucksack-trekking-bag-rucksack-70-l/p/itmba47ce64b90ba'], ['ERGGYU7XRDZTBRJQ', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear non piercing Studs stainless Steel Jewelry Style Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Hoops Earrings Combo Set pack non pierced Ear rings Stud Tops Bali Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry design ( 4 pcs ) -mens earrings combo-me52 Metal Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-non-piercing-studs-stainless-steel-jewelry-style-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-earrings-combo-set-pack-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-4-pcs-mens-combo-me52-metal-earring/p/itma80607f274f4f'], ['ERGFFWPBMU4ZSRG4', 'AMAAL\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop - BALI-A101 Metal Hoop Earring', 'https://www.flipkart.com/amaal-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-a101-metal-earring/p/itm0c0746afddfe7']]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['KDEGN27KFNSCUQYE', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm9b97310e84545'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d'], ['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172']]</t>
+          <t>[['SHOGAXE5PMXGHE4F', 'Viv\xa0Casual Chukka Biker Boots For Men', 'https://www.flipkart.com/viv-casual-chukka-biker-boots-men/p/itm23d5fee028835'], ['ERGG4DKTHPYD5R8G', 'Karishma Kreations\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM God jejus Cross Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Metal Hoop Earring, Stud Earring, Huggie Earring, Plug Earring, Cuff Earring, Tunnel Earring, Earring Set, Magnetic Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-god-jejus-cross-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-metal-earring-huggie-cuff-tunnel-set-magnetic/p/itme0b0dc32b184f'], ['SHOFENAFHYFBV33N', 'World Wear Footwear\xa0Latest Collection-1138 Stylish Casual Sports Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-latest-collection-1138-stylish-casual-sports-sneakers-men/p/itm592754103ce33'], ['SHOGFQ6QDUQRPR7A', 'CAMRO\xa0Hulk-01 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-01-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itmb6250ccc05700'], ['KETFNEH55N9PPHVH', 'BURBN\xa0Boys Casual Sherwani and Churidar Set', 'https://dl.flipkart.com/dl/burbn-boys-casual-sherwani-churidar-set/p/itm64e5fe1d3e3fb'], ['CLTG96EFCQV79MSQ', 'WROOTED\xa0Party Gold  Clutch  - Regular Size', 'https://www.flipkart.com/wrooted-party-gold-clutch/p/itm82e9bbdbfd672'], ['SGLF54XGVQYGEYZN', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (62)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmf557vd9wzgjhd'], ['SGLFYHEWMCHMTSEZ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm8787cf8e15e68'], ['JEAGPGNUSURYXFVN', 'BEING HUMAN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-regular-men-grey-jeans/p/itmab42d2596d878']]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['SHOGFYMCMEQTFQQ5', 'World Wear Footwear\xa0Trendy Stylish Comfortable &amp; Lightweight, Casual High Tops Sneakers Shoes Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-trendy-stylish-comfortable-lightweight-casual-high-tops-sneakers-shoes-men/p/itm98336ff1bad6e'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['SHTGHQ6HGSGGWCWQ', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-grey-shirt/p/itm919c0f36bb89a'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d']]</t>
+          <t>[['ERGFGFTETUXZADXG', 'V L INTERNATIONAL\xa0Peacock oxidised Silver Plated Jhumka Earring Jewellery For Girls Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-peacock-oxidised-silver-plated-jhumka-earring-jewellery-girls-alloy-jhumki/p/itm364c7616e5280'], ['KTAGNYUGCYXCBGS6', 'Tarannum\xa0Women Printed Nylon Straight Kurta', 'https://www.flipkart.com/tarannum-women-printed-straight-kurta/p/itmd9f6c87633a8c'], ['KTAGPZCCK7URHYWK', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itm54c15e0c712e7'], [nan, nan, nan], ['SHOFZ9R3DEXZB5TR', 'LIONS RIDER\xa0Slip On For Men', 'https://www.flipkart.com/lions-rider-slip-men/p/itma3d92e79df080'], ['STBFCMRWAVHKJKAK', 'ABYS\xa0100% Genuine Leather Brown Travel Bag||Sports Bags ||Messenger Bag for Men &amp; Women Small Travel Bag  - Small', 'https://www.flipkart.com/abys-100-genuine-leather-brown-travel-bag-sports-bags-messenger-bag-men-women-small/p/itmfcmtqcpdq34zh'], ['SHOGCF4EUGDXFUDZ', 'Aragats\xa0Casual Casuals For Men', 'https://www.flipkart.com/aragats-casual-casuals-men/p/itm550e4937728d7'], [nan, nan, nan], ['SHOGZFNFCXHY7SZG', 'Zsyto\xa0Canvas Shoes For Men', 'https://www.flipkart.com/zsyto-canvas-shoes-men/p/itmbf278fa79b88f'], ['KETFNEH55N9PPHVH', 'BURBN\xa0Boys Casual Sherwani and Churidar Set', 'https://dl.flipkart.com/dl/burbn-boys-casual-sherwani-churidar-set/p/itm64e5fe1d3e3fb'], ['SUIGKGVNQZPFCK4H', 'TAHVO\xa0Men Black Tuxedo men suit Solid Suit', 'https://www.flipkart.com/tahvo-black-tuxedo-men-suit-solid/p/itm869b69c0eac13']]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>693645</t>
+          <t>939861</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Tracy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Stokes</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['KPBGGZ3ZTZMWDS2Y', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itm13d3f1376ed20'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e']]</t>
+          <t>[['TOPGGN8QZZCHPHCB', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Green Top', 'https://www.flipkart.com/kassually-casual-striped-women-green-top/p/itm669732c707095'], ['ERGFZ7ZD3NNNKH5J', 'MEENAZ\xa0Traditional South indian Temple Jewellery Wedding Bridal Daily use Multicolor oxidised golden earrings jhumka Combo jumkas small Stud Tops Meenakari Jhumkas earing Combo set pack / Antique multi ear rings for women girls Latest design 6 earrings-JHUMKI COMBO-ME01 Beads, Pearl Metal Stud Earring, Drops &amp; Danglers, Jhumki Earring, Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-wedding-bridal-daily-use-multicolor-oxidised-golden-earrings-jhumka-combo-jumkas-small-stud-tops-meenakari-jhumkas-earing-set-pack-antique-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me01-beads-pearl-metal-earring-drops-danglers-jhumki-earring/p/itma0b717ef10316'], ['SNDGNZJNZ6SFYFRK', 'World Wear Footwear\xa0Men White, Blue Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-blue-clogs/p/itm3259840b48685'], ['SNDGHZY9TQCGX5WA', 'Bucik\xa0Men Olive Sports Sandal', 'https://www.flipkart.com/bucik-men-olive-sports-sandals/p/itm74389fda642e3']]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['TSHGC74BK7FGJUHD', 'NB NICKY BOY\xa0Men Typography Round Neck Cotton Blend Black T-Shirt', 'https://www.flipkart.com/nb-nicky-boy-typography-men-round-neck-black-t-shirt/p/itme37ae4c45ba59'], ['ETHGAT6DDANANQ7K', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6157867ed65b9'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df']]</t>
+          <t>[[nan, nan, nan], ['SNDGMDQ7WUVRTSV6', 'World Wear Footwear\xa0Men White, Green Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-green-clogs/p/itm056e043888b8a'], ['SGLGZ9FNDJZTSFAZ', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itm5849d62be447f'], ['LCHGB7J9G95F8AZB', 'Crissy\xa0Solid, Self Design, Striped Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-solid-self-design-striped-semi-stitched-lehenga-choli/p/itmc5a279e03746e'], ['TVPF6YZGZWZ7PXUH', 'Nightstar Waist Bag\xa0\xa0(Red)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f3ptmua8ahy'], [nan, nan, nan], ['ERGGFFNFRRFHPGJZ', 'Fashion Fusion\xa0Small Colorful Jhumka Alloy Jhumki Earring', 'https://www.flipkart.com/fashion-fusion-small-colorful-jhumka-alloy-jhumki-earring/p/itm72db616607fa3'], ['DREFPYHS47NF5WTE', 'KASSUALLY\xa0Women Maxi Red, Black Dress', 'https://www.flipkart.com/kassually-women-maxi-red-black-dress/p/itm7dff801618968'], ['WSBFQ3GG28HCQFC8', 'SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag\xa0\xa0(Pink)SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag', 'https://www.flipkart.com/spice-art-women-s-solid-pu-latest-designer-sling-bag-fanny-pack-crossbody-waist-pink-color/p/itm1d791275f1d0e'], ['STBFWE59TWRHRHHD', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8c96d76c3b950'], ['JEAGJZY9VXDAHY7H', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm4f2e5aede0303']]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7']]</t>
+          <t>[['TVPF6YZGZWZ7PXUH', 'Nightstar Waist Bag\xa0\xa0(Red)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f3ptmua8ahy'], ['DREFHGC3ZQ54KCG6', 'JWF\xa0Women Maxi Black Dress', 'https://www.flipkart.com/jwf-women-maxi-black-dress/p/itmfhgnwzcrqwefq'], ['JEAGGP2HWQEVQZHQ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm5eac215010627'], ['DREFPYHS47NF5WTE', 'KASSUALLY\xa0Women Maxi Red, Black Dress', 'https://www.flipkart.com/kassually-women-maxi-red-black-dress/p/itm7dff801618968'], ['SHOEXTMBZFFCF898', 'RED CHIEF\xa0RC3508 022 High Tops For Men', 'https://www.flipkart.com/red-chief-rc3508-022-high-tops-men/p/itmfanshazarqrxs'], ['SHOF9EYGF8GFT4GW', 'Shoe Island\xa0Leatherette Heavy Duty Lace-Up Military High Ankle Length Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-leatherette-heavy-duty-lace-up-military-high-ankle-length-casual-long-boots-men/p/itmf9es5fyk5f9tn'], ['SHOGZUE9R2ZE73NU', 'BUCKAROO\xa0ZEKI Outdoors For Men', 'https://www.flipkart.com/buckaroo-zeki-outdoors-men/p/itm9d09ac989df74'], ['TOPGGN8QZZCHPHCB', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Green Top', 'https://www.flipkart.com/kassually-casual-striped-women-green-top/p/itm669732c707095']]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>773589</t>
+          <t>273321</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chloe</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924']]</t>
+          <t>[['HMBG4PXPTFF5ZCVV', 'ABYS\xa0Men &amp; Women Pink, Blue Messenger Bag - Regular Size', 'https://www.flipkart.com/abys-men-women-pink-blue-messenger-bag/p/itm0e014c86b1526'], ['ERGG4GE5VGGFXQEB', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops Mens Earing Earrings for Men may Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop bali -MENS EARRING COMBO-ME77 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-mens-combo-me77-crystal-cubic-zirconia-diamond-alloy-metal-stainless-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itm882c38f8e93e9'], ['SGLED3YHZDMUUYJY', 'ROYAL SON\xa0Mirrored Aviator Sunglasses (58)', 'https://www.flipkart.com/royal-son-aviator-sunglasses/p/itmf3ykjxj6yncgy'], ['JEAG74HFHHZZV6PG', 'KETCH\xa0Men Tapered Fit Mid Rise Blue Jeans', 'https://www.flipkart.com/ketch-tapered-fit-men-blue-jeans/p/itme476bd07f8aef'], ['KTAGPZCCK7URHYWK', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itm54c15e0c712e7'], ['RKSGQF3NPSVZF2VV', 'EZRA\xa0Backpack UNISEX Water Proof Mountain RucksackHiking/Trekking/Camping Bag Rucksack  - 75 L', 'https://www.flipkart.com/ezra-backpack-unisex-water-proof-mountain-rucksackhiking-trekking-camping-bag-rucksack-75-l/p/itm2a023ee0cc9a8'], ['SHOGCF4EUGDXFUDZ', 'Aragats\xa0Casual Casuals For Men', 'https://www.flipkart.com/aragats-casual-casuals-men/p/itm550e4937728d7'], ['SHOGYB8GAUKB2TNG', 'World Wear Footwear\xa0Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-walking-shoes-men/p/itmb9a4fda4567d0']]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5']]</t>
+          <t>[['SGLGB7G8DT7PXHS6', 'Ted Smith\xa0UV Protection Aviator Sunglasses (56)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmaa86102a0bfee'], ['SRWGHXHQXSSCYGA4', 'DEYANN Woven SherwaniDEYANN Woven Sherwani', 'https://www.flipkart.com/deyann-woven-sherwani/p/itm665c82df09bf3'], ['SUIGHJKZPUGAEJZB', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itm6b6ada44449b3'], ['WSBFQ3GG28HCQFC8', 'SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag\xa0\xa0(Pink)SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag', 'https://www.flipkart.com/spice-art-women-s-solid-pu-latest-designer-sling-bag-fanny-pack-crossbody-waist-pink-color/p/itm1d791275f1d0e'], ['SHOGG5FT9WTYYYFZ', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itmc03adefc7970a'], ['SRWGFNEWHZMQGYN5', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itme394de3bd5bd8'], ['KTAGNYUGCYXCBGS6', 'Tarannum\xa0Women Printed Nylon Straight Kurta', 'https://www.flipkart.com/tarannum-women-printed-straight-kurta/p/itmd9f6c87633a8c']]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[['DREG6UP2BEEXXRZA', '7800 GROUP\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/7800-group-women-a-line-multicolor-dress/p/itm413f14c9bb0a8']]</t>
+          <t>[['SHOGYZA3C44DPN4N', 'World Wear Footwear\xa0Combo Pack of 3 New Affordable Collection of Stylish Walking Sports Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-combo-pack-3-new-affordable-collection-stylish-walking-sports-shoes-men/p/itm81d0320883973'], [nan, nan, nan], [nan, nan, nan], ['TVPF6YZHCGBPT4N8', 'Nightstar Waist Bag\xa0\xa0(Pink)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kzzrgqc6y'], ['KETFZGKF87ZRXHJJ', 'BURBN\xa0Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/burbn-boys-wedding-sherwani-churidar-set/p/itm3bd62f3553bef'], [nan, nan, nan], ['ERGFMVYMHJM5BHWT', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-ME186 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-me186-metal-earring-earring/p/itmca91378d859b1'], ['JEAGFTUKN3CWHMXA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma1569172cad1a'], ['ERGFGEQBZ3HSKYTG', 'V L INTERNATIONAL\xa0Bahubali Jhumki Maroon &amp; Green Color Gold Plating Oxidised Jhumka Earring Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-bahubali-jhumki-maroon-green-color-gold-plating-oxidised-jhumka-earring-alloy/p/itm2a26067155f71'], ['ERGGGE7HKPNRUR5H', 'Vembley\xa0Korean Beautiful Pearl Wing Stud Earrings 2 Pcs/Set Metal Drops &amp; Danglers', 'https://www.flipkart.com/vembley-korean-beautiful-pearl-wing-stud-earrings-2-pcs-set-metal-drops-danglers/p/itmf357cde23d028'], ['KRTFDVDJQCYGWXW5', 'sonia collection\xa0Women Embroidered Cotton Blend Straight Kurta', 'https://www.flipkart.com/sonia-collection-women-embroidered-straight-kurta/p/itmb1b7dbae35edd'], ['JEAGC5WZGSSSEVP3', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm6222d4620ce65'], ['SHOGF5WXBMHP5KDF', 'Zsyto\xa0Boots For Men', 'https://www.flipkart.com/zsyto-boots-men/p/itm7202b1d426331']]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>935307</t>
+          <t>244863</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Miguel</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20']]</t>
+          <t>[['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], ['TVPF6YZGZWZ7PXUH', 'Nightstar Waist Bag\xa0\xa0(Red)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f3ptmua8ahy'], ['ERGG7MHUDVDNW8HV', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME95 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me95-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmc82b9b0c0ffbc'], ['ERGG3SH3JDQCKTKB', 'NIMZ\xa0Mens &amp; Women Fashion Jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Combo Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced shape Bali Ear rings Stud Tops Mens Earing Combo for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Stud Earring, Hoop Earring, Plug Earring, Tunnel Earring, Earring Set, Clip-on Earring, Drops &amp; Danglers, Huggie Earring', 'https://www.flipkart.com/nimz-mens-women-fashion-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-combo-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-set-pack-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-multi-hoops-salman-khan-style-cubic-zirconia-metal-earring-tunnel-earring-set-clip-on-drops-danglers-huggie/p/itm125fff3dbf6ba'], [nan, nan, nan], ['TOGFYHFZDSZJJXMD', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1/p/itm1910113c87ef1'], ['SHOGPJWYJHUFGRG6', 'Aragats\xa0Boots For Men', 'https://www.flipkart.com/aragats-boots-men/p/itm3fffac64674b1'], ['SHOGBVWDS82DZDXH', 'World Wear Footwear\xa0Exclusive Affordable Collection of Trendy &amp; Stylish Sport Sneakers Shoes Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-exclusive-affordable-collection-trendy-stylish-sport-sneakers-shoes-running-men/p/itmc52859fa3a657'], ['SGLEXSP7WYMZQKKQ', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmf3ykeg4ehggfs'], ['JEAGPGKHTJZFDTYQ', 'BEING HUMAN\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-slim-men-grey-jeans/p/itm45ae8ba883649'], ['SHOGYB8GAUKB2TNG', 'World Wear Footwear\xa0Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-walking-shoes-men/p/itmb9a4fda4567d0'], ['BZRFY6BZJRWPG9YG', 'Honey Fashion\xa0Men Solid Tuxedo Style Casual, Party, Festive &amp; Wedding Blazer', 'https://www.flipkart.com/honey-fashion-solid-tuxedo-style-casual-party-festive-wedding-men-blazer/p/itm40ac201244f7d']]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['SHOG9MZFBP9BGCDX', 'RapidBox\xa0Sneakers For Men', 'https://www.flipkart.com/rapidbox-sneakers-men/p/itm3e9655a4a9be5'], [nan, nan, nan], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79']]</t>
+          <t>[['BZRGKFYYTWFFFGMY', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma5d53e51ad843'], ['SHOGBVZFPF97GNMU', 'World Wear Footwear\xa0Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-running-shoes-men/p/itm1f6033c2a559a'], ['ERGGYHZRTQUJ4SXZ', 'MEENAZ\xa0Fashion Multi jewellery Valentine Single Golden Silver Black Surgical Plug Hoops Ear piercing Studs Steel Jewelry Style Stylish Fancy Party wear Daily use simple Magnetic Round MultIcolor Bali Hoops Earrings Combo Set pierced Ear rings Stud Tops Round Dumbell Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry -MENS EARRINGS COMBO-ME36 Alloy, Metal, Stainless Steel, Brass, Steel Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multi-jewellery-valentine-single-golden-silver-black-surgical-plug-hoops-ear-piercing-studs-steel-jewelry-style-stylish-fancy-party-wear-daily-use-simple-magnetic-round-multicolor-bali-earrings-combo-set-pierced-rings-stud-tops-dumbell-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-pack-mens-combo-me36-alloy-metal-stainless-steel-brass-earring/p/itm1eb03158bdf33'], ['SRWGE4QSHWQHZVUG', 'PSKS ETHNIC WEAR Embroidered SherwaniPSKS ETHNIC WEAR Embroidered Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embroidered-sherwani/p/itm84a9b50d056f4'], [nan, nan, nan], ['SRWG4Y8AB7Z9KRRQ', 'SEMINO Embellished SherwaniSEMINO Embellished Sherwani', 'https://www.flipkart.com/semino-embellished-sherwani/p/itm31186264271a9'], ['SGLGZUGZ7KHSEJKF', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itmd6ced64972044'], ['SHOGF5WXBMHP5KDF', 'Zsyto\xa0Boots For Men', 'https://www.flipkart.com/zsyto-boots-men/p/itm7202b1d426331']]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f']]</t>
+          <t>[['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by']]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>254685</t>
+          <t>835185</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Burnett</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Macao</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], [nan, nan, nan], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['DREGGSSRNWGKHFFG', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itmc6b361e2ef2e6'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], [nan, nan, nan], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7']]</t>
+          <t>[[nan, nan, nan], ['SRWGFRRSMGPHPFZX', 'AVAETA Floral Print SherwaniAVAETA Floral Print Sherwani', 'https://www.flipkart.com/avaeta-floral-print-sherwani/p/itm26bbd7f4cf63e'], ['TVPF6YZGZWZ7PXUH', 'Nightstar Waist Bag\xa0\xa0(Red)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f3ptmua8ahy'], ['TOGFYHFZDSZJJXMD', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1/p/itm1910113c87ef1'], ['TVPF6YZMMHFS6PWC', 'Nightstar Waist Bag\xa0\xa0(Blue)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kgfnrpete'], ['SHOGMGQ4CSMEDZPG', 'HX London\xa0Casuals For Men', 'https://dl.flipkart.com/dl/hx-london-casuals-men/p/itma41d273b347b6'], ['ERGGPYJSPDFGTKQS', 'TLGS\xa0Golden Chand Bali Chilai Texture Simple Design for Boys Men Brass, Copper Hoop Earring', 'https://www.flipkart.com/tlgs-golden-chand-bali-chilai-texture-simple-design-boys-men-brass-copper-hoop-earring/p/itmb4c0dcdfc56f1'], ['KETFNEH55N9PPHVH', 'BURBN\xa0Boys Casual Sherwani and Churidar Set', 'https://dl.flipkart.com/dl/burbn-boys-casual-sherwani-churidar-set/p/itm64e5fe1d3e3fb'], ['JEAGC5WUG4EFZHGA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm939f990d6db73'], [nan, nan, nan], ['SGLG8X54BVYQ92MG', 'Ted Smith\xa0Gradient Aviator Sunglasses (50)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm4b5b64ff0baba'], ['WSBFQ3GG28HCQFC8', 'SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag\xa0\xa0(Pink)SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag', 'https://www.flipkart.com/spice-art-women-s-solid-pu-latest-designer-sling-bag-fanny-pack-crossbody-waist-pink-color/p/itm1d791275f1d0e']]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23']]</t>
+          <t>[['SUIGHJKZATEMH7VC', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itm005265b2a9a7b'], ['KTAFX877KMFPFHHA', 'JD FINISHING\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/jd-finishing-women-printed-straight-kurta/p/itm332d91c69fda6'], ['SHOGPJWYJHUFGRG6', 'Aragats\xa0Boots For Men', 'https://www.flipkart.com/aragats-boots-men/p/itm3fffac64674b1']]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['SHTFKGPQPEBNHMFP', '5TH ANFOLD\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/5th-anfold-men-solid-formal-grey-shirt/p/itm527b60fe36863'], ['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['TSHGC74BK7FGJUHD', 'NB NICKY BOY\xa0Men Typography Round Neck Cotton Blend Black T-Shirt', 'https://www.flipkart.com/nb-nicky-boy-typography-men-round-neck-black-t-shirt/p/itme37ae4c45ba59'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21']]</t>
+          <t>[['SGLGZUGMBTBYB8SD', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itm1e8800456efe0']]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>181281</t>
+          <t>672327</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Kenneth</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Arroyo</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2756,88 +2756,88 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5']]</t>
+          <t>[['SHOGPJWYJHUFGRG6', 'Aragats\xa0Boots For Men', 'https://www.flipkart.com/aragats-boots-men/p/itm3fffac64674b1'], ['SHOGBVWDS82DZDXH', 'World Wear Footwear\xa0Exclusive Affordable Collection of Trendy &amp; Stylish Sport Sneakers Shoes Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-exclusive-affordable-collection-trendy-stylish-sport-sneakers-shoes-running-men/p/itmc52859fa3a657'], ['RKSGPXHYZA98KDGJ', 'IMPULSE\xa0Wazka bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 60 L', 'https://www.flipkart.com/impulse-wazka-bag-travel-men-tourist-backpack-hiking-trekking-camping-rucksack-60-l/p/itme2e28c155bd9a'], ['SHOGMMHVCJSXBKMH', 'SHOEFLY\xa0Exclusive Attractive Collection of Stylish &amp; Comfortable Shoes &amp; Sneakers Boots For Men', 'https://www.flipkart.com/shoefly-exclusive-attractive-collection-stylish-comfortable-shoes-sneakers-boots-men/p/itm68366de37a72a'], [nan, nan, nan], ['JEAGCNQUCFMSTHKV', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm90eb58a441b97'], ['SRWG4Y8AB7Z9KRRQ', 'SEMINO Embellished SherwaniSEMINO Embellished Sherwani', 'https://www.flipkart.com/semino-embellished-sherwani/p/itm31186264271a9'], ['JEAGJZY9VXDAHY7H', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm4f2e5aede0303'], ['BZRGGG26TPY39J4T', 'BASICS\xa0Men Solid Tuxedo Style Casual Blazer', 'https://www.flipkart.com/basics-solid-tuxedo-style-casual-men-blazer/p/itm227bd292d11db']]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada'], ['KPBGGZ3ZTZMWDS2Y', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itm13d3f1376ed20'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374']]</t>
+          <t>[['JEAFYQJ6KBAYYBZ8', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm604d87fa43dc9'], ['KTAGFTZXDFC8CGQG', 'AO Fabrico\xa0Women Floral Print Cotton Rayon A-line Kurta', 'https://www.flipkart.com/ao-fabrico-women-floral-print-a-line-kurta/p/itmad0facf9bf967'], ['STBFWE59RW9YTGZP', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8f45129ca2ffc'], ['ERGG5RVVA4PEZW38', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME82 Metal Huggie Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me82-metal-huggie/p/itmca2bcdf7c6ffa'], ['KETGCYUFEAYVQCNQ', 'KAVSHIL\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/kavshil-boys-festive-party-sherwani-churidar-set/p/itm209c97ba8db1a'], ['ERGGGE7HKPNRUR5H', 'Vembley\xa0Korean Beautiful Pearl Wing Stud Earrings 2 Pcs/Set Metal Drops &amp; Danglers', 'https://www.flipkart.com/vembley-korean-beautiful-pearl-wing-stud-earrings-2-pcs-set-metal-drops-danglers/p/itmf357cde23d028'], ['RKSGN5PABSHCYQZE', 'Sakshi Enterprises\xa0Rucksack bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-enterprises-rucksack-bag-travel-men-tourist-backpack-hiking-trekking-camping-70-l/p/itm5ed8228a4d5d1'], ['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn'], ['JEAGEKQZDKZANDRP', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Blue Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-blue-jeans/p/itm094f7e29c58f6'], ['SGLGZUGZ7KHSEJKF', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itmd6ced64972044'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b']]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[['DREGK5N7JNTFEGNH', 'maruti fab\xa0Women Fit and Flare Light Blue Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-light-blue-dress/p/itm2904de16bdfa7'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7']]</t>
+          <t>[['KTAGZNV35AE7HHGV', 'EKASYA\xa0Women Embellished Silk Blend Straight Kurta', 'https://www.flipkart.com/ekasya-women-embellished-straight-kurta/p/itm309b9e32b6182'], ['ERGGGE7GYFG7MXUW', 'Vembley\xa0Korean Studded Butterfly Tassel Earrings 2 Pcs/Set Metal Drops &amp; Danglers', 'https://www.flipkart.com/vembley-korean-studded-butterfly-tassel-earrings-2-pcs-set-metal-drops-danglers/p/itmea9d93b2c3a9b'], ['SHOGBVWDS82DZDXH', 'World Wear Footwear\xa0Exclusive Affordable Collection of Trendy &amp; Stylish Sport Sneakers Shoes Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-exclusive-affordable-collection-trendy-stylish-sport-sneakers-shoes-running-men/p/itmc52859fa3a657'], ['SRWGFRRSMGPHPFZX', 'AVAETA Floral Print SherwaniAVAETA Floral Print Sherwani', 'https://www.flipkart.com/avaeta-floral-print-sherwani/p/itm26bbd7f4cf63e'], [nan, nan, nan], ['JEAGJPYUVPZGVXBJ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itmf244a2c0ad6e9'], ['SHOGMGQ4CSMEDZPG', 'HX London\xa0Casuals For Men', 'https://dl.flipkart.com/dl/hx-london-casuals-men/p/itma41d273b347b6'], ['SHOGAXE5PMXGHE4F', 'Viv\xa0Casual Chukka Biker Boots For Men', 'https://www.flipkart.com/viv-casual-chukka-biker-boots-men/p/itm23d5fee028835'], ['SHOFH5SHAFQMTHZB', 'CAMRO\xa0Hulk-02 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-02-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm672804cec90c1'], [nan, nan, nan], [nan, nan, nan], ['JEAFYQGSZDBNCRDT', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm405fce9d65e57'], ['ERGGGE7GYFG7MXUW', 'Vembley\xa0Korean Studded Butterfly Tassel Earrings 2 Pcs/Set Metal Drops &amp; Danglers', 'https://www.flipkart.com/vembley-korean-studded-butterfly-tassel-earrings-2-pcs-set-metal-drops-danglers/p/itmea9d93b2c3a9b']]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>878805</t>
+          <t>915351</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Misty</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Rocha</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Holy See (Vatican City State)</t>
+          <t>Slovakia (Slovak Republic)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], [nan, nan, nan], ['DREGK5N7JNTFEGNH', 'maruti fab\xa0Women Fit and Flare Light Blue Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-light-blue-dress/p/itm2904de16bdfa7'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['DREGK5N7JNTFEGNH', 'maruti fab\xa0Women Fit and Flare Light Blue Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-light-blue-dress/p/itm2904de16bdfa7'], [nan, nan, nan]]</t>
+          <t>[['SGLGMVDKAHECQCUU', 'Sunglance\xa0UV Protection, Gradient, Mirrored, Riding Glasses Wayfarer Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-wayfarer-sunglasses/p/itm7a90b27e213d4'], ['JEAGC5WUG4EFZHGA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm939f990d6db73'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], ['DREGJFG8Q6NTHFUW', 'KASSUALLY\xa0Women Maxi Pink, Black, White Dress', 'https://www.flipkart.com/kassually-women-maxi-pink-black-white-dress/p/itm965450dba8138'], ['SHOFNFG6HUKEBKME', 'Shoe Island\xa0Solid-X Dark Green Olive Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-dark-green-olive-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm3944310efb633'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['DREGKRUB6ZECJAHE', 'fashionwrld\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-fit-flare-multicolor-dress/p/itmdbdd6b18c9e27'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6']]</t>
+          <t>[[nan, nan, nan], ['JEAGJ4YHVKPYEDKR', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8636bb66e8926'], ['SARG6JFDTHASYFHP', 'Flip The Style\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-saree/p/itm5460d3a3a77f8'], ['DREG5DJDQGEANAGA', 'N&amp;PG\xa0Women Maxi Black Dress', 'https://www.flipkart.com/n-pg-women-maxi-black-dress/p/itm6bac2bdb3428c'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], ['JEAGJ4YGATHBBKRV', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm04eca49c50ec0'], ['STBFW59VEVBPXZGG', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel/p/itmfd0161d5b15b0'], ['ERGFYRD3ZZZTMZAU', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Antique 3 Three Layered Jhumki Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME129 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-antique-3-three-layered-jhumki-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-gold-jhumki-me129-brass-copper-metal-alloy-earring/p/itm3986cce7c4c64'], ['TOPG2BFYT7H8AANP', 'KASSUALLY\xa0Casual Regular Sleeves Printed, Striped Women Black Top', 'https://www.flipkart.com/kassually-casual-3-4-sleeve-printed-striped-women-black-top/p/itmd2b72ab9c160a']]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['DREGK5N7FGKW56HH', 'maruti fab\xa0Women Fit and Flare Green, Black Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-green-black-dress/p/itmc94e7722920e1'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['KDEGN6P4WQGSPYX9', 'Manaitri\xa0Girls Midi/Knee Length Party Dress', 'https://dl.flipkart.com/dl/manaitri-girls-midi-knee-length-party-dress/p/itmf12bcf3590f06'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], [nan, nan, nan], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6']]</t>
+          <t>[['DREECZ8SAURCHZT5', 'KAAYA\xa0Women Maxi Black Dress', 'https://www.flipkart.com/kaaya-women-maxi-black-dress/p/itmf3vbfbyx2ka9t'], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['SARGMANHUBR7RDSW', 'Nena Fashion\xa0Embroidered Daily Wear Georgette Saree', 'https://www.flipkart.com/nena-fashion-embroidered-daily-wear-georgette-saree/p/itma31c396ac2a3d'], ['DREFNYT6BMXHMVSD', 'U&amp;F\xa0Women Maxi Green, Black, Grey Dress', 'https://www.flipkart.com/u-f-women-maxi-green-black-grey-dress/p/itmd47293a0fb6cf']]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>924981</t>
+          <t>806295</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Debra</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2846,133 +2846,133 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6']]</t>
+          <t>[['TOPGZKBXCNT8EKTY', 'PRETTY LOVING THING\xa0Casual Shoulder Straps Solid Women Yellow Top', 'https://www.flipkart.com/pretty-loving-thing-casual-solid-women-yellow-top/p/itm9d53b552aab78'], ['DREGACFYHG9MEHGJ', 'AREEBA FASHION\xa0Women Maxi Black Dress', 'https://www.flipkart.com/areeba-fashion-women-maxi-black-dress/p/itm06c6133921403'], ['SHOFNY4YGFFHWQ5H', 'Shoe Island\xa0Solid-X Black Brown Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-black-brown-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm5f18c1d351845'], ['JEAGG6JFGHTZV8UM', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itmeb4632b593b8c'], ['SGLFEAVBYDNNFFJN', 'GANSTA\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/gansta-aviator-sunglasses/p/itmfeby3zq7hzy9w'], ['SARGHA3VV7GXMZSK', 'HK TEX\xa0Embroidered Berhampuri Georgette Saree', 'https://www.flipkart.com/hk-tex-embroidered-berhampuri-georgette-saree/p/itm184e769ff2775']]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['TSHGC74BK7FGJUHD', 'NB NICKY BOY\xa0Men Typography Round Neck Cotton Blend Black T-Shirt', 'https://www.flipkart.com/nb-nicky-boy-typography-men-round-neck-black-t-shirt/p/itme37ae4c45ba59'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374']]</t>
+          <t>[[nan, nan, nan], ['ERGFYFFUUXZJGH6P', 'MEENAZ\xa0Traditional Meenakari Peacock jhumkas Jhumka earrings Moti South indian Temple Pearl Alloy, Metal, Enamel, Copper, Brass Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-meenakari-peacock-jhumkas-jhumka-earrings-moti-south-indian-temple-pearl-alloy-metal-enamel-copper-brass-jhumki-earring/p/itm16ebcb6abc9cc'], ['SGLED3YHZDMUUYJY', 'ROYAL SON\xa0Mirrored Aviator Sunglasses (58)', 'https://www.flipkart.com/royal-son-aviator-sunglasses/p/itmf3ykjxj6yncgy'], ['STBFMSTDCWBZHXDS', 'ABYS\xa0Leather Cross Body Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-leather-cross-body-bag-small-travel/p/itm4f559545c46b6'], ['DREGEFGH6JZAUAG6', 'KASSUALLY\xa0Women Maxi Black Dress', 'https://www.flipkart.com/kassually-women-maxi-black-dress/p/itmcd04e97dbe69f'], ['DREFHJPHHV8CFYTG', 'MUDRIKA\xa0Women Maxi Blue Dress', 'https://www.flipkart.com/mudrika-women-maxi-blue-dress/p/itmfhjtzpnth7ptc'], ['JEAGGZFTMQZKRKAJ', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm3ddb994bb8b2f']]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], ['KPBGGZ3ZTZMWDS2Y', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itm13d3f1376ed20'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444'], ['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe']]</t>
+          <t>[['STBFWE59ZEZGSPAQ', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8034879e20cbc'], ['HMBGZHEUYDH3HPYJ', 'PUMMY LUGGAGE\xa0Women Pink Hand-held Bag', 'https://www.flipkart.com/pummy-luggage-women-pink-hand-held-bag/p/itm306cf130f00ca'], [nan, nan, nan], ['DREFSQSTFYSXN96D', 'MUDRIKA\xa0Women Maxi Black, Orange Dress', 'https://www.flipkart.com/mudrika-women-maxi-black-orange-dress/p/itm35e4122378371'], ['SNDGNZG38MPCBWPG', 'World Wear Footwear\xa0Men Olive, White Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-olive-white-clogs/p/itmb47b9f2fa0b80'], ['SNDGHRY6V7YFHWYD', 'SHOEFLY\xa0Women Brown, White Casual Sandal', 'https://www.flipkart.com/shoefly-women-brown-white-casual/p/itm7096be6fea302'], ['TOPGGN7YBD9GGKYR', 'KASSUALLY\xa0Casual Regular Sleeves Solid Women Purple Top', 'https://www.flipkart.com/kassually-casual-solid-women-purple-top/p/itm354a326cf0119']]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>686817</t>
+          <t>643035</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Harold</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ray</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['TSHGGTH3ZZZJFJFR', 'London Hills\xa0Men Striped Hooded Neck Cotton Blend Pink T-Shirt', 'https://www.flipkart.com/london-hills-striped-men-hooded-neck-pink-t-shirt/p/itmf148db8f2ffeb'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5']]</t>
+          <t>[['BZRGKFYYTWFFFGMY', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma5d53e51ad843'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], ['RKSGQF3NVXU32SWD', 'EZRA\xa0Backpack UNISEX Water Proof Mountain RucksackHiking/Trekking/Camping Bag Rucksack  - 75 L', 'https://www.flipkart.com/ezra-backpack-unisex-water-proof-mountain-rucksackhiking-trekking-camping-bag-rucksack-75-l/p/itm32d5ec1ccf1fb'], ['SHOGBVWDS82DZDXH', 'World Wear Footwear\xa0Exclusive Affordable Collection of Trendy &amp; Stylish Sport Sneakers Shoes Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-exclusive-affordable-collection-trendy-stylish-sport-sneakers-shoes-running-men/p/itmc52859fa3a657'], [nan, nan, nan], ['BZRFY6BZJRWPG9YG', 'Honey Fashion\xa0Men Solid Tuxedo Style Casual, Party, Festive &amp; Wedding Blazer', 'https://www.flipkart.com/honey-fashion-solid-tuxedo-style-casual-party-festive-wedding-men-blazer/p/itm40ac201244f7d'], ['STBFW59VEVBPXZGG', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel/p/itmfd0161d5b15b0'], ['SUIGHJKZPUGAEJZB', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itm6b6ada44449b3'], ['BZREWMASHG3DPYPT', 'KARMIC VISION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/karmic-vision-solid-single-breasted-casual-women-blazer/p/itmewmd9xvhzggzz'], ['SGLF7G35GZPDJRHE', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf7g4pezzem77y'], ['SHOFZZTEAKJJCFSQ', 'World Wear Footwear\xa0Sneakers For Men', 'https://dl.flipkart.com/dl/world-wear-footwear-sneakers-men/p/itmae9b5d9c69575'], ['TVPGE9GW6WC9GMHQ', 'UNICRAFT Waist Bag\xa0\xa0(Red)UNICRAFT Waist Bag', 'https://www.flipkart.com/unicraft-waist-bag/p/itm8e4dd15a292c2']]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['KDEGN6P4WQGSPYX9', 'Manaitri\xa0Girls Midi/Knee Length Party Dress', 'https://dl.flipkart.com/dl/manaitri-girls-midi-knee-length-party-dress/p/itmf12bcf3590f06'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d'], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924']]</t>
+          <t>[['SRWG4Y8AB7Z9KRRQ', 'SEMINO Embellished SherwaniSEMINO Embellished Sherwani', 'https://www.flipkart.com/semino-embellished-sherwani/p/itm31186264271a9'], ['SGLF7HGZKHHSTQ8H', 'GANSTA\xa0Gradient, UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/gansta-aviator-sunglasses/p/itmf7hmfp5r8hcdb']]</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], [nan, nan, nan], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91']]</t>
+          <t>[[nan, nan, nan]]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>131451</t>
+          <t>453165</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dawson</t>
+          <t>Bonilla</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[[nan, nan, nan], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], [nan, nan, nan], ['TSHGC74BK7FGJUHD', 'NB NICKY BOY\xa0Men Typography Round Neck Cotton Blend Black T-Shirt', 'https://www.flipkart.com/nb-nicky-boy-typography-men-round-neck-black-t-shirt/p/itme37ae4c45ba59'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45']]</t>
+          <t>[[nan, nan, nan], ['RKSGQF3NVXU32SWD', 'EZRA\xa0Backpack UNISEX Water Proof Mountain RucksackHiking/Trekking/Camping Bag Rucksack  - 75 L', 'https://www.flipkart.com/ezra-backpack-unisex-water-proof-mountain-rucksackhiking-trekking-camping-bag-rucksack-75-l/p/itm32d5ec1ccf1fb'], ['JEAGJZYBGAHHSGBF', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8bdcd3b9b07c5'], ['KTAFZ9AFUWKZS4EB', 'NEW ETHNIC FASHION\xa0Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/new-ethnic-fashion-women-printed-straight-kurta/p/itmd3ff25bd80950'], ['SGLFXJXZRWKCV6AF', 'Eyewearlabs\xa0Polarized, UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/eyewearlabs-aviator-sunglasses/p/itm3f85427e33d37'], ['JEAFYQGSWHY5CFMG', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itmf8478eedf6bf6'], ['ERGGYU8KWJFFXMGM', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Blue Golden Surgical Plug Hoops Ear non piercing Studs stainless Steel Jewelry Style Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Hoops Earrings Combo Set pack non pierced Ear rings Stud Tops Bali Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry design-mens earrings combo-me46 Metal Earring Set', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-blue-golden-surgical-plug-hoops-ear-non-piercing-studs-stainless-steel-jewelry-style-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-earrings-combo-set-pack-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-mens-combo-me46-metal-earring/p/itm743060b8a30d7'], ['SGLGG6XYJRWCF6VU', 'Eymen I\xa0Riding Glasses, UV Protection, Polarized, Mirrored, Night Vision, Others Spectacle , Retro Square, Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/eymen-spectacle-retro-square-aviator-sunglasses/p/itm8b79a3d45f7e4'], ['JEAGJ4YGATHBBKRV', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm04eca49c50ec0'], ['BZRGKFYYTWFFFGMY', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma5d53e51ad843']]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b'], [nan, nan, nan], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d'], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921']]</t>
+          <t>[['KTAGFDJ8DPXAYGPR', 'anushansa\xa0Women Floral Print Viscose Rayon Anarkali Kurta', 'https://www.flipkart.com/anushansa-women-floral-print-anarkali-kurta/p/itm9de94057127e7']]</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>[['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d'], ['DREG6WSM9DAYAFZZ', 'Rudraaksha\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/rudraaksha-women-a-line-multicolor-dress/p/itmc2d4bba8d0d19'], ['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['DREG6UP2BEEXXRZA', '7800 GROUP\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/7800-group-women-a-line-multicolor-dress/p/itm413f14c9bb0a8'], ['DREGKRUB6ZECJAHE', 'fashionwrld\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-fit-flare-multicolor-dress/p/itmdbdd6b18c9e27'], ['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967']]</t>
+          <t>[['KTAFWNUY7UM5SGFF', 'DCART\xa0Women Embellished, Solid Crepe Straight Kurta', 'https://www.flipkart.com/d-cart-women-solid-straight-kurta/p/itm1c9e3ea905212'], ['SGLEDQE9ZGDARGZV', 'agera\xa0UV Protection, Gradient Aviator Sunglasses (55)', 'https://www.flipkart.com/agera-aviator-sunglasses/p/itmf3yhamhyvbjff'], ['ERGG3X8AESQZBGYN', 'shivay\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Hoop Earring, Stud Earring, Magnetic Earring, Tunnel Earring, Tassel Earring, Huggie Earring, Clip-on Earring, Magnetic Earring, Cuff Earring, Plug Earring', 'https://www.flipkart.com/shivay-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-cubic-zirconia-metal-earring-magnetic-tunnel-tassel-huggie-clip-on-cuff/p/itmaea1efd1dec75'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b'], ['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn'], ['KTAFWNUYBFZPBDQ9', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmf62f03e6220a5'], ['SGLGQ8VYM22C2FQ7', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itmf4d5ff1d96d81'], ['SUIGK3AZSYSHGSTB', 'Deebaco\xa0Women Blazer &amp; Pant Co-Ord Set Solid Suit', 'https://www.flipkart.com/deebaco-blazer-pant-co-ord-set-solid-women-suit/p/itmf3e76708b55e6']]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>209553</t>
+          <t>959301</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Morris</t>
+          <t>Sweeney</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2981,43 +2981,43 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Korea</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[[None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['BDRGNC7DS5GFGHXD', 'Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush\xa0\xa0(15 ml, Black)Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush', 'https://www.flipkart.com/kingeshal-wooden-premium-shoe-brush-cleaning-polishing-shining-leather-shoes-sneakers/p/itmd7afbc5b69f83'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['SHOG9MZFBP9BGCDX', 'RapidBox\xa0Sneakers For Men', 'https://www.flipkart.com/rapidbox-sneakers-men/p/itm3e9655a4a9be5'], [nan, nan, nan]]</t>
+          <t>[[nan, nan, nan], ['JEAG74HFHHZZV6PG', 'KETCH\xa0Men Tapered Fit Mid Rise Blue Jeans', 'https://www.flipkart.com/ketch-tapered-fit-men-blue-jeans/p/itme476bd07f8aef'], [nan, nan, nan], [nan, nan, nan], ['JEAGG6DDDRRHF5QG', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm1a5faf2ca4cc6'], ['SNDGCDNHPWFECSC2', 'KIRAVI\xa0Women White Casual Sandal', 'https://www.flipkart.com/kiravi-women-white-casual/p/itm93403d21dd2df'], ['DREFAYK5QHUJMKXA', 'MUDRIKA\xa0Women Maxi Black Dress', 'https://www.flipkart.com/mudrika-women-maxi-black-dress/p/itmfafgfuhkewzdy'], ['TOPFAY4BGMKT4T68', 'KASSUALLY\xa0Casual Flared Sleeves Floral Print Women White Top', 'https://www.flipkart.com/kassually-casual-flared-sleeve-floral-print-women-white-top/p/itmfayamxh9kygt7'], [nan, nan, nan], ['SHOGGFJJWUXXVQFF', 'Longwalk\xa0Chelsea Ankle-Length Boots For Men', 'https://www.flipkart.com/longwalk-chelsea-ankle-length-boots-men/p/itm4e4da1dcb42bb'], ['SGLGB7G8DT7PXHS6', 'Ted Smith\xa0UV Protection Aviator Sunglasses (56)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmaa86102a0bfee'], ['DREGHD2MNZFEQBJY', 'ORIMAD\xa0Women Maxi Black Dress', 'https://www.flipkart.com/orimad-women-maxi-black-dress/p/itm902a6d5efe155']]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], [nan, nan, nan], ['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d']]</t>
+          <t>[['ERGFYRHVGPXZSEUG', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Ghungroo Triple 3 Three Layer Jhumka Jhumkas Golden Jhumki Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME144 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-ghungroo-triple-3-three-layer-jhumka-jhumkas-golden-jhumki-earrings-earings-ear-rings-girls-women-micro-antique-gold-jhumki-me144-brass-copper-metal-alloy-earring/p/itm03211de8b17f5'], ['ERGFZ7ZD3NNNKH5J', 'MEENAZ\xa0Traditional South indian Temple Jewellery Wedding Bridal Daily use Multicolor oxidised golden earrings jhumka Combo jumkas small Stud Tops Meenakari Jhumkas earing Combo set pack / Antique multi ear rings for women girls Latest design 6 earrings-JHUMKI COMBO-ME01 Beads, Pearl Metal Stud Earring, Drops &amp; Danglers, Jhumki Earring, Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-wedding-bridal-daily-use-multicolor-oxidised-golden-earrings-jhumka-combo-jumkas-small-stud-tops-meenakari-jhumkas-earing-set-pack-antique-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me01-beads-pearl-metal-earring-drops-danglers-jhumki-earring/p/itma0b717ef10316'], ['SNDFYUYBFHYG5XDM', 'Paragon\xa0Men K1403G Stylish Lightweight Daily Durable Comfortable Formal Casuals Black Sports Sandal', 'https://www.flipkart.com/paragon-k1403g-stylish-lightweight-daily-durable-comfortable-formal-casuals-men-black-sports-sandals/p/itm8cea38f5c48f1'], ['ERGFX3MEP4TCK94C', 'Divastri\xa0Bridal Wedding Traditional Gold Pearl Peacock Kundan Jhumkas/ Jhumka/ Jhumki Earrings For Women Girls Pearl Copper, Metal Jhumki Earring', 'https://www.flipkart.com/divastri-bridal-wedding-traditional-gold-pearl-peacock-kundan-jhumkas-jhumka-jhumki-earrings-women-girls-copper-metal-earring/p/itmb8e2529f6a687'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48']]</t>
+          <t>[['LCHG6Z4J5Y5FKBBB', 'Crissy\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-semi-stitched-lehenga-choli/p/itm8b6db1e54cf0e'], ['SGLGMHPGQZKHRGTG', 'Sunglance\xa0Riding Glasses, UV Protection, Night Vision Round, Cat-eye Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-round-cat-eye-sunglasses/p/itm047911875c1c7'], ['TOGFYHFZDSZJJXMD', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1/p/itm1910113c87ef1'], [nan, nan, nan]]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>384405</t>
+          <t>529917</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Shelley</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Glass</t>
+          <t>Lowe</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3026,178 +3026,178 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>United States Minor Outlying Islands</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0']]</t>
+          <t>[['STBFPUCQDKYPGYMV', 'ABYS\xa0Genuine Leather Tan Men And Women\xa0Messenger Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-genuine-leather-tan-men-womenmessenger-bag-small-travel/p/itm5c88d845f6dda'], ['SNDG5FR793G4VY3Q', 'Wildcraft\xa0Men Multicolor Sandal', 'https://www.flipkart.com/wildcraft-men-multicolor-sandals/p/itmfa9392f974c0f'], ['ERGFM6JMZHFEYMZN', 'Divastri\xa0Traditional Oxidised Jewellery Kashmiri Afghani Gold Oxidized Bridal Party Wear Stylish Antique ear rings Wedding Fancy Golden Big Jhumka Jhumkas Earings for girls women latest design Copper, Brass Drops &amp; Danglers, Chandbali Earring, Jhumki Earring', 'https://www.flipkart.com/divastri-traditional-oxidised-jewellery-kashmiri-afghani-gold-oxidized-bridal-party-wear-stylish-antique-ear-rings-wedding-fancy-golden-big-jhumka-jhumkas-earings-girls-women-latest-design-copper-brass-drops-danglers-chandbali-earring-jhumki-earring/p/itmafa88d6bb00bc']]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04']]</t>
+          <t>[['LCHGGTKFNGFDWTHR', 'Matrubhumi\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/matrubhumi-self-design-semi-stitched-lehenga-choli/p/itma915e55591878'], ['DREECZ8SAURCHZT5', 'KAAYA\xa0Women Maxi Black Dress', 'https://www.flipkart.com/kaaya-women-maxi-black-dress/p/itmf3vbfbyx2ka9t'], ['SGLG8W5CTCQJAZWP', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmea2a902dbc0dd'], ['SHOGJ9K9JCZFFWRY', 'Shoe Island\xa0Robust-X ™ Leather Dark Brown Tough Lace Ups High Ankle Length Mens Casual Boots Boots For Men', 'https://www.flipkart.com/shoe-island-robust-x-leather-dark-brown-tough-lace-ups-high-ankle-length-mens-casual-boots-men/p/itm2a497534f8478'], ['JEAGEYGV5D2FDFAK', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm4577eb2e96a75'], ['ERGFYREZGRYQ5YHC', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Ghungroo Hoop Jhumka Jhumkas Jhumki Bali Ear rings/ Earings / Earrings for girls women Golden Micro Antique -GOLD JHUMKI-ME136 Brass, Copper, Metal, Alloy Earring Set, Jhumki Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-ghungroo-hoop-jhumka-jhumkas-jhumki-bali-ear-rings-earings-earrings-girls-women-golden-micro-antique-gold-jhumki-me136-brass-copper-metal-alloy-earring-set-earring/p/itmad442c65d0a6a'], ['TOPGDE4ZRGQKATSA', 'ILMAX\xa0Casual Regular Sleeves Printed Women Black Top', 'https://www.flipkart.com/ilmax-casual-printed-women-black-top/p/itm24b7981a57ca1'], ['DREFZRTWSFBSQBFY', 'famiss fashion\xa0Women Maxi Black Dress', 'https://www.flipkart.com/famiss-fashion-women-maxi-black-dress/p/itm5fc2b38ea81c0'], ['DREGKG45G6U9J3KR', 'Mantraa\xa0Women Maxi Black Dress', 'https://www.flipkart.com/mantraa-women-maxi-black-dress/p/itm71b63e38033db'], ['DREFNYT6BHZXAGQ2', 'U&amp;F\xa0Women Maxi Red, White, Black Dress', 'https://www.flipkart.com/u-f-women-maxi-black-dress/p/itm33123196705dc'], ['JEAGC5WUG4EFZHGA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm939f990d6db73'], [nan, nan, nan], ['SNDGNZNFZDSHJZET', 'Royal Khwaab\xa0Men Beige Flats Sandal', 'https://dl.flipkart.com/dl/royal-khwaab-men-beige-flats/p/itm07f87c43eb740'], ['SGLEC9FKPFYMHZJT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (55)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmec9fkzzxwky2g'], ['DREGACFYHG9MEHGJ', 'AREEBA FASHION\xa0Women Maxi Black Dress', 'https://www.flipkart.com/areeba-fashion-women-maxi-black-dress/p/itm06c6133921403']]</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>[['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], ['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48']]</t>
+          <t>[['SGLGGKSVGBGE3YF9', 'Ted Smith\xa0Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm88e36b022bba3'], ['SARGQ54YYGFGAEGT', 'ShiVAdit Ethnic\xa0Applique, Self Design, Paisley, Embellished, Solid/Plain Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/shivadit-ethnic-applique-self-design-paisley-embellished-solid-plain-bollywood-georgette-chiffon-saree/p/itmc5bb78bd3abe1'], ['SARGNYV5AGUGQB9Z', 'Nena Fashion\xa0Embroidered Daily Wear Georgette Saree', 'https://www.flipkart.com/nena-fashion-embroidered-daily-wear-georgette-saree/p/itmb98cc4819a9cc'], [nan, nan, nan], [nan, nan, nan], ['SARG9YPYYVSPZCEM', 'Bansari Textiles\xa0Embellished, Applique Bollywood Jacquard, Art Silk Saree', 'https://www.flipkart.com/bansari-textiles-embellished-applique-bollywood-jacquard-art-silk-saree/p/itmb8b675999899f'], ['LCHGCYJRTVHGY2GY', 'patlani\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/patlani-embroidered-semi-stitched-lehenga-choli/p/itm4b81c0c03846a'], ['TOPGHWDZ6FCEGE7N', 'RJ FASHION\xa0Casual Regular Sleeves Striped Women Blue Top', 'https://www.flipkart.com/rj-fashion-casual-striped-women-blue-top/p/itmfb9f387ed4002'], [nan, nan, nan], ['JEAGJZY9VXDAHY7H', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm4f2e5aede0303'], ['SNDGCDNHPWFECSC2', 'KIRAVI\xa0Women White Casual Sandal', 'https://www.flipkart.com/kiravi-women-white-casual/p/itm93403d21dd2df'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], ['STBFWE59MCS8PNGW', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm70da6d7a59187']]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>436149</t>
+          <t>506745</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Montgomery</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Pitcairn Islands</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['TSHGC74BK7FGJUHD', 'NB NICKY BOY\xa0Men Typography Round Neck Cotton Blend Black T-Shirt', 'https://www.flipkart.com/nb-nicky-boy-typography-men-round-neck-black-t-shirt/p/itme37ae4c45ba59'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['SHOGFYMCMEQTFQQ5', 'World Wear Footwear\xa0Trendy Stylish Comfortable &amp; Lightweight, Casual High Tops Sneakers Shoes Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-trendy-stylish-comfortable-lightweight-casual-high-tops-sneakers-shoes-men/p/itm98336ff1bad6e']]</t>
+          <t>[['SUIGHJKZUZHRWEES', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itmf571baf78d2a2'], ['RKSGND7KGXDHUDH8', 'mukay\xa0Rucksacks Bag Rucksack  - 55 L', 'https://www.flipkart.com/mukay-rucksacks-bag-rucksack-55-l/p/itm880f9bec41e22'], ['RKSGPXHYZA98KDGJ', 'IMPULSE\xa0Wazka bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 60 L', 'https://www.flipkart.com/impulse-wazka-bag-travel-men-tourist-backpack-hiking-trekking-camping-rucksack-60-l/p/itme2e28c155bd9a'], ['SGLGZUGMBTBYB8SD', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itm1e8800456efe0'], ['SHOGG5FT9WTYYYFZ', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itmc03adefc7970a'], ['SUIFYUYSTXUANFJA', 'TAHVO\xa0Men Black men Bandhgala suit Solid Suit', 'https://www.flipkart.com/tahvo-black-men-bandhgala-suit-solid/p/itm744a583c6fa83'], ['SRWG49FZY8CHSRJM', 'Chote Raja Collection chote raja collection Solid Sherwani Solid SherwaniChote Raja Collection chote raja collection Solid Sherwani Solid Sherwani', 'https://www.flipkart.com/chote-raja-collection-solid-sherwani/p/itm16aa1c11a9ab2'], ['KTAGPZCCK7URHYWK', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itm54c15e0c712e7'], ['STBFMSTDCWBZHXDS', 'ABYS\xa0Leather Cross Body Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-leather-cross-body-bag-small-travel/p/itm4f559545c46b6'], ['ERGGD4DPVUGB2TRV', 'A1 Bhumika Trendz\xa0Floral Kundan Chandbali Earring(red) Metal Drops &amp; Danglers', 'https://www.flipkart.com/a1-bhumika-trendz-floral-kundan-chandbali-earring-red-metal-drops-danglers/p/itm2c82e90770b04'], ['ERGGFSHZXPPPA6QQ', 'Karishma Kreations\xa0Mens Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Metal Stud Earring, Hoop Earring, Earring Set, Huggie Earring, Plug Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-metal-earring-earring-set-huggie-cuff/p/itmd8afe8590df5c']]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[['SHTGHQU4E3EHCEKT', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-dark-blue-shirt/p/itmf1fd163332f06'], [nan, nan, nan], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], ['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc']]</t>
+          <t>[['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['ERGG4GE5FQPARSC4', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops Mens Earing Earrings for Men may Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop bali -MENS EARRING COMBO-ME76 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-mens-combo-me76-crystal-cubic-zirconia-diamond-alloy-metal-stainless-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itm38d95c95d8c9a'], ['KTAGPZCCZW7RTPP6', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itma85dd7abff764'], ['KTAFWNUYUNPBVTAH', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmb54a7b68b42b3'], ['SGLGFYDUXM8KCHPD', 'VINCENT CHASE\xa0by Lenskart Polarized, UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/vincent-chase-lenskart-aviator-sunglasses/p/itm6d19976cb47a0'], ['SUIGN9P6JFBPNTH7', 'WoowZerZ\xa0Women Coat Co-ords Solid Suit', 'https://www.flipkart.com/woowzerz-coat-co-ords-solid-women-suit/p/itm8fc9899514ba5'], ['WSBGPB7UBWNQUCZJ', 'RC REXCUIR Shoulder Bag for Men Women | Sling Crossbody Bags Shoulder Bag\xa0\xa0(Pink)RC REXCUIR Shoulder Bag for Men Women | Sling Crossbody Bags Shoulder Bag', 'https://www.flipkart.com/rc-rexcuir-shoulder-bag-men-women-sling-crossbody-bags/p/itm0538e42b20b37'], ['BZRGKFYXG3Y3JGFB', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itm7c5c86033098e'], ['ERGFMWQ8Q2MK97H3', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M204 Cubic Zirconia Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m204-cubic-zirconia-metal-earring-earring/p/itm65f1b1a4078a8'], ['SHOFH5SHAFQMTHZB', 'CAMRO\xa0Hulk-02 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-02-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm672804cec90c1'], ['KTAGJQF9G5NHSFCM', 'RAGMINE\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/ragmine-women-printed-straight-kurta/p/itm730ab91e97103'], ['SHOGMMHVCJSXBKMH', 'SHOEFLY\xa0Exclusive Attractive Collection of Stylish &amp; Comfortable Shoes &amp; Sneakers Boots For Men', 'https://www.flipkart.com/shoefly-exclusive-attractive-collection-stylish-comfortable-shoes-sneakers-boots-men/p/itm68366de37a72a']]</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>[['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5'], ['DREG6WSM9DAYAFZZ', 'Rudraaksha\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/rudraaksha-women-a-line-multicolor-dress/p/itmc2d4bba8d0d19'], ['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['SHTGMK2Y7JKGZKCE', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-grey-shirt/p/itmc34659b21c380'], ['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42'], ['KDEGN27KFNSCUQYE', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm9b97310e84545'], ['SHOG7DM3AXNK9DKV', 'bacca bucci\xa0MOUNTAIN Splash proof full Grain Leather biker Boots Trekking Hiking with Fur Boots For Men', 'https://www.flipkart.com/bacca-bucci-mountain-splash-proof-full-grain-leather-biker-boots-trekking-hiking-fur-men/p/itm6b40c995e679e'], ['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f']]</t>
+          <t>[['TVPF6YZGZWZ7PXUH', 'Nightstar Waist Bag\xa0\xa0(Red)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f3ptmua8ahy'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], ['KTAGFDJ8DPXAYGPR', 'anushansa\xa0Women Floral Print Viscose Rayon Anarkali Kurta', 'https://www.flipkart.com/anushansa-women-floral-print-anarkali-kurta/p/itm9de94057127e7'], ['ERGGGE7GYFG7MXUW', 'Vembley\xa0Korean Studded Butterfly Tassel Earrings 2 Pcs/Set Metal Drops &amp; Danglers', 'https://www.flipkart.com/vembley-korean-studded-butterfly-tassel-earrings-2-pcs-set-metal-drops-danglers/p/itmea9d93b2c3a9b'], ['SHOGHQ35UK4SHADX', 'Floarkart\xa03 Inch Hidden Height Increasing All Purpose Elevator Sports Casual Shoes for Men Sneakers For Men', 'https://www.flipkart.com/floarkart-3-inch-hidden-height-increasing-all-purpose-elevator-sports-casual-shoes-men-sneakers/p/itma6f71f6af180c'], ['KTAGJMT6AXTGZ2GZ', 'DCPGARMENT\xa0Women Printed Cotton Rayon Straight Kurta', 'https://www.flipkart.com/dcpgarment-women-printed-straight-kurta/p/itm256563560ee8c'], ['SRWGJVZJQDJYZXP3', 'DEYANN Solid SherwaniDEYANN Solid Sherwani', 'https://www.flipkart.com/deyann-solid-sherwani/p/itmade524d1c4165'], [nan, nan, nan], ['STBFVU6DKMPB8ZQN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm4fc56d093ec74']]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>274827</t>
+          <t>596505</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Doris</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hayes</t>
+          <t>Barrett</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Heard Island and McDonald Islands</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['SHTGMK2YHQWFZY3U', 'VTEXX\xa0Men Regular Fit Solid Cut Away Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-white-shirt/p/itmc5dc05890b7d7'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec']]</t>
+          <t>[['JEAGPGNUSURYXFVN', 'BEING HUMAN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-regular-men-grey-jeans/p/itmab42d2596d878'], ['TOPGHWDZ6FCEGE7N', 'RJ FASHION\xa0Casual Regular Sleeves Striped Women Blue Top', 'https://www.flipkart.com/rj-fashion-casual-striped-women-blue-top/p/itmfb9f387ed4002'], ['SNDG5FR5YGFH44W4', 'Wildcraft\xa0Men Multicolor Sports Sandal', 'https://www.flipkart.com/wildcraft-men-multicolor-sports-sandals/p/itmed21edffc58c3'], ['SHOGKGW7ZZMXVSA8', 'BUCKAROO\xa0BUCKAROO: HUNTLEY Genuine Leather Brown Casual Boots For Mens Boots For Men', 'https://www.flipkart.com/buckaroo-buckaroo-huntley-genuine-leather-brown-casual-boots-mens-men/p/itm7954a01b5dfc4'], ['TOPGNM4X8FMG6HTF', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women White Top', 'https://www.flipkart.com/kassually-casual-striped-women-white-top/p/itm5c62c3186a9eb']]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['KPBG5F6YZG6HFSJE', 'BEBYHOOD\xa0Baby Boys Party(Festive) Blazer Bow Tie', 'https://www.flipkart.com/bebyhood-baby-boys-party-festive-blazer-bow-tie/p/itm3b88bc2d6f6b1']]</t>
+          <t>[['SARG6JFDTHASYFHP', 'Flip The Style\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-saree/p/itm5460d3a3a77f8'], ['ERGFWWVY4Q7JB6KV', 'Divastri\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Antique Micro Ear rings for girls women Golden Copper, Brass Jhumki Earring', 'https://www.flipkart.com/divastri-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-antique-micro-ear-rings-girls-women-golden-copper-brass-jhumki-earring/p/itmd3c727fd8c0c5'], ['SGLFT9FDTVGH8N7B', 'Eyewearlabs\xa0Polarized, UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/eyewearlabs-aviator-sunglasses/p/itm1f62b6cbc2219'], ['STBFWE59RW9YTGZP', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8f45129ca2ffc'], ['SNDFNVS9YHTVXSTY', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm121a186c79319'], ['SARFPCW88MX53GYF', 'Flip The Style\xa0Floral Print Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-floral-print-bollywood-georgette-chiffon-saree/p/itmef0a27a7050d3'], ['ERGFYRVSKKWTCEX4', 'MEENAZ\xa0Traditional South Screw Back Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Peacock Jhumka Jhumkas Bahubali Hair Chain Jhumki Ear rings/ Earings / Earrings for girls women Golden Micro Antique - JHUMKI-ME137 Brass, Copper, Metal, Alloy Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-peacock-jhumka-jhumkas-bahubali-hair-chain-jhumki-ear-rings-earings-earrings-girls-women-golden-micro-antique-jhumki-me137-brass-copper-metal-alloy-earring-set/p/itmc8a1365e26e6f'], ['TOPGZZV9XKATGHZP', 'TeeWink\xa0Casual Sleeveless Printed Women Black Top', 'https://www.flipkart.com/teewink-casual-printed-women-black-top/p/itmc8dd0fad09af4'], ['DREFECH2HZX4YFKN', 'MUDRIKA\xa0Women Maxi Light Blue, Black Dress', 'https://www.flipkart.com/mudrika-women-maxi-light-blue-black-dress/p/itmfecuwgccj42kc'], ['ERGGJYK9HQBUAAST', 'MEENAZ\xa0Jhumka earrings combo moti jhumkas Traditional pack Set South indian temple Beads, Pearl Metal Chandbali Earring, Drops &amp; Danglers, Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-jhumka-earrings-combo-moti-jhumkas-traditional-pack-set-south-indian-temple-beads-pearl-metal-chandbali-earring-drops-danglers-earring-set-jhumki/p/itm64759afa2fb26'], ['SARFYTNPB5N7HDJ9', 'Flip The Style\xa0Printed Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-chiffon-saree/p/itm8e8079a36d874'], ['SHOFNY4YZJK8ZMHH', 'Shoe Island\xa0Solid-X Tan Brown Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-tan-brown-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm38056f0622af1'], ['SNDGAVFNNGPCFNWH', 'SFR\xa0Men Navy, Blue Clogs Sandal', 'https://www.flipkart.com/sfr-men-navy-blue-clogs/p/itm2c38a7df2739c'], ['SNDGQ7AWJC9PCKKQ', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itme35ac2159acd5'], ['JEAGJZYBGAHHSGBF', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8bdcd3b9b07c5']]</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>[['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070']]</t>
+          <t>[['LCHG2DZGF6JZXHZY', 'DB ANGHAN\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/db-anghan-self-design-semi-stitched-lehenga-choli/p/itm50e55437fde19'], ['LCHG4QA26Y7KCHKX', 'WARTHY ENETERPRICE\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/warthy-eneterprice-embroidered-semi-stitched-lehenga-choli/p/itm04f22d25adb85'], ['SHOFNFG6HUKEBKME', 'Shoe Island\xa0Solid-X Dark Green Olive Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-dark-green-olive-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm3944310efb633'], ['ERGFPDR8DQFYZK2D', 'MEENAZ\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Ear rings for girls women Golden Ruby Copper, Brass Drops &amp; Danglers, Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-ear-rings-girls-women-golden-ruby-copper-brass-drops-danglers-earring-set-jhumki/p/itmf20a8ebb5a94d'], ['JEAGF5JU7PKYFBYN', 'KETCH\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/ketch-skinny-men-grey-jeans/p/itmb07971c2f06d5'], [nan, nan, nan], ['DREGG7EZBYPDRCQU', 'ZOPDI\xa0Women Maxi White Dress', 'https://www.flipkart.com/zopdi-women-maxi-white-dress/p/itm29d9d7603c395'], ['SHOFNFG6HUKEBKME', 'Shoe Island\xa0Solid-X Dark Green Olive Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-dark-green-olive-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm3944310efb633'], ['WSBFQ3GG28HCQFC8', 'SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag\xa0\xa0(Pink)SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag', 'https://www.flipkart.com/spice-art-women-s-solid-pu-latest-designer-sling-bag-fanny-pack-crossbody-waist-pink-color/p/itm1d791275f1d0e'], ['SNDGHZY9TQCGX5WA', 'Bucik\xa0Men Olive Sports Sandal', 'https://www.flipkart.com/bucik-men-olive-sports-sandals/p/itm74389fda642e3'], ['DREGHD2MNZFEQBJY', 'ORIMAD\xa0Women Maxi Black Dress', 'https://www.flipkart.com/orimad-women-maxi-black-dress/p/itm902a6d5efe155'], ['SNDGNZJNZ6SFYFRK', 'World Wear Footwear\xa0Men White, Blue Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-blue-clogs/p/itm3259840b48685']]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>609345</t>
+          <t>249081</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Bass</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['DREGGSSRS6PYGNA3', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itm845406cd3aef2'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441']]</t>
+          <t>[['ERGFYRVSKKWTCEX4', 'MEENAZ\xa0Traditional South Screw Back Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Peacock Jhumka Jhumkas Bahubali Hair Chain Jhumki Ear rings/ Earings / Earrings for girls women Golden Micro Antique - JHUMKI-ME137 Brass, Copper, Metal, Alloy Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-peacock-jhumka-jhumkas-bahubali-hair-chain-jhumki-ear-rings-earings-earrings-girls-women-golden-micro-antique-jhumki-me137-brass-copper-metal-alloy-earring-set/p/itmc8a1365e26e6f']]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[[nan, nan, nan], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['SHOG9MZFBP9BGCDX', 'RapidBox\xa0Sneakers For Men', 'https://www.flipkart.com/rapidbox-sneakers-men/p/itm3e9655a4a9be5'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['SHTGMK2YHQWFZY3U', 'VTEXX\xa0Men Regular Fit Solid Cut Away Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-white-shirt/p/itmc5dc05890b7d7'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6']]</t>
+          <t>[['SGLED3YHZDMUUYJY', 'ROYAL SON\xa0Mirrored Aviator Sunglasses (58)', 'https://www.flipkart.com/royal-son-aviator-sunglasses/p/itmf3ykjxj6yncgy'], ['TOPFX83BQMUWD6GQ', 'Dream Beauty Fashion\xa0Casual Regular Sleeves Printed Women White Top', 'https://www.flipkart.com/dream-beauty-fashion-casual-printed-women-white-top/p/itm153bc61ece352'], ['TOPGNM4X8FMG6HTF', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women White Top', 'https://www.flipkart.com/kassually-casual-striped-women-white-top/p/itm5c62c3186a9eb'], ['LCHG4CKKQESFYUGN', 'Crissy\xa0Embroidered, Floral Print Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-floral-print-semi-stitched-lehenga-choli/p/itmc07b422fc53f7'], ['LCHGZ4VFB6SCGNAJ', 'Matrubhumi\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/matrubhumi-embroidered-semi-stitched-lehenga-choli/p/itmda20d40986c01'], ['DREFNYT6BMXHMVSD', 'U&amp;F\xa0Women Maxi Green, Black, Grey Dress', 'https://www.flipkart.com/u-f-women-maxi-green-black-grey-dress/p/itmd47293a0fb6cf'], ['TOPGEWMF5ZQTRGPF', 'KASSUALLY\xa0Casual Sleeveless Printed Women Black Top', 'https://www.flipkart.com/kassually-casual-printed-women-black-top/p/itm04997ecff514a'], ['SGLGKN8HHNPBGUGT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (50)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itm9dfc11c9354e0'], ['JEAFYQGSZDBNCRDT', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm405fce9d65e57'], ['ERGFWWVY4Q7JB6KV', 'Divastri\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Antique Micro Ear rings for girls women Golden Copper, Brass Jhumki Earring', 'https://www.flipkart.com/divastri-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-antique-micro-ear-rings-girls-women-golden-copper-brass-jhumki-earring/p/itmd3c727fd8c0c5'], ['SGLF7G35GZPDJRHE', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf7g4pezzem77y'], ['SARG6JFCKWYSWWEZ', 'Flip The Style\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-saree/p/itm16410f5ef0315'], ['SGLG8USBVVYWGXYA', 'Velocity Eyewear\xa0UV Protection, Polarized, Mirrored, Others Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/velocity-eyewear-aviator-sunglasses/p/itmfe0c619663653'], ['SARFYTNPB5N7HDJ9', 'Flip The Style\xa0Printed Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-chiffon-saree/p/itm8e8079a36d874'], ['SARG92JG5SYENAQ3', 'FASHION RELOADER\xa0Embroidered Bollywood Georgette Saree', 'https://www.flipkart.com/fashion-reloader-embroidered-bollywood-georgette-saree/p/itm7575fff682f1e']]</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>[['TSHGGTH3ZZZJFJFR', 'London Hills\xa0Men Striped Hooded Neck Cotton Blend Pink T-Shirt', 'https://www.flipkart.com/london-hills-striped-men-hooded-neck-pink-t-shirt/p/itmf148db8f2ffeb'], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], [nan, nan, nan], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], [nan, nan, nan], ['SHTGMK2YHQWFZY3U', 'VTEXX\xa0Men Regular Fit Solid Cut Away Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-white-shirt/p/itmc5dc05890b7d7']]</t>
+          <t>[['TOPENSHYHJAPVVSR', 'RUSE\xa0Casual Regular Sleeves Solid Women White Top', 'https://www.flipkart.com/ruse-casual-short-sleeve-solid-women-white-top/p/itmf3z4kyz59fmf3'], ['SHOFNFG6HUKEBKME', 'Shoe Island\xa0Solid-X Dark Green Olive Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-dark-green-olive-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm3944310efb633'], ['DREGEFGH6JZAUAG6', 'KASSUALLY\xa0Women Maxi Black Dress', 'https://www.flipkart.com/kassually-women-maxi-black-dress/p/itmcd04e97dbe69f'], ['SHOFNY4YH4YKZBT2', 'Shoe Island\xa0Solid-X Beige Tan Brown Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-beige-tan-brown-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm1c647e6f931bc'], [nan, nan, nan], ['TOPG9HBWUWZY26ST', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Black, Grey Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-grey-top/p/itm2108dd3cdcf81'], ['DREGCVBN3GHFK4FT', 'heer tex\xa0Women Maxi Pink Dress', 'https://www.flipkart.com/heer-tex-women-maxi-pink-dress/p/itm278fbd9f5e6e3'], ['LCHGZ7DVUQM5GBWF', 'DHAVDI ENTERPRISE\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-embroidered-semi-stitched-lehenga-choli/p/itme9c9d6c640af8'], ['SGLFEAVBYDNNFFJN', 'GANSTA\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/gansta-aviator-sunglasses/p/itmfeby3zq7hzy9w'], ['SNDGQ7AWJC9PCKKQ', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itme35ac2159acd5'], ['SGLGMVDKAHECQCUU', 'Sunglance\xa0UV Protection, Gradient, Mirrored, Riding Glasses Wayfarer Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-wayfarer-sunglasses/p/itm7a90b27e213d4'], ['STBFWE59PZPSKYSN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6cea415e3ffd5'], ['ERGFYZ6ER3EFQGJY', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised golden earrings jhumki Combo set jumkas small Stud Tops Meenakari Jhumka earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design daily use 6 earrings-JHUMKI COMBO-ME02 Beads, Pearl Alloy, Metal, Enamel, Crystal, Zinc Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-golden-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me02-beads-pearl-alloy-metal-enamel-crystal-zinc-earring/p/itm095c523964f10']]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>451707</t>
+          <t>803421</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Wayne</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Stewart</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3206,133 +3206,133 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Greenland</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['SHTGAHWSTTQRKDKS', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-blue-shirt/p/itm9b2791f9585ea'], ['SHTGMK2YHQWFZY3U', 'VTEXX\xa0Men Regular Fit Solid Cut Away Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-white-shirt/p/itmc5dc05890b7d7']]</t>
+          <t>[['ERGG3X8AESQZBGYN', 'shivay\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Hoop Earring, Stud Earring, Magnetic Earring, Tunnel Earring, Tassel Earring, Huggie Earring, Clip-on Earring, Magnetic Earring, Cuff Earring, Plug Earring', 'https://www.flipkart.com/shivay-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-cubic-zirconia-metal-earring-magnetic-tunnel-tassel-huggie-clip-on-cuff/p/itmaea1efd1dec75'], ['SHOGMGQ4CSMEDZPG', 'HX London\xa0Casuals For Men', 'https://dl.flipkart.com/dl/hx-london-casuals-men/p/itma41d273b347b6'], ['KTAGPZCCFGEWBSHF', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itm3521f0a6cbe6e'], [nan, nan, nan], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['ERGG4GE5FQPARSC4', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops Mens Earing Earrings for Men may Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop bali -MENS EARRING COMBO-ME76 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-mens-combo-me76-crystal-cubic-zirconia-diamond-alloy-metal-stainless-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itm38d95c95d8c9a'], ['SGLFZCRCYYPS6HJX', 'Fair-x\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/fair-x-aviator-sunglasses/p/itm214678c66746e'], ['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b'], ['SGLF54XGVQYGEYZN', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (62)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmf557vd9wzgjhd'], ['ERGGFZBGHPGVZZPY', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -MENS EARRINGS COMBO-ME62 Metal Stud Earring, Hoop Earring, Earring Set, Clip-on Earring, Magnetic Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-mens-combo-me62-metal-earring-earring-set-clip-on/p/itmedca84a53fbc2'], ['SGLGZUGZBAAJF2HQ', 'Resist\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-aviator-sunglasses/p/itm60621f9eba7de'], ['JEAGEKQZCSRVZWKJ', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm3af3b93115f4a'], ['SHOGBVWDS82DZDXH', 'World Wear Footwear\xa0Exclusive Affordable Collection of Trendy &amp; Stylish Sport Sneakers Shoes Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-exclusive-affordable-collection-trendy-stylish-sport-sneakers-shoes-running-men/p/itmc52859fa3a657']]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['SHTGMK2Y7JKGZKCE', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-grey-shirt/p/itmc34659b21c380'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21']]</t>
+          <t>[['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b'], ['JEAGGNWFNGRWHTMC', 'MUFTI\xa0Men Tapered Fit Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-tapered-fit-men-grey-jeans/p/itmf1d31dcc97c6f'], ['SRWG5K5HNQDBHRMV', 'Feellasto Embroidered SherwaniFeellasto Embroidered Sherwani', 'https://www.flipkart.com/feellasto-embroidered-sherwani/p/itm07a34dfd9f616'], ['SHOGZFNFCXHY7SZG', 'Zsyto\xa0Canvas Shoes For Men', 'https://www.flipkart.com/zsyto-canvas-shoes-men/p/itmbf278fa79b88f'], [nan, nan, nan], ['KTAGK4KKMUSV3TTE', 'Ladli Fashion\xa0Women Striped Cotton Blend A-line Kurta', 'https://www.flipkart.com/ladli-fashion-women-striped-a-line-kurta/p/itm9c2675e2603a2'], ['ERGGPYJSPDFGTKQS', 'TLGS\xa0Golden Chand Bali Chilai Texture Simple Design for Boys Men Brass, Copper Hoop Earring', 'https://www.flipkart.com/tlgs-golden-chand-bali-chilai-texture-simple-design-boys-men-brass-copper-hoop-earring/p/itmb4c0dcdfc56f1'], ['SGLG8W5CTCQJAZWP', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmea2a902dbc0dd'], ['JEAGG6DDDRRHF5QG', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm1a5faf2ca4cc6'], ['ERGG7MHUDVDNW8HV', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME95 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me95-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmc82b9b0c0ffbc'], ['SGLED3YHZDMUUYJY', 'ROYAL SON\xa0Mirrored Aviator Sunglasses (58)', 'https://www.flipkart.com/royal-son-aviator-sunglasses/p/itmf3ykjxj6yncgy'], ['SHOGF5WXBMHP5KDF', 'Zsyto\xa0Boots For Men', 'https://www.flipkart.com/zsyto-boots-men/p/itm7202b1d426331'], ['ERGG4DKTHPYD5R8G', 'Karishma Kreations\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM God jejus Cross Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Metal Hoop Earring, Stud Earring, Huggie Earring, Plug Earring, Cuff Earring, Tunnel Earring, Earring Set, Magnetic Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-god-jejus-cross-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-metal-earring-huggie-cuff-tunnel-set-magnetic/p/itme0b0dc32b184f'], ['RKSGN5PABSHCYQZE', 'Sakshi Enterprises\xa0Rucksack bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-enterprises-rucksack-bag-travel-men-tourist-backpack-hiking-trekking-camping-70-l/p/itm5ed8228a4d5d1'], ['KTAGFDJ8DPXAYGPR', 'anushansa\xa0Women Floral Print Viscose Rayon Anarkali Kurta', 'https://www.flipkart.com/anushansa-women-floral-print-anarkali-kurta/p/itm9de94057127e7']]</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>[['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['SHOG9MZFBP9BGCDX', 'RapidBox\xa0Sneakers For Men', 'https://www.flipkart.com/rapidbox-sneakers-men/p/itm3e9655a4a9be5'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['KDEGN6P4WQGSPYX9', 'Manaitri\xa0Girls Midi/Knee Length Party Dress', 'https://dl.flipkart.com/dl/manaitri-girls-midi-knee-length-party-dress/p/itmf12bcf3590f06'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45'], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6']]</t>
+          <t>[['JEAGJPYUVPZGVXBJ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itmf244a2c0ad6e9'], ['CLTG96EFCQV79MSQ', 'WROOTED\xa0Party Gold  Clutch  - Regular Size', 'https://www.flipkart.com/wrooted-party-gold-clutch/p/itm82e9bbdbfd672'], ['SUIGKGVNQZPFCK4H', 'TAHVO\xa0Men Black Tuxedo men suit Solid Suit', 'https://www.flipkart.com/tahvo-black-tuxedo-men-suit-solid/p/itm869b69c0eac13'], ['JEAGC5WUG4EFZHGA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm939f990d6db73'], ['TVPF6YZMMHFS6PWC', 'Nightstar Waist Bag\xa0\xa0(Blue)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kgfnrpete'], ['SHOFENAFHYFBV33N', 'World Wear Footwear\xa0Latest Collection-1138 Stylish Casual Sports Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-latest-collection-1138-stylish-casual-sports-sneakers-men/p/itm592754103ce33'], ['SGLGE589JEKDUTPZ', 'FASHINITY\xa0UV Protection Aviator, Spectacle  Sunglasses (54)', 'https://www.flipkart.com/fashinity-aviator-spectacle-sunglasses/p/itm9e49a945cd0b1'], ['KTAGJQF9GCNAFVRW', 'RAGMINE\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/ragmine-women-printed-straight-kurta/p/itmcd891c4aacedb'], ['JEAGPGNUSURYXFVN', 'BEING HUMAN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-regular-men-grey-jeans/p/itmab42d2596d878'], ['SRWGJVZJQDJYZXP3', 'DEYANN Solid SherwaniDEYANN Solid Sherwani', 'https://www.flipkart.com/deyann-solid-sherwani/p/itmade524d1c4165'], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['SUIGHJKZATEMH7VC', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itm005265b2a9a7b'], ['SUIGK3AZSYSHGSTB', 'Deebaco\xa0Women Blazer &amp; Pant Co-Ord Set Solid Suit', 'https://www.flipkart.com/deebaco-blazer-pant-co-ord-set-solid-women-suit/p/itmf3e76708b55e6'], ['KETGHCVZXEHYET5M', 'SEMINO\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/semino-boys-festive-party-wedding-sherwani-churidar-set/p/itmc621cb28d13c9']]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>724149</t>
+          <t>126429</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alyssa</t>
+          <t>Sheila</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Morse</t>
+          <t>Blake</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Nauru</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a']]</t>
+          <t>[['SGLGG6XYJRWCF6VU', 'Eymen I\xa0Riding Glasses, UV Protection, Polarized, Mirrored, Night Vision, Others Spectacle , Retro Square, Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/eymen-spectacle-retro-square-aviator-sunglasses/p/itm8b79a3d45f7e4'], ['JEAGEYGV5D2FDFAK', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm4577eb2e96a75'], ['KTAGBUHFSNVG4NZQ', 'Urban Creation\xa0Pack of 6 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/urban-creation-women-printed-straight-kurta/p/itmbe417c1f1b717'], [nan, nan, nan], ['SHOFZ9R3DEXZB5TR', 'LIONS RIDER\xa0Slip On For Men', 'https://www.flipkart.com/lions-rider-slip-men/p/itma3d92e79df080'], ['KTAGJMT6AXTGZ2GZ', 'DCPGARMENT\xa0Women Printed Cotton Rayon Straight Kurta', 'https://www.flipkart.com/dcpgarment-women-printed-straight-kurta/p/itm256563560ee8c']]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], ['SHTGHQU4E3EHCEKT', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-dark-blue-shirt/p/itmf1fd163332f06'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d']]</t>
+          <t>[['SRWGHXHQXSSCYGA4', 'DEYANN Woven SherwaniDEYANN Woven Sherwani', 'https://www.flipkart.com/deyann-woven-sherwani/p/itm665c82df09bf3'], ['STBFVU6DKMPB8ZQN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm4fc56d093ec74']]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>[['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d']]</t>
+          <t>[['ERGG82DH5QRGZRUU', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME114 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me114-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmcb84f374161ba'], ['SGLGE589JEKDUTPZ', 'FASHINITY\xa0UV Protection Aviator, Spectacle  Sunglasses (54)', 'https://www.flipkart.com/fashinity-aviator-spectacle-sunglasses/p/itm9e49a945cd0b1'], ['SHOFVD5FHD9QZDDX', 'CAMRO\xa0Hulk-01 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-01-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm1f5d5fc421b8b']]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>769167</t>
+          <t>719739</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jodi</t>
+          <t>Jesus</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Watts</t>
+          <t>Flores</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Palestinian Territory</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['TSHGC74BK7FGJUHD', 'NB NICKY BOY\xa0Men Typography Round Neck Cotton Blend Black T-Shirt', 'https://www.flipkart.com/nb-nicky-boy-typography-men-round-neck-black-t-shirt/p/itme37ae4c45ba59']]</t>
+          <t>[['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], ['WSBGASYART8G9DG5', 'sanjis Girls/Women Cute Fanny Pack Fur Waist Bag Belt Bag Chest Bag Shoulder Bag Waist Bag\xa0\xa0(Multicolor)sanjis Girls/Women Cute Fanny Pack Fur Waist Bag Belt Bag Chest Bag Shoulder Bag Waist Bag', 'https://www.flipkart.com/sanjis-girls-women-cute-fanny-pack-fur-waist-bag-belt-chest-shoulder/p/itm572655e0a4a5a'], ['LCHG6Z4J5Y5FKBBB', 'Crissy\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-semi-stitched-lehenga-choli/p/itm8b6db1e54cf0e'], ['SNDGNZG38MPCBWPG', 'World Wear Footwear\xa0Men Olive, White Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-olive-white-clogs/p/itmb47b9f2fa0b80']]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975']]</t>
+          <t>[['JEAGJ4YGATHBBKRV', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm04eca49c50ec0'], ['SGLF84PQ95MAP857', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9qzhyj9w3'], ['ERGFYZ7AYYZBPNGU', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden Peacock earrings jhumki Combo set jumkas small Stud Tops Meenakari Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design daily use 6 earrings-JHUMKI COMBO-ME05 Pearl Metal Jhumki Earring, Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-peacock-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me05-pearl-metal-earring-earring/p/itmea6eb85162ce4'], ['SNDG6E6V2HWQMZJH', 'DINO-SHU\xa0Women Off White Bellies Sandal', 'https://www.flipkart.com/dino-shu-women-off-white-bellies/p/itm421ace4c217a5'], ['ERGFW8ZVGCYU9ZAM', 'Divastri\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Antique Micro Ear rings for girls women Golden Brass, Copper Jhumki Earring, Earring Set, Drops &amp; Danglers', 'https://www.flipkart.com/divastri-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-antique-micro-ear-rings-girls-women-golden-brass-copper-jhumki-earring-earring-set-drops-danglers/p/itmde5584d3b5298'], ['JEAGC5WZGSSSEVP3', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm6222d4620ce65'], [nan, nan, nan], ['SARGPGTBYU9FSEYQ', 'SIYADECORE\xa0Woven Kanjivaram Pure Silk, Art Silk Saree', 'https://www.flipkart.com/siyadecore-woven-kanjivaram-pure-silk-art-silk-saree/p/itm6cf8b92370296'], ['DREGAGXZMVCXTYMS', 'AREEBA FASHION\xa0Women Maxi Black Dress', 'https://www.flipkart.com/areeba-fashion-women-maxi-black-dress/p/itmb0a524a3d7e34'], [nan, nan, nan], ['SGLGZ9FNDJZTSFAZ', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itm5849d62be447f']]</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>[['BDRGNC7DS5GFGHXD', 'Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush\xa0\xa0(15 ml, Black)Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush', 'https://www.flipkart.com/kingeshal-wooden-premium-shoe-brush-cleaning-polishing-shining-leather-shoes-sneakers/p/itmd7afbc5b69f83'], ['SHOGKZTUYG8V4G6H', 'bacca bucci\xa0ALDER 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-alder-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itmf9788a1b24ed2']]</t>
+          <t>[['ERGFX3MEP4TCK94C', 'Divastri\xa0Bridal Wedding Traditional Gold Pearl Peacock Kundan Jhumkas/ Jhumka/ Jhumki Earrings For Women Girls Pearl Copper, Metal Jhumki Earring', 'https://www.flipkart.com/divastri-bridal-wedding-traditional-gold-pearl-peacock-kundan-jhumkas-jhumka-jhumki-earrings-women-girls-copper-metal-earring/p/itmb8e2529f6a687'], ['JEAGGP2HWQEVQZHQ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm5eac215010627'], ['JEAGGNWFNGRWHTMC', 'MUFTI\xa0Men Tapered Fit Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-tapered-fit-men-grey-jeans/p/itmf1d31dcc97c6f'], ['SHOFNY4YGFFHWQ5H', 'Shoe Island\xa0Solid-X Black Brown Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-black-brown-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm5f18c1d351845'], ['SHOGKGAUVR8C4AQJ', 'MYTACO\xa0MensSynthetic Loafer Loafers For Men', 'https://dl.flipkart.com/dl/mytaco-men-ssynthetic-loafer-loafers-men/p/itm44b425f8ef248']]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>330891</t>
+          <t>783909</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lloyd</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3341,133 +3341,133 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21'], ['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719']]</t>
+          <t>[['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by'], ['SARGMANHUBR7RDSW', 'Nena Fashion\xa0Embroidered Daily Wear Georgette Saree', 'https://www.flipkart.com/nena-fashion-embroidered-daily-wear-georgette-saree/p/itma31c396ac2a3d'], [nan, nan, nan], ['ERGFYFF6PH5BPPY6', 'MEENAZ\xa0Traditional Jewellery Meenakari Ethnic Antique Bridal Wedding Gold Plated Big Large Golden Enamel Multicolor Stylish Fancy Party wear Moti Beads Peacock Hoops Bali Ear rings Kundan Jhumkas/ Jhumka/ Jhumki Earrings For Women Girls design Pearl Alloy, Metal, Enamel, Copper, Brass Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-jewellery-meenakari-ethnic-antique-bridal-wedding-gold-plated-big-large-golden-enamel-multicolor-stylish-fancy-party-wear-moti-beads-peacock-hoops-bali-ear-rings-kundan-jhumkas-jhumka-jhumki-earrings-women-girls-design-pearl-alloy-metal-enamel-copper-brass-earring/p/itm941180a4ae01b'], ['SNDGGJYWZSUCYAHH', 'Squash\xa0Men Tan, White Flats Sandal', 'https://www.flipkart.com/squash-men-tan-white-flats/p/itm67e1af295b360']]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], [nan, nan, nan], ['DREGK5N7FGKW56HH', 'maruti fab\xa0Women Fit and Flare Green, Black Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-green-black-dress/p/itmc94e7722920e1'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6'], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['DREGK5N74KNXDYYY', 'maruti fab\xa0Women Fit and Flare Yellow Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-yellow-dress/p/itm968df60d0fb1d'], [nan, nan, nan]]</t>
+          <t>[['SARFYTNPB5N7HDJ9', 'Flip The Style\xa0Printed Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-chiffon-saree/p/itm8e8079a36d874'], ['DREECZ8SAURCHZT5', 'KAAYA\xa0Women Maxi Black Dress', 'https://www.flipkart.com/kaaya-women-maxi-black-dress/p/itmf3vbfbyx2ka9t']]</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>[['SHOGFYMCMEQTFQQ5', 'World Wear Footwear\xa0Trendy Stylish Comfortable &amp; Lightweight, Casual High Tops Sneakers Shoes Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-trendy-stylish-comfortable-lightweight-casual-high-tops-sneakers-shoes-men/p/itm98336ff1bad6e'], ['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['DREGK5N7JNTFEGNH', 'maruti fab\xa0Women Fit and Flare Light Blue Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-light-blue-dress/p/itm2904de16bdfa7']]</t>
+          <t>[['TOPGBFMV6P6CBNQW', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Purple Top', 'https://www.flipkart.com/kassually-casual-striped-women-purple-top/p/itm8c62787ab5acd'], ['SHOG5GVFUPDTAYGC', 'Jogvy\xa0Shoes for Boys Men High Ankle Length Boots Casual &amp; Party Wear Sneakers Gents High Tops For Men', 'https://www.flipkart.com/jogvy-shoes-boys-men-high-ankle-length-boots-casual-party-wear-sneakers-gents-tops/p/itm3e14d2db18caa'], ['SHOEKTVTC3SW8XN8', 'Shoe Island\xa0Popular Designer Leatherette Tan Brown High Ankle Length Casual Boots For Men Boots For Men', 'https://www.flipkart.com/shoe-island-popular-designer-leatherette-tan-brown-high-ankle-length-casual-boots-men/p/itmf3xw5ezdhgsjn'], ['JEAGPGNUSURYXFVN', 'BEING HUMAN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-regular-men-grey-jeans/p/itmab42d2596d878'], ['DREFTSXTWD3XPJZR', 'KASSUALLY\xa0Women Maxi White, Black Dress', 'https://www.flipkart.com/kassually-women-maxi-white-black-dress/p/itmffef26d08d32c'], ['LCHGF4KVGEZ7C8EG', 'Crissy\xa0Embroidered, Embellished, Self Design, Chevron/Zig Zag Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-embellished-self-design-chevron-zig-zag-semi-stitched-lehenga-choli/p/itm7b2b36fcf87d4'], ['TOPGHGZ6DEHFHSMM', 'KASSUALLY\xa0Casual Bishop Sleeve Self Design Women Black Top', 'https://www.flipkart.com/kassually-casual-self-design-women-black-top/p/itm45694a2b5ad25'], ['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1'], ['ERGFYRDUBA3HZWS4', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Antique 3 Three Layered Jhumki Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME134 Brass, Copper, Metal, Alloy Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-antique-3-three-layered-jhumki-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-gold-jhumki-me134-brass-copper-metal-alloy-earring-set/p/itm9449dad943534']]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>563343</t>
+          <t>779271</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Joe</t>
+          <t>Bryan</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Clements</t>
+          <t>Valdez</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Netherlands Antilles</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[['SHOGFYMCMEQTFQQ5', 'World Wear Footwear\xa0Trendy Stylish Comfortable &amp; Lightweight, Casual High Tops Sneakers Shoes Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-trendy-stylish-comfortable-lightweight-casual-high-tops-sneakers-shoes-men/p/itm98336ff1bad6e'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f'], ['SHTGHQU4E3EHCEKT', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-dark-blue-shirt/p/itmf1fd163332f06'], ['DREGKRUB6ZECJAHE', 'fashionwrld\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-fit-flare-multicolor-dress/p/itmdbdd6b18c9e27'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['DREGK5N7FGKW56HH', 'maruti fab\xa0Women Fit and Flare Green, Black Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-green-black-dress/p/itmc94e7722920e1'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c']]</t>
+          <t>[['SNDGAV8WADMQA3ZT', 'SFR\xa0Men Grey, Orange Clogs Sandal', 'https://www.flipkart.com/sfr-men-grey-orange-clogs/p/itm23ed71a06cffa']]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[['ETHGYA5FTYYNZMGZ', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2b346088a3bd5'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], [nan, nan, nan], ['DREG6WSM9DAYAFZZ', 'Rudraaksha\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/rudraaksha-women-a-line-multicolor-dress/p/itmc2d4bba8d0d19'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada']]</t>
+          <t>[['SHOGGFJJWUXXVQFF', 'Longwalk\xa0Chelsea Ankle-Length Boots For Men', 'https://www.flipkart.com/longwalk-chelsea-ankle-length-boots-men/p/itm4e4da1dcb42bb'], ['STBFMSTDCWBZHXDS', 'ABYS\xa0Leather Cross Body Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-leather-cross-body-bag-small-travel/p/itm4f559545c46b6'], ['DREGJFG8Q6NTHFUW', 'KASSUALLY\xa0Women Maxi Pink, Black, White Dress', 'https://www.flipkart.com/kassually-women-maxi-pink-black-white-dress/p/itm965450dba8138'], [None, 'MUDRIKA\xa0Women Maxi Blue Dress', 'https://www.flipkart.com/mudrika-women-maxi-blue-dress/p/itmfhgnnbux3rcsg'], ['ERGGHWHV2ZFZ95HY', 'MEENAZ\xa0traditional earrings jhumki women daily use South Indian Temple Jhumkas jhumka Brass, Stone, Metal, Alloy, Copper Clip-on Earring, Drops &amp; Danglers, Earring Set, Ear Thread, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-earrings-jhumki-women-daily-use-south-indian-temple-jhumkas-jhumka-brass-stone-metal-alloy-copper-clip-on-earring-drops-danglers-earring-set-ear-thread/p/itm8362d3d2707d1'], ['ERGFYP4VDHZFFHSH', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME101 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-antique-gold-jhumki-me101-brass-copper-metal-alloy-jhumki-earring/p/itmcf0b98200c784'], ['TOPGGN8QZZCHPHCB', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Green Top', 'https://www.flipkart.com/kassually-casual-striped-women-green-top/p/itm669732c707095'], ['SNDGKTFPUWVQG55W', 'World Wear Footwear\xa0Men White Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-clogs/p/itmc35b0458e9041'], ['TOPGHWDZ6FCEGE7N', 'RJ FASHION\xa0Casual Regular Sleeves Striped Women Blue Top', 'https://www.flipkart.com/rj-fashion-casual-striped-women-blue-top/p/itmfb9f387ed4002']]</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>[['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], [nan, nan, nan], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9']]</t>
+          <t>[[nan, nan, nan], ['SNDGNZG9M8VCG8GG', 'World Wear Footwear\xa0Men Blue, White Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-blue-white-clogs/p/itm86da01163bd20'], ['SGLGZUGMBTBYB8SD', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itm1e8800456efe0'], ['TOPGG3FZKZEDUHKR', 'Sheetal Associates\xa0Casual Regular Sleeves Solid Women Red Top', 'https://www.flipkart.com/sheetal-associates-casual-solid-women-red-top/p/itmf18986b3c0f61'], ['DREG9XTNGE2AQZFH', 'MUDRIKA\xa0Women Maxi Black, Blue Dress', 'https://www.flipkart.com/mudrika-women-maxi-black-blue-dress/p/itme7fbc6955149b'], ['ERGFPDR8DQFYZK2D', 'MEENAZ\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Ear rings for girls women Golden Ruby Copper, Brass Drops &amp; Danglers, Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-ear-rings-girls-women-golden-ruby-copper-brass-drops-danglers-earring-set-jhumki/p/itmf20a8ebb5a94d'], ['STBFVU6D9RNH6KDH', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm9bb9935c8e313'], ['SNDGN276A7WEG4Z3', 'Denill\xa0Women Beige Flats Sandal', 'https://www.flipkart.com/denill-women-white-flats/p/itm84d6cf3e07d8b'], ['SARGC93V6RPAGEEJ', 'PD CLOTH VILLA\xa0Embroidered Bollywood Velvet Saree', 'https://www.flipkart.com/pd-cloth-villa-embroidered-bollywood-velvet-saree/p/itm000f4c41f2c7e'], ['HMBG4PXPTFF5ZCVV', 'ABYS\xa0Men &amp; Women Pink, Blue Messenger Bag - Regular Size', 'https://www.flipkart.com/abys-men-women-pink-blue-messenger-bag/p/itm0e014c86b1526'], ['SNDGAEGAYANA2DEC', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm50a6afdc80d7c'], ['SGLF7RG56XMSYP8T', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf7spewgfzgexw'], ['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1']]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>555255</t>
+          <t>295413</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Alicia</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ramos</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bouvet Island (Bouvetoya)</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48']]</t>
+          <t>[['SRWG834BZMUDQKM6', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itmfaf076414021d'], ['SGLFZCRCYYPS6HJX', 'Fair-x\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/fair-x-aviator-sunglasses/p/itm214678c66746e'], ['SHOGPJWYJHUFGRG6', 'Aragats\xa0Boots For Men', 'https://www.flipkart.com/aragats-boots-men/p/itm3fffac64674b1'], [nan, nan, nan], ['SUIFYUYSTXUANFJA', 'TAHVO\xa0Men Black men Bandhgala suit Solid Suit', 'https://www.flipkart.com/tahvo-black-men-bandhgala-suit-solid/p/itm744a583c6fa83'], ['SGLGB7G8DT7PXHS6', 'Ted Smith\xa0UV Protection Aviator Sunglasses (56)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmaa86102a0bfee']]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd']]</t>
+          <t>[['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1']]</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>[['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8']]</t>
+          <t>[['SUIGK3AZSYSHGSTB', 'Deebaco\xa0Women Blazer &amp; Pant Co-Ord Set Solid Suit', 'https://www.flipkart.com/deebaco-blazer-pant-co-ord-set-solid-women-suit/p/itmf3e76708b55e6'], ['RKSGPXHYZA98KDGJ', 'IMPULSE\xa0Wazka bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 60 L', 'https://www.flipkart.com/impulse-wazka-bag-travel-men-tourist-backpack-hiking-trekking-camping-rucksack-60-l/p/itme2e28c155bd9a'], ['ERGFGFTETUXZADXG', 'V L INTERNATIONAL\xa0Peacock oxidised Silver Plated Jhumka Earring Jewellery For Girls Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-peacock-oxidised-silver-plated-jhumka-earring-jewellery-girls-alloy-jhumki/p/itm364c7616e5280'], ['ERGFMZ59ZKWH9FCQ', 'MEENAZ\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop-BALI-M254 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-m254-metal-earring-hoop-earring/p/itme0f71a07144ba'], ['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], [nan, nan, nan], ['SRWGFRRSMGPHPFZX', 'AVAETA Floral Print SherwaniAVAETA Floral Print Sherwani', 'https://www.flipkart.com/avaeta-floral-print-sherwani/p/itm26bbd7f4cf63e'], ['ERGFMZ59ZKWH9FCQ', 'MEENAZ\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop-BALI-M254 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-m254-metal-earring-hoop-earring/p/itme0f71a07144ba'], ['STBFW59VEVBPXZGG', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel/p/itmfd0161d5b15b0'], ['KTAGJQF9GCNAFVRW', 'RAGMINE\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/ragmine-women-printed-straight-kurta/p/itmcd891c4aacedb'], ['SGLFYHEWMCHMTSEZ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm8787cf8e15e68'], ['SHOFJP8JHQ53BKWY', 'World Wear Footwear\xa0Running Shoes For Men Trekking Shoes,Comfortable For MenS Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-running-shoes-men-trekking-shoes-comfortable-men-s-sneakers/p/itm346aa535d0060']]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>525819</t>
+          <t>465633</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Keith</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Patterson</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3476,133 +3476,133 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>Macao</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977'], ['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['SHTFKGPQPEBNHMFP', '5TH ANFOLD\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/5th-anfold-men-solid-formal-grey-shirt/p/itm527b60fe36863'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d']]</t>
+          <t>[['BZRGCRSV2CGGMH9F', 'DKGF FASHION\xa0Men Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/dkgf-fashion-solid-single-breasted-casual-men-blazer/p/itm67ffe78118c1a'], ['SGLFZCRCYYPS6HJX', 'Fair-x\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/fair-x-aviator-sunglasses/p/itm214678c66746e'], ['SUIGE5ZEUH8DSKVE', 'DKGF FASHION\xa0Men Single Breasted Solid Suit', 'https://www.flipkart.com/dkgf-fashion-single-breasted-solid-men-suit/p/itm76a821c733188'], ['JEAGEKQZDKZANDRP', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Blue Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-blue-jeans/p/itm094f7e29c58f6'], ['SRWGHXHQXSSCYGA4', 'DEYANN Woven SherwaniDEYANN Woven Sherwani', 'https://www.flipkart.com/deyann-woven-sherwani/p/itm665c82df09bf3'], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['SRWGHXFNXYHPGJ6V', 'DEYANN Printed SherwaniDEYANN Printed Sherwani', 'https://www.flipkart.com/deyann-printed-sherwani/p/itm8e802b96d44cd'], ['SGLFYHEVCZYJYF4T', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm61a1dd6e234c0'], ['KTAGFTZXDFC8CGQG', 'AO Fabrico\xa0Women Floral Print Cotton Rayon A-line Kurta', 'https://www.flipkart.com/ao-fabrico-women-floral-print-a-line-kurta/p/itmad0facf9bf967'], [nan, nan, nan], ['SRWGBZ5F4FHGKG9S', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itm13f7371616101'], ['SHOGPJWYJHUFGRG6', 'Aragats\xa0Boots For Men', 'https://www.flipkart.com/aragats-boots-men/p/itm3fffac64674b1'], [nan, nan, nan], ['SOCGGZB9Z6HHFDZS', 'GOLDINKS\xa0Men Striped Ankle Length', 'https://www.flipkart.com/goldinks-men-striped-ankle-length/p/itm24462574540ba']]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[['SHOG7DM3AXNK9DKV', 'bacca bucci\xa0MOUNTAIN Splash proof full Grain Leather biker Boots Trekking Hiking with Fur Boots For Men', 'https://www.flipkart.com/bacca-bucci-mountain-splash-proof-full-grain-leather-biker-boots-trekking-hiking-fur-men/p/itm6b40c995e679e'], ['SHTGMK2YHQWFZY3U', 'VTEXX\xa0Men Regular Fit Solid Cut Away Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-white-shirt/p/itmc5dc05890b7d7'], ['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], [nan, nan, nan], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], ['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4']]</t>
+          <t>[['KTAGPZCCZW7RTPP6', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itma85dd7abff764'], ['ERGFFWPBMU4ZSRG4', 'AMAAL\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop - BALI-A101 Metal Hoop Earring', 'https://www.flipkart.com/amaal-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-a101-metal-earring/p/itm0c0746afddfe7'], ['SRWGJVZJQDJYZXP3', 'DEYANN Solid SherwaniDEYANN Solid Sherwani', 'https://www.flipkart.com/deyann-solid-sherwani/p/itmade524d1c4165'], ['SRWGZ4QY83V7NKEZ', 'ZARAK FASHION Mens Indo Western Sherwani Wedding Dress for Men Ethnic Wear - Blue Embroidered SherwaniZARAK FASHION Mens Indo Western Sherwani Wedding Dress for Men Ethnic Wear - Blue Embroidered Sherwani', 'https://www.flipkart.com/zarak-fashion-mens-indo-western-sherwani-wedding-dress-men-ethnic-wear-blue-embroidered/p/itm4ec4730b0a1c4'], ['STBFVU6DKMPB8ZQN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm4fc56d093ec74'], ['JEAFYQGT6MUEGD4G', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm6661721c5b993'], ['BZRGN8GES8AGYH9E', 'THE MD FASHION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/md-fashion-solid-single-breasted-casual-women-blazer/p/itm462126d0ebbe8'], ['SHOFENAFHYFBV33N', 'World Wear Footwear\xa0Latest Collection-1138 Stylish Casual Sports Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-latest-collection-1138-stylish-casual-sports-sneakers-men/p/itm592754103ce33'], ['SUIGHJKZUZHRWEES', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itmf571baf78d2a2'], ['SRWG24ZNEKTGMCZW', 'DEYANN Men Green &amp; Navy Blue Sherwani With Achkan Printed SherwaniDEYANN Men Green &amp; Navy Blue Sherwani With Achkan Printed Sherwani', 'https://www.flipkart.com/deyann-men-green-navy-blue-sherwani-achkan-printed/p/itme2b811f19f8d9'], ['JEAGGP2HWQEVQZHQ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm5eac215010627'], ['SOCGGZB9Z6HHFDZS', 'GOLDINKS\xa0Men Striped Ankle Length', 'https://www.flipkart.com/goldinks-men-striped-ankle-length/p/itm24462574540ba']]</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>[['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658']]</t>
+          <t>[['KTAFX877KMFPFHHA', 'JD FINISHING\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/jd-finishing-women-printed-straight-kurta/p/itm332d91c69fda6'], ['TVPF6YZMMHFS6PWC', 'Nightstar Waist Bag\xa0\xa0(Blue)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kgfnrpete'], [nan, nan, nan], [nan, nan, nan], ['ERGFMZ59ZKWH9FCQ', 'MEENAZ\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop-BALI-M254 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-m254-metal-earring-hoop-earring/p/itme0f71a07144ba'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b']]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>446613</t>
+          <t>530457</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Hunt</t>
+          <t>Madden</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada'], ['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7'], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9']]</t>
+          <t>[['ERGGFSHZXPPPA6QQ', 'Karishma Kreations\xa0Mens Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Metal Stud Earring, Hoop Earring, Earring Set, Huggie Earring, Plug Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-metal-earring-earring-set-huggie-cuff/p/itmd8afe8590df5c'], [nan, nan, nan], ['WSBFW2VBDZKYYYAN', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown/p/itm69c2f7bcc62cd'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], ['SGLED3YHZDMUUYJY', 'ROYAL SON\xa0Mirrored Aviator Sunglasses (58)', 'https://www.flipkart.com/royal-son-aviator-sunglasses/p/itmf3ykjxj6yncgy'], ['WSBGPB7UBWNQUCZJ', 'RC REXCUIR Shoulder Bag for Men Women | Sling Crossbody Bags Shoulder Bag\xa0\xa0(Pink)RC REXCUIR Shoulder Bag for Men Women | Sling Crossbody Bags Shoulder Bag', 'https://www.flipkart.com/rc-rexcuir-shoulder-bag-men-women-sling-crossbody-bags/p/itm0538e42b20b37'], ['ERGG82YRAUX54QNP', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour Triangle square shape Boy earrings -MENS EARRING COMBO-ME128 Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-triangle-square-shape-boy-mens-combo-me128-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itm139d492d5186b'], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['STBFVU6DPJ3FPYEC', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6d75b934f6416'], ['KTAGPZCCK7URHYWK', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itm54c15e0c712e7'], ['JEAGJZYBGAHHSGBF', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8bdcd3b9b07c5'], ['SHOGBVZFPF97GNMU', 'World Wear Footwear\xa0Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-running-shoes-men/p/itm1f6033c2a559a']]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a'], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975']]</t>
+          <t>[['SHOGG7HV7GJMDESK', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itm0b2b80780b934']]</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>[['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a']]</t>
+          <t>[['RKSGZ9HQQHFBA5KF', 'SAKSHI FASHION\xa0NEW Water Proof Mountain Rucksack/Trekking Bag Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-fashion-new-water-proof-mountain-rucksack-trekking-bag-rucksack-70-l/p/itmba47ce64b90ba'], ['BZRGKW96ZYVPPVPG', 'STYLZINDIA\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/stylzindia-solid-single-breasted-casual-women-blazer/p/itm16cc4780736eb'], ['SUIGJNWUPFTYPTB8', 'ikichic\xa0Women Blazer and Trousers Solid Suit', 'https://www.flipkart.com/ikichic-blazer-trousers-solid-women-suit/p/itm1d8098709ef8a'], ['SRWGENU4PMKQGCAA', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itm3c13f483e1fac'], ['SHOFH5SHAFQMTHZB', 'CAMRO\xa0Hulk-02 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-02-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm672804cec90c1'], ['JEAGGNWEZHS22WEQ', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm64b0fa149becc']]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>980355</t>
+          <t>795951</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Tuvalu</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a']]</t>
+          <t>[['BAGFZSPARZKVCSFR', 'komto Cross Body bag Single Shoulder Causal Large Capacity Polyester men chest bag (Black) Multipurpose Bag\xa0\xa0(Black, 2 L)komto Cross Body bag Single Shoulder Causal Large Capacity Polyester men chest bag (Black) Multipurpose Bag', 'https://www.flipkart.com/komto-cross-body-bag-single-shoulder-causal-large-capacity-polyester-men-chest-black-multipurpose/p/itm9dd362c497082'], ['SARGMANHUBR7RDSW', 'Nena Fashion\xa0Embroidered Daily Wear Georgette Saree', 'https://www.flipkart.com/nena-fashion-embroidered-daily-wear-georgette-saree/p/itma31c396ac2a3d'], ['TOPGQ8USK4GZEFBP', 'ALEAF\xa0Casual Regular Sleeves Striped Women Black Top', 'https://www.flipkart.com/aleaf-casual-striped-women-black-top/p/itm96edb491303a9'], ['LCHGZ7DWZEV76B7T', 'DHAVDI ENTERPRISE\xa0Checkered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-checkered-semi-stitched-lehenga-choli/p/itm9d2307dd3248b'], ['SARG3GJGXRN2ZSVZ', 'Flip The Style\xa0Printed Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-chiffon-saree/p/itmcb5fc8b7dad14'], ['LCHG6Z4J5Y5FKBBB', 'Crissy\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-semi-stitched-lehenga-choli/p/itm8b6db1e54cf0e'], ['SGLF84PQ95MAP857', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9qzhyj9w3'], ['SNDGFF4SHEZ9MFBK', 'ANGO\xa0Men Red Sports Sandal', 'https://www.flipkart.com/ango-men-red-sports-sandals/p/itm676d21c9412d5'], [nan, nan, nan], ['SGLFXJXZRWKCV6AF', 'Eyewearlabs\xa0Polarized, UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/eyewearlabs-aviator-sunglasses/p/itm3f85427e33d37'], ['TVPF6YZMMHFS6PWC', 'Nightstar Waist Bag\xa0\xa0(Blue)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kgfnrpete'], ['SNDGNZG38MPCBWPG', 'World Wear Footwear\xa0Men Olive, White Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-olive-white-clogs/p/itmb47b9f2fa0b80'], [nan, nan, nan], ['JEAGHEYATGZRPZMY', 'WROGN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/wrogn-regular-men-grey-jeans/p/itm483a02e7b5e61']]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], [nan, nan, nan], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], [nan, nan, nan], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef']]</t>
+          <t>[['JEAGG6DDDRRHF5QG', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm1a5faf2ca4cc6']]</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>[['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['DREGGSSRS6PYGNA3', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itm845406cd3aef2'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b']]</t>
+          <t>[[nan, nan, nan], ['DREFKYEZT6M9GZXQ', 'Avirate\xa0Women Maxi Black Dress', 'https://www.flipkart.com/avirate-women-maxi-black-dress/p/itmd7b145eab4e84'], ['JEAGC5WZGSSSEVP3', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm6222d4620ce65'], ['LCHG6Z4J5Y5FKBBB', 'Crissy\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-semi-stitched-lehenga-choli/p/itm8b6db1e54cf0e'], [nan, nan, nan], ['DREFNYT6BMXHMVSD', 'U&amp;F\xa0Women Maxi Green, Black, Grey Dress', 'https://www.flipkart.com/u-f-women-maxi-green-black-grey-dress/p/itmd47293a0fb6cf']]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>916659</t>
+          <t>748863</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Moran</t>
+          <t>Olsen</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3611,43 +3611,43 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['SHOGKZTUYG8V4G6H', 'bacca bucci\xa0ALDER 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-alder-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itmf9788a1b24ed2'], ['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef']]</t>
+          <t>[['SHOEKTVTC3SW8XN8', 'Shoe Island\xa0Popular Designer Leatherette Tan Brown High Ankle Length Casual Boots For Men Boots For Men', 'https://www.flipkart.com/shoe-island-popular-designer-leatherette-tan-brown-high-ankle-length-casual-boots-men/p/itmf3xw5ezdhgsjn'], ['SARGJ6XXFDFYMFD4', 'Pionex\xa0Woven Kanjivaram Pure Silk, Art Silk Saree', 'https://www.flipkart.com/pionex-woven-kanjivaram-pure-silk-art-silk-saree/p/itm77e47c6316ac9'], ['TOPGM57MHGFQKD8K', 'Q-Rious\xa0Casual Sleeveless Solid Women Brown Top', 'https://www.flipkart.com/q-rious-casual-solid-women-brown-top/p/itmc197100049533'], [nan, nan, nan], ['LCHG6Z4J5Y5FKBBB', 'Crissy\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-semi-stitched-lehenga-choli/p/itm8b6db1e54cf0e'], [nan, nan, nan], ['SNDG5FR793G4VY3Q', 'Wildcraft\xa0Men Multicolor Sandal', 'https://www.flipkart.com/wildcraft-men-multicolor-sandals/p/itmfa9392f974c0f'], ['SHOEKTVTC3SW8XN8', 'Shoe Island\xa0Popular Designer Leatherette Tan Brown High Ankle Length Casual Boots For Men Boots For Men', 'https://www.flipkart.com/shoe-island-popular-designer-leatherette-tan-brown-high-ankle-length-casual-boots-men/p/itmf3xw5ezdhgsjn'], ['JEAGGNWEZHS22WEQ', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm64b0fa149becc'], ['TOPGNM4X8FMG6HTF', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women White Top', 'https://www.flipkart.com/kassually-casual-striped-women-white-top/p/itm5c62c3186a9eb'], ['TOPGD5KZTFBN6FNP', 'Sheetal Associates\xa0Party Puff Sleeves Self Design Women Black Top', 'https://www.flipkart.com/sheetal-associates-party-self-design-women-black-top/p/itm81715bf1e7e5d'], ['TOPGGN8QZZCHPHCB', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Green Top', 'https://www.flipkart.com/kassually-casual-striped-women-green-top/p/itm669732c707095'], ['JEAGFTUKN3CWHMXA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma1569172cad1a'], ['ERGFWQ8SCJZG8UTK', 'Divastri\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Antique Micro Ear rings for girls women Golden Ruby, Diamond Brass, Copper Jhumki Earring, Earring Set, Drops &amp; Danglers', 'https://www.flipkart.com/divastri-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-antique-micro-ear-rings-girls-women-golden-ruby-diamond-brass-copper-jhumki-earring-earring-set-drops-danglers/p/itmc785036cbc3e3'], ['JEAGC5WZGSSSEVP3', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm6222d4620ce65']]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], [nan, nan, nan], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6']]</t>
+          <t>[['SARGZTFP2VAFBJMU', 'Faduseller\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/faduseller-printed-bollywood-georgette-saree/p/itmed37bdffa91b3'], ['ERGFYZ6X6NBNJFMD', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden earrings jhumki Combo set jumkas small Stud Tops Meenakari Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design daily use 6 earrings-JHUMKI COMBO-ME04 Pearl Metal Jhumki Earring, Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me04-pearl-metal-earring-earring/p/itma126cb1953d32'], ['ERGFYRD3ZZZTMZAU', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Antique 3 Three Layered Jhumki Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME129 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-antique-3-three-layered-jhumki-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-gold-jhumki-me129-brass-copper-metal-alloy-earring/p/itm3986cce7c4c64'], ['DREGACYNCJMKWFZH', 'AREEBA FASHION\xa0Women Maxi Black Dress', 'https://www.flipkart.com/areeba-fashion-women-maxi-black-dress/p/itm8b97d9fb63f31'], ['SHOGM9ABF23ZAPCJ', 'STRASSE PARIS\xa0Womens Boots Stylish, Trendy, Comfortable, Casual Boots for Womens &amp; Girls Boots For Men', 'https://www.flipkart.com/strasse-paris-women-s-boots-stylish-trendy-comfortable-casual-girls-men/p/itm9f141a9c73fd6'], ['SARG7H6CWNZN6MZX', 'Flip The Style\xa0Solid/Plain, Checkered Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-solid-plain-checkered-bollywood-georgette-chiffon-saree/p/itm13212210444aa'], ['ERGGFFNFRRFHPGJZ', 'Fashion Fusion\xa0Small Colorful Jhumka Alloy Jhumki Earring', 'https://www.flipkart.com/fashion-fusion-small-colorful-jhumka-alloy-jhumki-earring/p/itm72db616607fa3']]</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>[['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c'], ['BDRGNC7DS5GFGHXD', 'Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush\xa0\xa0(15 ml, Black)Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush', 'https://www.flipkart.com/kingeshal-wooden-premium-shoe-brush-cleaning-polishing-shining-leather-shoes-sneakers/p/itmd7afbc5b69f83'], ['SHOG7DM3AXNK9DKV', 'bacca bucci\xa0MOUNTAIN Splash proof full Grain Leather biker Boots Trekking Hiking with Fur Boots For Men', 'https://www.flipkart.com/bacca-bucci-mountain-splash-proof-full-grain-leather-biker-boots-trekking-hiking-fur-men/p/itm6b40c995e679e'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2']]</t>
+          <t>[['JEAGJZY9VXDAHY7H', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm4f2e5aede0303'], ['SGLGB7G8DT7PXHS6', 'Ted Smith\xa0UV Protection Aviator Sunglasses (56)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmaa86102a0bfee'], ['SGLGQ8VYM22C2FQ7', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itmf4d5ff1d96d81'], ['SFFGBHRFF4EMZQ7Z', 'NIKE\xa0Men VISTA Black Sports Sandal', 'https://www.flipkart.com/nike-vista-men-black-sports-sandals/p/itm624e119a521c6'], ['STBGPYH3WUNH6EN9', 'ABYS\xa0Genuine Leather New Trendy Sling Bag Small Travel Bag', 'https://www.flipkart.com/abys-genuine-leather-new-trendy-sling-bag-small-travel/p/itme7006bac57c1f'], ['ERGGHWHV2ZFZ95HY', 'MEENAZ\xa0traditional earrings jhumki women daily use South Indian Temple Jhumkas jhumka Brass, Stone, Metal, Alloy, Copper Clip-on Earring, Drops &amp; Danglers, Earring Set, Ear Thread, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-earrings-jhumki-women-daily-use-south-indian-temple-jhumkas-jhumka-brass-stone-metal-alloy-copper-clip-on-earring-drops-danglers-earring-set-ear-thread/p/itm8362d3d2707d1'], ['DREGJFG8Q6NTHFUW', 'KASSUALLY\xa0Women Maxi Pink, Black, White Dress', 'https://www.flipkart.com/kassually-women-maxi-pink-black-white-dress/p/itm965450dba8138'], [nan, nan, nan], ['ERGFG4JGPD6GHUF8', 'AMAAL\xa0Black Jhumka Earrings Bridal Wedding Traditional Gold Plated Kundan Moti jhumkas Pearl Copper, Brass Earring Set, Jhumki Earring', 'https://www.flipkart.com/amaal-black-jhumka-earrings-bridal-wedding-traditional-gold-plated-kundan-moti-jhumkas-pearl-copper-brass-earring-set-jhumki/p/itm0aa50c1bc8ff8'], ['SNDGFF4SHEZ9MFBK', 'ANGO\xa0Men Red Sports Sandal', 'https://www.flipkart.com/ango-men-red-sports-sandals/p/itm676d21c9412d5'], ['ERGFYZ86XARHRFQN', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden Peacock earrings jhumki Combo set jumkas small Stud Tops Meenakari Peacock Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design New 6 earrings-JHUMKI COMBO-ME09 Beads, Pearl Alloy, Metal, Enamel, Crystal, Zinc Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-peacock-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-new-6-earrings-jhumki-combo-me09-beads-pearl-alloy-metal-enamel-crystal-zinc-earring/p/itm8fbee90003bc8'], ['ERGFPDR94Y2Z6YKY', 'MEENAZ\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Ear rings for girls women Golden Ruby Copper, Brass Drops &amp; Danglers, Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-ear-rings-girls-women-golden-ruby-copper-brass-drops-danglers-earring-set-jhumki/p/itm1fda93b96ec89'], ['WSBFQ3GG28HCQFC8', 'SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag\xa0\xa0(Pink)SPICE ART Womens Solid PU Latest Designer Sling Bag Fanny Pack crossbody bag Waist Bag in Pink Color Waist Bag', 'https://www.flipkart.com/spice-art-women-s-solid-pu-latest-designer-sling-bag-fanny-pack-crossbody-waist-pink-color/p/itm1d791275f1d0e'], ['ERGFG4JGPD6GHUF8', 'AMAAL\xa0Black Jhumka Earrings Bridal Wedding Traditional Gold Plated Kundan Moti jhumkas Pearl Copper, Brass Earring Set, Jhumki Earring', 'https://www.flipkart.com/amaal-black-jhumka-earrings-bridal-wedding-traditional-gold-plated-kundan-moti-jhumkas-pearl-copper-brass-earring-set-jhumki/p/itm0aa50c1bc8ff8']]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>441525</t>
+          <t>587001</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Brent</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3656,43 +3656,43 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a']]</t>
+          <t>[[nan, nan, nan], ['ETHG6N38SRXSXWH2', 'Zastraa\xa0Women Blazer and Pant Set Solid Suit', 'https://www.flipkart.com/zastraa-blazer-pant-set-solid-women-suit/p/itm5f0e51eec9542'], ['SHOGG5FT9WTYYYFZ', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itmc03adefc7970a'], ['ERGG82DH5QRGZRUU', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME114 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me114-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmcb84f374161ba'], ['SOCGGZB9Z6HHFDZS', 'GOLDINKS\xa0Men Striped Ankle Length', 'https://www.flipkart.com/goldinks-men-striped-ankle-length/p/itm24462574540ba']]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['SHOGKZTUYG8V4G6H', 'bacca bucci\xa0ALDER 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-alder-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itmf9788a1b24ed2'], ['SHTGMG75N9NVSXAQ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-blue-shirt/p/itmed0af71605ada']]</t>
+          <t>[['JEAGGP6VKH4PYBRD', 'Styzon\xa0Men Boyfriend Mid Rise Blue Jeans', 'https://www.flipkart.com/styzon-boyfriend-men-blue-jeans/p/itmf7c8fe480bc9f'], [nan, nan, nan], ['SGLGQ8VYM22C2FQ7', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itmf4d5ff1d96d81'], ['KETGCYUFZZEPKHFV', 'KAVSHIL\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/kavshil-boys-festive-party-sherwani-churidar-set/p/itm0d764d376701f'], ['KETGHCVZXEHYET5M', 'SEMINO\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/semino-boys-festive-party-wedding-sherwani-churidar-set/p/itmc621cb28d13c9'], ['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by'], [nan, nan, nan], ['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn'], ['JEAGJ4YG3RHGRUSH', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma71c6a67263a9'], ['BKPGMU5XWHZZ2E37', 'AMERICAN TOURISTER\xa027.5 L Laptop Backpack Valex', 'https://www.flipkart.com/american-tourister-valex-27-5-l-laptop-backpack/p/itm2672f35baa855'], ['KTAGM4H5KSVFHM96', 'Mattlook\xa0Women Printed Viscose Rayon Straight Kurta With Attached Dupatta', 'https://www.flipkart.com/mattlook-women-printed-straight-kurta/p/itmee809550a4065'], ['SGLFU52HTRJY2H6D', 'VINCENT CHASE\xa0by Lenskart Polarized, UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/vincent-chase-lenskart-aviator-sunglasses/p/itmddec928acc082'], ['SRWG5K5HNQDBHRMV', 'Feellasto Embroidered SherwaniFeellasto Embroidered Sherwani', 'https://www.flipkart.com/feellasto-embroidered-sherwani/p/itm07a34dfd9f616'], ['BZREWMASHG3DPYPT', 'KARMIC VISION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/karmic-vision-solid-single-breasted-casual-women-blazer/p/itmewmd9xvhzggzz'], ['SGLGGKSVGBGE3YF9', 'Ted Smith\xa0Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm88e36b022bba3']]</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>[['ETHGZ84ZYKH3JTKX', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6fed17e59bdfc'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], [nan, nan, nan]]</t>
+          <t>[['ERGFMWQ8Q2MK97H3', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M204 Cubic Zirconia Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m204-cubic-zirconia-metal-earring-earring/p/itm65f1b1a4078a8'], [nan, nan, nan], ['ERGG3SH3JDQCKTKB', 'NIMZ\xa0Mens &amp; Women Fashion Jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Combo Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced shape Bali Ear rings Stud Tops Mens Earing Combo for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Stud Earring, Hoop Earring, Plug Earring, Tunnel Earring, Earring Set, Clip-on Earring, Drops &amp; Danglers, Huggie Earring', 'https://www.flipkart.com/nimz-mens-women-fashion-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-combo-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-set-pack-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-multi-hoops-salman-khan-style-cubic-zirconia-metal-earring-tunnel-earring-set-clip-on-drops-danglers-huggie/p/itm125fff3dbf6ba'], ['KETFVSNZFYGPBHHG', 'AJ Dezines\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-sherwani-churidar-set/p/itmc5aa12f052914'], ['JEAGJ4YGATHBBKRV', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm04eca49c50ec0'], ['JEAGFTUKN3CWHMXA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma1569172cad1a'], ['SUIGKGVNQZPFCK4H', 'TAHVO\xa0Men Black Tuxedo men suit Solid Suit', 'https://www.flipkart.com/tahvo-black-tuxedo-men-suit-solid/p/itm869b69c0eac13'], [nan, nan, nan], [nan, nan, nan], ['RKSG6W3DYRJK3UHX', 'ozino\xa0Travel Backpack for Outdoor Sport Camping Hiking Trekking Bag Rucksack Bag Trekking bag . 60L Rucksack  - 60 L', 'https://www.flipkart.com/ozino-travel-backpack-outdoor-sport-camping-hiking-trekking-bag-rucksack-60l-60-l/p/itm7a1176bc4a877'], ['KETG93ZYV6GJR9W6', 'PK Collection\xa0Baby Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/pk-collection-baby-boys-wedding-sherwani-churidar-set/p/itm4dbd995ae52c0']]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>814311</t>
+          <t>860529</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fletcher</t>
+          <t>Ramirez</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3701,43 +3701,43 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[['DREG6WSM9DAYAFZZ', 'Rudraaksha\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/rudraaksha-women-a-line-multicolor-dress/p/itmc2d4bba8d0d19'], ['DREG6WSM9DAYAFZZ', 'Rudraaksha\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/rudraaksha-women-a-line-multicolor-dress/p/itmc2d4bba8d0d19'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42'], ['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6']]</t>
+          <t>[['SGLGMHPGQZKHRGTG', 'Sunglance\xa0Riding Glasses, UV Protection, Night Vision Round, Cat-eye Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-round-cat-eye-sunglasses/p/itm047911875c1c7'], ['ERGG4YGVD3ZKHAJP', 'NIMZ\xa0Mens &amp; Women Fashion Jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Combo Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced shape Bali Ear rings Stud Tops Mens Earing Combo for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Stud Earring, Hoop Earring, Plug Earring, Tunnel Earring, Earring Set, Clip-on Earring, Drops &amp; Danglers, Huggie Earring', 'https://www.flipkart.com/nimz-mens-women-fashion-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-combo-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-set-pack-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-multi-hoops-salman-khan-style-cubic-zirconia-metal-earring-tunnel-earring-set-clip-on-drops-danglers-huggie/p/itmd917caa438e11'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201']]</t>
+          <t>[['SGLFYHEVCZYJYF4T', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm61a1dd6e234c0'], ['SGLGE9N2B9WFZZDF', 'FASHINITY\xa0UV Protection, Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/fashinity-aviator-sunglasses/p/itma964556970091'], ['TVPF6YZHCGBPT4N8', 'Nightstar Waist Bag\xa0\xa0(Pink)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kzzrgqc6y'], ['SRWGHXHQXSSCYGA4', 'DEYANN Woven SherwaniDEYANN Woven Sherwani', 'https://www.flipkart.com/deyann-woven-sherwani/p/itm665c82df09bf3'], [nan, nan, nan], ['TOGFYHFZDSZJJXMD', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1/p/itm1910113c87ef1'], ['JEAGG6JFGHTZV8UM', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itmeb4632b593b8c'], ['HMBG4PXPTFF5ZCVV', 'ABYS\xa0Men &amp; Women Pink, Blue Messenger Bag - Regular Size', 'https://www.flipkart.com/abys-men-women-pink-blue-messenger-bag/p/itm0e014c86b1526'], ['SRWGE4QSHWQHZVUG', 'PSKS ETHNIC WEAR Embroidered SherwaniPSKS ETHNIC WEAR Embroidered Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embroidered-sherwani/p/itm84a9b50d056f4'], ['ERGGYHZRTQUJ4SXZ', 'MEENAZ\xa0Fashion Multi jewellery Valentine Single Golden Silver Black Surgical Plug Hoops Ear piercing Studs Steel Jewelry Style Stylish Fancy Party wear Daily use simple Magnetic Round MultIcolor Bali Hoops Earrings Combo Set pierced Ear rings Stud Tops Round Dumbell Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry -MENS EARRINGS COMBO-ME36 Alloy, Metal, Stainless Steel, Brass, Steel Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multi-jewellery-valentine-single-golden-silver-black-surgical-plug-hoops-ear-piercing-studs-steel-jewelry-style-stylish-fancy-party-wear-daily-use-simple-magnetic-round-multicolor-bali-earrings-combo-set-pierced-rings-stud-tops-dumbell-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-pack-mens-combo-me36-alloy-metal-stainless-steel-brass-earring/p/itm1eb03158bdf33'], ['KETGMATFU4QPSNMM', 'sahil collection\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/sahil-collection-boys-festive-party-wedding-sherwani-churidar-set/p/itmce87213cfa454'], ['RKSG6W3DYRJK3UHX', 'ozino\xa0Travel Backpack for Outdoor Sport Camping Hiking Trekking Bag Rucksack Bag Trekking bag . 60L Rucksack  - 60 L', 'https://www.flipkart.com/ozino-travel-backpack-outdoor-sport-camping-hiking-trekking-bag-rucksack-60l-60-l/p/itm7a1176bc4a877'], ['ETHG6N38SRXSXWH2', 'Zastraa\xa0Women Blazer and Pant Set Solid Suit', 'https://www.flipkart.com/zastraa-blazer-pant-set-solid-women-suit/p/itm5f0e51eec9542'], [nan, nan, nan], ['HMBG4PXPTFF5ZCVV', 'ABYS\xa0Men &amp; Women Pink, Blue Messenger Bag - Regular Size', 'https://www.flipkart.com/abys-men-women-pink-blue-messenger-bag/p/itm0e014c86b1526']]</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>[['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['SHOGKZTUYG8V4G6H', 'bacca bucci\xa0ALDER 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-alder-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itmf9788a1b24ed2'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d']]</t>
+          <t>[['JEAGJZY9VXDAHY7H', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm4f2e5aede0303'], ['SGLEXSP7WYMZQKKQ', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmf3ykeg4ehggfs'], ['SRWGHXFPXKZZDP8X', 'DEYANN Printed SherwaniDEYANN Printed Sherwani', 'https://www.flipkart.com/deyann-printed-sherwani/p/itmf6964353adc41'], ['KETGHCVZXEHYET5M', 'SEMINO\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/semino-boys-festive-party-wedding-sherwani-churidar-set/p/itmc621cb28d13c9'], ['ERGG4YFGDCURJDPE', 'shivay\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Hoop Earring, Stud Earring, Magnetic Earring, Tunnel Earring, Tassel Earring, Huggie Earring, Clip-on Earring, Magnetic Earring, Cuff Earring, Plug Earring', 'https://www.flipkart.com/shivay-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-cubic-zirconia-metal-earring-magnetic-tunnel-tassel-huggie-clip-on-cuff/p/itm12732404c660b'], [nan, nan, nan], [nan, nan, nan], [nan, nan, nan], [nan, nan, nan], ['SHOGBVZFPF97GNMU', 'World Wear Footwear\xa0Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-running-shoes-men/p/itm1f6033c2a559a'], ['ERGG5RVVA4PEZW38', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME82 Metal Huggie Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me82-metal-huggie/p/itmca2bcdf7c6ffa'], ['SUIGHJKZPUGAEJZB', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itm6b6ada44449b3'], ['JEAGFTUKN3CWHMXA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma1569172cad1a'], ['SGLF84PQZDBYE7CH', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9ubfzzgnb'], ['ERGGMHHGFTBCK3GT', 'Shoshaa\xa0Gold-Plated handcrafted Sea Green Kundan-Studded Beaded Classic Drop Earrings Brass Drops &amp; Danglers', 'https://www.flipkart.com/shoshaa-gold-plated-handcrafted-sea-green-kundan-studded-beaded-classic-drop-earrings-brass-drops-danglers/p/itmb83f1c2fb1503']]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>433539</t>
+          <t>209061</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Kaitlin</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3746,174 +3746,174 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[['SHOGFYMCMEQTFQQ5', 'World Wear Footwear\xa0Trendy Stylish Comfortable &amp; Lightweight, Casual High Tops Sneakers Shoes Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-trendy-stylish-comfortable-lightweight-casual-high-tops-sneakers-shoes-men/p/itm98336ff1bad6e'], ['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42'], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d'], ['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977']]</t>
+          <t>[['KETFZGKF87ZRXHJJ', 'BURBN\xa0Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/burbn-boys-wedding-sherwani-churidar-set/p/itm3bd62f3553bef']]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['SHTGAHWSTTQRKDKS', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-blue-shirt/p/itm9b2791f9585ea'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef'], ['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8']]</t>
+          <t>[['KTAGM4H5KSVFHM96', 'Mattlook\xa0Women Printed Viscose Rayon Straight Kurta With Attached Dupatta', 'https://www.flipkart.com/mattlook-women-printed-straight-kurta/p/itmee809550a4065'], ['RKSGZ9HQQHFBA5KF', 'SAKSHI FASHION\xa0NEW Water Proof Mountain Rucksack/Trekking Bag Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-fashion-new-water-proof-mountain-rucksack-trekking-bag-rucksack-70-l/p/itmba47ce64b90ba'], ['JEAGGP6VKH4PYBRD', 'Styzon\xa0Men Boyfriend Mid Rise Blue Jeans', 'https://www.flipkart.com/styzon-boyfriend-men-blue-jeans/p/itmf7c8fe480bc9f'], ['SGLGFYDUXM8KCHPD', 'VINCENT CHASE\xa0by Lenskart Polarized, UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/vincent-chase-lenskart-aviator-sunglasses/p/itm6d19976cb47a0'], ['KTAFWNUY7UM5SGFF', 'DCART\xa0Women Embellished, Solid Crepe Straight Kurta', 'https://www.flipkart.com/d-cart-women-solid-straight-kurta/p/itm1c9e3ea905212'], ['SGLFZCRCYYPS6HJX', 'Fair-x\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/fair-x-aviator-sunglasses/p/itm214678c66746e'], ['SUIGJNWUPFTYPTB8', 'ikichic\xa0Women Blazer and Trousers Solid Suit', 'https://www.flipkart.com/ikichic-blazer-trousers-solid-women-suit/p/itm1d8098709ef8a'], ['SGLGGKSVGBGE3YF9', 'Ted Smith\xa0Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm88e36b022bba3'], ['JEAGF5JU7PKYFBYN', 'KETCH\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/ketch-skinny-men-grey-jeans/p/itmb07971c2f06d5'], ['BZRFY6BZJRWPG9YG', 'Honey Fashion\xa0Men Solid Tuxedo Style Casual, Party, Festive &amp; Wedding Blazer', 'https://www.flipkart.com/honey-fashion-solid-tuxedo-style-casual-party-festive-wedding-men-blazer/p/itm40ac201244f7d'], ['ERGGMHHGFTBCK3GT', 'Shoshaa\xa0Gold-Plated handcrafted Sea Green Kundan-Studded Beaded Classic Drop Earrings Brass Drops &amp; Danglers', 'https://www.flipkart.com/shoshaa-gold-plated-handcrafted-sea-green-kundan-studded-beaded-classic-drop-earrings-brass-drops-danglers/p/itmb83f1c2fb1503'], ['SHOGZFNFCXHY7SZG', 'Zsyto\xa0Canvas Shoes For Men', 'https://www.flipkart.com/zsyto-canvas-shoes-men/p/itmbf278fa79b88f'], ['JEAFYQGSHZYTZP5K', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm5cbcb8da0787a']]</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>[['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f']]</t>
+          <t>[['RKSGQF3NVXU32SWD', 'EZRA\xa0Backpack UNISEX Water Proof Mountain RucksackHiking/Trekking/Camping Bag Rucksack  - 75 L', 'https://www.flipkart.com/ezra-backpack-unisex-water-proof-mountain-rucksackhiking-trekking-camping-bag-rucksack-75-l/p/itm32d5ec1ccf1fb'], ['CLTG96EFCQV79MSQ', 'WROOTED\xa0Party Gold  Clutch  - Regular Size', 'https://www.flipkart.com/wrooted-party-gold-clutch/p/itm82e9bbdbfd672'], ['SHOG9MPGYM6AFUMG', 'HX London\xa0Stylish Laceup Boots For Men', 'https://www.flipkart.com/hx-london-stylish-laceup-boots-men/p/itmf0d60e27dca1a'], ['JEAGCZTJK9TTGGYA', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm6ea8e29a88166']]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>155241</t>
+          <t>843567</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Gregory</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Middleton</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444'], ['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], [nan, nan, nan], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d'], ['DREGGSSRS6PYGNA3', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itm845406cd3aef2']]</t>
+          <t>[['TOPGG3FZKZEDUHKR', 'Sheetal Associates\xa0Casual Regular Sleeves Solid Women Red Top', 'https://www.flipkart.com/sheetal-associates-casual-solid-women-red-top/p/itmf18986b3c0f61'], ['SHOEXTMBZFFCF898', 'RED CHIEF\xa0RC3508 022 High Tops For Men', 'https://www.flipkart.com/red-chief-rc3508-022-high-tops-men/p/itmfanshazarqrxs'], ['ERGGJ4Q6AJWJPK7K', 'Divastri\xa0jhumka earrings combo oxidised meenakari kundan Traditional South Temple jhumkas Beads, Pearl Metal Earring Set', 'https://www.flipkart.com/divastri-jhumka-earrings-combo-oxidised-meenakari-kundan-traditional-south-temple-jhumkas-beads-pearl-metal-earring-set/p/itm5766352d06d23'], ['TOPGEWMF5ZQTRGPF', 'KASSUALLY\xa0Casual Sleeveless Printed Women Black Top', 'https://www.flipkart.com/kassually-casual-printed-women-black-top/p/itm04997ecff514a'], ['SGLGE9N2B9WFZZDF', 'FASHINITY\xa0UV Protection, Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/fashinity-aviator-sunglasses/p/itma964556970091'], ['DREFHJPHDJEUFQEE', 'MUDRIKA\xa0Women Maxi Black Dress', 'https://www.flipkart.com/mudrika-women-maxi-black-dress/p/itmfhjugf7qhwgga'], ['LCHGKQHBGXJ9RMGZ', 'BVESH\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/bvesh-self-design-semi-stitched-lehenga-choli/p/itmbb425ab8990eb'], ['TVPF6YZMMHFS6PWC', 'Nightstar Waist Bag\xa0\xa0(Blue)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kgfnrpete'], ['JEAFYQJ6KBAYYBZ8', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm604d87fa43dc9']]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a']]</t>
+          <t>[['TOPGGN8QZZCHPHCB', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Green Top', 'https://www.flipkart.com/kassually-casual-striped-women-green-top/p/itm669732c707095'], ['JEAGEYGVZZQQXDQE', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm232760a093285'], ['BAGFZSPARZKVCSFR', 'komto Cross Body bag Single Shoulder Causal Large Capacity Polyester men chest bag (Black) Multipurpose Bag\xa0\xa0(Black, 2 L)komto Cross Body bag Single Shoulder Causal Large Capacity Polyester men chest bag (Black) Multipurpose Bag', 'https://www.flipkart.com/komto-cross-body-bag-single-shoulder-causal-large-capacity-polyester-men-chest-black-multipurpose/p/itm9dd362c497082'], [nan, nan, nan], ['TOPGNM4X8FMG6HTF', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women White Top', 'https://www.flipkart.com/kassually-casual-striped-women-white-top/p/itm5c62c3186a9eb'], ['STBFPUCQDKYPGYMV', 'ABYS\xa0Genuine Leather Tan Men And Women\xa0Messenger Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-genuine-leather-tan-men-womenmessenger-bag-small-travel/p/itm5c88d845f6dda'], ['JEAGJZYBGAHHSGBF', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8bdcd3b9b07c5'], ['SGLG8W5CTCQJAZWP', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmea2a902dbc0dd'], ['ERGFG3ZTRMNRFYPH', 'AMAAL\xa0Jhumka Bridal Wedding Traditional Gold Plated Kundan Moti jhumkas Ear rings Pearl Copper, Brass Earring Set, Jhumki Earring', 'https://www.flipkart.com/amaal-jhumka-bridal-wedding-traditional-gold-plated-kundan-moti-jhumkas-ear-rings-pearl-copper-brass-earring-set-jhumki/p/itme02a809624072'], ['SARGZTFP2VAFBJMU', 'Faduseller\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/faduseller-printed-bollywood-georgette-saree/p/itmed37bdffa91b3'], ['SARGG672JTEYPFAU', 'PD CLOTH VILLA\xa0Embroidered Bollywood Velvet Saree', 'https://www.flipkart.com/pd-cloth-villa-embroidered-bollywood-velvet-saree/p/itm8269287eb3882']]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>[['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], [nan, nan, nan]]</t>
+          <t>[[nan, nan, nan], ['DREGJFG8Q6NTHFUW', 'KASSUALLY\xa0Women Maxi Pink, Black, White Dress', 'https://www.flipkart.com/kassually-women-maxi-pink-black-white-dress/p/itm965450dba8138'], ['DREFNYT6YY4D8HHT', 'U&amp;F\xa0Women Maxi Yellow Dress', 'https://www.flipkart.com/u-f-women-maxi-yellow-dress/p/itmd9d1af4bfd724'], ['LCHGYHNXJGZZJP9Q', 'aadhiya impex\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/aadhiya-impex-embroidered-semi-stitched-lehenga-choli/p/itmad2b1d0ce3007'], ['LCHGZ7DWZEV76B7T', 'DHAVDI ENTERPRISE\xa0Checkered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-checkered-semi-stitched-lehenga-choli/p/itm9d2307dd3248b'], ['STBFPUCQDKYPGYMV', 'ABYS\xa0Genuine Leather Tan Men And Women\xa0Messenger Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-genuine-leather-tan-men-womenmessenger-bag-small-travel/p/itm5c88d845f6dda'], ['JEAFYQGSVQQZBTCF', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm02611950d653e'], ['SNDFYP5YBWZCG78K', 'METMO\xa0Men Brown Sandal', 'https://www.flipkart.com/metmo-men-brown-sandals/p/itmf3wsahgfj27fv'], ['DREGJ9HF2Q4AGGNB', 'Jenny Enterprises\xa0Women Maxi Black Dress', 'https://www.flipkart.com/jenny-enterprises-women-maxi-black-dress/p/itm0a4935c29badf'], ['LCHGCYJRTVHGY2GY', 'patlani\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/patlani-embroidered-semi-stitched-lehenga-choli/p/itm4b81c0c03846a']]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>325017</t>
+          <t>570003</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Kristen</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Medina</t>
+          <t>Dudley</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc'], [nan, nan, nan], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], [nan, nan, nan], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], [nan, nan, nan], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], [nan, nan, nan], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5']]</t>
+          <t>[[nan, nan, nan], [nan, nan, nan], ['DREGKG45G6U9J3KR', 'Mantraa\xa0Women Maxi Black Dress', 'https://www.flipkart.com/mantraa-women-maxi-black-dress/p/itm71b63e38033db'], ['SGLGZ9FNDJZTSFAZ', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itm5849d62be447f'], ['LCHG6Z4J5Y5FKBBB', 'Crissy\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-semi-stitched-lehenga-choli/p/itm8b6db1e54cf0e'], ['CLTG96EFCQV79MSQ', 'WROOTED\xa0Party Gold  Clutch  - Regular Size', 'https://www.flipkart.com/wrooted-party-gold-clutch/p/itm82e9bbdbfd672'], ['SGLG8W5CTCQJAZWP', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmea2a902dbc0dd'], ['JEAGGP2HWQEVQZHQ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm5eac215010627']]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45'], ['SHOG7DM3AXNK9DKV', 'bacca bucci\xa0MOUNTAIN Splash proof full Grain Leather biker Boots Trekking Hiking with Fur Boots For Men', 'https://www.flipkart.com/bacca-bucci-mountain-splash-proof-full-grain-leather-biker-boots-trekking-hiking-fur-men/p/itm6b40c995e679e'], ['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d'], ['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68'], ['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c']]</t>
+          <t>[[nan, nan, nan], ['SHOFUUTCDMKWHYVW', 'BIG FOX\xa0Ankle Length Stylish Boots For Men', 'https://www.flipkart.com/big-fox-ankle-length-stylish-boots-men/p/itm6af7be280648a'], ['JEAFYQGSWHY5CFMG', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itmf8478eedf6bf6'], [nan, nan, nan], ['SHOFNY4YGFFHWQ5H', 'Shoe Island\xa0Solid-X Black Brown Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-black-brown-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm5f18c1d351845'], ['ERGFYRK8XNNZZZP8', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Ghungroo Triple 3 Three Layer Hoop Jhumka Jhumkas Golden Bali Jhumki Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME147 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-ghungroo-triple-3-three-layer-hoop-jhumka-jhumkas-golden-bali-jhumki-earrings-earings-ear-rings-girls-women-micro-antique-gold-jhumki-me147-brass-copper-metal-alloy-earring/p/itm54e9206d32233'], [nan, nan, nan], ['ERGFYREZGRYQ5YHC', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Ghungroo Hoop Jhumka Jhumkas Jhumki Bali Ear rings/ Earings / Earrings for girls women Golden Micro Antique -GOLD JHUMKI-ME136 Brass, Copper, Metal, Alloy Earring Set, Jhumki Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-ghungroo-hoop-jhumka-jhumkas-jhumki-bali-ear-rings-earings-earrings-girls-women-golden-micro-antique-gold-jhumki-me136-brass-copper-metal-alloy-earring-set-earring/p/itmad442c65d0a6a'], ['SHOGM9ABF23ZAPCJ', 'STRASSE PARIS\xa0Womens Boots Stylish, Trendy, Comfortable, Casual Boots for Womens &amp; Girls Boots For Men', 'https://www.flipkart.com/strasse-paris-women-s-boots-stylish-trendy-comfortable-casual-girls-men/p/itm9f141a9c73fd6'], ['SHOGH8KBYFZAKFQ5', 'Bruno Manetti\xa0MK-014-Brown Boots For Men', 'https://www.flipkart.com/bruno-manetti-mk-014-brown-boots-men/p/itm5abc4b53ef673'], ['TOPGNM4X8FMG6HTF', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women White Top', 'https://www.flipkart.com/kassually-casual-striped-women-white-top/p/itm5c62c3186a9eb'], ['TOPGHWDZ6FCEGE7N', 'RJ FASHION\xa0Casual Regular Sleeves Striped Women Blue Top', 'https://www.flipkart.com/rj-fashion-casual-striped-women-blue-top/p/itmfb9f387ed4002'], [nan, nan, nan], ['DREFAYK5QHUJMKXA', 'MUDRIKA\xa0Women Maxi Black Dress', 'https://www.flipkart.com/mudrika-women-maxi-black-dress/p/itmfafgfuhkewzdy'], ['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1']]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>[['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48'], ['ETHGYA5FZKCRCKZ3', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6d37aebb829e3'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b']]</t>
+          <t>[['SARGPH5DSCTEVZ78', 'KRISHNA NX\xa0Printed Bandhani Pure Cotton Saree', 'https://www.flipkart.com/krishna-nx-printed-bandhani-pure-cotton-saree/p/itm0fea34bad0c21'], ['SNDG5FR793G4VY3Q', 'Wildcraft\xa0Men Multicolor Sandal', 'https://www.flipkart.com/wildcraft-men-multicolor-sandals/p/itmfa9392f974c0f'], ['ERGFYZ86XARHRFQN', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden Peacock earrings jhumki Combo set jumkas small Stud Tops Meenakari Peacock Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design New 6 earrings-JHUMKI COMBO-ME09 Beads, Pearl Alloy, Metal, Enamel, Crystal, Zinc Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-peacock-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-new-6-earrings-jhumki-combo-me09-beads-pearl-alloy-metal-enamel-crystal-zinc-earring/p/itm8fbee90003bc8'], ['JEAGJ4YGATHBBKRV', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm04eca49c50ec0']]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>130137</t>
+          <t>198759</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Larry</t>
+          <t>Theresa</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5']]</t>
+          <t>[['JEAGJ4YG3RHGRUSH', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma71c6a67263a9'], [nan, nan, nan], ['KETGHCVZXEHYET5M', 'SEMINO\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/semino-boys-festive-party-wedding-sherwani-churidar-set/p/itmc621cb28d13c9'], ['KTAGFTZXDFC8CGQG', 'AO Fabrico\xa0Women Floral Print Cotton Rayon A-line Kurta', 'https://www.flipkart.com/ao-fabrico-women-floral-print-a-line-kurta/p/itmad0facf9bf967'], ['SUIGE5ZEUH8DSKVE', 'DKGF FASHION\xa0Men Single Breasted Solid Suit', 'https://www.flipkart.com/dkgf-fashion-single-breasted-solid-men-suit/p/itm76a821c733188'], ['SHOGCF4EUGDXFUDZ', 'Aragats\xa0Casual Casuals For Men', 'https://www.flipkart.com/aragats-casual-casuals-men/p/itm550e4937728d7'], ['SGLEDQE9ZGDARGZV', 'agera\xa0UV Protection, Gradient Aviator Sunglasses (55)', 'https://www.flipkart.com/agera-aviator-sunglasses/p/itmf3yhamhyvbjff'], ['SGLFZCRCYYPS6HJX', 'Fair-x\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/fair-x-aviator-sunglasses/p/itm214678c66746e'], ['KTAFWNUYBFZPBDQ9', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmf62f03e6220a5'], ['SGLF7HGZKHHSTQ8H', 'GANSTA\xa0Gradient, UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/gansta-aviator-sunglasses/p/itmf7hmfp5r8hcdb'], [nan, nan, nan], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['SUIFYUYSTXUANFJA', 'TAHVO\xa0Men Black men Bandhgala suit Solid Suit', 'https://www.flipkart.com/tahvo-black-men-bandhgala-suit-solid/p/itm744a583c6fa83']]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070']]</t>
+          <t>[['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['TVPF6YZGZWZ7PXUH', 'Nightstar Waist Bag\xa0\xa0(Red)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f3ptmua8ahy']]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>[['TSHGGTH3ZZZJFJFR', 'London Hills\xa0Men Striped Hooded Neck Cotton Blend Pink T-Shirt', 'https://www.flipkart.com/london-hills-striped-men-hooded-neck-pink-t-shirt/p/itmf148db8f2ffeb']]</t>
+          <t>[['JEAGJ4YHVKPYEDKR', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8636bb66e8926'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], ['KRTFDVDJKYD7VKFE', 'sonia collection\xa0Women Embroidered Cotton Blend Asymmetric Kurta', 'https://www.flipkart.com/sonia-collection-women-embroidered-asymmetric-kurta/p/itm045ce171788f8'], ['SGLG8W5CTCQJAZWP', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmea2a902dbc0dd'], ['BZRGMCPS6QFBFYCB', 'Naksh style\xa0Women Solid Double Breasted Formal Blazer', 'https://dl.flipkart.com/dl/naksh-style-solid-double-breasted-formal-women-blazer/p/itmb053fd8d30e45']]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>794265</t>
+          <t>862545</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Debbie</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3921,93 +3921,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['DREGK5N74KNXDYYY', 'maruti fab\xa0Women Fit and Flare Yellow Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-yellow-dress/p/itm968df60d0fb1d'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], [nan, nan, nan], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198']]</t>
+          <t>[['SHOFNY4YGFFHWQ5H', 'Shoe Island\xa0Solid-X Black Brown Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-black-brown-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm5f18c1d351845'], [nan, nan, nan], ['TOPGZS3XPZDQMJEP', 'Sheetal Associates\xa0Casual Flared Sleeves Printed Women Multicolor Top', 'https://www.flipkart.com/sheetal-associates-casual-printed-women-multicolor-top/p/itm4bb039830e110'], ['ERGFWWVY4Q7JB6KV', 'Divastri\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Antique Micro Ear rings for girls women Golden Copper, Brass Jhumki Earring', 'https://www.flipkart.com/divastri-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-antique-micro-ear-rings-girls-women-golden-copper-brass-jhumki-earring/p/itmd3c727fd8c0c5'], ['TOPEEZYGFFREPYFM', 'RUSE\xa0Casual Regular Sleeves Striped Women White, Grey Top', 'https://www.flipkart.com/ruse-casual-3-4-sleeve-striped-women-white-grey-top/p/itmf3z3davrprktz'], ['SARGQ54YYGFGAEGT', 'ShiVAdit Ethnic\xa0Applique, Self Design, Paisley, Embellished, Solid/Plain Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/shivadit-ethnic-applique-self-design-paisley-embellished-solid-plain-bollywood-georgette-chiffon-saree/p/itmc5bb78bd3abe1'], [nan, nan, nan], ['SGLGHESCZPECGM9G', 'Ted Smith\xa0UV Protection Aviator Sunglasses (47)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm237836d10f0b0'], ['JEAGGNWEZHS22WEQ', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm64b0fa149becc']]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], [nan, nan, nan], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68'], ['TKPG35BT3Y99WHRH', 'Acton Wilmer\xa0Men Solid Multicolor Track Pants', 'https://www.flipkart.com/acton-wilmer-solid-men-multicolor-track-pants/p/itmdf89514da5f04'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444'], ['CTPGG9YYV45PSCKJ', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Black)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmb8ca7fe635070']]</t>
+          <t>[[nan, nan, nan], ['DREGG7EZJUMUZ46P', 'ZOPDI\xa0Women Maxi Black Dress', 'https://www.flipkart.com/zopdi-women-maxi-black-dress/p/itmd9be4224fc0a1'], ['SGLG8X54BVYQ92MG', 'Ted Smith\xa0Gradient Aviator Sunglasses (50)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm4b5b64ff0baba'], ['SHOFNY4YGFFHWQ5H', 'Shoe Island\xa0Solid-X Black Brown Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-black-brown-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm5f18c1d351845'], ['SNDGKX99Z9VGYSYK', 'ONLY EMPIRE\xa0Women White Heels Sandal', 'https://www.flipkart.com/only-empire-women-white-heels/p/itmf2cfbbdcb3d72'], ['SHOF9EYGCBREYQS7', 'Shoe Island\xa0Leatherette Heavy Duty Lace-Up Military High Ankle Length Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-leatherette-heavy-duty-lace-up-military-high-ankle-length-casual-long-boots-men/p/itmf9es5sffg45c7'], ['STBGPYH3YXYXJHC2', 'ABYS\xa0Genuine Leather New Trendy Sling Bag Small Travel Bag', 'https://www.flipkart.com/abys-genuine-leather-new-trendy-sling-bag-small-travel/p/itm7138eacabe24d'], ['ERGFG4JGPD6GHUF8', 'AMAAL\xa0Black Jhumka Earrings Bridal Wedding Traditional Gold Plated Kundan Moti jhumkas Pearl Copper, Brass Earring Set, Jhumki Earring', 'https://www.flipkart.com/amaal-black-jhumka-earrings-bridal-wedding-traditional-gold-plated-kundan-moti-jhumkas-pearl-copper-brass-earring-set-jhumki/p/itm0aa50c1bc8ff8'], ['WSBGPB7UBWNQUCZJ', 'RC REXCUIR Shoulder Bag for Men Women | Sling Crossbody Bags Shoulder Bag\xa0\xa0(Pink)RC REXCUIR Shoulder Bag for Men Women | Sling Crossbody Bags Shoulder Bag', 'https://www.flipkart.com/rc-rexcuir-shoulder-bag-men-women-sling-crossbody-bags/p/itm0538e42b20b37'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], ['DREGG7EZJUMUZ46P', 'ZOPDI\xa0Women Maxi Black Dress', 'https://www.flipkart.com/zopdi-women-maxi-black-dress/p/itmd9be4224fc0a1']]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>[['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['SHOG7DM3DFSTPSE6', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm66617e4fe8977'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['DREGK5N7FGKW56HH', 'maruti fab\xa0Women Fit and Flare Green, Black Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-green-black-dress/p/itmc94e7722920e1'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c']]</t>
+          <t>[['TOPGEWHYCGJP39MA', 'KASSUALLY\xa0Casual Puff Sleeves Striped Women Black Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-top/p/itmb2e3545682803']]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>301203</t>
+          <t>394329</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Courtney</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Fuentes</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093'], [nan, nan, nan], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], [nan, nan, nan]]</t>
+          <t>[['ERGFWQ8SCJZG8UTK', 'Divastri\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Antique Micro Ear rings for girls women Golden Ruby, Diamond Brass, Copper Jhumki Earring, Earring Set, Drops &amp; Danglers', 'https://www.flipkart.com/divastri-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-antique-micro-ear-rings-girls-women-golden-ruby-diamond-brass-copper-jhumki-earring-earring-set-drops-danglers/p/itmc785036cbc3e3'], [nan, nan, nan], ['SNDFNVS9YHTVXSTY', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm121a186c79319'], ['JEAGJ4YG3RHGRUSH', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma71c6a67263a9'], ['WSBGASYART8G9DG5', 'sanjis Girls/Women Cute Fanny Pack Fur Waist Bag Belt Bag Chest Bag Shoulder Bag Waist Bag\xa0\xa0(Multicolor)sanjis Girls/Women Cute Fanny Pack Fur Waist Bag Belt Bag Chest Bag Shoulder Bag Waist Bag', 'https://www.flipkart.com/sanjis-girls-women-cute-fanny-pack-fur-waist-bag-belt-chest-shoulder/p/itm572655e0a4a5a'], ['DREGCVBN3GHFK4FT', 'heer tex\xa0Women Maxi Pink Dress', 'https://www.flipkart.com/heer-tex-women-maxi-pink-dress/p/itm278fbd9f5e6e3']]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['SHTGHQU4E3EHCEKT', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-dark-blue-shirt/p/itmf1fd163332f06'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['TSHGGTH3ZZZJFJFR', 'London Hills\xa0Men Striped Hooded Neck Cotton Blend Pink T-Shirt', 'https://www.flipkart.com/london-hills-striped-men-hooded-neck-pink-t-shirt/p/itmf148db8f2ffeb'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['SHTFKGPQPEBNHMFP', '5TH ANFOLD\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/5th-anfold-men-solid-formal-grey-shirt/p/itm527b60fe36863'], ['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568']]</t>
+          <t>[['DREFKYEZT6M9GZXQ', 'Avirate\xa0Women Maxi Black Dress', 'https://www.flipkart.com/avirate-women-maxi-black-dress/p/itmd7b145eab4e84'], ['LCHGEG67R2WCHKWC', 'Zopviz Villa\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/zopviz-villa-self-design-semi-stitched-lehenga-choli/p/itmd61aca9ea6421'], ['SHOGKKFCGCFGGT5U', 'JK PORT\xa0Boots For Men', 'https://dl.flipkart.com/dl/jk-port-boots-men/p/itmc3c3f7d237c4d'], ['DREGG7EZJUMUZ46P', 'ZOPDI\xa0Women Maxi Black Dress', 'https://www.flipkart.com/zopdi-women-maxi-black-dress/p/itmd9be4224fc0a1'], ['SFFGBHRFF4EMZQ7Z', 'NIKE\xa0Men VISTA Black Sports Sandal', 'https://www.flipkart.com/nike-vista-men-black-sports-sandals/p/itm624e119a521c6'], ['TOPGDE4ZRGQKATSA', 'ILMAX\xa0Casual Regular Sleeves Printed Women Black Top', 'https://www.flipkart.com/ilmax-casual-printed-women-black-top/p/itm24b7981a57ca1'], ['JEAFYQGSFQ2DMMCZ', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm5c752589f953b'], ['SHOGZUE9R2ZE73NU', 'BUCKAROO\xa0ZEKI Outdoors For Men', 'https://www.flipkart.com/buckaroo-zeki-outdoors-men/p/itm9d09ac989df74'], ['SHOGEABAZZXHPGGH', 'MOCHI\xa0Loafers For Men', 'https://www.flipkart.com/mochi-loafers-men/p/itm84a75faa5de50'], ['JEAGEYGV5D2FDFAK', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm4577eb2e96a75'], ['DREFECH2HZX4YFKN', 'MUDRIKA\xa0Women Maxi Light Blue, Black Dress', 'https://www.flipkart.com/mudrika-women-maxi-light-blue-black-dress/p/itmfecuwgccj42kc'], ['SGLFYHEWMCHMTSEZ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm8787cf8e15e68'], [nan, nan, nan], ['TOPG2YDHHH5NSN4Y', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Dark Green Top', 'https://www.flipkart.com/kassually-casual-full-sleeve-striped-women-dark-green-top/p/itmd7ce2dfef10a2']]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>[['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48']]</t>
+          <t>[['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn'], ['ERGG7G64BMZ3KEPC', 'MEENAZ\xa0Traditional South indian Temple Jewellery pearl moti Gold plated Matte Finish small studs Peacock Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised tops golden earrings jhumki earing Combo pack set kaan jumkas Stud Tops Meenakari Jhumka Ethnic Antique jhumkas multi ear rings for women girls ladies lovers valentine gifts Latest design 6 pink white black maroon green red Set JHUMKI COMBO-ME013 Beads, Pearl Metal Drops &amp; Danglers, Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-pearl-moti-gold-plated-matte-finish-small-studs-peacock-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-tops-golden-earrings-jhumki-earing-combo-pack-set-kaan-jumkas-stud-meenakari-jhumka-ethnic-antique-jhumkas-multi-ear-rings-women-girls-ladies-lovers-valentine-gifts-latest-design-6-pink-white-black-maroon-green-red-combo-me013-beads-metal-drops-danglers-earring-set/p/itmfcbcb82c7e4f8'], ['JEAGHEYATGZRPZMY', 'WROGN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/wrogn-regular-men-grey-jeans/p/itm483a02e7b5e61'], ['JEAGC5WZGSSSEVP3', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm6222d4620ce65'], ['DREFNYT6YY4D8HHT', 'U&amp;F\xa0Women Maxi Yellow Dress', 'https://www.flipkart.com/u-f-women-maxi-yellow-dress/p/itmd9d1af4bfd724'], ['SNDFYP5YBWZCG78K', 'METMO\xa0Men Brown Sandal', 'https://www.flipkart.com/metmo-men-brown-sandals/p/itmf3wsahgfj27fv'], ['TOPGGFBMHNSQN7AQ', 'KASSUALLY\xa0Party Shoulder Straps Printed Women Multicolor Top', 'https://www.flipkart.com/kassually-party-printed-women-multicolor-top/p/itmf22cb55f6c684'], [nan, nan, nan], [nan, nan, nan], ['ERGGJ4Q6AJWJPK7K', 'Divastri\xa0jhumka earrings combo oxidised meenakari kundan Traditional South Temple jhumkas Beads, Pearl Metal Earring Set', 'https://www.flipkart.com/divastri-jhumka-earrings-combo-oxidised-meenakari-kundan-traditional-south-temple-jhumkas-beads-pearl-metal-earring-set/p/itm5766352d06d23'], ['SHOGKYNZG4FACJEZ', 'Hitpro\xa0BwBoots9 Boots For Men', 'https://www.flipkart.com/hitpro-bwboots9-boots-men/p/itm94a6e344728a3']]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>420513</t>
+          <t>269895</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4016,493 +4016,493 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['BDRGNC7DS5GFGHXD', 'Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush\xa0\xa0(15 ml, Black)Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush', 'https://www.flipkart.com/kingeshal-wooden-premium-shoe-brush-cleaning-polishing-shining-leather-shoes-sneakers/p/itmd7afbc5b69f83'], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342']]</t>
+          <t>[['SHOGYZA3C44DPN4N', 'World Wear Footwear\xa0Combo Pack of 3 New Affordable Collection of Stylish Walking Sports Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-combo-pack-3-new-affordable-collection-stylish-walking-sports-shoes-men/p/itm81d0320883973'], ['SRWGZ4QY83V7NKEZ', 'ZARAK FASHION Mens Indo Western Sherwani Wedding Dress for Men Ethnic Wear - Blue Embroidered SherwaniZARAK FASHION Mens Indo Western Sherwani Wedding Dress for Men Ethnic Wear - Blue Embroidered Sherwani', 'https://www.flipkart.com/zarak-fashion-mens-indo-western-sherwani-wedding-dress-men-ethnic-wear-blue-embroidered/p/itm4ec4730b0a1c4'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], ['SRWGFRRSMGPHPFZX', 'AVAETA Floral Print SherwaniAVAETA Floral Print Sherwani', 'https://www.flipkart.com/avaeta-floral-print-sherwani/p/itm26bbd7f4cf63e'], ['KETGMATFU4QPSNMM', 'sahil collection\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/sahil-collection-boys-festive-party-wedding-sherwani-churidar-set/p/itmce87213cfa454'], ['SGLGKN8HHNPBGUGT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (50)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itm9dfc11c9354e0'], [nan, nan, nan], ['ERGGFZBGHPGVZZPY', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -MENS EARRINGS COMBO-ME62 Metal Stud Earring, Hoop Earring, Earring Set, Clip-on Earring, Magnetic Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-mens-combo-me62-metal-earring-earring-set-clip-on/p/itmedca84a53fbc2'], ['JEAGJ4YHVKPYEDKR', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm8636bb66e8926'], ['JEAGEKQZDKZANDRP', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Blue Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-blue-jeans/p/itm094f7e29c58f6'], ['JEAGJZY9VXDAHY7H', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm4f2e5aede0303'], ['ERGGYHZRTQUJ4SXZ', 'MEENAZ\xa0Fashion Multi jewellery Valentine Single Golden Silver Black Surgical Plug Hoops Ear piercing Studs Steel Jewelry Style Stylish Fancy Party wear Daily use simple Magnetic Round MultIcolor Bali Hoops Earrings Combo Set pierced Ear rings Stud Tops Round Dumbell Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry -MENS EARRINGS COMBO-ME36 Alloy, Metal, Stainless Steel, Brass, Steel Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multi-jewellery-valentine-single-golden-silver-black-surgical-plug-hoops-ear-piercing-studs-steel-jewelry-style-stylish-fancy-party-wear-daily-use-simple-magnetic-round-multicolor-bali-earrings-combo-set-pierced-rings-stud-tops-dumbell-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-pack-mens-combo-me36-alloy-metal-stainless-steel-brass-earring/p/itm1eb03158bdf33'], ['SHOFGPP4ZCXYSXUH', 'LIONS RIDER\xa0Party Wear For Men', 'https://www.flipkart.com/lions-rider-party-wear-men/p/itmfgq86mgyzkygk']]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['TSHGC74BK7FGJUHD', 'NB NICKY BOY\xa0Men Typography Round Neck Cotton Blend Black T-Shirt', 'https://www.flipkart.com/nb-nicky-boy-typography-men-round-neck-black-t-shirt/p/itme37ae4c45ba59'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad']]</t>
+          <t>[['STBFVU6DKMPB8ZQN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm4fc56d093ec74'], ['KETG93ZYV6GJR9W6', 'PK Collection\xa0Baby Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/pk-collection-baby-boys-wedding-sherwani-churidar-set/p/itm4dbd995ae52c0'], ['ERGGD4DPVUGB2TRV', 'A1 Bhumika Trendz\xa0Floral Kundan Chandbali Earring(red) Metal Drops &amp; Danglers', 'https://www.flipkart.com/a1-bhumika-trendz-floral-kundan-chandbali-earring-red-metal-drops-danglers/p/itm2c82e90770b04'], ['SRWG834BZMUDQKM6', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itmfaf076414021d'], ['ERGFGFTETUXZADXG', 'V L INTERNATIONAL\xa0Peacock oxidised Silver Plated Jhumka Earring Jewellery For Girls Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-peacock-oxidised-silver-plated-jhumka-earring-jewellery-girls-alloy-jhumki/p/itm364c7616e5280'], ['TDHFWDFUEMMVRGNJ', 'ABYS Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack\xa0\xa0(Pink)ABYS Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking/p/itm7ad97f2a81157'], ['SRWG4TW9HF2CQKSF', 'SEMINO Kids Indian Ethnic Handwork Embroidery Sherwani and Breeches Set With Dupatta Self Design SherwaniSEMINO Kids Indian Ethnic Handwork Embroidery Sherwani and Breeches Set With Dupatta Self Design Sherwani', 'https://www.flipkart.com/semino-self-design-sherwani/p/itmb3e606437108a']]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>[['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['DREGGSSRNWGKHFFG', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itmc6b361e2ef2e6'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['BDRGNC7DS5GFGHXD', 'Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush\xa0\xa0(15 ml, Black)Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush', 'https://www.flipkart.com/kingeshal-wooden-premium-shoe-brush-cleaning-polishing-shining-leather-shoes-sneakers/p/itmd7afbc5b69f83'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], [nan, nan, nan], ['ETHGYA5FZKCRCKZ3', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6d37aebb829e3'], ['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], ['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b']]</t>
+          <t>[['SHOGG5FT9WTYYYFZ', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itmc03adefc7970a'], [nan, nan, nan], ['BZRGKW96ZYVPPVPG', 'STYLZINDIA\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/stylzindia-solid-single-breasted-casual-women-blazer/p/itm16cc4780736eb'], ['ERGFGB8QGFWUNBAG', 'V L INTERNATIONAL\xa0Ethnic Earrings Jhumka Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-ethnic-earrings-jhumka-alloy-jhumki-earring/p/itm8774a8f5761a1']]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>878631</t>
+          <t>312183</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Turner</t>
+          <t>Eaton</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], [nan, nan, nan], ['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], ['SHTGMK2Y7JKGZKCE', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-grey-shirt/p/itmc34659b21c380'], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444'], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], [nan, nan, nan], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['KDEGM6XFJQWUFRBG', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm53b36ce3dedf7'], ['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a']]</t>
+          <t>[['KETGHCVZXEHYET5M', 'SEMINO\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/semino-boys-festive-party-wedding-sherwani-churidar-set/p/itmc621cb28d13c9'], ['SGLED3YHZDMUUYJY', 'ROYAL SON\xa0Mirrored Aviator Sunglasses (58)', 'https://www.flipkart.com/royal-son-aviator-sunglasses/p/itmf3ykjxj6yncgy'], ['SGLF54XGVQYGEYZN', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (62)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmf557vd9wzgjhd'], ['JEAGPGKHWRTQTU7M', 'BEING HUMAN\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-skinny-men-grey-jeans/p/itmfcd41fd60eb59'], [nan, nan, nan], ['RKSGZ9HQQHFBA5KF', 'SAKSHI FASHION\xa0NEW Water Proof Mountain Rucksack/Trekking Bag Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-fashion-new-water-proof-mountain-rucksack-trekking-bag-rucksack-70-l/p/itmba47ce64b90ba'], ['KTAGZNV35AE7HHGV', 'EKASYA\xa0Women Embellished Silk Blend Straight Kurta', 'https://www.flipkart.com/ekasya-women-embellished-straight-kurta/p/itm309b9e32b6182'], ['KETGCYUFZZEPKHFV', 'KAVSHIL\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/kavshil-boys-festive-party-sherwani-churidar-set/p/itm0d764d376701f'], ['SGLFYHEWMCHMTSEZ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm8787cf8e15e68'], ['SGLF84PQZDBYE7CH', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9ubfzzgnb'], [nan, nan, nan], ['SHOGBVWDS82DZDXH', 'World Wear Footwear\xa0Exclusive Affordable Collection of Trendy &amp; Stylish Sport Sneakers Shoes Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-exclusive-affordable-collection-trendy-stylish-sport-sneakers-shoes-running-men/p/itmc52859fa3a657']]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c']]</t>
+          <t>[[nan, nan, nan], ['RKSG6W3DYRJK3UHX', 'ozino\xa0Travel Backpack for Outdoor Sport Camping Hiking Trekking Bag Rucksack Bag Trekking bag . 60L Rucksack  - 60 L', 'https://www.flipkart.com/ozino-travel-backpack-outdoor-sport-camping-hiking-trekking-bag-rucksack-60l-60-l/p/itm7a1176bc4a877'], ['BZRGKFYYTWFFFGMY', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma5d53e51ad843'], ['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn'], ['SLBGDUZZ2B3BZBA8', 'CarryTrip\xa0Black Men &amp; Women Shoulder Bag', 'https://www.flipkart.com/carrytrip-black-shoulder-bag-crossbody-unisex-chest-travelling-adjustable-strap/p/itm153b83ca4d421'], ['SGLF84PQZDBYE7CH', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9ubfzzgnb'], ['ERGFGFTETUXZADXG', 'V L INTERNATIONAL\xa0Peacock oxidised Silver Plated Jhumka Earring Jewellery For Girls Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-peacock-oxidised-silver-plated-jhumka-earring-jewellery-girls-alloy-jhumki/p/itm364c7616e5280'], ['SUIFYUYSTXUANFJA', 'TAHVO\xa0Men Black men Bandhgala suit Solid Suit', 'https://www.flipkart.com/tahvo-black-men-bandhgala-suit-solid/p/itm744a583c6fa83']]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>[['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d'], ['SHTGEUM8UHGGMDBJ', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-dark-blue-shirt/p/itm830ed15a01d85'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123']]</t>
+          <t>[['BZREWMASHG3DPYPT', 'KARMIC VISION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/karmic-vision-solid-single-breasted-casual-women-blazer/p/itmewmd9xvhzggzz'], ['JEAGGZFTMQZKRKAJ', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm3ddb994bb8b2f'], ['SHOGMGQ4CSMEDZPG', 'HX London\xa0Casuals For Men', 'https://dl.flipkart.com/dl/hx-london-casuals-men/p/itma41d273b347b6'], ['JEAFYQGSDHFVZNNV', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm0698668514d10'], ['STBFWE59MCS8PNGW', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm70da6d7a59187'], ['STBFVU6DPJ3FPYEC', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6d75b934f6416'], ['KTAGM4H5KSVFHM96', 'Mattlook\xa0Women Printed Viscose Rayon Straight Kurta With Attached Dupatta', 'https://www.flipkart.com/mattlook-women-printed-straight-kurta/p/itmee809550a4065'], ['ERGGD4DPVUGB2TRV', 'A1 Bhumika Trendz\xa0Floral Kundan Chandbali Earring(red) Metal Drops &amp; Danglers', 'https://www.flipkart.com/a1-bhumika-trendz-floral-kundan-chandbali-earring-red-metal-drops-danglers/p/itm2c82e90770b04'], ['SHOGYXEMFYEYH5QV', 'HX London\xa0Brogues Ankle Boots For Men', 'https://www.flipkart.com/hx-london-brogues-ankle-boots-men/p/itm70d0374f45da0'], ['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1'], ['SGLF7G35GZPDJRHE', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf7g4pezzem77y'], ['BZRGNH22GGMAYMMF', 'Click One\xa0Men &amp; Women Solid Double Breasted Formal Blazer', 'https://www.flipkart.com/click-one-solid-double-breasted-formal-men-women-blazer/p/itmcc19802f2f97b'], ['ERGFFWPBMU4ZSRG4', 'AMAAL\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop - BALI-A101 Metal Hoop Earring', 'https://www.flipkart.com/amaal-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-a101-metal-earring/p/itm0c0746afddfe7'], ['ERGG5RVVA4PEZW38', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME82 Metal Huggie Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me82-metal-huggie/p/itmca2bcdf7c6ffa']]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>630897</t>
+          <t>813789</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jeffrey</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Collins</t>
+          <t>Krueger</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[['TSHGZFYAPUTNGZTF', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm85246e25e7141'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc']]</t>
+          <t>[[nan, nan, nan], ['ERGFYZ7AYYZBPNGU', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden Peacock earrings jhumki Combo set jumkas small Stud Tops Meenakari Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design daily use 6 earrings-JHUMKI COMBO-ME05 Pearl Metal Jhumki Earring, Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-peacock-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me05-pearl-metal-earring-earring/p/itmea6eb85162ce4'], ['STBFCMRWAVHKJKAK', 'ABYS\xa0100% Genuine Leather Brown Travel Bag||Sports Bags ||Messenger Bag for Men &amp; Women Small Travel Bag  - Small', 'https://www.flipkart.com/abys-100-genuine-leather-brown-travel-bag-sports-bags-messenger-bag-men-women-small/p/itmfcmtqcpdq34zh'], [nan, nan, nan], ['TOPGG9ZCXMZ4BFFQ', 'KASSUALLY\xa0Casual Sleeveless Striped Women Black Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-top/p/itm875c2f10d5569'], ['SGLGHESCZPECGM9G', 'Ted Smith\xa0UV Protection Aviator Sunglasses (47)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm237836d10f0b0'], ['STBFWE59RW9YTGZP', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8f45129ca2ffc'], [nan, nan, nan], ['SARG6JFDTHASYFHP', 'Flip The Style\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-saree/p/itm5460d3a3a77f8'], ['ERGFYFFPQSZMW4QW', 'MEENAZ\xa0Traditional Jewellery Meenakari Ethnic Antique Bridal Wedding Gold Plated Big Large Golden Enamel Multicolor Stylish Fancy Party wear Moti Beads Peacock Hoops Bali Ear rings Kundan Jhumkas/ Jhumka/ Jhumki Earrings For Women Girls design Pearl Alloy, Metal, Enamel, Copper, Brass Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-jewellery-meenakari-ethnic-antique-bridal-wedding-gold-plated-big-large-golden-enamel-multicolor-stylish-fancy-party-wear-moti-beads-peacock-hoops-bali-ear-rings-kundan-jhumkas-jhumka-jhumki-earrings-women-girls-design-pearl-alloy-metal-enamel-copper-brass-earring/p/itmedf735d579e70'], [nan, nan, nan], ['DREGACFYHG9MEHGJ', 'AREEBA FASHION\xa0Women Maxi Black Dress', 'https://www.flipkart.com/areeba-fashion-women-maxi-black-dress/p/itm06c6133921403'], [nan, nan, nan], ['SNDGMDQ7WUVRTSV6', 'World Wear Footwear\xa0Men White, Green Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-green-clogs/p/itm056e043888b8a'], ['DREGJ9HF2Q4AGGNB', 'Jenny Enterprises\xa0Women Maxi Black Dress', 'https://www.flipkart.com/jenny-enterprises-women-maxi-black-dress/p/itm0a4935c29badf']]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], [nan, nan, nan]]</t>
+          <t>[['SHOEKTVTC3SW8XN8', 'Shoe Island\xa0Popular Designer Leatherette Tan Brown High Ankle Length Casual Boots For Men Boots For Men', 'https://www.flipkart.com/shoe-island-popular-designer-leatherette-tan-brown-high-ankle-length-casual-boots-men/p/itmf3xw5ezdhgsjn'], ['TOPGGN8QZZCHPHCB', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Green Top', 'https://www.flipkart.com/kassually-casual-striped-women-green-top/p/itm669732c707095'], ['ERGFYRVSKKWTCEX4', 'MEENAZ\xa0Traditional South Screw Back Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Peacock Jhumka Jhumkas Bahubali Hair Chain Jhumki Ear rings/ Earings / Earrings for girls women Golden Micro Antique - JHUMKI-ME137 Brass, Copper, Metal, Alloy Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-peacock-jhumka-jhumkas-bahubali-hair-chain-jhumki-ear-rings-earings-earrings-girls-women-golden-micro-antique-jhumki-me137-brass-copper-metal-alloy-earring-set/p/itmc8a1365e26e6f'], ['DREG9Z7GSTCDEUMG', 'Nidhi Collection\xa0Women Maxi Black Dress', 'https://www.flipkart.com/nidhi-collection-women-maxi-black-dress/p/itmbbc4cc1ceb44c'], [nan, nan, nan], [nan, nan, nan], ['STBFWE59RW9YTGZP', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8f45129ca2ffc'], ['SNDFNVS9YHTVXSTY', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm121a186c79319'], ['SNDG8TRXSYYXCYM7', 'BOLTAGO\xa0Men Tan Sandal', 'https://www.flipkart.com/boltago-men-tan-sandals/p/itm8cd3dc2727f21'], ['SARG676EDZGZEK7F', 'FASHION RELOADER\xa0Embroidered Bollywood Georgette Saree', 'https://www.flipkart.com/fashion-reloader-embroidered-bollywood-georgette-saree/p/itm2b0067ebc426d'], ['SGLGHBYAZFC4RGV5', 'Ted Smith\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm8da06b3c243bc'], ['HMBG4PXPTFF5ZCVV', 'ABYS\xa0Men &amp; Women Pink, Blue Messenger Bag - Regular Size', 'https://www.flipkart.com/abys-men-women-pink-blue-messenger-bag/p/itm0e014c86b1526'], ['LCHG4PTEZTNZGZQ9', 'Crissy\xa0Embellished Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embellished-semi-stitched-lehenga-choli/p/itm1dbf157e2d314'], ['JEAGGZFTMQZKRKAJ', 'MUFTI\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-regular-men-grey-jeans/p/itm3ddb994bb8b2f']]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>[['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d'], ['SHTGMK2Y7JKGZKCE', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-grey-shirt/p/itmc34659b21c380'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['BDRGNC7DS5GFGHXD', 'Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush\xa0\xa0(15 ml, Black)Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush', 'https://www.flipkart.com/kingeshal-wooden-premium-shoe-brush-cleaning-polishing-shining-leather-shoes-sneakers/p/itmd7afbc5b69f83'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45'], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4']]</t>
+          <t>[['SHOGHHWUHENFR3HD', 'Innaya traders\xa0Boots For Men', 'https://www.flipkart.com/innaya-traders-boots-men/p/itme27a02ebc3582'], ['SNDGKX99Z9VGYSYK', 'ONLY EMPIRE\xa0Women White Heels Sandal', 'https://www.flipkart.com/only-empire-women-white-heels/p/itmf2cfbbdcb3d72'], ['DREGAGXZMVCXTYMS', 'AREEBA FASHION\xa0Women Maxi Black Dress', 'https://www.flipkart.com/areeba-fashion-women-maxi-black-dress/p/itmb0a524a3d7e34'], ['TOPG2BFYT7H8AANP', 'KASSUALLY\xa0Casual Regular Sleeves Printed, Striped Women Black Top', 'https://www.flipkart.com/kassually-casual-3-4-sleeve-printed-striped-women-black-top/p/itmd2b72ab9c160a'], ['HMBGZHEUYDH3HPYJ', 'PUMMY LUGGAGE\xa0Women Pink Hand-held Bag', 'https://www.flipkart.com/pummy-luggage-women-pink-hand-held-bag/p/itm306cf130f00ca'], ['DREFKH3BRGTRPNDR', 'KASSUALLY\xa0Women Maxi Black Dress', 'https://www.flipkart.com/kassually-women-maxi-black-dress/p/itm27ddf0dbee399'], ['SGLGMHPGQZKHRGTG', 'Sunglance\xa0Riding Glasses, UV Protection, Night Vision Round, Cat-eye Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-round-cat-eye-sunglasses/p/itm047911875c1c7'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], ['CLTG96EFCQV79MSQ', 'WROOTED\xa0Party Gold  Clutch  - Regular Size', 'https://www.flipkart.com/wrooted-party-gold-clutch/p/itm82e9bbdbfd672'], ['SNDGQ7AWJC9PCKKQ', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itme35ac2159acd5']]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>304689</t>
+          <t>963579</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Phillip</t>
+          <t>Crystal</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Watson</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['TSHGGTH3ZZZJFJFR', 'London Hills\xa0Men Striped Hooded Neck Cotton Blend Pink T-Shirt', 'https://www.flipkart.com/london-hills-striped-men-hooded-neck-pink-t-shirt/p/itmf148db8f2ffeb'], ['SHOGFFGFHMSKRHD4', 'BRUTON\xa0Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men', 'https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm24b73ef2c1b49'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c']]</t>
+          <t>[['SRWGBZ5F4FHGKG9S', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itm13f7371616101'], ['KTAGNYUGCYXCBGS6', 'Tarannum\xa0Women Printed Nylon Straight Kurta', 'https://www.flipkart.com/tarannum-women-printed-straight-kurta/p/itmd9f6c87633a8c'], ['SGLF84PQZDBYE7CH', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9ubfzzgnb'], ['SHOGMGQ4CSMEDZPG', 'HX London\xa0Casuals For Men', 'https://dl.flipkart.com/dl/hx-london-casuals-men/p/itma41d273b347b6'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], [nan, nan, nan], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], [nan, nan, nan], ['JEAGEYGV5D2FDFAK', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm4577eb2e96a75']]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928']]</t>
+          <t>[[nan, nan, nan], ['KTAFWNUYJ9ZFXPWE', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itm50a66d5bf59d3'], ['STBFW59VEVBPXZGG', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel/p/itmfd0161d5b15b0'], [nan, nan, nan], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], [nan, nan, nan], ['SHOGYZA3C44DPN4N', 'World Wear Footwear\xa0Combo Pack of 3 New Affordable Collection of Stylish Walking Sports Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-combo-pack-3-new-affordable-collection-stylish-walking-sports-shoes-men/p/itm81d0320883973'], ['SHOGPJWYDHCQPHKT', 'Aragats\xa0Boots For Men', 'https://www.flipkart.com/aragats-boots-men/p/itmf325ae71391e8']]</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>[['ETHGZ84ZYKH3JTKX', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6fed17e59bdfc'], ['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['SHOGKZTUYG8V4G6H', 'bacca bucci\xa0ALDER 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-alder-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itmf9788a1b24ed2'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9']]</t>
+          <t>[['ERGGD4DPVUGB2TRV', 'A1 Bhumika Trendz\xa0Floral Kundan Chandbali Earring(red) Metal Drops &amp; Danglers', 'https://www.flipkart.com/a1-bhumika-trendz-floral-kundan-chandbali-earring-red-metal-drops-danglers/p/itm2c82e90770b04'], [nan, nan, nan], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['BZRGKFYXG3Y3JGFB', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itm7c5c86033098e'], ['SHOGZFNFCXHY7SZG', 'Zsyto\xa0Canvas Shoes For Men', 'https://www.flipkart.com/zsyto-canvas-shoes-men/p/itmbf278fa79b88f']]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>754479</t>
+          <t>942669</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Courtney</t>
+          <t>Bridget</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Melendez</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['KPBG5F6YZG6HFSJE', 'BEBYHOOD\xa0Baby Boys Party(Festive) Blazer Bow Tie', 'https://www.flipkart.com/bebyhood-baby-boys-party-festive-blazer-bow-tie/p/itm3b88bc2d6f6b1'], ['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], [nan, nan, nan], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['DREGGSSR4YZTZDFE', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itmcf28b6384ea91'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636']]</t>
+          <t>[['SGLF84PQZDBYE7CH', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9ubfzzgnb'], ['TOGFYHFZDSZJJXMD', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1/p/itm1910113c87ef1'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], [nan, nan, nan], ['RKSGMPYNFQ3UMATR', 'AYEZA\xa0Waterproof Backpack Used for Travel/Collage/Trekking Bag for Unisex Rucksack  - 60 L', 'https://www.flipkart.com/ayeza-waterproof-backpack-used-travel-collage-trekking-bag-unisex-rucksack-60-l/p/itm3324e01fe3749'], ['KTAFWNUYJ9ZFXPWE', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itm50a66d5bf59d3'], ['ERGGFHEJHNN4KAHQ', 'AMAAL\xa0Amaal Fashion Multi jewellery Valentine Single Platinum Black Blue Golden Silver Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press MAA Earrings Combo Set pack pierced Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women men Pack design Jewellery Multi Hoop earrings Salman Khan daily stylish latest -Men Earrings Combo-A105 Metal Tunnel Earring, Hoop Earring, Huggie Earring, Clip-on Earring, Stud Earring', 'https://www.flipkart.com/amaal-fashion-multi-jewellery-valentine-single-platinum-black-blue-golden-silver-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-maa-earrings-combo-set-pack-bali-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoop-salman-khan-latest-men-combo-a105-metal-tunnel-earring-huggie-clip-on-earring/p/itm9d4e49449c3ba'], ['BZRGNEGTPCJM4UEN', 'Abc Garments\xa0Men &amp; Women Self Design Double Breasted Casual Blazer', 'https://www.flipkart.com/abc-garments-self-design-double-breasted-casual-men-women-blazer/p/itm1abc11ad82934']]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['SHOGKZTUYG8V4G6H', 'bacca bucci\xa0ALDER 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-alder-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itmf9788a1b24ed2'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], ['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7']]</t>
+          <t>[['ERGFMWSZNGTPNBEU', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M207 Cubic Zirconia Metal Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m207-cubic-zirconia-metal-earring/p/itm8bd0e45454114'], ['JEAFYQGSWHY5CFMG', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itmf8478eedf6bf6'], ['JEAGEYGVZZQQXDQE', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm232760a093285'], ['SRWGHXFPXKZZDP8X', 'DEYANN Printed SherwaniDEYANN Printed Sherwani', 'https://www.flipkart.com/deyann-printed-sherwani/p/itmf6964353adc41'], ['TVPF6YZHCGBPT4N8', 'Nightstar Waist Bag\xa0\xa0(Pink)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kzzrgqc6y'], ['BZRGKFYYTWFFFGMY', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma5d53e51ad843'], ['SGLEDQE9ZGDARGZV', 'agera\xa0UV Protection, Gradient Aviator Sunglasses (55)', 'https://www.flipkart.com/agera-aviator-sunglasses/p/itmf3yhamhyvbjff'], ['ERGGFHEJHNN4KAHQ', 'AMAAL\xa0Amaal Fashion Multi jewellery Valentine Single Platinum Black Blue Golden Silver Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press MAA Earrings Combo Set pack pierced Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women men Pack design Jewellery Multi Hoop earrings Salman Khan daily stylish latest -Men Earrings Combo-A105 Metal Tunnel Earring, Hoop Earring, Huggie Earring, Clip-on Earring, Stud Earring', 'https://www.flipkart.com/amaal-fashion-multi-jewellery-valentine-single-platinum-black-blue-golden-silver-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-maa-earrings-combo-set-pack-bali-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoop-salman-khan-latest-men-combo-a105-metal-tunnel-earring-huggie-clip-on-earring/p/itm9d4e49449c3ba']]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>[['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3'], ['DREGGSSRNWGKHFFG', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itmc6b361e2ef2e6'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], [nan, nan, nan], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], [nan, nan, nan], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c']]</t>
+          <t>[['SGLGQ8VYM22C2FQ7', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itmf4d5ff1d96d81'], [nan, nan, nan], [nan, nan, nan], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['KETGMATFU4QPSNMM', 'sahil collection\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/sahil-collection-boys-festive-party-wedding-sherwani-churidar-set/p/itmce87213cfa454'], [nan, nan, nan], ['BZREWMASHG3DPYPT', 'KARMIC VISION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/karmic-vision-solid-single-breasted-casual-women-blazer/p/itmewmd9xvhzggzz'], ['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn'], [nan, nan, nan], [nan, nan, nan], ['STBFWE59RW9YTGZP', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8f45129ca2ffc'], ['ERGGFHEJHNN4KAHQ', 'AMAAL\xa0Amaal Fashion Multi jewellery Valentine Single Platinum Black Blue Golden Silver Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press MAA Earrings Combo Set pack pierced Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women men Pack design Jewellery Multi Hoop earrings Salman Khan daily stylish latest -Men Earrings Combo-A105 Metal Tunnel Earring, Hoop Earring, Huggie Earring, Clip-on Earring, Stud Earring', 'https://www.flipkart.com/amaal-fashion-multi-jewellery-valentine-single-platinum-black-blue-golden-silver-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-maa-earrings-combo-set-pack-bali-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoop-salman-khan-latest-men-combo-a105-metal-tunnel-earring-huggie-clip-on-earring/p/itm9d4e49449c3ba']]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>574743</t>
+          <t>538995</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Nathan</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7'], ['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['KPBG5F6YZG6HFSJE', 'BEBYHOOD\xa0Baby Boys Party(Festive) Blazer Bow Tie', 'https://www.flipkart.com/bebyhood-baby-boys-party-festive-blazer-bow-tie/p/itm3b88bc2d6f6b1'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf']]</t>
+          <t>[['TOPGNM4X8FMG6HTF', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women White Top', 'https://www.flipkart.com/kassually-casual-striped-women-white-top/p/itm5c62c3186a9eb'], ['LCHGZ4VFB6SCGNAJ', 'Matrubhumi\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/matrubhumi-embroidered-semi-stitched-lehenga-choli/p/itmda20d40986c01'], [nan, nan, nan], ['STBFPUCQDKYPGYMV', 'ABYS\xa0Genuine Leather Tan Men And Women\xa0Messenger Bag Small Travel Bag  - Small', 'https://www.flipkart.com/abys-genuine-leather-tan-men-womenmessenger-bag-small-travel/p/itm5c88d845f6dda'], ['ERGGJ4S7AHTX5FHP', 'Divastri\xa0Jhumka combo earrings jhumki Traditional South indian Temple jhumkas women girl Beads, Pearl Metal Jhumki Earring', 'https://www.flipkart.com/divastri-jhumka-combo-earrings-jhumki-traditional-south-indian-temple-jhumkas-women-girl-beads-pearl-metal-earring/p/itm40da9b9e60d62'], ['SARFPCW88MX53GYF', 'Flip The Style\xa0Floral Print Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-floral-print-bollywood-georgette-chiffon-saree/p/itmef0a27a7050d3'], [nan, nan, nan], ['TOPGQ8USK4GZEFBP', 'ALEAF\xa0Casual Regular Sleeves Striped Women Black Top', 'https://www.flipkart.com/aleaf-casual-striped-women-black-top/p/itm96edb491303a9'], ['SNDGHZY9TQCGX5WA', 'Bucik\xa0Men Olive Sports Sandal', 'https://www.flipkart.com/bucik-men-olive-sports-sandals/p/itm74389fda642e3'], ['ERGGJ4S7AHTX5FHP', 'Divastri\xa0Jhumka combo earrings jhumki Traditional South indian Temple jhumkas women girl Beads, Pearl Metal Jhumki Earring', 'https://www.flipkart.com/divastri-jhumka-combo-earrings-jhumki-traditional-south-indian-temple-jhumkas-women-girl-beads-pearl-metal-earring/p/itm40da9b9e60d62'], ['DREGCVBN3GHFK4FT', 'heer tex\xa0Women Maxi Pink Dress', 'https://www.flipkart.com/heer-tex-women-maxi-pink-dress/p/itm278fbd9f5e6e3']]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['ETHG9HUXXKG7RWGP', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm78f08b4f0a851'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['SHTGMK2YHQWFZY3U', 'VTEXX\xa0Men Regular Fit Solid Cut Away Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-white-shirt/p/itmc5dc05890b7d7'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21']]</t>
+          <t>[['TOPG9HBVHGG85NNR', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Green, White Top', 'https://www.flipkart.com/kassually-casual-striped-women-green-white-top/p/itmea363e00220c5'], ['SHOGZUE9R2ZE73NU', 'BUCKAROO\xa0ZEKI Outdoors For Men', 'https://www.flipkart.com/buckaroo-zeki-outdoors-men/p/itm9d09ac989df74'], ['SHOFNFG6HUKEBKME', 'Shoe Island\xa0Solid-X Dark Green Olive Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-dark-green-olive-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm3944310efb633'], ['JEAGPGKHTJZFDTYQ', 'BEING HUMAN\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-slim-men-grey-jeans/p/itm45ae8ba883649'], ['SNDGNZJNZ6SFYFRK', 'World Wear Footwear\xa0Men White, Blue Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-blue-clogs/p/itm3259840b48685'], ['ERGFYRD3ZZZTMZAU', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Antique 3 Three Layered Jhumki Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME129 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-antique-3-three-layered-jhumki-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-gold-jhumki-me129-brass-copper-metal-alloy-earring/p/itm3986cce7c4c64'], ['DREG9XTNGE2AQZFH', 'MUDRIKA\xa0Women Maxi Black, Blue Dress', 'https://www.flipkart.com/mudrika-women-maxi-black-blue-dress/p/itme7fbc6955149b']]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>[['SHTG8JPZHSUJA9JX', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-red-shirt/p/itmad59f417d38d7'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d']]</t>
+          <t>[['SNDGGHQYK5QFBBVY', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itmf240452b167fc'], ['SGLEC9FKPFYMHZJT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (55)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmec9fkzzxwky2g'], ['LCHGZ7DWZEV76B7T', 'DHAVDI ENTERPRISE\xa0Checkered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-checkered-semi-stitched-lehenga-choli/p/itm9d2307dd3248b'], ['ERGGJ4VDHEVYY9CG', 'Divastri\xa0Traditional Meenakari Peacock jhumkas Jhumka earrings Moti South indian Temple Beads, Pearl, Cubic Zirconia Metal Drops &amp; Danglers, Stud Earring, Earring Set, Jhumki Earring', 'https://www.flipkart.com/divastri-traditional-meenakari-peacock-jhumkas-jhumka-earrings-moti-south-indian-temple-beads-pearl-cubic-zirconia-metal-drops-danglers-stud-earring-earring-set-jhumki/p/itme69111ece2b46'], ['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1'], ['SHOF9EYGF8GFT4GW', 'Shoe Island\xa0Leatherette Heavy Duty Lace-Up Military High Ankle Length Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-leatherette-heavy-duty-lace-up-military-high-ankle-length-casual-long-boots-men/p/itmf9es5fyk5f9tn'], ['SHOGEBKZD49WDHGQ', 'Shoe Icon\xa0Shoes Icon Casual Fabric Ankle Length Boots For Men Boots For Men', 'https://www.flipkart.com/shoe-icon-shoes-casual-fabric-ankle-length-boots-men/p/itm13317aebdb0ee'], ['SHOFNY4YH4YKZBT2', 'Shoe Island\xa0Solid-X Beige Tan Brown Leatherette High Ankle Length Tough Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-solid-x-beige-tan-brown-leatherette-high-ankle-length-tough-casual-long-boots-men/p/itm1c647e6f931bc'], ['SNDGJQV5XVG86H6Y', 'Svaar\xa0Men Off White Clogs Sandal', 'https://www.flipkart.com/svaar-men-off-white-clogs/p/itm0495b9de56657'], ['ERGFWWVY4Q7JB6KV', 'Divastri\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Antique Micro Ear rings for girls women Golden Copper, Brass Jhumki Earring', 'https://www.flipkart.com/divastri-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-antique-micro-ear-rings-girls-women-golden-copper-brass-jhumki-earring/p/itmd3c727fd8c0c5'], ['SNDGHFRSSDMZTCHC', 'Svaar\xa0Men Off White Clogs Sandal', 'https://www.flipkart.com/svaar-men-off-white-clogs/p/itm349ca822122e1'], ['JEAGG6JFGHTZV8UM', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itmeb4632b593b8c'], [nan, nan, nan], ['TOPG9HBWUWZY26ST', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Black, Grey Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-grey-top/p/itm2108dd3cdcf81'], ['SGLEC9FKPFYMHZJT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (55)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itmec9fkzzxwky2g']]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>618579</t>
+          <t>639951</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Desiree</t>
+          <t>Alexis</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Conley</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['SHTGHQU4E3EHCEKT', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-dark-blue-shirt/p/itmf1fd163332f06'], ['SHTGHQU4E3EHCEKT', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-dark-blue-shirt/p/itmf1fd163332f06'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['DREGK5N7FGKW56HH', 'maruti fab\xa0Women Fit and Flare Green, Black Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-green-black-dress/p/itmc94e7722920e1'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921']]</t>
+          <t>[[nan, nan, nan], ['STBFWE59PZPSKYSN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6cea415e3ffd5'], ['LCHFVKYVSF8MFJHB', 'Crissy\xa0Embellished Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embellished-semi-stitched-lehenga-choli/p/itm84c0a4df7a080']]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6'], ['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], ['SHTGPYYETXNK5GZ6', 'ARROW\xa0Men Slim Fit Printed Formal Shirt', 'https://dl.flipkart.com/dl/arrow-men-printed-formal-purple-shirt/p/itmc06ade43f36d0'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921'], ['SHTFZHXDR8TAHB5J', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-white-shirt/p/itm636f0af915b48']]</t>
+          <t>[['SGLGKN8HHNPBGUGT', 'Silver Kartz\xa0UV Protection Aviator Sunglasses (50)', 'https://www.flipkart.com/silver-kartz-aviator-sunglasses/p/itm9dfc11c9354e0'], ['SHOGKYNZE9963JGK', 'Hitpro\xa0BwBoots6 Boots For Men', 'https://www.flipkart.com/hitpro-bwboots6-boots-men/p/itma159997372a4f'], ['TOPGZDYZGSFQTA5F', 'Prahant Lifestyle\xa0Casual Regular Sleeves Striped Women Green Top', 'https://www.flipkart.com/prahant-lifestyle-casual-striped-women-green-top/p/itmcedde2eacf19c'], ['SGLFYHEVCZYJYF4T', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm61a1dd6e234c0'], [nan, nan, nan], ['JEAGGNWEZHS22WEQ', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm64b0fa149becc'], ['SNDG8TRXSYYXCYM7', 'BOLTAGO\xa0Men Tan Sandal', 'https://www.flipkart.com/boltago-men-tan-sandals/p/itm8cd3dc2727f21'], ['LCHGEG67R2WCHKWC', 'Zopviz Villa\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/zopviz-villa-self-design-semi-stitched-lehenga-choli/p/itmd61aca9ea6421']]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>[[nan, nan, nan], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c'], ['KDEGZBRQHU9XSPVN', 'Flip The Style\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itm732737ad21ee7'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], ['TSHGGTH3ZZZJFJFR', 'London Hills\xa0Men Striped Hooded Neck Cotton Blend Pink T-Shirt', 'https://www.flipkart.com/london-hills-striped-men-hooded-neck-pink-t-shirt/p/itmf148db8f2ffeb'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['KDEGZBRQS9NGXJY8', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmcf36bf6cd2c2a'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d'], ['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6']]</t>
+          <t>[['SHOF9EYGF8GFT4GW', 'Shoe Island\xa0Leatherette Heavy Duty Lace-Up Military High Ankle Length Casual Long Boots Boots For Men', 'https://www.flipkart.com/shoe-island-leatherette-heavy-duty-lace-up-military-high-ankle-length-casual-long-boots-men/p/itmf9es5fyk5f9tn'], ['LCHG4HH8NU7SZXP7', 'aadhiya impex\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/aadhiya-impex-embroidered-semi-stitched-lehenga-choli/p/itma8a4bb798eefd'], ['DREFPYHS47NF5WTE', 'KASSUALLY\xa0Women Maxi Red, Black Dress', 'https://www.flipkart.com/kassually-women-maxi-red-black-dress/p/itm7dff801618968'], [nan, nan, nan], ['SNDGAEGAYANA2DEC', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm50a6afdc80d7c'], ['JEAGPGNUSURYXFVN', 'BEING HUMAN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-regular-men-grey-jeans/p/itmab42d2596d878'], ['JEAGPGNUSURYXFVN', 'BEING HUMAN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-regular-men-grey-jeans/p/itmab42d2596d878'], ['ERGG7G64BMZ3KEPC', 'MEENAZ\xa0Traditional South indian Temple Jewellery pearl moti Gold plated Matte Finish small studs Peacock Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised tops golden earrings jhumki earing Combo pack set kaan jumkas Stud Tops Meenakari Jhumka Ethnic Antique jhumkas multi ear rings for women girls ladies lovers valentine gifts Latest design 6 pink white black maroon green red Set JHUMKI COMBO-ME013 Beads, Pearl Metal Drops &amp; Danglers, Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-pearl-moti-gold-plated-matte-finish-small-studs-peacock-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-tops-golden-earrings-jhumki-earing-combo-pack-set-kaan-jumkas-stud-meenakari-jhumka-ethnic-antique-jhumkas-multi-ear-rings-women-girls-ladies-lovers-valentine-gifts-latest-design-6-pink-white-black-maroon-green-red-combo-me013-beads-metal-drops-danglers-earring-set/p/itmfcbcb82c7e4f8']]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>290715</t>
+          <t>302763</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Bryan</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[['KDEGM6XFEYD3HTQ9', 'Flip The Style\xa0Disney Princess Girls Below Knee Party Dress', 'https://www.flipkart.com/flip-style-girls-below-knee-party-dress/p/itm3fe8a1741ed87']]</t>
+          <t>[['SGLFYHEWMCHMTSEZ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm8787cf8e15e68'], ['SGLGMVDKAHECQCUU', 'Sunglance\xa0UV Protection, Gradient, Mirrored, Riding Glasses Wayfarer Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-wayfarer-sunglasses/p/itm7a90b27e213d4'], ['SHOGG5FT9WTYYYFZ', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itmc03adefc7970a'], ['SRWFJKBYJFNUWCWH', 'Honey Fashion Solid SherwaniHoney Fashion Solid Sherwani', 'https://www.flipkart.com/honey-fashion-solid-sherwani/p/itmf0c4a1750a0c8'], ['JEAGGNWEZHS22WEQ', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm64b0fa149becc'], ['JEAFYQGSWHY5CFMG', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itmf8478eedf6bf6']]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[[nan, nan, nan], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5']]</t>
+          <t>[['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['ERGFMZ59ZKWH9FCQ', 'MEENAZ\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop-BALI-M254 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-m254-metal-earring-hoop-earring/p/itme0f71a07144ba'], ['SGLG8W5CTCQJAZWP', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmea2a902dbc0dd'], ['SGLFW24UKQHWGT9G', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmca1124c55358b'], ['JEAGF5JU7PKYFBYN', 'KETCH\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/ketch-skinny-men-grey-jeans/p/itmb07971c2f06d5'], ['ERGGD4DPVUGB2TRV', 'A1 Bhumika Trendz\xa0Floral Kundan Chandbali Earring(red) Metal Drops &amp; Danglers', 'https://www.flipkart.com/a1-bhumika-trendz-floral-kundan-chandbali-earring-red-metal-drops-danglers/p/itm2c82e90770b04'], [nan, nan, nan], ['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], ['SGLFYHEWMCHMTSEZ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itm8787cf8e15e68'], ['ERGFMWQ8Q2MK97H3', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M204 Cubic Zirconia Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m204-cubic-zirconia-metal-earring-earring/p/itm65f1b1a4078a8'], ['JEAGPGKHWRTQTU7M', 'BEING HUMAN\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-skinny-men-grey-jeans/p/itmfcd41fd60eb59'], ['SHOGMGQ4CSMEDZPG', 'HX London\xa0Casuals For Men', 'https://dl.flipkart.com/dl/hx-london-casuals-men/p/itma41d273b347b6'], ['SGLG8W5CTCQJAZWP', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmea2a902dbc0dd'], ['SHOGAXE5PMXGHE4F', 'Viv\xa0Casual Chukka Biker Boots For Men', 'https://www.flipkart.com/viv-casual-chukka-biker-boots-men/p/itm23d5fee028835'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>[['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['DREGHH44GE8HGETB', 'SClassicFashion\xa0Women Empire Waist Purple Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-purple-dress/p/itm9fac38bb4fd68']]</t>
+          <t>[[nan, nan, nan], ['ERGG4YGVD3ZKHAJP', 'NIMZ\xa0Mens &amp; Women Fashion Jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Combo Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced shape Bali Ear rings Stud Tops Mens Earing Combo for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Stud Earring, Hoop Earring, Plug Earring, Tunnel Earring, Earring Set, Clip-on Earring, Drops &amp; Danglers, Huggie Earring', 'https://www.flipkart.com/nimz-mens-women-fashion-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-combo-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-set-pack-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-multi-hoops-salman-khan-style-cubic-zirconia-metal-earring-tunnel-earring-set-clip-on-drops-danglers-huggie/p/itmd917caa438e11'], ['SHOGMMHVCJSXBKMH', 'SHOEFLY\xa0Exclusive Attractive Collection of Stylish &amp; Comfortable Shoes &amp; Sneakers Boots For Men', 'https://www.flipkart.com/shoefly-exclusive-attractive-collection-stylish-comfortable-shoes-sneakers-boots-men/p/itm68366de37a72a'], [nan, nan, nan], ['KETGHCVZXEHYET5M', 'SEMINO\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/semino-boys-festive-party-wedding-sherwani-churidar-set/p/itmc621cb28d13c9'], ['SGLFW24UKQHWGT9G', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmca1124c55358b'], ['SGLG8X54BVYQ92MG', 'Ted Smith\xa0Gradient Aviator Sunglasses (50)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm4b5b64ff0baba'], [nan, nan, nan], [nan, nan, nan], ['SGLG74MTJDYGMWYA', 'Eyewearlabs\xa0Polarized, UV Protection Aviator Sunglasses (56)', 'https://www.flipkart.com/eyewearlabs-aviator-sunglasses/p/itmfe8ec16ab44b4']]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>580077</t>
+          <t>430095</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>Mallory</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Turks and Caicos Islands</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], [nan, nan, nan], ['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['ETHGAT6DDANANQ7K', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6157867ed65b9'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['SHOG9MZFBP9BGCDX', 'RapidBox\xa0Sneakers For Men', 'https://www.flipkart.com/rapidbox-sneakers-men/p/itm3e9655a4a9be5']]</t>
+          <t>[['STBFWE59TWRHRHHD', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8c96d76c3b950'], ['ERGGHWHV2ZFZ95HY', 'MEENAZ\xa0traditional earrings jhumki women daily use South Indian Temple Jhumkas jhumka Brass, Stone, Metal, Alloy, Copper Clip-on Earring, Drops &amp; Danglers, Earring Set, Ear Thread, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-earrings-jhumki-women-daily-use-south-indian-temple-jhumkas-jhumka-brass-stone-metal-alloy-copper-clip-on-earring-drops-danglers-earring-set-ear-thread/p/itm8362d3d2707d1'], ['STBFZKE8F6SEUNUA', 'ABYS\xa0Genuine Leather Sling Small Travel Bag For Men &amp;Women Small Travel Bag  - Small', 'https://www.flipkart.com/abys-genuine-leather-sling-small-travel-bag-men-women/p/itmd6f51022c2e0f'], ['WSBFW2VBDZKYYYAN', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown/p/itm69c2f7bcc62cd'], ['LCHG4QA26Y7KCHKX', 'WARTHY ENETERPRICE\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/warthy-eneterprice-embroidered-semi-stitched-lehenga-choli/p/itm04f22d25adb85']]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['DREGK5N74KNXDYYY', 'maruti fab\xa0Women Fit and Flare Yellow Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-yellow-dress/p/itm968df60d0fb1d'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], [nan, nan, nan], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], ['ETHGYA5FZKCRCKZ3', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6d37aebb829e3'], ['DREGK7ZJQDGNFFU6', 'maruti fab\xa0Women Fit and Flare Light Blue, White, Grey Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-light-blue-dress/p/itm4e39a71f1b8c8'], ['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c'], ['DREGK5N7JNTFEGNH', 'maruti fab\xa0Women Fit and Flare Light Blue Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-light-blue-dress/p/itm2904de16bdfa7'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3'], ['KDEGN27KZXJBH8ZY', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm6a6982bfa83c3']]</t>
+          <t>[['DREGPY9NHJFUSMZZ', 'pavitra fashion\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/pavitra-fashion-women-a-line-multicolor-dress/p/itm15acd859d2647'], ['SARGGZDN8HP68U9V', 'Heerali\xa0Embellished Bollywood Lycra Blend Saree', 'https://www.flipkart.com/heerali-embellished-bollywood-lycra-blend-saree/p/itm47eca91f7551c'], [nan, nan, nan], ['STBFVU6D9RNH6KDH', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm9bb9935c8e313'], ['TOPG9HBWUWZY26ST', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Black, Grey Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-grey-top/p/itm2108dd3cdcf81'], ['SNDGAV8WADMQA3ZT', 'SFR\xa0Men Grey, Orange Clogs Sandal', 'https://www.flipkart.com/sfr-men-grey-orange-clogs/p/itm23ed71a06cffa'], ['DREFHGC3ZQ54KCG6', 'JWF\xa0Women Maxi Black Dress', 'https://www.flipkart.com/jwf-women-maxi-black-dress/p/itmfhgnwzcrqwefq'], ['TOPGG9ZCXMZ4BFFQ', 'KASSUALLY\xa0Casual Sleeveless Striped Women Black Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-top/p/itm875c2f10d5569'], ['LCHGMYMG5AXC6UGZ', 'Crissy\xa0Embroidered, Embellished, Self Design, Chevron/Zig Zag Semi Stitched Lehenga Choli', 'https://www.flipkart.com/crissy-embroidered-embellished-self-design-chevron-zig-zag-semi-stitched-lehenga-choli/p/itmd8c1bb45e9548'], ['JEAFYQGSDHFVZNNV', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm0698668514d10']]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>[['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7']]</t>
+          <t>[['CLTG96EFCQV79MSQ', 'WROOTED\xa0Party Gold  Clutch  - Regular Size', 'https://www.flipkart.com/wrooted-party-gold-clutch/p/itm82e9bbdbfd672']]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>633897</t>
+          <t>958455</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Melinda</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cantu</t>
+          <t>Ramirez</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>South Georgia and the South Sandwich Islands</t>
+          <t>Macao</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['SHTFKGPQPEBNHMFP', '5TH ANFOLD\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/5th-anfold-men-solid-formal-grey-shirt/p/itm527b60fe36863'], [nan, nan, nan], ['DREG6UP2BEEXXRZA', '7800 GROUP\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/7800-group-women-a-line-multicolor-dress/p/itm413f14c9bb0a8'], [nan, nan, nan], ['TSHGZFYAUGEH3AMB', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Black T-Shirt', 'https://www.flipkart.com/flyind-vogue-outfit-printed-men-round-neck-black-t-shirt/p/itm0f702dcc87551'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], [nan, nan, nan], [nan, nan, nan]]</t>
+          <t>[['JEAGG6DDDRRHF5QG', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm1a5faf2ca4cc6'], ['JEAFYQJ6KBAYYBZ8', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm604d87fa43dc9'], ['SHOGBVZFPF97GNMU', 'World Wear Footwear\xa0Running Shoes For Men', 'https://www.flipkart.com/world-wear-footwear-running-shoes-men/p/itm1f6033c2a559a'], [nan, nan, nan], ['SGLF7HGZKHHSTQ8H', 'GANSTA\xa0Gradient, UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/gansta-aviator-sunglasses/p/itmf7hmfp5r8hcdb'], [nan, nan, nan], ['RKSGN5PABSHCYQZE', 'Sakshi Enterprises\xa0Rucksack bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-enterprises-rucksack-bag-travel-men-tourist-backpack-hiking-trekking-camping-70-l/p/itm5ed8228a4d5d1'], ['ERGFGFTETUXZADXG', 'V L INTERNATIONAL\xa0Peacock oxidised Silver Plated Jhumka Earring Jewellery For Girls Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-peacock-oxidised-silver-plated-jhumka-earring-jewellery-girls-alloy-jhumki/p/itm364c7616e5280'], ['ERGG4YGVD3ZKHAJP', 'NIMZ\xa0Mens &amp; Women Fashion Jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Combo Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced shape Bali Ear rings Stud Tops Mens Earing Combo for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Stud Earring, Hoop Earring, Plug Earring, Tunnel Earring, Earring Set, Clip-on Earring, Drops &amp; Danglers, Huggie Earring', 'https://www.flipkart.com/nimz-mens-women-fashion-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-combo-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-set-pack-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-multi-hoops-salman-khan-style-cubic-zirconia-metal-earring-tunnel-earring-set-clip-on-drops-danglers-huggie/p/itmd917caa438e11'], [nan, nan, nan], ['KTAGBUHFSNVG4NZQ', 'Urban Creation\xa0Pack of 6 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/urban-creation-women-printed-straight-kurta/p/itmbe417c1f1b717'], [nan, nan, nan], ['KTAGJQF9G5NHSFCM', 'RAGMINE\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/ragmine-women-printed-straight-kurta/p/itm730ab91e97103'], ['SHOFENAFHYFBV33N', 'World Wear Footwear\xa0Latest Collection-1138 Stylish Casual Sports Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-latest-collection-1138-stylish-casual-sports-sneakers-men/p/itm592754103ce33']]</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['ETHFZ7GZPJBNQRSR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2379f8cf92ea8'], ['KPBGGZ3ZTZMWDS2Y', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itm13d3f1376ed20']]</t>
+          <t>[['RKSGND7KGXDHUDH8', 'mukay\xa0Rucksacks Bag Rucksack  - 55 L', 'https://www.flipkart.com/mukay-rucksacks-bag-rucksack-55-l/p/itm880f9bec41e22'], ['SGLFW24UKQHWGT9G', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmca1124c55358b'], ['BZRGGG26TPY39J4T', 'BASICS\xa0Men Solid Tuxedo Style Casual Blazer', 'https://www.flipkart.com/basics-solid-tuxedo-style-casual-men-blazer/p/itm227bd292d11db'], ['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1']]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>[['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['DREGK5N74KNXDYYY', 'maruti fab\xa0Women Fit and Flare Yellow Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-yellow-dress/p/itm968df60d0fb1d'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], ['DREGF4JQZGZXPTCG', 'JIYAKURTI\xa0Women Sheath Red Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-red-dress/p/itm0dd81ca0637a6'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['ETHGAT6DDANANQ7K', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6157867ed65b9'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c']]</t>
+          <t>[['KETFNFUVQGBQQWPE', 'AJ Dezines\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-wedding-sherwani-churidar-set/p/itmba461eb54fb09'], [nan, nan, nan]]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>627411</t>
+          <t>865923</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Norman</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['SHTGMNGQWHAEPFRH', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-pink-shirt/p/itm1eef15a93b093']]</t>
+          <t>[['ERGGFZBGHPGVZZPY', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -MENS EARRINGS COMBO-ME62 Metal Stud Earring, Hoop Earring, Earring Set, Clip-on Earring, Magnetic Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-mens-combo-me62-metal-earring-earring-set-clip-on/p/itmedca84a53fbc2'], ['SHOFGPP4ZCXYSXUH', 'LIONS RIDER\xa0Party Wear For Men', 'https://www.flipkart.com/lions-rider-party-wear-men/p/itmfgq86mgyzkygk'], [nan, nan, nan], ['KTAG79B5XZT6HJJX', 'JD FINISHING\xa0Women Embellished Viscose Rayon A-line Kurta', 'https://www.flipkart.com/jd-finishing-women-embellished-a-line-kurta/p/itm2f77c858c507d']]</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[[None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['KPBGH3XUBHGGZZKY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Shirt Trouser', 'https://dl.flipkart.com/dl/catty-baby-boys-girls-party-festive-shirt-trouser/p/itm748000500286e'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['SHTFKGPQPEBNHMFP', '5TH ANFOLD\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/5th-anfold-men-solid-formal-grey-shirt/p/itm527b60fe36863'], ['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a']]</t>
+          <t>[['SRWGZ4QY83V7NKEZ', 'ZARAK FASHION Mens Indo Western Sherwani Wedding Dress for Men Ethnic Wear - Blue Embroidered SherwaniZARAK FASHION Mens Indo Western Sherwani Wedding Dress for Men Ethnic Wear - Blue Embroidered Sherwani', 'https://www.flipkart.com/zarak-fashion-mens-indo-western-sherwani-wedding-dress-men-ethnic-wear-blue-embroidered/p/itm4ec4730b0a1c4'], [nan, nan, nan], ['KTAGZNV35AE7HHGV', 'EKASYA\xa0Women Embellished Silk Blend Straight Kurta', 'https://www.flipkart.com/ekasya-women-embellished-straight-kurta/p/itm309b9e32b6182']]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>[['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['DREGP6PFBJGFUBUA', 'HIVA TRENDZ\xa0Women Fit and Flare Black, Dark Green, Orange Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-black-dark-green-orange-dress/p/itm8e2355dfa8487'], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd'], [nan, nan, nan], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['DREGGSSRCSJHNNXR', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm3a05f3a87ad45']]</t>
+          <t>[['KETG9BFAFRVASPWF', 'juli bastralaya\xa0Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/juli-bastralaya-boys-wedding-sherwani-churidar-set/p/itm8d3ce9ee1afb9'], ['BZRGKFYZWM8YW92E', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma9a7bed92fa8b'], ['KTAGPRMTFCJPW856', '7800 GROUP\xa0Pack of 2 Women Floral Print Crepe Frontslit Kurta', 'https://www.flipkart.com/7800-group-women-floral-print-frontslit-kurta/p/itm89f2af15bb8ab'], ['SGLF84PQ95MAP857', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9qzhyj9w3'], ['SRWGHXFPXKZZDP8X', 'DEYANN Printed SherwaniDEYANN Printed Sherwani', 'https://www.flipkart.com/deyann-printed-sherwani/p/itmf6964353adc41'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], ['JEAGJPYUVPZGVXBJ', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itmf244a2c0ad6e9'], ['SHOGHQ35UK4SHADX', 'Floarkart\xa03 Inch Hidden Height Increasing All Purpose Elevator Sports Casual Shoes for Men Sneakers For Men', 'https://www.flipkart.com/floarkart-3-inch-hidden-height-increasing-all-purpose-elevator-sports-casual-shoes-men-sneakers/p/itma6f71f6af180c'], ['TVPGE9GW6WC9GMHQ', 'UNICRAFT Waist Bag\xa0\xa0(Red)UNICRAFT Waist Bag', 'https://www.flipkart.com/unicraft-waist-bag/p/itm8e4dd15a292c2']]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>503553</t>
+          <t>957129</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Deborah</t>
+          <t>Bradley</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Padilla</t>
+          <t>James</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4516,173 +4516,173 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924']]</t>
+          <t>[['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['TVPF6YZMMHFS6PWC', 'Nightstar Waist Bag\xa0\xa0(Blue)Nightstar Waist Bag', 'https://www.flipkart.com/nightstar-waist-bag/p/itmf6f4kgfnrpete'], ['SGLFYHEUHHFSWXAJ', 'OCHILA\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ochila-aviator-sunglasses/p/itmd32302564b877'], ['SHOGC5PERYBWE82Z', 'Denill\xa0Boots For Women', 'https://www.flipkart.com/denill-boots-women/p/itm63378d457a2f7'], ['JEAGGP6VKH4PYBRD', 'Styzon\xa0Men Boyfriend Mid Rise Blue Jeans', 'https://www.flipkart.com/styzon-boyfriend-men-blue-jeans/p/itmf7c8fe480bc9f'], ['SRWGHXFNXYHPGJ6V', 'DEYANN Printed SherwaniDEYANN Printed Sherwani', 'https://www.flipkart.com/deyann-printed-sherwani/p/itm8e802b96d44cd'], ['KTAGJMT6AXTGZ2GZ', 'DCPGARMENT\xa0Women Printed Cotton Rayon Straight Kurta', 'https://www.flipkart.com/dcpgarment-women-printed-straight-kurta/p/itm256563560ee8c'], ['STBFVU6DKMPB8ZQN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm4fc56d093ec74'], ['SGLGKZHXGEEF5ESQ', 'Eymen I\xa0Riding Glasses, UV Protection, Polarized, Mirrored, Night Vision, Others Spectacle , Retro Square, Aviator Sunglasses (Free Size)', 'https://www.flipkart.com/eymen-spectacle-retro-square-aviator-sunglasses/p/itmbd81e4dc64d64'], ['SRWGGGGAUSUGWTB4', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itm0f7c20bdf4910'], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['JEAFYQGT6MUEGD4G', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm6661721c5b993'], [nan, nan, nan], ['SGLGHBYAZFC4RGV5', 'Ted Smith\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm8da06b3c243bc']]</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], [nan, nan, nan], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['DREG6WSM9DAYAFZZ', 'Rudraaksha\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/rudraaksha-women-a-line-multicolor-dress/p/itmc2d4bba8d0d19'], ['SHOGHEXKXHGZNBX3', 'GO RIDE\xa0FOCUS Running Shoes For Men', 'https://www.flipkart.com/go-ride-focus-running-shoes-men/p/itm440b81e877636'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['KDEGZBRQFCZVJZGG', 'Flip The Style\xa0Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-casual-dress/p/itmea3af90c43921']]</t>
+          <t>[[nan, nan, nan], ['SRWFJHJFEYZ22N9W', 'Honey Fashion Printed SherwaniHoney Fashion Printed Sherwani', 'https://www.flipkart.com/honey-fashion-printed-sherwani/p/itm96090abcef258'], ['ERGG7MHUDVDNW8HV', 'MEENAZ\xa0Mens Earing &amp; Women Earring Fashion Jewellery Valentine gift Single Solitaire Silver Platinum Multi Black Blue Golden Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish daily Use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back God Mahadev Mahakal Shiv OM Stone CZ AD Earrings Combo Set pack Salman Khan Kaju ear rings Stud Tops for Men may Boyfriend Boys Girls Gents ladies unisex male girls women Kids Hoop bali jewellery stainless Steel Daily non pierced Multicolour shape Boy earrings -MENS EARRING COMBO-ME95 Crystal, Cubic Zirconia, Diamond Alloy, Metal, Stainless Steel, Brass, Copper, Stone, Crystal Hoop Earring, Stud Earring, Earring Set, Huggie Earring, Clip-on Earring, Tunnel Earring', 'https://www.flipkart.com/meenaz-mens-earing-women-earring-fashion-jewellery-valentine-gift-single-solitaire-silver-platinum-multi-black-blue-golden-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-god-mahadev-mahakal-shiv-om-stone-cz-ad-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-men-may-boyfriend-boys-girls-gents-ladies-unisex-male-kids-hoop-stainless-steel-non-multicolour-shape-boy-mens-combo-me95-crystal-cubic-zirconia-diamond-alloy-metal-steel-brass-copper-stone-crystal-earring-set-huggie-clip-on-tunnel/p/itmc82b9b0c0ffbc'], ['KETG9BFAFRVASPWF', 'juli bastralaya\xa0Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/juli-bastralaya-boys-wedding-sherwani-churidar-set/p/itm8d3ce9ee1afb9'], ['BZRGKFYZWM8YW92E', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma9a7bed92fa8b'], ['BKPGHETFAGEKFH4K', 'Flyscape\xa0Medium 25 L Laptop Backpack Terror Black bag', 'https://www.flipkart.com/flyscape-terror-black-bag-25-l-backpack/p/itme1d476f73455f'], ['JEAFYQGT6MUEGD4G', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm6661721c5b993'], ['KETGCYUFZZEPKHFV', 'KAVSHIL\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/kavshil-boys-festive-party-sherwani-churidar-set/p/itm0d764d376701f'], ['JEAGC5WZGSSSEVP3', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm6222d4620ce65']]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>[['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5']]</t>
+          <t>[[nan, nan, nan], ['BZRGNH22GGMAYMMF', 'Click One\xa0Men &amp; Women Solid Double Breasted Formal Blazer', 'https://www.flipkart.com/click-one-solid-double-breasted-formal-men-women-blazer/p/itmcc19802f2f97b'], ['SHOGPJWYDHCQPHKT', 'Aragats\xa0Boots For Men', 'https://www.flipkart.com/aragats-boots-men/p/itmf325ae71391e8'], ['ERGGYHZRTQUJ4SXZ', 'MEENAZ\xa0Fashion Multi jewellery Valentine Single Golden Silver Black Surgical Plug Hoops Ear piercing Studs Steel Jewelry Style Stylish Fancy Party wear Daily use simple Magnetic Round MultIcolor Bali Hoops Earrings Combo Set pierced Ear rings Stud Tops Round Dumbell Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry -MENS EARRINGS COMBO-ME36 Alloy, Metal, Stainless Steel, Brass, Steel Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multi-jewellery-valentine-single-golden-silver-black-surgical-plug-hoops-ear-piercing-studs-steel-jewelry-style-stylish-fancy-party-wear-daily-use-simple-magnetic-round-multicolor-bali-earrings-combo-set-pierced-rings-stud-tops-dumbell-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-pack-mens-combo-me36-alloy-metal-stainless-steel-brass-earring/p/itm1eb03158bdf33'], ['KTAFTA63UCB95RVD', 'ANTARMANA\xa0Women Block Print Viscose Rayon Flared Kurta', 'https://www.flipkart.com/antarmana-women-block-print-flared-kurta/p/itm2c2525e21fe7c'], ['KRTFZA3G5ZWKYDAS', 'ANTARMANA\xa0Women Floral Print Cotton Blend Frontslit Kurta', 'https://www.flipkart.com/antarmana-women-floral-print-frontslit-kurta/p/itm5d51d94b2f13b']]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>867939</t>
+          <t>366501</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Bridges</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['KPBGZTU5SYMYZM54', 'findersapparels\xa0Baby Boys Casual T-shirt Shorts', 'https://www.flipkart.com/findersapparels-baby-boys-casual-t-shirt-shorts/p/itmae131e0a1c005'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], [nan, nan, nan], ['ETHGZ84ZYKH3JTKX', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6fed17e59bdfc'], ['CTPGG9YZZ7EEGKPU', 'Lucky Jewellery Alloy Cufflink Set\xa0\xa0(Gold)Lucky Jewellery Alloy Cufflink Set', 'https://www.flipkart.com/lucky-jewellery-alloy-cufflink-set/p/itmd0cee5db6958f'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79']]</t>
+          <t>[['JEAGEKQZDKZANDRP', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Blue Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-blue-jeans/p/itm094f7e29c58f6'], ['JEAGPGKHTJZFDTYQ', 'BEING HUMAN\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/being-human-slim-men-grey-jeans/p/itm45ae8ba883649'], [nan, nan, nan], ['ERGFMZ59ZKWH9FCQ', 'MEENAZ\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop-BALI-M254 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-m254-metal-earring-hoop-earring/p/itme0f71a07144ba'], ['KTAGBUHFSNVG4NZQ', 'Urban Creation\xa0Pack of 6 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/urban-creation-women-printed-straight-kurta/p/itmbe417c1f1b717'], ['KTAGPRMTFCJPW856', '7800 GROUP\xa0Pack of 2 Women Floral Print Crepe Frontslit Kurta', 'https://www.flipkart.com/7800-group-women-floral-print-frontslit-kurta/p/itm89f2af15bb8ab']]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], ['SHOGHEYCGRZZP4YZ', 'leo shoes\xa0Leos Fitness Shoes Mens Jungle Hiking Outdoor Boots High Tops For Men', 'https://dl.flipkart.com/dl/leo-shoes-leo-s-fitness-men-s-jungle-hiking-outdoor-boots-high-tops-men/p/itm525a071b887a4'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['ETHFZ7GZUT2YCFPH', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm405019328c441'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['KTAG5EEYH65SPGT8', 'VESICLE\xa0Women Self Design Georgette Frontslit Kurta', 'https://www.flipkart.com/vesicle-women-self-design-frontslit-kurta/p/itmd4ec0114b5f5d'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], [nan, nan, nan], ['DREGK7N2FHSHZHVG', 'maruti fab\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-pink-dress/p/itm69cbe420735fd']]</t>
+          <t>[['STBFWE59RW9YTGZP', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8f45129ca2ffc'], ['JEAGG6JFGHTZV8UM', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itmeb4632b593b8c'], [nan, nan, nan], ['KTAFWNUYBFZPBDQ9', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmf62f03e6220a5'], ['JEAGJ4YG3RHGRUSH', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma71c6a67263a9'], ['SUIGHJKZPUGAEJZB', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itm6b6ada44449b3'], [nan, nan, nan], ['JEAFYQGSHZYTZP5K', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm5cbcb8da0787a']]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>[['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['KTAGGF8UCCJFR6EZ', 'DSK STUDIO\xa0Pack of 2 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/dsk-studio-women-printed-straight-kurta/p/itm59ce38d4e6ff6']]</t>
+          <t>[['JEAGGNWEZHS22WEQ', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm64b0fa149becc'], ['SGLFKG6F8GJVKKGJ', 'Ted Smith\xa0Gradient Aviator Sunglasses (59)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmb31f478e20f4a'], ['KTAGPZCCK7URHYWK', 'INEZAA\xa0Pack of 2 Women Floral Print, Colorblock Crepe Straight Kurta', 'https://www.flipkart.com/inezaa-women-floral-print-colorblock-straight-kurta/p/itm54c15e0c712e7'], ['JEAGG6DDDRRHF5QG', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm1a5faf2ca4cc6'], ['ERGFMWSZNGTPNBEU', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M207 Cubic Zirconia Metal Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m207-cubic-zirconia-metal-earring/p/itm8bd0e45454114'], ['STBFVU6DPJ3FPYEC', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6d75b934f6416'], ['SHOFH5SHAFQMTHZB', 'CAMRO\xa0Hulk-02 Lace Up Ankle Boots, Rexine Upper &amp; PVC Sole for Trekking, Hiking &amp; More Outdoors For Men', 'https://www.flipkart.com/camro-hulk-02-lace-up-ankle-boots-rexine-upper-pvc-sole-trekking-hiking-more-outdoors-men/p/itm672804cec90c1']]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>665835</t>
+          <t>302595</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Douglas</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Rivera</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Heard Island and McDonald Islands</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[['DREGKSWSBZWNZSH9', 'fashionwrld\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/fashionwrld-women-a-line-multicolor-dress/p/itm571db53ad2432'], ['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], ['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['SHTGG3Z5AMHEVHKN', 'ARROW\xa0Men Slim Fit Printed Spread Collar Formal Shirt', 'https://www.flipkart.com/arrow-men-printed-formal-black-shirt/p/itm47f503600978f']]</t>
+          <t>[['SGLFKG6F8GJVKKGJ', 'Ted Smith\xa0Gradient Aviator Sunglasses (59)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmb31f478e20f4a'], ['SHOGYZA3C44DPN4N', 'World Wear Footwear\xa0Combo Pack of 3 New Affordable Collection of Stylish Walking Sports Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-combo-pack-3-new-affordable-collection-stylish-walking-sports-shoes-men/p/itm81d0320883973'], ['ETHG6N38SRXSXWH2', 'Zastraa\xa0Women Blazer and Pant Set Solid Suit', 'https://www.flipkart.com/zastraa-blazer-pant-set-solid-women-suit/p/itm5f0e51eec9542'], ['HMBG4PXPTFF5ZCVV', 'ABYS\xa0Men &amp; Women Pink, Blue Messenger Bag - Regular Size', 'https://www.flipkart.com/abys-men-women-pink-blue-messenger-bag/p/itm0e014c86b1526'], ['JEAGJ4YGATHBBKRV', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm04eca49c50ec0'], ['KTAGJQF9GCNAFVRW', 'RAGMINE\xa0Women Printed Viscose Rayon Straight Kurta', 'https://www.flipkart.com/ragmine-women-printed-straight-kurta/p/itmcd891c4aacedb'], ['SRWGHNMGJAJDAX67', 'PSKS ETHNIC WEAR HAND SHERWANI Embellished SherwaniPSKS ETHNIC WEAR HAND SHERWANI Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-hand-sherwani-embellished/p/itma66e6b95307f9'], ['SGLGHBYCVQHGYAQT', 'Ted Smith\xa0UV Protection Aviator Sunglasses (60)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmdb3142fd891f7']]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['ETHFZGYAFRWZAEGV', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itme33ddb103608e'], ['SHTGB79SGHYVBMXG', 'FUBAR\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fubar-men-solid-formal-grey-shirt/p/itmaea499ea4ffef'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15']]</t>
+          <t>[[nan, nan, nan], ['BZRGNEGTPCJM4UEN', 'Abc Garments\xa0Men &amp; Women Self Design Double Breasted Casual Blazer', 'https://www.flipkart.com/abc-garments-self-design-double-breasted-casual-men-women-blazer/p/itm1abc11ad82934'], ['BZRGGG26QMRXKGSD', 'BASICS\xa0Men Solid Tuxedo Style Casual Blazer', 'https://www.flipkart.com/basics-solid-tuxedo-style-casual-men-blazer/p/itm35cdfec8d8a0e'], ['SUIFYUYSTXUANFJA', 'TAHVO\xa0Men Black men Bandhgala suit Solid Suit', 'https://www.flipkart.com/tahvo-black-men-bandhgala-suit-solid/p/itm744a583c6fa83'], ['SGLGFYDUXM8KCHPD', 'VINCENT CHASE\xa0by Lenskart Polarized, UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/vincent-chase-lenskart-aviator-sunglasses/p/itm6d19976cb47a0']]</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>[['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d'], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['ETHGD7N2HCAXXZRD', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itm9d5a9399bf346'], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['SHTGHQU4E3EHCEKT', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-dark-blue-shirt/p/itmf1fd163332f06'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], ['KDEGN6PTPGJUDP9C', 'Manaitri\xa0Barbie Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itm69a0d3712a2bb'], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['SHOG7DM3AXNK9DKV', 'bacca bucci\xa0MOUNTAIN Splash proof full Grain Leather biker Boots Trekking Hiking with Fur Boots For Men', 'https://www.flipkart.com/bacca-bucci-mountain-splash-proof-full-grain-leather-biker-boots-trekking-hiking-fur-men/p/itm6b40c995e679e']]</t>
+          <t>[['SLBGDUZZ2B3BZBA8', 'CarryTrip\xa0Black Men &amp; Women Shoulder Bag', 'https://www.flipkart.com/carrytrip-black-shoulder-bag-crossbody-unisex-chest-travelling-adjustable-strap/p/itm153b83ca4d421'], ['SGLF84PQ95MAP857', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9qzhyj9w3'], ['ERGFGFTETUXZADXG', 'V L INTERNATIONAL\xa0Peacock oxidised Silver Plated Jhumka Earring Jewellery For Girls Alloy Jhumki Earring', 'https://www.flipkart.com/v-l-international-peacock-oxidised-silver-plated-jhumka-earring-jewellery-girls-alloy-jhumki/p/itm364c7616e5280'], ['SUIFYUYSTXUANFJA', 'TAHVO\xa0Men Black men Bandhgala suit Solid Suit', 'https://www.flipkart.com/tahvo-black-men-bandhgala-suit-solid/p/itm744a583c6fa83'], [nan, nan, nan], ['KTAGNYUGCYXCBGS6', 'Tarannum\xa0Women Printed Nylon Straight Kurta', 'https://www.flipkart.com/tarannum-women-printed-straight-kurta/p/itmd9f6c87633a8c'], ['STBFWE59RW9YTGZP', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm8f45129ca2ffc']]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>647643</t>
+          <t>418113</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Jenny</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Richardson</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Guernsey</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], [nan, nan, nan], ['ETHFZZ75QGF67ZCP', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm06d3432c389d1'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], [nan, nan, nan], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['KDEGM6XFZUASQUXE', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itmab209709e46f7'], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], ['DREG9Z7GSHFKZAGC', 'Nidhi Collection\xa0Women A-line Blue, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-blue-white-dress/p/itmf19833b19d80a'], ['SHTG89X4H9Z432KD', 'EVIQE\xa0Men Regular, Slim Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/eviqe-men-solid-casual-black-shirt/p/itm7238a2a3a9322'], ['DREGK7NF5TZUDQMN', 'maruti fab\xa0Women Fit and Flare Blue Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-blue-dress/p/itm78ad1a572b2ea'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc']]</t>
+          <t>[['SNDGQ7AWJC9PCKKQ', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itme35ac2159acd5'], [nan, nan, nan], ['JEAGGNWEZHS22WEQ', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm64b0fa149becc'], ['SARFPCW88MX53GYF', 'Flip The Style\xa0Floral Print Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-floral-print-bollywood-georgette-chiffon-saree/p/itmef0a27a7050d3'], ['SNDFYUYBFHYG5XDM', 'Paragon\xa0Men K1403G Stylish Lightweight Daily Durable Comfortable Formal Casuals Black Sports Sandal', 'https://www.flipkart.com/paragon-k1403g-stylish-lightweight-daily-durable-comfortable-formal-casuals-men-black-sports-sandals/p/itm8cea38f5c48f1']]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['TSHGZFYAUQZHQYGS', 'FLYIND VOGUE OUTFIT\xa0Men Printed Round Neck Poly Cotton Grey T-Shirt', 'https://dl.flipkart.com/dl/flyind-vogue-outfit-printed-men-round-neck-grey-t-shirt/p/itm32bafde6b4924'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], [None, 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-maroon-shirt/p/itmd1e2b3ebb2f1c'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], ['SHOGCG8VCXQ5DAWC', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm5fdaaaaf59928'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['DREG9Z7GJGUVATHA', 'Nidhi Collection\xa0Women A-line Pink Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-pink-dress/p/itmae09b6a5251d2'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c']]</t>
+          <t>[['SGLGZ9FPZ7GHHJGM', 'Resist\xa0Toughened Glass Lens, UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-aviator-sunglasses/p/itmd3b17e136a46a'], ['SHOGJ9KBJNGXHWZY', 'Shoe Island\xa0Robust-X ™ Leather Tan Brown Tough Lace Ups High Ankle Length Mens Casual Boots Boots For Men', 'https://www.flipkart.com/shoe-island-robust-x-leather-tan-brown-tough-lace-ups-high-ankle-length-mens-casual-boots-men/p/itm72065b42715ba'], ['SGLGMHPGQZKHRGTG', 'Sunglance\xa0Riding Glasses, UV Protection, Night Vision Round, Cat-eye Sunglasses (Free Size)', 'https://www.flipkart.com/sunglance-round-cat-eye-sunglasses/p/itm047911875c1c7'], ['SNDESJRKMWZVVUAC', 'Denill\xa0Women Multicolor Wedges Sandal', 'https://www.flipkart.com/denill-women-white-wedges/p/itmfdj2ub9gmyhp4'], ['ERGGJ4S9WMGCKJEH', 'Divastri\xa0Jhumka combo earrings jhumki Traditional South indian Temple jhumkas women girl Beads, Pearl Metal Jhumki Earring', 'https://www.flipkart.com/divastri-jhumka-combo-earrings-jhumki-traditional-south-indian-temple-jhumkas-women-girl-beads-pearl-metal-earring/p/itm64a8563dd855a']]</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>[['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0']]</t>
+          <t>[['TOPGG9ZCXMZ4BFFQ', 'KASSUALLY\xa0Casual Sleeveless Striped Women Black Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-top/p/itm875c2f10d5569'], ['TOPGJTFTHZFPYQH9', 'Sheetal Associates\xa0Casual Puff Sleeves Solid Women Pink Top', 'https://www.flipkart.com/sheetal-associates-casual-solid-women-pink-top/p/itm06c651a13d6bc'], ['TOPFAY4BGMKT4T68', 'KASSUALLY\xa0Casual Flared Sleeves Floral Print Women White Top', 'https://www.flipkart.com/kassually-casual-flared-sleeve-floral-print-women-white-top/p/itmfayamxh9kygt7'], ['SGLGHESCZPECGM9G', 'Ted Smith\xa0UV Protection Aviator Sunglasses (47)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm237836d10f0b0'], ['LCHGEG67R2WCHKWC', 'Zopviz Villa\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/zopviz-villa-self-design-semi-stitched-lehenga-choli/p/itmd61aca9ea6421'], ['SNDGMYFM8WQYZVG5', 'World Wear Footwear\xa0Men White Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-clogs/p/itm05bdbe9989203'], ['LCHGZ7DVUQM5GBWF', 'DHAVDI ENTERPRISE\xa0Embroidered Semi Stitched Lehenga Choli', 'https://www.flipkart.com/dhavdi-enterprise-embroidered-semi-stitched-lehenga-choli/p/itme9c9d6c640af8'], [nan, nan, nan], ['SHOGEBKZD49WDHGQ', 'Shoe Icon\xa0Shoes Icon Casual Fabric Ankle Length Boots For Men Boots For Men', 'https://www.flipkart.com/shoe-icon-shoes-casual-fabric-ankle-length-boots-men/p/itm13317aebdb0ee'], [nan, nan, nan], ['SARGN8PHNXKEGYNJ', 'Mervadiya\xa0Self Design Kanjivaram Pure Cotton, Cotton Silk Saree', 'https://www.flipkart.com/mervadiya-self-design-kanjivaram-pure-cotton-cotton-silk-saree/p/itm3bac59088d9a8'], [nan, nan, nan]]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>915783</t>
+          <t>881541</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Kenneth</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Fuller</t>
+          <t>Ellison</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4691,268 +4691,268 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[['DREGJ6RADZDUU7ZW', 'MISS AYSE\xa0Women Fit and Flare Pink Dress', 'https://www.flipkart.com/miss-ayse-women-fit-flare-pink-dress/p/itm80bdda748db2c'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d'], ['ETHFZ7GZ7YRGBAM7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm2b724b685d2c5'], ['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['SHTG6QDU5YJ7JQZ6', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-grey-shirt/p/itm713b9a36b8568'], ['KDEGN3AYRA7JGFHJ', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-midi-knee-length-casual-dress/p/itmabef3a95870ec'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8']]</t>
+          <t>[['KTAGBUHFSNVG4NZQ', 'Urban Creation\xa0Pack of 6 Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/urban-creation-women-printed-straight-kurta/p/itmbe417c1f1b717'], [nan, nan, nan], ['KETFVSNZFYGPBHHG', 'AJ Dezines\xa0Boys Festive &amp; Party Sherwani and Churidar Set', 'https://www.flipkart.com/aj-dezines-boys-festive-party-sherwani-churidar-set/p/itmc5aa12f052914'], ['SRWFJKBYJFNUWCWH', 'Honey Fashion Solid SherwaniHoney Fashion Solid Sherwani', 'https://www.flipkart.com/honey-fashion-solid-sherwani/p/itmf0c4a1750a0c8'], ['WSBFW2VBDZKYYYAN', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown/p/itm69c2f7bcc62cd'], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['KTAGFTZXDFC8CGQG', 'AO Fabrico\xa0Women Floral Print Cotton Rayon A-line Kurta', 'https://www.flipkart.com/ao-fabrico-women-floral-print-a-line-kurta/p/itmad0facf9bf967'], ['ERGFMZ5DZPAUKJS8', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -BALI-M259 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-bali-m259-metal-earring-earring/p/itmfdc570dc463f1'], [nan, nan, nan], ['ERGGPYYQWKWHZDDV', 'TLGS\xa0Golden kan chain Artificial Tops Earrings pack of 2 Brass, Metal Jhumki Earring', 'https://www.flipkart.com/tlgs-golden-kan-chain-artificial-tops-earrings-pack-2-brass-metal-jhumki-earring/p/itm360a32cb7d446'], ['BZRGKFYZWM8YW92E', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma9a7bed92fa8b']]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[['SHTGBXYVNQFKJUXR', 'FIBERMILL\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/fibermill-men-solid-formal-light-blue-shirt/p/itmd52b031869fd7'], ['SHTGEUM4RKPVGZGK', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-green-shirt/p/itm1d0de2ba9e5ad'], [nan, nan, nan], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['KPBGGZ3ZVTKKSM7H', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Waistcoat Pant, Bow Tie, Shirt', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-waistcoat-pant-bow-tie-shirt/p/itme2032a262c123'], ['DREGGEYXX3D8CKJF', 'Sheetal Associates\xa0Women Wrap Blue Dress', 'https://www.flipkart.com/sheetal-associates-women-wrap-blue-dress/p/itm6789b5c41b374'], [nan, nan, nan], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444']]</t>
+          <t>[['SHOFGPP4ZCXYSXUH', 'LIONS RIDER\xa0Party Wear For Men', 'https://www.flipkart.com/lions-rider-party-wear-men/p/itmfgq86mgyzkygk'], ['SUIGHJKZUZHRWEES', 'Mentoos\xa0Men Tuxedo Designer 2-Piece Suit Set with Peak Collar Solid Suit', 'https://www.flipkart.com/mentoos-tuxedo-designer-2-piece-suit-set-peak-collar-solid-men/p/itmf571baf78d2a2'], ['BZRFY6BZJRWPG9YG', 'Honey Fashion\xa0Men Solid Tuxedo Style Casual, Party, Festive &amp; Wedding Blazer', 'https://www.flipkart.com/honey-fashion-solid-tuxedo-style-casual-party-festive-wedding-men-blazer/p/itm40ac201244f7d'], ['RKSGQF3NVXU32SWD', 'EZRA\xa0Backpack UNISEX Water Proof Mountain RucksackHiking/Trekking/Camping Bag Rucksack  - 75 L', 'https://www.flipkart.com/ezra-backpack-unisex-water-proof-mountain-rucksackhiking-trekking-camping-bag-rucksack-75-l/p/itm32d5ec1ccf1fb'], ['TDHFWDFUEMMVRGNJ', 'ABYS Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack\xa0\xa0(Pink)ABYS Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking/p/itm7ad97f2a81157'], ['SGLGFYDUXM8KCHPD', 'VINCENT CHASE\xa0by Lenskart Polarized, UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/vincent-chase-lenskart-aviator-sunglasses/p/itm6d19976cb47a0'], ['SHOFJP8JHQ53BKWY', 'World Wear Footwear\xa0Running Shoes For Men Trekking Shoes,Comfortable For MenS Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-running-shoes-men-trekking-shoes-comfortable-men-s-sneakers/p/itm346aa535d0060'], ['KTAFZ9AFUWKZS4EB', 'NEW ETHNIC FASHION\xa0Women Printed Crepe Straight Kurta', 'https://www.flipkart.com/new-ethnic-fashion-women-printed-straight-kurta/p/itmd3ff25bd80950'], [nan, nan, nan], ['ERGGD4DPVUGB2TRV', 'A1 Bhumika Trendz\xa0Floral Kundan Chandbali Earring(red) Metal Drops &amp; Danglers', 'https://www.flipkart.com/a1-bhumika-trendz-floral-kundan-chandbali-earring-red-metal-drops-danglers/p/itm2c82e90770b04'], ['KTAGZCPXHMZFZRG5', 'Madhuram\xa0Women Embroidered Georgette Gown Kurta', 'https://www.flipkart.com/madhuram-women-embroidered-gown-kurta/p/itmdf4ab86f4a326'], ['STBFVU6DPJ3FPYEC', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6d75b934f6416'], ['ERGGMHHGFTBCK3GT', 'Shoshaa\xa0Gold-Plated handcrafted Sea Green Kundan-Studded Beaded Classic Drop Earrings Brass Drops &amp; Danglers', 'https://www.flipkart.com/shoshaa-gold-plated-handcrafted-sea-green-kundan-studded-beaded-classic-drop-earrings-brass-drops-danglers/p/itmb83f1c2fb1503'], ['ERGG4YFGDCURJDPE', 'shivay\xa0Mens Earring &amp; Women Earring Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press Mahadev Mahakal Shiv OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Cubic Zirconia Metal Hoop Earring, Stud Earring, Magnetic Earring, Tunnel Earring, Tassel Earring, Huggie Earring, Clip-on Earring, Magnetic Earring, Cuff Earring, Plug Earring', 'https://www.flipkart.com/shivay-mens-earring-women-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-mahadev-mahakal-shiv-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-cubic-zirconia-metal-earring-magnetic-tunnel-tassel-huggie-clip-on-cuff/p/itm12732404c660b'], ['KETGHCVZXEHYET5M', 'SEMINO\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/semino-boys-festive-party-wedding-sherwani-churidar-set/p/itmc621cb28d13c9']]</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>[['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['DREGK5N7FGKW56HH', 'maruti fab\xa0Women Fit and Flare Green, Black Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-green-black-dress/p/itmc94e7722920e1'], ['ETHGZ84ZYKH3JTKX', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm6fed17e59bdfc'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['ETHG9HUXQHH8SZPM', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm73bed96c7167d'], [nan, nan, nan], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['SHTGPRUFHP9RHB3F', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-dark-green-shirt/p/itmb26006339a1df'], ['SHOGKZTUYG8V4G6H', 'bacca bucci\xa0ALDER 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-alder-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itmf9788a1b24ed2'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['DREGGSSRMBTGGN6M', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm6a6548c1fb0fd'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5']]</t>
+          <t>[['BZRGGG26QMRXKGSD', 'BASICS\xa0Men Solid Tuxedo Style Casual Blazer', 'https://www.flipkart.com/basics-solid-tuxedo-style-casual-men-blazer/p/itm35cdfec8d8a0e'], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['KTAGK4KKMUSV3TTE', 'Ladli Fashion\xa0Women Striped Cotton Blend A-line Kurta', 'https://www.flipkart.com/ladli-fashion-women-striped-a-line-kurta/p/itm9c2675e2603a2'], ['ERGFMZ59ZKWH9FCQ', 'MEENAZ\xa0Fashion jewellery Valentine gift Single Silver Platinum Multi Black Golden Blue Surgical Plug barbell Hoops Ear piercing Studs Jewelry Style design Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnetic Pierced Round pressing Magnet Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman khan Kaju ear rings Stud Tops Mens Earing for Men man Boy Boyfriend Women Boys Girls Gents ladies unisex male girls women Kids Hoop-BALI-M254 Metal Stud Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-fashion-jewellery-valentine-gift-single-silver-platinum-multi-black-golden-blue-surgical-plug-barbell-hoops-ear-piercing-studs-jewelry-style-design-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnetic-pierced-round-pressing-magnet-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-khan-kaju-rings-stud-tops-mens-earing-men-man-boy-boyfriend-women-boys-girls-gents-ladies-unisex-male-kids-hoop-bali-m254-metal-earring-hoop-earring/p/itme0f71a07144ba'], ['KTAGJMT6AXTGZ2GZ', 'DCPGARMENT\xa0Women Printed Cotton Rayon Straight Kurta', 'https://www.flipkart.com/dcpgarment-women-printed-straight-kurta/p/itm256563560ee8c'], ['KTAFWNUY7UM5SGFF', 'DCART\xa0Women Embellished, Solid Crepe Straight Kurta', 'https://www.flipkart.com/d-cart-women-solid-straight-kurta/p/itm1c9e3ea905212'], ['KTAGZCPXHMZFZRG5', 'Madhuram\xa0Women Embroidered Georgette Gown Kurta', 'https://www.flipkart.com/madhuram-women-embroidered-gown-kurta/p/itmdf4ab86f4a326'], ['STBFCMRWAVHKJKAK', 'ABYS\xa0100% Genuine Leather Brown Travel Bag||Sports Bags ||Messenger Bag for Men &amp; Women Small Travel Bag  - Small', 'https://www.flipkart.com/abys-100-genuine-leather-brown-travel-bag-sports-bags-messenger-bag-men-women-small/p/itmfcmtqcpdq34zh'], [nan, nan, nan], ['TOGFYHFZDSZJJXMD', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1/p/itm1910113c87ef1'], ['RKSGPXHYZA98KDGJ', 'IMPULSE\xa0Wazka bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 60 L', 'https://www.flipkart.com/impulse-wazka-bag-travel-men-tourist-backpack-hiking-trekking-camping-rucksack-60-l/p/itme2e28c155bd9a'], ['SRWGHXHQXSSCYGA4', 'DEYANN Woven SherwaniDEYANN Woven Sherwani', 'https://www.flipkart.com/deyann-woven-sherwani/p/itm665c82df09bf3']]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>717543</t>
+          <t>919737</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Alan</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['SHTGMTDEQMHTZXNZ', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-blue-shirt/p/itm4dd971326b876'], ['SHTFNA5ZEUY5VJBP', 'El Senor\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/el-senor-men-solid-formal-white-shirt/p/itm7993989178dcc'], ['DREGGSSR5WGGWD4B', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma420d64437c8a'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], [nan, nan, nan], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6']]</t>
+          <t>[[nan, nan, nan], ['SHOFUUTCDMKWHYVW', 'BIG FOX\xa0Ankle Length Stylish Boots For Men', 'https://www.flipkart.com/big-fox-ankle-length-stylish-boots-men/p/itm6af7be280648a'], ['SARGG672JTEYPFAU', 'PD CLOTH VILLA\xa0Embroidered Bollywood Velvet Saree', 'https://www.flipkart.com/pd-cloth-villa-embroidered-bollywood-velvet-saree/p/itm8269287eb3882'], ['ERGFYZ7AYYZBPNGU', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden Peacock earrings jhumki Combo set jumkas small Stud Tops Meenakari Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design daily use 6 earrings-JHUMKI COMBO-ME05 Pearl Metal Jhumki Earring, Earring Set', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-peacock-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me05-pearl-metal-earring-earring/p/itmea6eb85162ce4'], ['ERGFYZ6ER3EFQGJY', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised golden earrings jhumki Combo set jumkas small Stud Tops Meenakari Jhumka earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design daily use 6 earrings-JHUMKI COMBO-ME02 Beads, Pearl Alloy, Metal, Enamel, Crystal, Zinc Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-golden-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-6-earrings-jhumki-combo-me02-beads-pearl-alloy-metal-enamel-crystal-zinc-earring/p/itm095c523964f10'], [nan, nan, nan], ['ERGFYQZXGRKUGMPE', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold wedding bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Flower Antique Jhumkas Jhumka Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME120 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-flower-antique-jhumkas-jhumka-earrings-earings-ear-rings-girls-women-golden-micro-gold-jhumki-me120-brass-copper-metal-alloy-jhumki-earring/p/itm11d8b61ff6862'], ['SARGGZDN6NMWZ8GV', 'Heerali\xa0Embellished Bollywood Lycra Blend Saree', 'https://www.flipkart.com/heerali-embellished-bollywood-lycra-blend-saree/p/itma3dc85fe11ad4'], ['JEAGG6DDDRRHF5QG', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm1a5faf2ca4cc6'], ['SARGPRWBKEHMPXBG', 'nick enterprise\xa0Embroidered Bollywood Cotton Blend Saree', 'https://www.flipkart.com/nick-enterprise-embroidered-bollywood-cotton-blend-saree/p/itm83a2f7aba6a8d'], [nan, nan, nan], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[['SHTGF5HZKCKCGVQD', 'VAN HEUSEN\xa0Men Regular Fit Checkered Spread Collar Formal Shirt', 'https://www.flipkart.com/van-heusen-men-checkered-formal-white-shirt/p/itmd69e2fc249ca6'], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444'], ['DREG3QDFFZG8KPHV', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm514fe550f4c15'], ['SHTGPEH4QYZTHBGT', 'PARK AVENUE\xa0Men Slim Fit Striped Formal Shirt', 'https://www.flipkart.com/park-avenue-men-striped-formal-light-blue-shirt/p/itm37457d604e05f'], ['DREG9Z7GHHTQ9HNK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm0420b5b72563f'], ['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2'], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342'], ['SHOG54KZWJFWMHRV', 'TPENT\xa0STYLISH LIGHT WEIGHT SPORTS SHOES FOR BOYS/MEN Slip On Sneakers For Men', 'https://www.flipkart.com/tpent-stylish-light-weight-sports-shoes-boys-men-slip-sneakers-men/p/itmb0b6e55d19dce'], [nan, nan, nan], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['ETHGYA5FVUSMXAZ2', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm6c41ab9df9975'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d']]</t>
+          <t>[['SARG676EDZGZEK7F', 'FASHION RELOADER\xa0Embroidered Bollywood Georgette Saree', 'https://www.flipkart.com/fashion-reloader-embroidered-bollywood-georgette-saree/p/itm2b0067ebc426d'], ['SNDGHFRSSDMZTCHC', 'Svaar\xa0Men Off White Clogs Sandal', 'https://www.flipkart.com/svaar-men-off-white-clogs/p/itm349ca822122e1'], ['ERGFPDR3RGTHCXDA', 'MEENAZ\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Ear rings for girls women Golden Ruby Copper, Brass Drops &amp; Danglers, Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-ear-rings-girls-women-golden-ruby-copper-brass-drops-danglers-earring-set-jhumki/p/itm3259580a66aef'], ['SNDGNZG38MPCBWPG', 'World Wear Footwear\xa0Men Olive, White Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-olive-white-clogs/p/itmb47b9f2fa0b80'], ['ERGFYREZGRYQ5YHC', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Ghungroo Hoop Jhumka Jhumkas Jhumki Bali Ear rings/ Earings / Earrings for girls women Golden Micro Antique -GOLD JHUMKI-ME136 Brass, Copper, Metal, Alloy Earring Set, Jhumki Earring, Hoop Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-ghungroo-hoop-jhumka-jhumkas-jhumki-bali-ear-rings-earings-earrings-girls-women-golden-micro-antique-gold-jhumki-me136-brass-copper-metal-alloy-earring-set-earring/p/itmad442c65d0a6a'], ['SNDGNZG9M8VCG8GG', 'World Wear Footwear\xa0Men Blue, White Clogs Sandal', 'https://www.flipkart.com/world-wear-footwear-men-blue-white-clogs/p/itm86da01163bd20'], ['SARG6WXRXRQXXR98', 'Flip The Style\xa0Printed Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-printed-bollywood-georgette-chiffon-saree/p/itm7528d6f7d2b80'], ['TOPGGWRR7GMDY4DC', 'Sheetal Associates\xa0Casual Puff Sleeves Self Design Women Black Top', 'https://www.flipkart.com/sheetal-associates-casual-self-design-women-black-top/p/itmacd0a69900eea']]</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>[['SHTGHG6KJ8BYGDPQ', 'JessNX\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/jessnx-men-solid-formal-brown-shirt/p/itmcf9aba63a1d23'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['KDEGN387ZDT5UVKC', 'Manaitri\xa0Baby Girls Midi/Knee Length Casual Dress', 'https://www.flipkart.com/manaitri-girls-midi-knee-length-casual-dress/p/itm76bdb114c4cc8'], ['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['SHTGHQU4E3EHCEKT', 'PETER ENGLAND\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-dark-blue-shirt/p/itmf1fd163332f06'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc']]</t>
+          <t>[['STBFVU6D4ND5WG6S', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itme377940a7a9ec'], ['SARG7H6CWNZN6MZX', 'Flip The Style\xa0Solid/Plain, Checkered Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-solid-plain-checkered-bollywood-georgette-chiffon-saree/p/itm13212210444aa'], ['SHOGJ9KBJNGXHWZY', 'Shoe Island\xa0Robust-X ™ Leather Tan Brown Tough Lace Ups High Ankle Length Mens Casual Boots Boots For Men', 'https://www.flipkart.com/shoe-island-robust-x-leather-tan-brown-tough-lace-ups-high-ankle-length-mens-casual-boots-men/p/itm72065b42715ba'], ['STBFYJZMJBYEQF7H', 'ABYS\xa0Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1) Small Travel Bag  - Medium', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-small-travel-medium/p/itm4d58a239d4f39'], ['TOPGGWRR7GMDY4DC', 'Sheetal Associates\xa0Casual Puff Sleeves Self Design Women Black Top', 'https://www.flipkart.com/sheetal-associates-casual-self-design-women-black-top/p/itmacd0a69900eea'], ['SGLF7RG56XMSYP8T', 'Ted Smith\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf7spewgfzgexw'], ['SNDFU9CJYGDCTHZ6', 'BLINDER\xa0Women Off White Flats Sandal', 'https://www.flipkart.com/blinder-women-off-white-flats/p/itmb5fda55a69e53'], ['SNDG5FR5YGFH44W4', 'Wildcraft\xa0Men Multicolor Sports Sandal', 'https://www.flipkart.com/wildcraft-men-multicolor-sports-sandals/p/itmed21edffc58c3'], ['DREFECH2HZX4YFKN', 'MUDRIKA\xa0Women Maxi Light Blue, Black Dress', 'https://www.flipkart.com/mudrika-women-maxi-light-blue-black-dress/p/itmfecuwgccj42kc'], ['SARGZTFP2VAFBJMU', 'Faduseller\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/faduseller-printed-bollywood-georgette-saree/p/itmed37bdffa91b3'], ['ERGFM7EZ9HMCD63T', 'Divastri\xa0Traditional Peacock Bohemian Oxidised Jewellery Bridal Party Wear Stylish Antique Kashmiri Afghani Tribal Silver Oxidized earrings Wedding Fancy Moti Kundan Big Jhumka earing Jhumkas Ear rings for girls women latest designer Pearl, Crystal Stone, Copper, Brass Jhumki Earring', 'https://www.flipkart.com/divastri-traditional-peacock-bohemian-oxidised-jewellery-bridal-party-wear-stylish-antique-kashmiri-afghani-tribal-silver-oxidized-earrings-wedding-fancy-moti-kundan-big-jhumka-earing-jhumkas-ear-rings-girls-women-latest-designer-pearl-crystal-stone-copper-brass-jhumki-earring/p/itm9330647cc3593'], ['ERGFPDR3RGTHCXDA', 'MEENAZ\xa0Traditional jhumka Jhumkas 1 gram gold wedding bridal Stylish fancy party wear Screw back Ethnic South indian Temple jewellery Ear rings for girls women Golden Ruby Copper, Brass Drops &amp; Danglers, Earring Set, Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-jhumka-jhumkas-1-gram-gold-wedding-bridal-stylish-fancy-party-wear-screw-back-ethnic-south-indian-temple-jewellery-ear-rings-girls-women-golden-ruby-copper-brass-drops-danglers-earring-set-jhumki/p/itm3259580a66aef'], ['SARGQ54YYGFGAEGT', 'ShiVAdit Ethnic\xa0Applique, Self Design, Paisley, Embellished, Solid/Plain Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/shivadit-ethnic-applique-self-design-paisley-embellished-solid-plain-bollywood-georgette-chiffon-saree/p/itmc5bb78bd3abe1'], ['SNDGAEGAYANA2DEC', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm50a6afdc80d7c']]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>593541</t>
+          <t>393807</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Shawn</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Bell</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[['TSHGHRC8THBHAFZX', 'dhaari by unique creation\xa0Men Sporty Mandarin Collar Polyester White T-Shirt', 'https://www.flipkart.com/dhaari-unique-creation-sporty-men-mandarin-collar-white-t-shirt/p/itm030f556a5ddfe'], ['SHOG7DM3JBZSKQHX', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm523c1b1b1c3d0'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21'], ['KDEGMWNXZEP3C52Q', 'Manaitri\xa0Girls Below Knee Casual Dress', 'https://www.flipkart.com/manaitri-girls-below-knee-casual-dress/p/itm3f0c312cb0967'], ['SHTGAHWSTTQRKDKS', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-blue-shirt/p/itm9b2791f9585ea'], ['KPBGGUQR5G2EYZUS', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Trouser', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-trouser/p/itmb7c5961f16201'], ['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['SHTFGHVW4U47JQFW', 'GEUM\xa0Men Regular Fit Solid Spread Collar Casual Shirt', 'https://www.flipkart.com/geum-men-solid-casual-black-shirt/p/itmeb6ba3a54022c'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8'], ['KPBGDAYV2WDZ4VGG', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm3b5cdf6cfab17'], ['DREGAN6EEADPYPHZ', 'Lamba Creations\xa0Women Ethnic Dress Black Dress', 'https://www.flipkart.com/lamba-creations-women-ethnic-dress-black/p/itm7912d0c4bbce7']]</t>
+          <t>[['TOPGM57MHGFQKD8K', 'Q-Rious\xa0Casual Sleeveless Solid Women Brown Top', 'https://www.flipkart.com/q-rious-casual-solid-women-brown-top/p/itmc197100049533'], [nan, nan, nan], ['DREG9Z7GSTCDEUMG', 'Nidhi Collection\xa0Women Maxi Black Dress', 'https://www.flipkart.com/nidhi-collection-women-maxi-black-dress/p/itmbbc4cc1ceb44c'], ['SNDGH7536RAY7XED', 'World Wear Footwear\xa0Men White Flats Sandal', 'https://www.flipkart.com/world-wear-footwear-men-white-flats/p/itmad71856cd889b'], ['ERGGJ4S9WMGCKJEH', 'Divastri\xa0Jhumka combo earrings jhumki Traditional South indian Temple jhumkas women girl Beads, Pearl Metal Jhumki Earring', 'https://www.flipkart.com/divastri-jhumka-combo-earrings-jhumki-traditional-south-indian-temple-jhumkas-women-girl-beads-pearl-metal-earring/p/itm64a8563dd855a'], ['WSBFW2VBDZKYYYAN', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1, Brown) Bag', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1-brown/p/itm69c2f7bcc62cd'], ['SGLFWFRE6FUDZMCC', 'just style\xa0UV Protection Aviator Sunglasses (57)', 'https://www.flipkart.com/just-style-aviator-sunglasses/p/itmc1ff38cb1bdca'], ['JEAGC5WUG4EFZHGA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm939f990d6db73'], ['SNDG6B8ZGPA5X8GH', 'Denill\xa0Women White Heels Sandal', 'https://www.flipkart.com/denill-women-white-heels/p/itm2dc42eca1dbb7'], ['TOPGQ8USK4GZEFBP', 'ALEAF\xa0Casual Regular Sleeves Striped Women Black Top', 'https://www.flipkart.com/aleaf-casual-striped-women-black-top/p/itm96edb491303a9'], ['TOGFYHFZDSZJJXMD', 'ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)\xa0\xa0(Brown)ABYS Sling Bag || Backpack||Small Chest Bags for Men Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack (Set Of 1)', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-backpack-set-1/p/itm1910113c87ef1'], ['STBFWE59MCS8PNGW', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm70da6d7a59187'], ['SGLGZUGZ7KHSEJKF', 'RESIST EYEWEAR\xa0Toughened Glass Lens, UV Protection, Riding Glasses Aviator Sunglasses (58)', 'https://www.flipkart.com/resist-eyewear-aviator-sunglasses/p/itmd6ced64972044']]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], [nan, nan, nan], ['ETHFZ7GZ5YMFZW6Z', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm25b2dcba3bf8f'], ['SHTFKGPQPEBNHMFP', '5TH ANFOLD\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/5th-anfold-men-solid-formal-grey-shirt/p/itm527b60fe36863'], ['BXRGNZRMXC7Y8PJH', 'Ontino\xa0Pack of 3 Printed Men Boxer', 'https://www.flipkart.com/ontino-printed-men-boxer/p/itmf2515a4277f21'], ['SHTGM92WNJWTTC5H', 'BLUE MARTIN\xa0Men Regular Fit Checkered Spread Collar Casual Shirt', 'https://www.flipkart.com/blue-martin-men-checkered-casual-multicolor-shirt/p/itm13dc9c6053f20'], ['ETHFZZ75GVU85NFF', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm326c57663a83f'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['ETHFZ7GZFSJXAKTY', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itm8b06379fb8eda'], ['DREGK5N7JNTFEGNH', 'maruti fab\xa0Women Fit and Flare Light Blue Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-light-blue-dress/p/itm2904de16bdfa7'], ['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d']]</t>
+          <t>[['JEAFYQGSPDPXUW4Z', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm3b1002f19dbed'], [nan, nan, nan], ['ERGFYRHVGPXZSEUG', 'MEENAZ\xa0Traditional South Screw Back 1 one gram gold Wedding Bridal Stylish fancy party wear Ethnic Indian Temple jewellery Studs Big Meenakari Ghungroo Triple 3 Three Layer Jhumka Jhumkas Golden Jhumki Earrings/ Earings / Ear rings for girls women Golden Micro Antique -GOLD JHUMKI-ME144 Brass, Copper, Metal, Alloy Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-screw-back-1-one-gram-gold-wedding-bridal-stylish-fancy-party-wear-ethnic-indian-temple-jewellery-studs-big-meenakari-ghungroo-triple-3-three-layer-jhumka-jhumkas-golden-jhumki-earrings-earings-ear-rings-girls-women-micro-antique-gold-jhumki-me144-brass-copper-metal-alloy-earring/p/itm03211de8b17f5'], ['SGLFKG6F8GJVKKGJ', 'Ted Smith\xa0Gradient Aviator Sunglasses (59)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmb31f478e20f4a'], ['LCHG2DZGF6JZXHZY', 'DB ANGHAN\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/db-anghan-self-design-semi-stitched-lehenga-choli/p/itm50e55437fde19'], ['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by'], ['JEAFYQGT6MUEGD4G', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm6661721c5b993'], [None, 'MUDRIKA\xa0Women Maxi Blue Dress', 'https://www.flipkart.com/mudrika-women-maxi-blue-dress/p/itmfhgnnbux3rcsg'], ['JEAGEYGVZZQQXDQE', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm232760a093285'], [nan, nan, nan], ['JEAGEYGVZZQQXDQE', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm232760a093285']]</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>[['KDEGMWJWEGGAKVYM', 'Manaitri\xa0Baby Girls Calf Length Casual Dress', 'https://www.flipkart.com/manaitri-baby-girls-calf-length-casual-dress/p/itmfb0a310ee07f2']]</t>
+          <t>[['SARGZTFP2VAFBJMU', 'Faduseller\xa0Printed Bollywood Georgette Saree', 'https://www.flipkart.com/faduseller-printed-bollywood-georgette-saree/p/itmed37bdffa91b3'], ['STBFWE59PZPSKYSN', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6cea415e3ffd5'], [nan, nan, nan], ['SHOF29PYE5EVUG99', 'WELDONE\xa02_PAIR_COMBO Loafers For Men', 'https://www.flipkart.com/weldone-2-pair-combo-loafers-men/p/itmf3xz9znbdgsbs'], ['STBFVU6DSZ8FFQEM', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm5ed53982bb1f3'], ['JEAGJ4YG3RHGRUSH', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itma71c6a67263a9'], ['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1'], ['SGLG8X54BVYQ92MG', 'Ted Smith\xa0Gradient Aviator Sunglasses (50)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm4b5b64ff0baba'], ['SARG92JG5SYENAQ3', 'FASHION RELOADER\xa0Embroidered Bollywood Georgette Saree', 'https://www.flipkart.com/fashion-reloader-embroidered-bollywood-georgette-saree/p/itm7575fff682f1e'], ['ERGFG4JGPD6GHUF8', 'AMAAL\xa0Black Jhumka Earrings Bridal Wedding Traditional Gold Plated Kundan Moti jhumkas Pearl Copper, Brass Earring Set, Jhumki Earring', 'https://www.flipkart.com/amaal-black-jhumka-earrings-bridal-wedding-traditional-gold-plated-kundan-moti-jhumkas-pearl-copper-brass-earring-set-jhumki/p/itm0aa50c1bc8ff8'], ['SARGJ6XXFDFYMFD4', 'Pionex\xa0Woven Kanjivaram Pure Silk, Art Silk Saree', 'https://www.flipkart.com/pionex-woven-kanjivaram-pure-silk-art-silk-saree/p/itm77e47c6316ac9']]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>520785</t>
+          <t>372087</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Stanley</t>
+          <t>King</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[['DREGAFFPJG75THNQ', 'printcorners\xa0Women Wrap Green Dress', 'https://www.flipkart.com/printcorners-women-wrap-green-dress/p/itm531e8e900a956'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['SHOGKDG6JMTK2ZGJ', 'bacca bucci\xa0METEOR Splashproof Leather Fashion Boots for Bikers Trekking Hiking Backpacking Boots For Men', 'https://www.flipkart.com/bacca-bucci-meteor-splashproof-leather-fashion-boots-bikers-trekking-hiking-backpacking-men/p/itmba94792f34ba9'], [nan, nan, nan], ['DREGK5N7FGKW56HH', 'maruti fab\xa0Women Fit and Flare Green, Black Dress', 'https://www.flipkart.com/maruti-fab-women-fit-flare-green-black-dress/p/itmc94e7722920e1'], ['SHTG7BCRTENKD6ZG', 'VeBNoR\xa0Men Regular Fit Solid Button Down Collar Formal Shirt', 'https://www.flipkart.com/vebnor-men-solid-formal-black-shirt/p/itmf0375de1fd2dd'], ['SHTG7FFNDH9KJGYW', 'NEM\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/nem-men-solid-formal-blue-shirt/p/itm2eb2aad62bf43'], ['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d'], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444'], ['DREGF4JQV8S2CJEF', 'JIYAKURTI\xa0Women Sheath Multicolor Dress', 'https://www.flipkart.com/jiyakurti-women-sheath-multicolor-dress/p/itm1e3bf30fca31c'], ['DREG3N7FHWZ6VKWQ', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm48121ed6eec0b'], ['ETHGYA5FAVQEJDV6', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm2e1ec7e672192'], ['ETHGAT6DFNGVBYP2', 'SANCIA\xa0Women Georgette Kurta and Sharara Set', 'https://www.flipkart.com/sancia-women-kurta-sharara-set/p/itm36cb2daca102c'], ['KDEGP3BZMBZGSAHH', 'Manaitri\xa0Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm9e2db1b7e0fa3']]</t>
+          <t>[['JEAG74HFHHZZV6PG', 'KETCH\xa0Men Tapered Fit Mid Rise Blue Jeans', 'https://www.flipkart.com/ketch-tapered-fit-men-blue-jeans/p/itme476bd07f8aef'], ['ERGGBSCR8KF5HVTK', 'Lilly &amp; Sparkle\xa0Lilly &amp; Sparkle Gold Toned Hoop Earrings With Black Stone Set Of 6 Alloy Drops &amp; Danglers', 'https://www.flipkart.com/lilly-sparkle-gold-toned-hoop-earrings-black-stone-set-6-alloy-drops-danglers/p/itm58a79921beb8a'], ['RKSGZ9HQQHFBA5KF', 'SAKSHI FASHION\xa0NEW Water Proof Mountain Rucksack/Trekking Bag Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-fashion-new-water-proof-mountain-rucksack-trekking-bag-rucksack-70-l/p/itmba47ce64b90ba'], ['ERGGGE7HKPNRUR5H', 'Vembley\xa0Korean Beautiful Pearl Wing Stud Earrings 2 Pcs/Set Metal Drops &amp; Danglers', 'https://www.flipkart.com/vembley-korean-beautiful-pearl-wing-stud-earrings-2-pcs-set-metal-drops-danglers/p/itmf357cde23d028'], ['JEAFYQGT6MUEGD4G', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm6661721c5b993'], ['SGLGGKSVGBGE3YF9', 'Ted Smith\xa0Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm88e36b022bba3'], ['BZRGN8GES8AGYH9E', 'THE MD FASHION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/md-fashion-solid-single-breasted-casual-women-blazer/p/itm462126d0ebbe8'], ['ERGGYHZRTQUJ4SXZ', 'MEENAZ\xa0Fashion Multi jewellery Valentine Single Golden Silver Black Surgical Plug Hoops Ear piercing Studs Steel Jewelry Style Stylish Fancy Party wear Daily use simple Magnetic Round MultIcolor Bali Hoops Earrings Combo Set pierced Ear rings Stud Tops Round Dumbell Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry -MENS EARRINGS COMBO-ME36 Alloy, Metal, Stainless Steel, Brass, Steel Stud Earring', 'https://www.flipkart.com/meenaz-fashion-multi-jewellery-valentine-single-golden-silver-black-surgical-plug-hoops-ear-piercing-studs-steel-jewelry-style-stylish-fancy-party-wear-daily-use-simple-magnetic-round-multicolor-bali-earrings-combo-set-pierced-rings-stud-tops-dumbell-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-pack-mens-combo-me36-alloy-metal-stainless-steel-brass-earring/p/itm1eb03158bdf33']]</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[['SHTGGJV6MF9F6FFT', 'STONEBERG\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/stoneberg-men-solid-formal-pink-shirt/p/itm0860f3b01de1e'], ['SHTGMNGQFMU25UEV', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-light-green-shirt/p/itm9d3488c6c6b0d']]</t>
+          <t>[['KETGMATFU4QPSNMM', 'sahil collection\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/sahil-collection-boys-festive-party-wedding-sherwani-churidar-set/p/itmce87213cfa454'], ['KETGMATFU4QPSNMM', 'sahil collection\xa0Boys Festive &amp; Party, Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/sahil-collection-boys-festive-party-wedding-sherwani-churidar-set/p/itmce87213cfa454'], ['SGLEDQE9ZGDARGZV', 'agera\xa0UV Protection, Gradient Aviator Sunglasses (55)', 'https://www.flipkart.com/agera-aviator-sunglasses/p/itmf3yhamhyvbjff']]</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>[['DREG3QDFRWG6BPGB', 'HIVA TRENDZ\xa0Women Fit and Flare Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-fit-flare-multicolor-dress/p/itm0e4969da8ca02'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['SHOG7DM24JYSYEGJ', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm89812ada644cc'], ['SHOGKZU4DGK2M6G8', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm351b8bae84d5d'], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['DREGGSSRBUEZHHGR', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm781e73b9dff6c']]</t>
+          <t>[['SRWGFRRSMGPHPFZX', 'AVAETA Floral Print SherwaniAVAETA Floral Print Sherwani', 'https://www.flipkart.com/avaeta-floral-print-sherwani/p/itm26bbd7f4cf63e'], [nan, nan, nan], ['SRWGHXFPXKZZDP8X', 'DEYANN Printed SherwaniDEYANN Printed Sherwani', 'https://www.flipkart.com/deyann-printed-sherwani/p/itmf6964353adc41'], ['RKSGZ9HQQHFBA5KF', 'SAKSHI FASHION\xa0NEW Water Proof Mountain Rucksack/Trekking Bag Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-fashion-new-water-proof-mountain-rucksack-trekking-bag-rucksack-70-l/p/itmba47ce64b90ba'], [nan, nan, nan]]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>763773</t>
+          <t>755151</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Shelley</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Moreno</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[['SHOG5PSEAHSYVWRA', 'WAAN\xa0Walking Shoes For Men', 'https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d'], [nan, nan, nan], ['DREGHH44GBFGQWYX', 'SClassicFashion\xa0Women Empire Waist Dark Blue Dress', 'https://www.flipkart.com/sclassicfashion-women-empire-waist-dark-blue-dress/p/itm80746343f502c'], ['SHTGMK2YHQWFZY3U', 'VTEXX\xa0Men Regular Fit Solid Cut Away Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-white-shirt/p/itmc5dc05890b7d7'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8']]</t>
+          <t>[[nan, nan, nan], ['TOGFH55H5726BNTA', 'ABYS Shoulder Bag ||Office Bag\xa0\xa0(Maroon)ABYS Shoulder Bag ||Office Bag', 'https://www.flipkart.com/abys-shoulder-bag-office/p/itmfh659fwyuuecn'], [nan, nan, nan]]</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[['KDEGN27KYNW2MF23', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm96df39eba2a1d'], ['SHTGNXAZEVEK3GZA', 'FTX\xa0Men Regular Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/ftx-men-solid-formal-white-shirt/p/itmdce9497b9dd3a'], ['SHTG8JPZGRDBZYHZ', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-purple-shirt/p/itmd17fed6c6423b'], ['KDEGN27KFNSCUQYE', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm9b97310e84545'], ['SSPGKF6MKHZGER6S', 'KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer\xa0\xa0(Generic, Neutral)KASYBEXTR Footwear Protector Krispy Spray | Water Repellant Invisible Spray for Shoes Water Proofer', 'https://www.flipkart.com/kasybextr-footwear-protector-krispy-spray-water-repellant-invisible-shoes-proofer/p/itma1db7f3bc4903'], [nan, nan, nan], ['KDEGM6XFZDDDEZJX', 'Flip The Style\xa0Disney Princess Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm1e69a73da00e5'], ['DREGK7NFCFTGXE64', 'maruti fab\xa0Women Fit and Flare Purple Dress', 'https://dl.flipkart.com/dl/maruti-fab-women-fit-flare-purple-dress/p/itma4476508c0658']]</t>
+          <t>[['SUIGK3AZSYSHGSTB', 'Deebaco\xa0Women Blazer &amp; Pant Co-Ord Set Solid Suit', 'https://www.flipkart.com/deebaco-blazer-pant-co-ord-set-solid-women-suit/p/itmf3e76708b55e6'], ['SHOFGPP4ZCXYSXUH', 'LIONS RIDER\xa0Party Wear For Men', 'https://www.flipkart.com/lions-rider-party-wear-men/p/itmfgq86mgyzkygk'], ['SRWG24ZNEKTGMCZW', 'DEYANN Men Green &amp; Navy Blue Sherwani With Achkan Printed SherwaniDEYANN Men Green &amp; Navy Blue Sherwani With Achkan Printed Sherwani', 'https://www.flipkart.com/deyann-men-green-navy-blue-sherwani-achkan-printed/p/itme2b811f19f8d9'], ['SRWG24ZNEKTGMCZW', 'DEYANN Men Green &amp; Navy Blue Sherwani With Achkan Printed SherwaniDEYANN Men Green &amp; Navy Blue Sherwani With Achkan Printed Sherwani', 'https://www.flipkart.com/deyann-men-green-navy-blue-sherwani-achkan-printed/p/itme2b811f19f8d9'], ['STBFWE59QZAKTFME', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm057c9a7534ac1'], ['JEAGEKQZDKZANDRP', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Blue Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-blue-jeans/p/itm094f7e29c58f6'], ['RKSG6W3DYRJK3UHX', 'ozino\xa0Travel Backpack for Outdoor Sport Camping Hiking Trekking Bag Rucksack Bag Trekking bag . 60L Rucksack  - 60 L', 'https://www.flipkart.com/ozino-travel-backpack-outdoor-sport-camping-hiking-trekking-bag-rucksack-60l-60-l/p/itm7a1176bc4a877'], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['RKSGN5PABSHCYQZE', 'Sakshi Enterprises\xa0Rucksack bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-enterprises-rucksack-bag-travel-men-tourist-backpack-hiking-trekking-camping-70-l/p/itm5ed8228a4d5d1'], ['SHOGHQ35UK4SHADX', 'Floarkart\xa03 Inch Hidden Height Increasing All Purpose Elevator Sports Casual Shoes for Men Sneakers For Men', 'https://www.flipkart.com/floarkart-3-inch-hidden-height-increasing-all-purpose-elevator-sports-casual-shoes-men-sneakers/p/itma6f71f6af180c'], [nan, nan, nan], ['BZREWMASHG3DPYPT', 'KARMIC VISION\xa0Women Solid Single Breasted Casual Blazer', 'https://www.flipkart.com/karmic-vision-solid-single-breasted-casual-women-blazer/p/itmewmd9xvhzggzz']]</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>[['SWSGHCKFXZXXZKKW', 'BEING WANTED\xa0Men Full Sleeve Solid Hooded Sweatshirt', 'https://www.flipkart.com/being-wanted-full-sleeve-solid-men-sweatshirt/p/itm2d9925ed15fb8']]</t>
+          <t>[['SGLGGKSVGBGE3YF9', 'Ted Smith\xa0Polarized Aviator Sunglasses (58)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itm88e36b022bba3'], [nan, nan, nan], ['SRWG49FZY8CHSRJM', 'Chote Raja Collection chote raja collection Solid Sherwani Solid SherwaniChote Raja Collection chote raja collection Solid Sherwani Solid Sherwani', 'https://www.flipkart.com/chote-raja-collection-solid-sherwani/p/itm16aa1c11a9ab2'], ['SGLGQ8VVYMM9FTBN', 'Hench\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/hench-aviator-sunglasses/p/itm6b0689aed0149'], ['BKPGCYEFKEYZUMKC', 'Fast Fashion\xa0Medium 30 L Laptop Backpack 30L Laptop Backpack Medium Bagpack school college laptop travel bag office bag', 'https://www.flipkart.com/fast-fashion-30l-laptop-backpack-medium-bagpack-school-college-travel-bag-office-30-l/p/itm5f0a8ce7ca72b'], ['SRWGBZ5F4FHGKG9S', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itm13f7371616101'], [nan, nan, nan], ['KRTFDVDJQCYGWXW5', 'sonia collection\xa0Women Embroidered Cotton Blend Straight Kurta', 'https://www.flipkart.com/sonia-collection-women-embroidered-straight-kurta/p/itmb1b7dbae35edd'], ['SUIGE5ZEUH8DSKVE', 'DKGF FASHION\xa0Men Single Breasted Solid Suit', 'https://www.flipkart.com/dkgf-fashion-single-breasted-solid-men-suit/p/itm76a821c733188']]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>149529</t>
+          <t>817707</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Dustin</t>
+          <t>Douglas</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Parks</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Isle of Man</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[['ETHGKD52TDAZHKZF', 'Bisso Fashion\xa0Women Viscose Rayon Kurta and Palazzo Set', 'https://www.flipkart.com/bisso-fashion-women-kurta-palazzo-set/p/itm9cebee0d0e798'], ['SHTGPCGZPFDSBTW3', 'PARK AVENUE\xa0Men Slim Fit Checkered Formal Shirt', 'https://www.flipkart.com/park-avenue-men-checkered-formal-blue-shirt/p/itm9b8404da25d42'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['DREG6VWQSYCQXQJG', 'PURVAJA\xa0Women Empire Waist Black, White, Pink Dress', 'https://www.flipkart.com/purvaja-women-empire-waist-black-white-pink-dress/p/itm11aa3cd58d8b4'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab']]</t>
+          <t>[['JEAGC5WUG4EFZHGA', 'MUFTI\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-slim-men-grey-jeans/p/itm939f990d6db73'], ['KETG9BFAFRVASPWF', 'juli bastralaya\xa0Boys Wedding Sherwani and Churidar Set', 'https://www.flipkart.com/juli-bastralaya-boys-wedding-sherwani-churidar-set/p/itm8d3ce9ee1afb9'], ['KTAFWNUYUNPBVTAH', 'DCART\xa0Women Solid Crepe High Low Kurta', 'https://www.flipkart.com/d-cart-women-solid-high-low-kurta/p/itmb54a7b68b42b3'], ['SHOGAXE5PMXGHE4F', 'Viv\xa0Casual Chukka Biker Boots For Men', 'https://www.flipkart.com/viv-casual-chukka-biker-boots-men/p/itm23d5fee028835'], [nan, nan, nan], ['ERGGFZBGHPGVZZPY', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Golden Blue Surgical Plug Hoops Ear piercing Studs stainless Steel Jewelry Style design Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Screw Back Mahadev Mahakal Shiv OM Earrings Combo Set pack Salman Kaju pierced rings Stud Tops Mens Earing for Men / Boy Boyfriend /Women Boys Girls Gents unisex male girls /women/Kids Pack Jewellery Multi Hoop earrings men For Women Salman Khan daily High Polish -MENS EARRINGS COMBO-ME62 Metal Stud Earring, Hoop Earring, Earring Set, Clip-on Earring, Magnetic Earring', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-golden-blue-surgical-plug-hoops-ear-piercing-studs-stainless-steel-jewelry-style-design-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-screw-back-mahadev-mahakal-shiv-om-earrings-combo-set-pack-salman-kaju-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-women-kids-multi-hoop-women-khan-high-polish-mens-combo-me62-metal-earring-earring-set-clip-on/p/itmedca84a53fbc2'], ['JEAGEYGVZZQQXDQE', 'MUFTI\xa0Men Boot-Leg Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-boot-leg-men-grey-jeans/p/itm232760a093285'], ['SHOG8U2ZWPRZPMU7', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itme84f2a4332439'], ['SRWGBZ5F4FHGKG9S', 'PSKS ETHNIC WEAR Embellished SherwaniPSKS ETHNIC WEAR Embellished Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embellished-sherwani/p/itm13f7371616101'], ['SGLGB7G8DT7PXHS6', 'Ted Smith\xa0UV Protection Aviator Sunglasses (56)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmaa86102a0bfee'], ['SHOGG5FT9WTYYYFZ', 'John Karsun\xa0Boots For Men', 'https://www.flipkart.com/john-karsun-boots-men/p/itmc03adefc7970a'], ['JEAFYQGT6MUEGD4G', 'METRONAUT By Flipkart\xa0Men Slim Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-slim-men-grey-jeans/p/itm6661721c5b993']]</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['ETHGAH8YRYH5GTBK', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm55799d8f84e7d'], ['KDEGMWDZPGW2GAV9', 'Manaitri\xa0Barbie Girls Calf Length Casual Dress', 'https://dl.flipkart.com/dl/manaitri-girls-calf-length-casual-dress/p/itm5d027e49f3dde'], ['ETHFZ7GZ3C2TPVWR', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Palazzo Set', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-palazzo-set/p/itmcf8d09b8494c6'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], ['ETHGK7WNUBBQ82SU', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm2b1d7ac4bf29b'], [nan, nan, nan], ['ETHFZGX22MMUNZG8', 'MYKUKI\xa0Women Cotton Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm9324b37dafb13'], ['DREG9Z7G3H4EECGK', 'Nidhi Collection\xa0Women A-line Black, White Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-black-white-dress/p/itm2cab96793a444'], ['ETHGK7WNA8EU5NTZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itmb9ac0f29af0ab'], ['KPBGDAYVBZZZWT8G', 'CATTY\xa0Baby Boys Party(Festive) Shirt Pant', 'https://www.flipkart.com/catty-baby-boys-party-festive-shirt-pant/p/itm425af698182b7'], ['ETHGD7N2BBFN7H4C', 'MYKUKI\xa0Women Lycra Blend Crop Top &amp; Pant Set', 'https://www.flipkart.com/mykuki-women-crop-top-pant-set/p/itma81624788ce1b'], ['SHOGK39ZQ9KNPFHZ', 'Ladwa\xa0Risk Safety Shoes with Mid Ankle Black Construction Factory Work Boots Gum Boots Boots For Men', 'https://www.flipkart.com/ladwa-risk-safety-shoes-mid-ankle-black-construction-factory-work-boots-gum-men/p/itm7bda9e2978d57'], ['SHTGMK2Y7JKGZKCE', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-grey-shirt/p/itmc34659b21c380']]</t>
+          <t>[['SRWG49FZY8CHSRJM', 'Chote Raja Collection chote raja collection Solid Sherwani Solid SherwaniChote Raja Collection chote raja collection Solid Sherwani Solid Sherwani', 'https://www.flipkart.com/chote-raja-collection-solid-sherwani/p/itm16aa1c11a9ab2'], ['SHOG9MPGYM6AFUMG', 'HX London\xa0Stylish Laceup Boots For Men', 'https://www.flipkart.com/hx-london-stylish-laceup-boots-men/p/itmf0d60e27dca1a'], ['ERGGFBH9DHAXN8HG', 'Nagneshi Art\xa0TEMPLE Beads Alloy Chandbali Earring', 'https://www.flipkart.com/nagneshi-art-temple-beads-alloy-chandbali-earring/p/itma33abb13c74ea'], ['RKSGN5PABSHCYQZE', 'Sakshi Enterprises\xa0Rucksack bag travel bag for men tourist bag backpack for hiking trekking camping Rucksack  - 70 L', 'https://www.flipkart.com/sakshi-enterprises-rucksack-bag-travel-men-tourist-backpack-hiking-trekking-camping-70-l/p/itm5ed8228a4d5d1'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], ['SHOFZZTEAKJJCFSQ', 'World Wear Footwear\xa0Sneakers For Men', 'https://dl.flipkart.com/dl/world-wear-footwear-sneakers-men/p/itmae9b5d9c69575'], ['SHOFZZTEAKJJCFSQ', 'World Wear Footwear\xa0Sneakers For Men', 'https://dl.flipkart.com/dl/world-wear-footwear-sneakers-men/p/itmae9b5d9c69575'], ['STBFVU6DPJ3FPYEC', 'ABYS\xa0Sling Bag || Backpack ||Small Chest Bags for Men &amp; Women Crossbody Bag Traveling Camping Cycling Hiking Daypack Trekking Backpack Small Travel Bag  - Small', 'https://www.flipkart.com/abys-sling-bag-backpack-small-chest-bags-men-women-crossbody-traveling-camping-cycling-hiking-daypack-trekking-small-travel/p/itm6d75b934f6416'], ['BZRGKFYZWM8YW92E', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma9a7bed92fa8b'], ['SGLED3YHZDMUUYJY', 'ROYAL SON\xa0Mirrored Aviator Sunglasses (58)', 'https://www.flipkart.com/royal-son-aviator-sunglasses/p/itmf3ykjxj6yncgy'], ['ERGGFSDASHGBPBKS', 'Karishma Kreations\xa0Mens Fashion Multi jewellery Valentine Platinum Black Blue Golden Silver Surgical Plug Hoop Ear piercing Studs stainless Steel Jewelry Stylish Fancy Party wear casual High Gold Polish Daily use simple Magnet non Pierced Round pressing Dumbell Multicolor press OM Earrings Combo Set pack pierced Multicolour shape Bali Ear rings Stud Tops Mens Earing for Men Boy Boyfriend Women Boys Girls Gents unisex male girls women design Jewellery Multi Hoops earrings Salman Khan Style daily Use Mens Earrings Steel, Stainless Steel, Copper, Brass Stud Earring, Hoop Earring, Earring Set, Huggie Earring, Plug Earring, Cuff Earring', 'https://www.flipkart.com/karishma-kreations-mens-fashion-multi-jewellery-valentine-platinum-black-blue-golden-silver-surgical-plug-hoop-ear-piercing-studs-stainless-steel-jewelry-stylish-fancy-party-wear-casual-high-gold-polish-daily-use-simple-magnet-non-pierced-round-pressing-dumbell-multicolor-press-om-earrings-combo-set-pack-multicolour-shape-bali-rings-stud-tops-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-hoops-salman-khan-style-steel-copper-brass-earring-earring-set-huggie-cuff/p/itmeaeb2c61f6da3'], ['BZRGKFYZWM8YW92E', 'V-MART\xa0Men Checkered Single Breasted Casual Blazer', 'https://www.flipkart.com/v-mart-checkered-single-breasted-casual-men-blazer/p/itma9a7bed92fa8b']]</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>[['KPBGGUZJKHSZJGMY', 'CATTY\xa0Baby Boys &amp; Baby Girls Party(Festive) Blazer Pant, Bow Tie', 'https://www.flipkart.com/catty-baby-boys-girls-party-festive-blazer-pant-bow-tie/p/itm323ef8b395198'], ['TSHGGTH3ZZZJFJFR', 'London Hills\xa0Men Striped Hooded Neck Cotton Blend Pink T-Shirt', 'https://www.flipkart.com/london-hills-striped-men-hooded-neck-pink-t-shirt/p/itmf148db8f2ffeb'], ['SRTGDF9HYPTQ9JFZ', 'Adrenex\xa0Pack of 2 Solid Men Black, Grey Basic Shorts, Beach Shorts, Baggy Shorts, Gym Shorts, Cycling Shorts', 'https://www.flipkart.com/adrenex-solid-men-black-grey-basic-shorts-beach-baggy-gym-cycling-shorts/p/itm8f675cd56bbb8'], ['SHTGMG75K5G6MQZ9', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-black-shirt/p/itm5479dec8822cf'], ['DREGHJ5JKP7HQKAW', 'Alaayana Fashion\xa0Women Sheer Black, Grey Dress', 'https://www.flipkart.com/alaayana-fashion-women-sheer-black-grey-dress/p/itm44e62ac2ae90b'], ['SHTFKGPQPEBNHMFP', '5TH ANFOLD\xa0Men Slim Fit Solid Slim Collar Formal Shirt', 'https://www.flipkart.com/5th-anfold-men-solid-formal-grey-shirt/p/itm527b60fe36863'], ['ETHGYA5FQDZSAAFD', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itm0101d63f9a86d'], ['BDRGNC7DS5GFGHXD', 'Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush\xa0\xa0(15 ml, Black)Kingeshal Wooden Premium Shoe Brush Cleaning Polishing Shining for Leather Shoes Sneakers Brush', 'https://www.flipkart.com/kingeshal-wooden-premium-shoe-brush-cleaning-polishing-shining-leather-shoes-sneakers/p/itmd7afbc5b69f83'], ['SHOGCG8VYR3H3FFV', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itmb7ad2d12747dc'], ['SHOGKZU4KGCF4XMU', 'bacca bucci\xa0DEODAR 6 inches Riding Boots for Mountaineering Backpacking Hiking &amp; Trekking Boots For Men', 'https://www.flipkart.com/bacca-bucci-deodar-6-inches-riding-boots-mountaineering-backpacking-hiking-trekking-men/p/itm3ee8577283930'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['DREFS9YZBM4YZWJS', 'HIVA TRENDZ\xa0Women Skater Multicolor Dress', 'https://www.flipkart.com/hiva-trendz-women-skater-multicolor-dress/p/itma63db90a03172'], [nan, nan, nan], ['SHTG9PS5BRZT9VPG', 'MILDIN\xa0Men Slim Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/mildin-men-solid-formal-purple-shirt/p/itmacb55ae804342']]</t>
+          <t>[['SGLFZCRCYYPS6HJX', 'Fair-x\xa0UV Protection Aviator Sunglasses (58)', 'https://www.flipkart.com/fair-x-aviator-sunglasses/p/itm214678c66746e'], ['SHOG8U2ZNSMGPZ7R', 'Aragats\xa0Casual Sneakers For Men', 'https://www.flipkart.com/aragats-casual-sneakers-men/p/itmc85efde1a1c3c'], [nan, nan, nan], [nan, nan, nan], ['SRWG4Y8AB7Z9KRRQ', 'SEMINO Embellished SherwaniSEMINO Embellished Sherwani', 'https://www.flipkart.com/semino-embellished-sherwani/p/itm31186264271a9'], ['SGLF84PQZDBYE7CH', 'Silver Kartz\xa0UV Protection Wayfarer, Aviator Sunglasses (88)', 'https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf84u9ubfzzgnb'], ['JEAEP6TYKFQYYUFG', 'Urbano Fashion\xa0Men Slim Mid Rise Black Jeans', 'https://www.flipkart.com/urbano-fashion-slim-men-black-jeans/p/itmf3vzvepvpz8by'], ['JEAFYQGSDHFVZNNV', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm0698668514d10'], [nan, nan, nan], ['ERGGYU8KWJFFXMGM', 'MEENAZ\xa0Fashion Multy jewellery Valentine Single Silver Platinum Black Blue Golden Surgical Plug Hoops Ear non piercing Studs stainless Steel Jewelry Style Stylish Fancy Party wear casual Gold Daily use simple Magnetic Pierced Round pressing Dumbell Multicolor press Bali Hoops Earrings Combo Set pack non pierced Ear rings Stud Tops Bali Mens Earing for Men / Boy / Boyfriend /Women / Boys / Girls / Gents / unisex / male / girls /women Pack Jewelry design-mens earrings combo-me46 Metal Earring Set', 'https://www.flipkart.com/meenaz-fashion-multy-jewellery-valentine-single-silver-platinum-black-blue-golden-surgical-plug-hoops-ear-non-piercing-studs-stainless-steel-jewelry-style-stylish-fancy-party-wear-casual-gold-daily-use-simple-magnetic-pierced-round-pressing-dumbell-multicolor-press-bali-earrings-combo-set-pack-rings-stud-tops-mens-earing-men-boy-boyfriend-women-boys-girls-gents-unisex-male-design-mens-combo-me46-metal-earring/p/itm743060b8a30d7'], ['SRWGE4QSHWQHZVUG', 'PSKS ETHNIC WEAR Embroidered SherwaniPSKS ETHNIC WEAR Embroidered Sherwani', 'https://www.flipkart.com/psks-ethnic-wear-embroidered-sherwani/p/itm84a9b50d056f4'], ['KTAGNYUGCYXCBGS6', 'Tarannum\xa0Women Printed Nylon Straight Kurta', 'https://www.flipkart.com/tarannum-women-printed-straight-kurta/p/itmd9f6c87633a8c'], ['SRWFJHJFEYZ22N9W', 'Honey Fashion Printed SherwaniHoney Fashion Printed Sherwani', 'https://www.flipkart.com/honey-fashion-printed-sherwani/p/itm96090abcef258'], ['SHOGZFNFCXHY7SZG', 'Zsyto\xa0Canvas Shoes For Men', 'https://www.flipkart.com/zsyto-canvas-shoes-men/p/itmbf278fa79b88f']]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>769203</t>
+          <t>962703</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Donald</t>
+          <t>Ruben</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Whitaker</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4961,22 +4961,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[['SHOGFYMCMEQTFQQ5', 'World Wear Footwear\xa0Trendy Stylish Comfortable &amp; Lightweight, Casual High Tops Sneakers Shoes Sneakers For Men', 'https://www.flipkart.com/world-wear-footwear-trendy-stylish-comfortable-lightweight-casual-high-tops-sneakers-shoes-men/p/itm98336ff1bad6e'], ['TROGFFFZFBHFBHJY', 'We Perfect\xa0Men Regular Fit Grey Lycra Blend Trousers', 'https://www.flipkart.com/perfect-regular-fit-men-grey-trousers/p/itm3ef4b4490b3c6'], [nan, nan, nan], ['KDEGN27KKZMHRDG5', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itm250caf77be719'], ['ETHGK7WN2R7ANPFZ', 'RAJ FASHIONS\xa0Women Viscose Rayon Kurta, Pant And Dupatta Set', 'https://www.flipkart.com/raj-fashions-women-kurta-pant-dupatta-set/p/itm1346d96f4a9d5'], ['SHTGGC23YZCURRFY', 'Feel high\xa0Men Regular Fit Solid Casual Shirt', 'https://www.flipkart.com/feel-high-men-solid-casual-white-black-shirt/p/itm6e6c0295ca543'], ['DREGGSSRBHXHFGZK', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itma0bde7c63cfd0'], ['DREGGSSRMBRUAGXJ', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-orange-dress/p/itm03aff933e4240'], ['ETHGEZXGZXEYHD4Q', 'Women Wish\xa0Women Viscose Rayon Kurta and Dupatta Set', 'https://dl.flipkart.com/dl/women-wish-kurta-dupatta-set/p/itm8e062f1954b79'], ['SHOGCG8VDZBYYGXA', 'bacca bucci\xa0Boots For Men', 'https://www.flipkart.com/bacca-bucci-boots-men/p/itm12db820666a23'], ['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['DREG9Z7GSKUXF44H', 'Nidhi Collection\xa0Women A-line Multicolor Dress', 'https://www.flipkart.com/nidhi-collection-women-a-line-multicolor-dress/p/itm317ebbb23704a'], ['SHTGHQPQQS2AGDQ5', 'Majestic Man\xa0Men Slim Fit Solid Formal Shirt', 'https://www.flipkart.com/majestic-man-men-solid-formal-light-green-shirt/p/itmfbc8a0d235f66'], ['SHTGAHWSTTQRKDKS', 'PETER ENGLAND\xa0Men Regular Fit Solid Formal Shirt', 'https://www.flipkart.com/peter-england-men-solid-formal-blue-shirt/p/itm9b2791f9585ea']]</t>
+          <t>[['ERGFM7EZ9HMCD63T', 'Divastri\xa0Traditional Peacock Bohemian Oxidised Jewellery Bridal Party Wear Stylish Antique Kashmiri Afghani Tribal Silver Oxidized earrings Wedding Fancy Moti Kundan Big Jhumka earing Jhumkas Ear rings for girls women latest designer Pearl, Crystal Stone, Copper, Brass Jhumki Earring', 'https://www.flipkart.com/divastri-traditional-peacock-bohemian-oxidised-jewellery-bridal-party-wear-stylish-antique-kashmiri-afghani-tribal-silver-oxidized-earrings-wedding-fancy-moti-kundan-big-jhumka-earing-jhumkas-ear-rings-girls-women-latest-designer-pearl-crystal-stone-copper-brass-jhumki-earring/p/itm9330647cc3593'], [nan, nan, nan], ['DREGACFYHG9MEHGJ', 'AREEBA FASHION\xa0Women Maxi Black Dress', 'https://www.flipkart.com/areeba-fashion-women-maxi-black-dress/p/itm06c6133921403'], ['SARFPCW88MX53GYF', 'Flip The Style\xa0Floral Print Bollywood Georgette, Chiffon Saree', 'https://www.flipkart.com/flip-style-floral-print-bollywood-georgette-chiffon-saree/p/itmef0a27a7050d3'], ['SHOEXTMBZFFCF898', 'RED CHIEF\xa0RC3508 022 High Tops For Men', 'https://www.flipkart.com/red-chief-rc3508-022-high-tops-men/p/itmfanshazarqrxs'], ['JEAGCNQUCFMSTHKV', 'MUFTI\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/mufti-skinny-men-grey-jeans/p/itm90eb58a441b97'], ['DREGACFYHG9MEHGJ', 'AREEBA FASHION\xa0Women Maxi Black Dress', 'https://www.flipkart.com/areeba-fashion-women-maxi-black-dress/p/itm06c6133921403'], ['ERGFYZ86XARHRFQN', 'MEENAZ\xa0Traditional South indian Temple Jewellery Stylish Fancy party wear Wedding Bridal Daily use Multicolor oxidised Matte Finish golden Peacock earrings jhumki Combo set jumkas small Stud Tops Meenakari Peacock Jhumka oxidised earing Combo set pack / Antique jhumkas multi ear rings for women girls Latest design New 6 earrings-JHUMKI COMBO-ME09 Beads, Pearl Alloy, Metal, Enamel, Crystal, Zinc Jhumki Earring', 'https://www.flipkart.com/meenaz-traditional-south-indian-temple-jewellery-stylish-fancy-party-wear-wedding-bridal-daily-use-multicolor-oxidised-matte-finish-golden-peacock-earrings-jhumki-combo-set-jumkas-small-stud-tops-meenakari-jhumka-earing-pack-antique-jhumkas-multi-ear-rings-women-girls-latest-design-new-6-earrings-jhumki-combo-me09-beads-pearl-alloy-metal-enamel-crystal-zinc-earring/p/itm8fbee90003bc8'], ['DREFKYEZT6M9GZXQ', 'Avirate\xa0Women Maxi Black Dress', 'https://www.flipkart.com/avirate-women-maxi-black-dress/p/itmd7b145eab4e84'], ['SGLG8W5CPBUYVJDX', 'Ted Smith\xa0UV Protection Aviator Sunglasses (52)', 'https://www.flipkart.com/ted-smith-aviator-sunglasses/p/itmf48d0976224ad'], ['DREFZRTWSFBSQBFY', 'famiss fashion\xa0Women Maxi Black Dress', 'https://www.flipkart.com/famiss-fashion-women-maxi-black-dress/p/itm5fc2b38ea81c0'], ['SHOG5GVFUPDTAYGC', 'Jogvy\xa0Shoes for Boys Men High Ankle Length Boots Casual &amp; Party Wear Sneakers Gents High Tops For Men', 'https://www.flipkart.com/jogvy-shoes-boys-men-high-ankle-length-boots-casual-party-wear-sneakers-gents-tops/p/itm3e14d2db18caa'], ['SHOGEABAZZXHPGGH', 'MOCHI\xa0Loafers For Men', 'https://www.flipkart.com/mochi-loafers-men/p/itm84a75faa5de50'], ['DREFSQSTFYSXN96D', 'MUDRIKA\xa0Women Maxi Black, Orange Dress', 'https://www.flipkart.com/mudrika-women-maxi-black-orange-dress/p/itm35e4122378371']]</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[['ETHGGYUQXGB6ZYGB', 'Women Wish\xa0Women Viscose Rayon Kurta, Pyjama &amp; Dupatta Set', 'https://www.flipkart.com/women-wish-kurta-pyjama-dupatta-set/p/itmf8e51d16898a9'], ['SHTGMPQ5ZFEY6Y2X', 'VTEXX\xa0Men Regular Fit Solid Spread Collar Formal Shirt', 'https://www.flipkart.com/vtexx-men-solid-formal-dark-green-shirt/p/itm608c788f02ed8'], ['DREGGSSRS6PYGNA3', 'Nidhi Collection\xa0Women A-line Orange Dress', 'https://dl.flipkart.com/dl/nidhi-collection-women-a-line-orange-dress/p/itm845406cd3aef2']]</t>
+          <t>[['SARGGZDNNNEQP5W5', 'Heerali\xa0Embellished Bollywood Lycra Blend Saree', 'https://www.flipkart.com/heerali-embellished-bollywood-lycra-blend-saree/p/itm072e1c02c5b7a'], ['JEAGHEYATGZRPZMY', 'WROGN\xa0Men Regular Mid Rise Grey Jeans', 'https://www.flipkart.com/wrogn-regular-men-grey-jeans/p/itm483a02e7b5e61'], ['JEAFYQGSDHFVZNNV', 'METRONAUT By Flipkart\xa0Men Skinny Mid Rise Grey Jeans', 'https://www.flipkart.com/metronaut-flipkart-skinny-men-grey-jeans/p/itm0698668514d10'], ['TOPGG9ZCXMZ4BFFQ', 'KASSUALLY\xa0Casual Sleeveless Striped Women Black Top', 'https://www.flipkart.com/kassually-casual-striped-women-black-top/p/itm875c2f10d5569'], ['TOPG9HBVHGG85NNR', 'KASSUALLY\xa0Casual Regular Sleeves Striped Women Green, White Top', 'https://www.flipkart.com/kassually-casual-striped-women-green-white-top/p/itmea363e00220c5'], ['STBGPYH3WUNH6EN9', 'ABYS\xa0Genuine Leather New Trendy Sling Bag Small Travel Bag', 'https://www.flipkart.com/abys-genuine-leather-new-trendy-sling-bag-small-travel/p/itme7006bac57c1f'], ['LCHGKQGDZJMBGCDG', 'BVESH\xa0Self Design Semi Stitched Lehenga Choli', 'https://www.flipkart.com/bvesh-self-design-semi-stitched-lehenga-choli/p/itma3a73f7ebf3db'], ['SARGGZDN6NMWZ8GV', 'Heerali\xa0Embellished Bollywood Lycra Blend Saree', 'https://www.flipkart.com/heerali-embellished-bollywood-lycra-blend-saree/p/itma3dc85fe11ad4'], [nan, nan, nan], ['SGLGE589JEKDUTPZ', 'FASHINITY\xa0UV Protection Aviator, Spectacle  Sunglasses (54)', 'https://www.flipkart.com/fashinity-aviator-spectacle-sunglasses/p/itm9e49a945cd0b1']]</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>[['KDEGN27KFMJXRCT4', 'Flip The Style\xa0Girls Midi/Knee Length Party Dress', 'https://www.flipkart.com/flip-style-girls-midi-knee-length-party-dress/p/itma921117b608b8'], [nan, nan, nan], ['ETHG9HUXNGHEUHT7', 'MYKUKI\xa0Women Lycra Blend Ethnic Jacket, Top and Pant', 'https://www.flipkart.com/mykuki-women-ethnic-jacket-top-pant/p/itmfc53439b2820a']]</t>
+          <t>[['SNDGCDNHPWFECSC2', 'KIRAVI\xa0Women White Casual Sandal', 'https://www.flipkart.com/kiravi-women-white-casual/p/itm93403d21dd2df'], ['DREGEFGH6JZAUAG6', 'KASSUALLY\xa0Women Maxi Black Dress', 'https://www.flipkart.com/kassually-women-maxi-black-dress/p/itmcd04e97dbe69f']]</t>
         </is>
       </c>
     </row>
